--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOG!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$V$342</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$W$342</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="79">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -278,16 +278,19 @@
     <t>Table 7.1.7 Exports of Goods</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
-  </si>
-  <si>
-    <t>Annual 2001 to 2020</t>
-  </si>
-  <si>
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>2020 - 2021</t>
+  </si>
+  <si>
+    <t>As of January 2022</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -373,7 +376,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -409,9 +412,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -717,26 +717,14 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="7.7265625" style="1"/>
+    <col min="2" max="23" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="7.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -751,7 +739,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -761,7 +749,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -794,6 +782,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -861,6 +850,9 @@
       </c>
       <c r="V10" s="6">
         <v>2020</v>
+      </c>
+      <c r="W10" s="6">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -933,7 +925,9 @@
       <c r="V12" s="8">
         <v>1532232.7781556607</v>
       </c>
-      <c r="W12" s="9"/>
+      <c r="W12" s="8">
+        <v>1749910.5817349574</v>
+      </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -1075,7 +1069,9 @@
       <c r="V13" s="11">
         <v>1062761.9446237115</v>
       </c>
-      <c r="W13" s="9"/>
+      <c r="W13" s="11">
+        <v>1202447.7572017629</v>
+      </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1217,7 +1213,9 @@
       <c r="V14" s="11">
         <v>167926.58608099609</v>
       </c>
-      <c r="W14" s="9"/>
+      <c r="W14" s="11">
+        <v>216482.8737614736</v>
+      </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1359,7 +1357,9 @@
       <c r="V15" s="11">
         <v>66063.891742801614</v>
       </c>
-      <c r="W15" s="9"/>
+      <c r="W15" s="11">
+        <v>78786.817928699165</v>
+      </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1501,7 +1501,9 @@
       <c r="V16" s="11">
         <v>56691.865285493463</v>
       </c>
-      <c r="W16" s="9"/>
+      <c r="W16" s="11">
+        <v>62328.019942585437</v>
+      </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1643,7 +1645,9 @@
       <c r="V17" s="11">
         <v>15532.741874270487</v>
       </c>
-      <c r="W17" s="9"/>
+      <c r="W17" s="11">
+        <v>31291.295618120072</v>
+      </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1785,7 +1789,9 @@
       <c r="V18" s="11">
         <v>30288.812304674648</v>
       </c>
-      <c r="W18" s="9"/>
+      <c r="W18" s="11">
+        <v>26022.805015814065</v>
+      </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1927,7 +1933,9 @@
       <c r="V19" s="11">
         <v>119837.79044304814</v>
       </c>
-      <c r="W19" s="9"/>
+      <c r="W19" s="11">
+        <v>122260.93104025409</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2069,7 +2077,9 @@
       <c r="V20" s="11">
         <v>4647.9005289786146</v>
       </c>
-      <c r="W20" s="9"/>
+      <c r="W20" s="11">
+        <v>5807.6284965495515</v>
+      </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2211,7 +2221,9 @@
       <c r="V21" s="11">
         <v>8481.2452716864191</v>
       </c>
-      <c r="W21" s="9"/>
+      <c r="W21" s="11">
+        <v>4482.4527296984388</v>
+      </c>
       <c r="X21" s="9"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
@@ -2353,7 +2365,9 @@
       <c r="V22" s="8">
         <v>215097.37698211166</v>
       </c>
-      <c r="W22" s="9"/>
+      <c r="W22" s="8">
+        <v>232515.19338764562</v>
+      </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2495,7 +2509,9 @@
       <c r="V23" s="11">
         <v>76145.193244841154</v>
       </c>
-      <c r="W23" s="9"/>
+      <c r="W23" s="11">
+        <v>51709.548105790542</v>
+      </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2637,7 +2653,9 @@
       <c r="V24" s="11">
         <v>41298.915453652058</v>
       </c>
-      <c r="W24" s="9"/>
+      <c r="W24" s="11">
+        <v>65395.975463557872</v>
+      </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2779,7 +2797,9 @@
       <c r="V25" s="11">
         <v>1901.5250827350987</v>
       </c>
-      <c r="W25" s="9"/>
+      <c r="W25" s="11">
+        <v>3043.9820626543192</v>
+      </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2921,7 +2941,9 @@
       <c r="V26" s="11">
         <v>11974.564773224763</v>
       </c>
-      <c r="W26" s="9"/>
+      <c r="W26" s="11">
+        <v>17953.607213485564</v>
+      </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3063,7 +3085,9 @@
       <c r="V27" s="11">
         <v>4810.1554823207925</v>
       </c>
-      <c r="W27" s="9"/>
+      <c r="W27" s="11">
+        <v>4055.6845780520412</v>
+      </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3205,7 +3229,9 @@
       <c r="V28" s="11">
         <v>31325.405216108553</v>
       </c>
-      <c r="W28" s="9"/>
+      <c r="W28" s="11">
+        <v>35539.29463167581</v>
+      </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3347,7 +3373,9 @@
       <c r="V29" s="11">
         <v>3353.3109405764317</v>
       </c>
-      <c r="W29" s="9"/>
+      <c r="W29" s="11">
+        <v>2746.4224716115596</v>
+      </c>
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
@@ -3489,7 +3517,9 @@
       <c r="V30" s="11">
         <v>44288.306788652801</v>
       </c>
-      <c r="W30" s="9"/>
+      <c r="W30" s="11">
+        <v>52070.67886081789</v>
+      </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -3631,7 +3661,9 @@
       <c r="V31" s="8">
         <v>30934.711553361063</v>
       </c>
-      <c r="W31" s="9"/>
+      <c r="W31" s="8">
+        <v>30520.654200808625</v>
+      </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -3773,7 +3805,9 @@
       <c r="V32" s="11">
         <v>10024.11804357204</v>
       </c>
-      <c r="W32" s="9"/>
+      <c r="W32" s="11">
+        <v>13643.068851538439</v>
+      </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -3915,7 +3949,9 @@
       <c r="V33" s="11">
         <v>20910.593509789021</v>
       </c>
-      <c r="W33" s="9"/>
+      <c r="W33" s="11">
+        <v>16877.585349270186</v>
+      </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4057,7 +4093,9 @@
       <c r="V34" s="11">
         <v>30246.958487362448</v>
       </c>
-      <c r="W34" s="9"/>
+      <c r="W34" s="11">
+        <v>34990.477113839093</v>
+      </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4199,7 +4237,9 @@
       <c r="V35" s="11">
         <v>66689.808172213598</v>
       </c>
-      <c r="W35" s="9"/>
+      <c r="W35" s="11">
+        <v>93004.633173067676</v>
+      </c>
       <c r="X35" s="9"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
@@ -4341,7 +4381,9 @@
       <c r="V36" s="11">
         <v>86744.778055354021</v>
       </c>
-      <c r="W36" s="9"/>
+      <c r="W36" s="11">
+        <v>105479.40061639888</v>
+      </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -4483,7 +4525,9 @@
       <c r="V37" s="11">
         <v>71828.205325159419</v>
       </c>
-      <c r="W37" s="9"/>
+      <c r="W37" s="11">
+        <v>79017.455712352938</v>
+      </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4625,7 +4669,9 @@
       <c r="V38" s="11">
         <v>8254.4962155069152</v>
       </c>
-      <c r="W38" s="9"/>
+      <c r="W38" s="11">
+        <v>250.52604008944274</v>
+      </c>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
@@ -4767,7 +4813,9 @@
       <c r="V39" s="11">
         <v>103817.29703379123</v>
       </c>
-      <c r="W39" s="9"/>
+      <c r="W39" s="11">
+        <v>107392.38732972764</v>
+      </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -4909,7 +4957,9 @@
       <c r="V40" s="11">
         <v>54944.70678299827</v>
       </c>
-      <c r="W40" s="9"/>
+      <c r="W40" s="11">
+        <v>76426.210122282311</v>
+      </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -5051,7 +5101,9 @@
       <c r="V41" s="11">
         <v>14992.732477948612</v>
       </c>
-      <c r="W41" s="9"/>
+      <c r="W41" s="11">
+        <v>14881.673488309887</v>
+      </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5193,7 +5245,9 @@
       <c r="V42" s="11">
         <v>32358.92418817681</v>
       </c>
-      <c r="W42" s="9"/>
+      <c r="W42" s="11">
+        <v>40966.629457633084</v>
+      </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -5335,7 +5389,9 @@
       <c r="V43" s="11">
         <v>303745.63502687786</v>
       </c>
-      <c r="W43" s="9"/>
+      <c r="W43" s="11">
+        <v>350423.9712757009</v>
+      </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -5432,7 +5488,7 @@
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
-      <c r="W44" s="9"/>
+      <c r="W44" s="8"/>
       <c r="X44" s="9"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
@@ -5574,7 +5630,9 @@
       <c r="V45" s="8">
         <v>2551888.408456522</v>
       </c>
-      <c r="W45" s="9"/>
+      <c r="W45" s="8">
+        <v>2915779.7936528134</v>
+      </c>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -5672,6 +5730,7 @@
       <c r="T46" s="13"/>
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
@@ -5700,7 +5759,7 @@
       <c r="T48" s="15"/>
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
-      <c r="W48" s="9"/>
+      <c r="W48" s="15"/>
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
@@ -5884,7 +5943,7 @@
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.25">
@@ -5894,7 +5953,7 @@
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.25">
@@ -5927,6 +5986,7 @@
       <c r="T58" s="16"/>
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
     </row>
     <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -5994,6 +6054,9 @@
       </c>
       <c r="V59" s="17">
         <v>2020</v>
+      </c>
+      <c r="W59" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="60" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6066,7 +6129,9 @@
       <c r="V61" s="8">
         <v>1711289.1280834088</v>
       </c>
-      <c r="W61" s="9"/>
+      <c r="W61" s="8">
+        <v>1986747.7296169992</v>
+      </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6208,7 +6273,9 @@
       <c r="V62" s="11">
         <v>1202881.6765422062</v>
       </c>
-      <c r="W62" s="9"/>
+      <c r="W62" s="11">
+        <v>1386376.4838569302</v>
+      </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6350,7 +6417,9 @@
       <c r="V63" s="11">
         <v>190979.58683094603</v>
       </c>
-      <c r="W63" s="9"/>
+      <c r="W63" s="11">
+        <v>250955.58533508325</v>
+      </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6492,7 +6561,9 @@
       <c r="V64" s="11">
         <v>71380.988023566795</v>
       </c>
-      <c r="W64" s="9"/>
+      <c r="W64" s="11">
+        <v>83097.778128472099</v>
+      </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6634,7 +6705,9 @@
       <c r="V65" s="11">
         <v>55632.291229143462</v>
       </c>
-      <c r="W65" s="9"/>
+      <c r="W65" s="11">
+        <v>61521.382115801825</v>
+      </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6776,7 +6849,9 @@
       <c r="V66" s="11">
         <v>15944.718532535651</v>
       </c>
-      <c r="W66" s="9"/>
+      <c r="W66" s="11">
+        <v>34001.537564505401</v>
+      </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -6918,7 +6993,9 @@
       <c r="V67" s="11">
         <v>30860.661446945422</v>
       </c>
-      <c r="W67" s="9"/>
+      <c r="W67" s="11">
+        <v>25390.229928263892</v>
+      </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -7060,7 +7137,9 @@
       <c r="V68" s="11">
         <v>130631.80261460665</v>
       </c>
-      <c r="W68" s="9"/>
+      <c r="W68" s="11">
+        <v>135756.11110565107</v>
+      </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -7202,7 +7281,9 @@
       <c r="V69" s="11">
         <v>4111.7967845953008</v>
       </c>
-      <c r="W69" s="9"/>
+      <c r="W69" s="11">
+        <v>5046.47549259678</v>
+      </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -7344,7 +7425,9 @@
       <c r="V70" s="11">
         <v>8865.6060788628147</v>
       </c>
-      <c r="W70" s="9"/>
+      <c r="W70" s="11">
+        <v>4602.1460896943981</v>
+      </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -7486,7 +7569,9 @@
       <c r="V71" s="8">
         <v>200719.84828295937</v>
       </c>
-      <c r="W71" s="9"/>
+      <c r="W71" s="8">
+        <v>201073.31373300246</v>
+      </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -7628,7 +7713,9 @@
       <c r="V72" s="11">
         <v>58671.751358511603</v>
       </c>
-      <c r="W72" s="9"/>
+      <c r="W72" s="11">
+        <v>41160.816975872767</v>
+      </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -7770,7 +7857,9 @@
       <c r="V73" s="11">
         <v>42546.284330421055</v>
       </c>
-      <c r="W73" s="9"/>
+      <c r="W73" s="11">
+        <v>53338.73648543717</v>
+      </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -7912,7 +8001,9 @@
       <c r="V74" s="11">
         <v>1706.5173102510939</v>
       </c>
-      <c r="W74" s="9"/>
+      <c r="W74" s="11">
+        <v>2312.4157448353426</v>
+      </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -8054,7 +8145,9 @@
       <c r="V75" s="11">
         <v>13797.34149923849</v>
       </c>
-      <c r="W75" s="9"/>
+      <c r="W75" s="11">
+        <v>19280.878895219656</v>
+      </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -8196,7 +8289,9 @@
       <c r="V76" s="11">
         <v>4706.3128763398581</v>
       </c>
-      <c r="W76" s="9"/>
+      <c r="W76" s="11">
+        <v>4008.2898942933898</v>
+      </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -8338,7 +8433,9 @@
       <c r="V77" s="11">
         <v>27451.265983660815</v>
       </c>
-      <c r="W77" s="9"/>
+      <c r="W77" s="11">
+        <v>30114.710702159035</v>
+      </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -8480,7 +8577,9 @@
       <c r="V78" s="11">
         <v>3232.1147654510942</v>
       </c>
-      <c r="W78" s="9"/>
+      <c r="W78" s="11">
+        <v>2364.4005996439209</v>
+      </c>
       <c r="X78" s="9"/>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
@@ -8622,7 +8721,9 @@
       <c r="V79" s="11">
         <v>48608.260159085366</v>
       </c>
-      <c r="W79" s="9"/>
+      <c r="W79" s="11">
+        <v>48493.064435541208</v>
+      </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -8764,7 +8865,9 @@
       <c r="V80" s="8">
         <v>30291.247602821255</v>
       </c>
-      <c r="W80" s="9"/>
+      <c r="W80" s="8">
+        <v>26245.323773278025</v>
+      </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -8906,7 +9009,9 @@
       <c r="V81" s="11">
         <v>9455.6623680039338</v>
       </c>
-      <c r="W81" s="9"/>
+      <c r="W81" s="11">
+        <v>11170.209159077656</v>
+      </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
@@ -9048,7 +9153,9 @@
       <c r="V82" s="11">
         <v>20835.585234817321</v>
       </c>
-      <c r="W82" s="9"/>
+      <c r="W82" s="11">
+        <v>15075.114614200369</v>
+      </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
@@ -9190,7 +9297,9 @@
       <c r="V83" s="11">
         <v>34375.050725332236</v>
       </c>
-      <c r="W83" s="9"/>
+      <c r="W83" s="11">
+        <v>39975.188116513309</v>
+      </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
@@ -9332,7 +9441,9 @@
       <c r="V84" s="11">
         <v>73888.521764204605</v>
       </c>
-      <c r="W84" s="9"/>
+      <c r="W84" s="11">
+        <v>68256.495435681572</v>
+      </c>
       <c r="X84" s="9"/>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
@@ -9474,7 +9585,9 @@
       <c r="V85" s="11">
         <v>91213.230950656085</v>
       </c>
-      <c r="W85" s="9"/>
+      <c r="W85" s="11">
+        <v>99492.427828632441</v>
+      </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -9616,7 +9729,9 @@
       <c r="V86" s="11">
         <v>84466.182449729866</v>
       </c>
-      <c r="W86" s="9"/>
+      <c r="W86" s="11">
+        <v>70524.793525404806</v>
+      </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
@@ -9758,7 +9873,9 @@
       <c r="V87" s="11">
         <v>16849.508509384919</v>
       </c>
-      <c r="W87" s="9"/>
+      <c r="W87" s="11">
+        <v>348.70738810815874</v>
+      </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -9900,7 +10017,9 @@
       <c r="V88" s="11">
         <v>124540.27438779215</v>
       </c>
-      <c r="W88" s="9"/>
+      <c r="W88" s="11">
+        <v>130717.00470169159</v>
+      </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -10042,7 +10161,9 @@
       <c r="V89" s="11">
         <v>70845.135729080546</v>
       </c>
-      <c r="W89" s="9"/>
+      <c r="W89" s="11">
+        <v>84226.981655472337</v>
+      </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
@@ -10184,7 +10305,9 @@
       <c r="V90" s="11">
         <v>17838.633021871014</v>
       </c>
-      <c r="W90" s="9"/>
+      <c r="W90" s="11">
+        <v>18202.428616159516</v>
+      </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -10326,7 +10449,9 @@
       <c r="V91" s="11">
         <v>38197.37554779624</v>
       </c>
-      <c r="W91" s="9"/>
+      <c r="W91" s="11">
+        <v>45201.456693857588</v>
+      </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -10468,7 +10593,9 @@
       <c r="V92" s="11">
         <v>354763.15602224733</v>
       </c>
-      <c r="W92" s="9"/>
+      <c r="W92" s="11">
+        <v>409329.705984956</v>
+      </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -10565,7 +10692,7 @@
       <c r="T93" s="8"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
-      <c r="W93" s="9"/>
+      <c r="W93" s="8"/>
       <c r="X93" s="9"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
@@ -10707,7 +10834,9 @@
       <c r="V94" s="8">
         <v>2849277.293077284</v>
       </c>
-      <c r="W94" s="9"/>
+      <c r="W94" s="8">
+        <v>3180341.557069757</v>
+      </c>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -10805,6 +10934,7 @@
       <c r="T95" s="13"/>
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
     </row>
     <row r="96" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
@@ -11017,7 +11147,7 @@
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:96" x14ac:dyDescent="0.25">
@@ -11027,7 +11157,7 @@
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
@@ -11059,6 +11189,8 @@
       <c r="S107" s="16"/>
       <c r="T107" s="16"/>
       <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
     </row>
     <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
@@ -11122,8 +11254,12 @@
         <v>40</v>
       </c>
       <c r="U108" s="17" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="V108" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W108" s="17"/>
     </row>
     <row r="109" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
@@ -11192,7 +11328,10 @@
       <c r="U110" s="18">
         <v>-8.6721342505160948</v>
       </c>
-      <c r="W110" s="9"/>
+      <c r="V110" s="18">
+        <v>14.206575311703887</v>
+      </c>
+      <c r="W110" s="18"/>
       <c r="X110" s="9"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
@@ -11326,7 +11465,10 @@
       <c r="U111" s="18">
         <v>-8.3710309997742911</v>
       </c>
-      <c r="W111" s="9"/>
+      <c r="V111" s="18">
+        <v>13.143659620547425</v>
+      </c>
+      <c r="W111" s="18"/>
       <c r="X111" s="9"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
@@ -11460,7 +11602,10 @@
       <c r="U112" s="18">
         <v>-20.290809467140463</v>
       </c>
-      <c r="W112" s="9"/>
+      <c r="V112" s="18">
+        <v>28.915187769646764</v>
+      </c>
+      <c r="W112" s="18"/>
       <c r="X112" s="9"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
@@ -11594,7 +11739,10 @@
       <c r="U113" s="18">
         <v>-22.215958009801696</v>
       </c>
-      <c r="W113" s="9"/>
+      <c r="V113" s="18">
+        <v>19.258517550601084</v>
+      </c>
+      <c r="W113" s="18"/>
       <c r="X113" s="9"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
@@ -11728,7 +11876,10 @@
       <c r="U114" s="18">
         <v>6.3915691226624318</v>
       </c>
-      <c r="W114" s="9"/>
+      <c r="V114" s="18">
+        <v>9.9417343717815214</v>
+      </c>
+      <c r="W114" s="18"/>
       <c r="X114" s="9"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
@@ -11862,7 +12013,10 @@
       <c r="U115" s="18">
         <v>-52.053506770689552</v>
       </c>
-      <c r="W115" s="9"/>
+      <c r="V115" s="18">
+        <v>101.45377983750024</v>
+      </c>
+      <c r="W115" s="18"/>
       <c r="X115" s="9"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
@@ -11996,7 +12150,10 @@
       <c r="U116" s="18">
         <v>-34.327848403541196</v>
       </c>
-      <c r="W116" s="9"/>
+      <c r="V116" s="18">
+        <v>-14.08443238364346</v>
+      </c>
+      <c r="W116" s="18"/>
       <c r="X116" s="9"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
@@ -12130,7 +12287,10 @@
       <c r="U117" s="18">
         <v>51.342497514840659</v>
       </c>
-      <c r="W117" s="9"/>
+      <c r="V117" s="18">
+        <v>2.0220170851343653</v>
+      </c>
+      <c r="W117" s="18"/>
       <c r="X117" s="9"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
@@ -12264,7 +12424,10 @@
       <c r="U118" s="18">
         <v>36.390049018072631</v>
       </c>
-      <c r="W118" s="9"/>
+      <c r="V118" s="18">
+        <v>24.951652048926036</v>
+      </c>
+      <c r="W118" s="18"/>
       <c r="X118" s="9"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
@@ -12398,7 +12561,10 @@
       <c r="U119" s="18">
         <v>7.7236910134451477</v>
       </c>
-      <c r="W119" s="9"/>
+      <c r="V119" s="18">
+        <v>-47.148648740739183</v>
+      </c>
+      <c r="W119" s="18"/>
       <c r="X119" s="9"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
@@ -12532,7 +12698,10 @@
       <c r="U120" s="18">
         <v>-12.55397054424482</v>
       </c>
-      <c r="W120" s="9"/>
+      <c r="V120" s="18">
+        <v>8.0976424026697913</v>
+      </c>
+      <c r="W120" s="18"/>
       <c r="X120" s="9"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
@@ -12666,7 +12835,10 @@
       <c r="U121" s="18">
         <v>-21.628390642015148</v>
       </c>
-      <c r="W121" s="9"/>
+      <c r="V121" s="18">
+        <v>-32.090857082047179</v>
+      </c>
+      <c r="W121" s="18"/>
       <c r="X121" s="9"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
@@ -12800,7 +12972,10 @@
       <c r="U122" s="18">
         <v>-10.786359759604153</v>
       </c>
-      <c r="W122" s="9"/>
+      <c r="V122" s="18">
+        <v>58.347924504092305</v>
+      </c>
+      <c r="W122" s="18"/>
       <c r="X122" s="9"/>
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
@@ -12934,7 +13109,10 @@
       <c r="U123" s="18">
         <v>-37.097664826065071</v>
       </c>
-      <c r="W123" s="9"/>
+      <c r="V123" s="18">
+        <v>60.081089136933343</v>
+      </c>
+      <c r="W123" s="18"/>
       <c r="X123" s="9"/>
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
@@ -13068,7 +13246,10 @@
       <c r="U124" s="18">
         <v>-4.4630660092150691</v>
       </c>
-      <c r="W124" s="9"/>
+      <c r="V124" s="18">
+        <v>49.931187926178268</v>
+      </c>
+      <c r="W124" s="18"/>
       <c r="X124" s="9"/>
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
@@ -13202,7 +13383,10 @@
       <c r="U125" s="18">
         <v>-27.740881239713914</v>
       </c>
-      <c r="W125" s="9"/>
+      <c r="V125" s="18">
+        <v>-15.684958771950889</v>
+      </c>
+      <c r="W125" s="18"/>
       <c r="X125" s="9"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
@@ -13336,7 +13520,10 @@
       <c r="U126" s="18">
         <v>3.2609603488516541</v>
       </c>
-      <c r="W126" s="9"/>
+      <c r="V126" s="18">
+        <v>13.451986930404772</v>
+      </c>
+      <c r="W126" s="18"/>
       <c r="X126" s="9"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
@@ -13440,7 +13627,7 @@
       <c r="K127" s="18">
         <v>-58.240794856808876</v>
       </c>
-      <c r="L127" s="19" t="s">
+      <c r="L127" s="18" t="s">
         <v>65</v>
       </c>
       <c r="M127" s="18">
@@ -13470,7 +13657,10 @@
       <c r="U127" s="18">
         <v>33.068901498133584</v>
       </c>
-      <c r="W127" s="9"/>
+      <c r="V127" s="18">
+        <v>-18.09818653025205</v>
+      </c>
+      <c r="W127" s="18"/>
       <c r="X127" s="9"/>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
@@ -13604,7 +13794,10 @@
       <c r="U128" s="18">
         <v>-6.6751898204199165</v>
       </c>
-      <c r="W128" s="9"/>
+      <c r="V128" s="18">
+        <v>17.572069551683626</v>
+      </c>
+      <c r="W128" s="18"/>
       <c r="X128" s="9"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
@@ -13738,7 +13931,10 @@
       <c r="U129" s="18">
         <v>-11.395635976893075</v>
       </c>
-      <c r="W129" s="9"/>
+      <c r="V129" s="18">
+        <v>-1.3384878402315366</v>
+      </c>
+      <c r="W129" s="18"/>
       <c r="X129" s="9"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
@@ -13872,7 +14068,10 @@
       <c r="U130" s="18">
         <v>-25.509865841799865</v>
       </c>
-      <c r="W130" s="9"/>
+      <c r="V130" s="18">
+        <v>36.102436067051798</v>
+      </c>
+      <c r="W130" s="18"/>
       <c r="X130" s="9"/>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
@@ -14006,7 +14205,10 @@
       <c r="U131" s="18">
         <v>-2.5434781172648258</v>
       </c>
-      <c r="W131" s="9"/>
+      <c r="V131" s="18">
+        <v>-19.286913872773795</v>
+      </c>
+      <c r="W131" s="18"/>
       <c r="X131" s="9"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
@@ -14140,7 +14342,10 @@
       <c r="U132" s="18">
         <v>-30.017110927088893</v>
       </c>
-      <c r="W132" s="9"/>
+      <c r="V132" s="18">
+        <v>15.682630134393662</v>
+      </c>
+      <c r="W132" s="18"/>
       <c r="X132" s="9"/>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
@@ -14274,7 +14479,10 @@
       <c r="U133" s="18">
         <v>5.8052716179398374</v>
       </c>
-      <c r="W133" s="9"/>
+      <c r="V133" s="18">
+        <v>39.458540550755686</v>
+      </c>
+      <c r="W133" s="18"/>
       <c r="X133" s="9"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
@@ -14408,7 +14616,10 @@
       <c r="U134" s="18">
         <v>-24.440151288104346</v>
       </c>
-      <c r="W134" s="9"/>
+      <c r="V134" s="18">
+        <v>21.597406761580302</v>
+      </c>
+      <c r="W134" s="18"/>
       <c r="X134" s="9"/>
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
@@ -14542,7 +14753,10 @@
       <c r="U135" s="18">
         <v>-19.033433747683347</v>
       </c>
-      <c r="W135" s="9"/>
+      <c r="V135" s="18">
+        <v>10.00895171283824</v>
+      </c>
+      <c r="W135" s="18"/>
       <c r="X135" s="9"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
@@ -14676,7 +14890,10 @@
       <c r="U136" s="18">
         <v>-27.242749796255978</v>
       </c>
-      <c r="W136" s="9"/>
+      <c r="V136" s="18">
+        <v>-96.964974802231978</v>
+      </c>
+      <c r="W136" s="18"/>
       <c r="X136" s="9"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
@@ -14810,7 +15027,10 @@
       <c r="U137" s="18">
         <v>-25.607847793680733</v>
       </c>
-      <c r="W137" s="9"/>
+      <c r="V137" s="18">
+        <v>3.4436364633658059</v>
+      </c>
+      <c r="W137" s="18"/>
       <c r="X137" s="9"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
@@ -14944,7 +15164,10 @@
       <c r="U138" s="18">
         <v>-16.42250355832337</v>
       </c>
-      <c r="W138" s="9"/>
+      <c r="V138" s="18">
+        <v>39.096583814932899</v>
+      </c>
+      <c r="W138" s="18"/>
       <c r="X138" s="9"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
@@ -15078,7 +15301,10 @@
       <c r="U139" s="18">
         <v>-16.302264368037655</v>
       </c>
-      <c r="W139" s="9"/>
+      <c r="V139" s="18">
+        <v>-0.74075215976854736</v>
+      </c>
+      <c r="W139" s="18"/>
       <c r="X139" s="9"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
@@ -15212,7 +15438,10 @@
       <c r="U140" s="18">
         <v>-19.858034840518641</v>
       </c>
-      <c r="W140" s="9"/>
+      <c r="V140" s="18">
+        <v>26.60071521352161</v>
+      </c>
+      <c r="W140" s="18"/>
       <c r="X140" s="9"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
@@ -15346,7 +15575,10 @@
       <c r="U141" s="18">
         <v>-23.732079663561663</v>
       </c>
-      <c r="W141" s="9"/>
+      <c r="V141" s="18">
+        <v>15.367574333929952</v>
+      </c>
+      <c r="W141" s="18"/>
       <c r="X141" s="9"/>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
@@ -15437,6 +15669,7 @@
       <c r="S142" s="9"/>
       <c r="T142" s="9"/>
       <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
       <c r="W142" s="9"/>
       <c r="X142" s="9"/>
       <c r="Y142" s="9"/>
@@ -15571,7 +15804,10 @@
       <c r="U143" s="18">
         <v>-13.247613875477512</v>
       </c>
-      <c r="W143" s="9"/>
+      <c r="V143" s="18">
+        <v>14.259690352854676</v>
+      </c>
+      <c r="W143" s="18"/>
       <c r="X143" s="9"/>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
@@ -15663,9 +15899,11 @@
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
       <c r="U144" s="13"/>
+      <c r="V144" s="13"/>
+      <c r="W144" s="13"/>
     </row>
     <row r="145" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A145" s="20" t="s">
+      <c r="A145" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15693,6 +15931,7 @@
       <c r="S146" s="9"/>
       <c r="T146" s="9"/>
       <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
       <c r="W146" s="9"/>
       <c r="X146" s="9"/>
       <c r="Y146" s="9"/>
@@ -15784,6 +16023,7 @@
       <c r="S147" s="9"/>
       <c r="T147" s="9"/>
       <c r="U147" s="9"/>
+      <c r="V147" s="9"/>
       <c r="W147" s="9"/>
       <c r="X147" s="9"/>
       <c r="Y147" s="9"/>
@@ -15867,7 +16107,7 @@
     </row>
     <row r="150" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:92" x14ac:dyDescent="0.25">
@@ -15877,7 +16117,7 @@
     </row>
     <row r="153" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.25">
@@ -15909,6 +16149,8 @@
       <c r="S156" s="16"/>
       <c r="T156" s="16"/>
       <c r="U156" s="16"/>
+      <c r="V156" s="16"/>
+      <c r="W156" s="16"/>
     </row>
     <row r="157" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
@@ -15972,8 +16214,12 @@
         <v>40</v>
       </c>
       <c r="U157" s="17" t="s">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="V157" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="W157" s="17"/>
     </row>
     <row r="158" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
@@ -16042,7 +16288,10 @@
       <c r="U159" s="18">
         <v>-2.9698060882001869</v>
       </c>
-      <c r="W159" s="9"/>
+      <c r="V159" s="18">
+        <v>16.096555340247832</v>
+      </c>
+      <c r="W159" s="18"/>
       <c r="X159" s="9"/>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
@@ -16176,7 +16425,10 @@
       <c r="U160" s="18">
         <v>-2.6220250473295437</v>
       </c>
-      <c r="W160" s="9"/>
+      <c r="V160" s="18">
+        <v>15.254601586599662</v>
+      </c>
+      <c r="W160" s="18"/>
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
@@ -16310,7 +16562,10 @@
       <c r="U161" s="18">
         <v>-13.28937215158021</v>
       </c>
-      <c r="W161" s="9"/>
+      <c r="V161" s="18">
+        <v>31.404402690025506</v>
+      </c>
+      <c r="W161" s="18"/>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
@@ -16444,7 +16699,10 @@
       <c r="U162" s="18">
         <v>-18.224782050742476</v>
       </c>
-      <c r="W162" s="9"/>
+      <c r="V162" s="18">
+        <v>16.414440916728353</v>
+      </c>
+      <c r="W162" s="18"/>
       <c r="X162" s="9"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
@@ -16578,7 +16836,10 @@
       <c r="U163" s="18">
         <v>6.1620266715334679</v>
       </c>
-      <c r="W163" s="9"/>
+      <c r="V163" s="18">
+        <v>10.585742123044724</v>
+      </c>
+      <c r="W163" s="18"/>
       <c r="X163" s="9"/>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
@@ -16712,7 +16973,10 @@
       <c r="U164" s="18">
         <v>-52.31028083115087</v>
       </c>
-      <c r="W164" s="9"/>
+      <c r="V164" s="18">
+        <v>113.24639563328947</v>
+      </c>
+      <c r="W164" s="18"/>
       <c r="X164" s="9"/>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
@@ -16846,7 +17110,10 @@
       <c r="U165" s="18">
         <v>-33.542543131363374</v>
       </c>
-      <c r="W165" s="9"/>
+      <c r="V165" s="18">
+        <v>-17.726228998967201</v>
+      </c>
+      <c r="W165" s="18"/>
       <c r="X165" s="9"/>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
@@ -16980,7 +17247,10 @@
       <c r="U166" s="18">
         <v>68.615665299481691</v>
       </c>
-      <c r="W166" s="9"/>
+      <c r="V166" s="18">
+        <v>3.9227113064973054</v>
+      </c>
+      <c r="W166" s="18"/>
       <c r="X166" s="9"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
@@ -17114,7 +17384,10 @@
       <c r="U167" s="18">
         <v>31.937857589595467</v>
       </c>
-      <c r="W167" s="9"/>
+      <c r="V167" s="18">
+        <v>22.731636726387336</v>
+      </c>
+      <c r="W167" s="18"/>
       <c r="X167" s="9"/>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
@@ -17248,7 +17521,10 @@
       <c r="U168" s="18">
         <v>10.911064984164057</v>
       </c>
-      <c r="W168" s="9"/>
+      <c r="V168" s="18">
+        <v>-48.089887496053599</v>
+      </c>
+      <c r="W168" s="18"/>
       <c r="X168" s="9"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
@@ -17382,7 +17658,10 @@
       <c r="U169" s="18">
         <v>-18.338576872333348</v>
       </c>
-      <c r="W169" s="9"/>
+      <c r="V169" s="18">
+        <v>0.17609890255836547</v>
+      </c>
+      <c r="W169" s="18"/>
       <c r="X169" s="9"/>
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
@@ -17516,7 +17795,10 @@
       <c r="U170" s="18">
         <v>-28.295181489624326</v>
       </c>
-      <c r="W170" s="9"/>
+      <c r="V170" s="18">
+        <v>-29.845596862515507</v>
+      </c>
+      <c r="W170" s="18"/>
       <c r="X170" s="9"/>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
@@ -17650,7 +17932,10 @@
       <c r="U171" s="18">
         <v>-26.226027667224699</v>
       </c>
-      <c r="W171" s="9"/>
+      <c r="V171" s="18">
+        <v>25.366379990318904</v>
+      </c>
+      <c r="W171" s="18"/>
       <c r="X171" s="9"/>
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
@@ -17784,7 +18069,10 @@
       <c r="U172" s="18">
         <v>-52.908687198125001</v>
       </c>
-      <c r="W172" s="9"/>
+      <c r="V172" s="18">
+        <v>35.504968566366188</v>
+      </c>
+      <c r="W172" s="18"/>
       <c r="X172" s="9"/>
       <c r="Y172" s="9"/>
       <c r="Z172" s="9"/>
@@ -17918,7 +18206,10 @@
       <c r="U173" s="18">
         <v>-11.681085432928555</v>
       </c>
-      <c r="W173" s="9"/>
+      <c r="V173" s="18">
+        <v>39.743434605020241</v>
+      </c>
+      <c r="W173" s="18"/>
       <c r="X173" s="9"/>
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
@@ -18052,7 +18343,10 @@
       <c r="U174" s="18">
         <v>-29.181590512563503</v>
       </c>
-      <c r="W174" s="9"/>
+      <c r="V174" s="18">
+        <v>-14.831631478554115</v>
+      </c>
+      <c r="W174" s="18"/>
       <c r="X174" s="9"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
@@ -18186,7 +18480,10 @@
       <c r="U175" s="18">
         <v>1.0658523441246217</v>
       </c>
-      <c r="W175" s="9"/>
+      <c r="V175" s="18">
+        <v>9.7024476761236542</v>
+      </c>
+      <c r="W175" s="18"/>
       <c r="X175" s="9"/>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
@@ -18290,7 +18587,7 @@
       <c r="K176" s="18">
         <v>-64.39688715953308</v>
       </c>
-      <c r="L176" s="19" t="s">
+      <c r="L176" s="18" t="s">
         <v>65</v>
       </c>
       <c r="M176" s="18">
@@ -18320,7 +18617,10 @@
       <c r="U176" s="18">
         <v>29.990240564866809</v>
       </c>
-      <c r="W176" s="9"/>
+      <c r="V176" s="18">
+        <v>-26.846638463534561</v>
+      </c>
+      <c r="W176" s="18"/>
       <c r="X176" s="9"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
@@ -18454,7 +18754,10 @@
       <c r="U177" s="18">
         <v>-4.2394787519171615</v>
       </c>
-      <c r="W177" s="9"/>
+      <c r="V177" s="18">
+        <v>-0.23698795876903489</v>
+      </c>
+      <c r="W177" s="18"/>
       <c r="X177" s="9"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
@@ -18588,7 +18891,10 @@
       <c r="U178" s="18">
         <v>-7.0845528791486743</v>
       </c>
-      <c r="W178" s="9"/>
+      <c r="V178" s="18">
+        <v>-13.356742127605216</v>
+      </c>
+      <c r="W178" s="18"/>
       <c r="X178" s="9"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
@@ -18722,7 +19028,10 @@
       <c r="U179" s="18">
         <v>-22.319837440796121</v>
       </c>
-      <c r="W179" s="9"/>
+      <c r="V179" s="18">
+        <v>18.132487438166194</v>
+      </c>
+      <c r="W179" s="18"/>
       <c r="X179" s="9"/>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
@@ -18856,7 +19165,10 @@
       <c r="U180" s="18">
         <v>1.9936487933601938</v>
       </c>
-      <c r="W180" s="9"/>
+      <c r="V180" s="18">
+        <v>-27.647270550341503</v>
+      </c>
+      <c r="W180" s="18"/>
       <c r="X180" s="9"/>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
@@ -18990,7 +19302,10 @@
       <c r="U181" s="18">
         <v>-25.749279680996082</v>
       </c>
-      <c r="W181" s="9"/>
+      <c r="V181" s="18">
+        <v>16.291284734175321</v>
+      </c>
+      <c r="W181" s="18"/>
       <c r="X181" s="9"/>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
@@ -19124,7 +19439,10 @@
       <c r="U182" s="18">
         <v>4.1933420966526143</v>
       </c>
-      <c r="W182" s="9"/>
+      <c r="V182" s="18">
+        <v>-7.6223291440260965</v>
+      </c>
+      <c r="W182" s="18"/>
       <c r="X182" s="9"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
@@ -19258,7 +19576,10 @@
       <c r="U183" s="18">
         <v>-19.984028073567515</v>
       </c>
-      <c r="W183" s="9"/>
+      <c r="V183" s="18">
+        <v>9.0767499316575879</v>
+      </c>
+      <c r="W183" s="18"/>
       <c r="X183" s="9"/>
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
@@ -19392,7 +19713,10 @@
       <c r="U184" s="18">
         <v>-14.615318491837499</v>
       </c>
-      <c r="W184" s="9"/>
+      <c r="V184" s="18">
+        <v>-16.505290661883876</v>
+      </c>
+      <c r="W184" s="18"/>
       <c r="X184" s="9"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
@@ -19526,7 +19850,10 @@
       <c r="U185" s="18">
         <v>23.398390930726379</v>
       </c>
-      <c r="W185" s="9"/>
+      <c r="V185" s="18">
+        <v>-97.930459586320069</v>
+      </c>
+      <c r="W185" s="18"/>
       <c r="X185" s="9"/>
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
@@ -19660,7 +19987,10 @@
       <c r="U186" s="18">
         <v>-20.270697708342098</v>
       </c>
-      <c r="W186" s="9"/>
+      <c r="V186" s="18">
+        <v>4.959624783438656</v>
+      </c>
+      <c r="W186" s="18"/>
       <c r="X186" s="9"/>
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
@@ -19794,7 +20124,10 @@
       <c r="U187" s="18">
         <v>-4.4812613035224729</v>
       </c>
-      <c r="W187" s="9"/>
+      <c r="V187" s="18">
+        <v>18.888870475970876</v>
+      </c>
+      <c r="W187" s="18"/>
       <c r="X187" s="9"/>
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
@@ -19928,7 +20261,10 @@
       <c r="U188" s="18">
         <v>-10.926406082506844</v>
       </c>
-      <c r="W188" s="9"/>
+      <c r="V188" s="18">
+        <v>2.0393692377800079</v>
+      </c>
+      <c r="W188" s="18"/>
       <c r="X188" s="9"/>
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
@@ -20062,7 +20398,10 @@
       <c r="U189" s="18">
         <v>-15.719706140723289</v>
       </c>
-      <c r="W189" s="9"/>
+      <c r="V189" s="18">
+        <v>18.336550733170583</v>
+      </c>
+      <c r="W189" s="18"/>
       <c r="X189" s="9"/>
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
@@ -20196,7 +20535,10 @@
       <c r="U190" s="18">
         <v>-18.431137815017635</v>
       </c>
-      <c r="W190" s="9"/>
+      <c r="V190" s="18">
+        <v>15.381120907405261</v>
+      </c>
+      <c r="W190" s="18"/>
       <c r="X190" s="9"/>
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
@@ -20287,6 +20629,7 @@
       <c r="S191" s="9"/>
       <c r="T191" s="9"/>
       <c r="U191" s="9"/>
+      <c r="V191" s="9"/>
       <c r="W191" s="9"/>
       <c r="X191" s="9"/>
       <c r="Y191" s="9"/>
@@ -20421,7 +20764,10 @@
       <c r="U192" s="18">
         <v>-8.5742194239769987</v>
       </c>
-      <c r="W192" s="9"/>
+      <c r="V192" s="18">
+        <v>11.619236386603717</v>
+      </c>
+      <c r="W192" s="18"/>
       <c r="X192" s="9"/>
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
@@ -20513,9 +20859,11 @@
       <c r="S193" s="13"/>
       <c r="T193" s="13"/>
       <c r="U193" s="13"/>
+      <c r="V193" s="13"/>
+      <c r="W193" s="13"/>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A194" s="20" t="s">
+      <c r="A194" s="19" t="s">
         <v>66</v>
       </c>
     </row>
@@ -20543,6 +20891,7 @@
       <c r="S195" s="9"/>
       <c r="T195" s="9"/>
       <c r="U195" s="9"/>
+      <c r="V195" s="9"/>
       <c r="W195" s="9"/>
       <c r="X195" s="9"/>
       <c r="Y195" s="9"/>
@@ -20714,7 +21063,7 @@
     </row>
     <row r="198" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.25">
@@ -20724,7 +21073,7 @@
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="1:96" x14ac:dyDescent="0.25">
@@ -20757,6 +21106,7 @@
       <c r="T204" s="16"/>
       <c r="U204" s="16"/>
       <c r="V204" s="16"/>
+      <c r="W204" s="16"/>
     </row>
     <row r="205" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
@@ -20824,6 +21174,9 @@
       </c>
       <c r="V205" s="17">
         <v>2020</v>
+      </c>
+      <c r="W205" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="206" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20896,7 +21249,9 @@
       <c r="V207" s="18">
         <v>89.536756414254455</v>
       </c>
-      <c r="W207" s="9"/>
+      <c r="W207" s="18">
+        <v>88.079153465160942</v>
+      </c>
       <c r="X207" s="9"/>
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
@@ -21038,7 +21393,9 @@
       <c r="V208" s="18">
         <v>88.351328759011309</v>
       </c>
-      <c r="W208" s="9"/>
+      <c r="W208" s="18">
+        <v>86.733132825257286</v>
+      </c>
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
@@ -21180,7 +21537,9 @@
       <c r="V209" s="18">
         <v>87.929076016717787</v>
       </c>
-      <c r="W209" s="9"/>
+      <c r="W209" s="18">
+        <v>86.263421263336028</v>
+      </c>
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
@@ -21322,7 +21681,9 @@
       <c r="V210" s="18">
         <v>92.551102992564751</v>
       </c>
-      <c r="W210" s="9"/>
+      <c r="W210" s="18">
+        <v>94.812183554284644</v>
+      </c>
       <c r="X210" s="9"/>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
@@ -21464,7 +21825,9 @@
       <c r="V211" s="18">
         <v>101.90460258411025</v>
       </c>
-      <c r="W211" s="9"/>
+      <c r="W211" s="18">
+        <v>101.31115036600653</v>
+      </c>
       <c r="X211" s="9"/>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
@@ -21606,7 +21969,9 @@
       <c r="V212" s="18">
         <v>97.416218684421963</v>
       </c>
-      <c r="W212" s="9"/>
+      <c r="W212" s="18">
+        <v>92.029060623380204</v>
+      </c>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
@@ -21748,7 +22113,9 @@
       <c r="V213" s="18">
         <v>98.146996482062193</v>
       </c>
-      <c r="W213" s="9"/>
+      <c r="W213" s="18">
+        <v>102.49141141824008</v>
+      </c>
       <c r="X213" s="9"/>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
@@ -21890,7 +22257,9 @@
       <c r="V214" s="18">
         <v>91.737071711853133</v>
       </c>
-      <c r="W214" s="9"/>
+      <c r="W214" s="18">
+        <v>90.059246721575221</v>
+      </c>
       <c r="X214" s="9"/>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
@@ -22032,7 +22401,9 @@
       <c r="V215" s="18">
         <v>113.03818677011974</v>
       </c>
-      <c r="W215" s="9"/>
+      <c r="W215" s="18">
+        <v>115.08286337800291</v>
+      </c>
       <c r="X215" s="9"/>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
@@ -22174,7 +22545,9 @@
       <c r="V216" s="18">
         <v>95.664585097089073</v>
       </c>
-      <c r="W216" s="9"/>
+      <c r="W216" s="18">
+        <v>97.399183822869304</v>
+      </c>
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
@@ -22316,7 +22689,9 @@
       <c r="V217" s="18">
         <v>107.16298304434943</v>
       </c>
-      <c r="W217" s="9"/>
+      <c r="W217" s="18">
+        <v>115.63702267143894</v>
+      </c>
       <c r="X217" s="9"/>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
@@ -22458,7 +22833,9 @@
       <c r="V218" s="18">
         <v>129.78169473680566</v>
       </c>
-      <c r="W218" s="9"/>
+      <c r="W218" s="18">
+        <v>125.6280897828173</v>
+      </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
@@ -22600,7 +22977,9 @@
       <c r="V219" s="18">
         <v>97.068207256168975</v>
       </c>
-      <c r="W219" s="9"/>
+      <c r="W219" s="18">
+        <v>122.60503298838479</v>
+      </c>
       <c r="X219" s="9"/>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
@@ -22742,7 +23121,9 @@
       <c r="V220" s="18">
         <v>111.42723670674701</v>
       </c>
-      <c r="W220" s="9"/>
+      <c r="W220" s="18">
+        <v>131.636452893598</v>
+      </c>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
@@ -22884,7 +23265,9 @@
       <c r="V221" s="18">
         <v>86.788927953154385</v>
       </c>
-      <c r="W221" s="9"/>
+      <c r="W221" s="18">
+        <v>93.116124586710797</v>
+      </c>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -23026,7 +23409,9 @@
       <c r="V222" s="18">
         <v>102.20645351699808</v>
       </c>
-      <c r="W222" s="9"/>
+      <c r="W222" s="18">
+        <v>101.18241656687874</v>
+      </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -23168,7 +23553,9 @@
       <c r="V223" s="18">
         <v>114.11278895025698</v>
       </c>
-      <c r="W223" s="9"/>
+      <c r="W223" s="18">
+        <v>118.01307003466536</v>
+      </c>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
@@ -23310,7 +23697,9 @@
       <c r="V224" s="18">
         <v>103.74974850586479</v>
       </c>
-      <c r="W224" s="9"/>
+      <c r="W224" s="18">
+        <v>116.15723968371397</v>
+      </c>
       <c r="X224" s="9"/>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
@@ -23452,7 +23841,9 @@
       <c r="V225" s="18">
         <v>91.112717558097742</v>
       </c>
-      <c r="W225" s="9"/>
+      <c r="W225" s="18">
+        <v>107.37757959188615</v>
+      </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -23594,7 +23985,9 @@
       <c r="V226" s="18">
         <v>102.12425700973728</v>
       </c>
-      <c r="W226" s="9"/>
+      <c r="W226" s="18">
+        <v>116.2898749676831</v>
+      </c>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
@@ -23736,7 +24129,9 @@
       <c r="V227" s="18">
         <v>106.0118017484597</v>
       </c>
-      <c r="W227" s="9"/>
+      <c r="W227" s="18">
+        <v>122.13798915708909</v>
+      </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -23878,7 +24273,9 @@
       <c r="V228" s="18">
         <v>100.36000080691929</v>
       </c>
-      <c r="W228" s="9"/>
+      <c r="W228" s="18">
+        <v>111.95659722130362</v>
+      </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
@@ -24020,7 +24417,9 @@
       <c r="V229" s="18">
         <v>87.991022119633868</v>
       </c>
-      <c r="W229" s="9"/>
+      <c r="W229" s="18">
+        <v>87.530487691150881</v>
+      </c>
       <c r="X229" s="9"/>
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
@@ -24162,7 +24561,9 @@
       <c r="V230" s="18">
         <v>90.257331693596782</v>
       </c>
-      <c r="W230" s="9"/>
+      <c r="W230" s="18">
+        <v>136.2575569979364</v>
+      </c>
       <c r="X230" s="9"/>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
@@ -24304,7 +24705,9 @@
       <c r="V231" s="18">
         <v>95.101091312378387</v>
       </c>
-      <c r="W231" s="9"/>
+      <c r="W231" s="18">
+        <v>106.01751602451446</v>
+      </c>
       <c r="X231" s="9"/>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
@@ -24446,7 +24849,9 @@
       <c r="V232" s="18">
         <v>85.037826076617179</v>
       </c>
-      <c r="W232" s="9"/>
+      <c r="W232" s="18">
+        <v>112.04209436485462</v>
+      </c>
       <c r="X232" s="9"/>
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
@@ -24588,7 +24993,9 @@
       <c r="V233" s="18">
         <v>48.989537059251823</v>
       </c>
-      <c r="W233" s="9"/>
+      <c r="W233" s="18">
+        <v>71.844201939230771</v>
+      </c>
       <c r="X233" s="9"/>
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
@@ -24730,7 +25137,9 @@
       <c r="V234" s="18">
         <v>83.360420991627223</v>
       </c>
-      <c r="W234" s="9"/>
+      <c r="W234" s="18">
+        <v>82.156401590448851</v>
+      </c>
       <c r="X234" s="9"/>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
@@ -24872,7 +25281,9 @@
       <c r="V235" s="18">
         <v>77.556075258452125</v>
       </c>
-      <c r="W235" s="9"/>
+      <c r="W235" s="18">
+        <v>90.738393588531025</v>
+      </c>
       <c r="X235" s="9"/>
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
@@ -25014,7 +25425,9 @@
       <c r="V236" s="18">
         <v>84.046420258585997</v>
       </c>
-      <c r="W236" s="9"/>
+      <c r="W236" s="18">
+        <v>81.756527121322847</v>
+      </c>
       <c r="X236" s="9"/>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
@@ -25156,7 +25569,9 @@
       <c r="V237" s="18">
         <v>84.715045795976749</v>
       </c>
-      <c r="W237" s="9"/>
+      <c r="W237" s="18">
+        <v>90.631215128958502</v>
+      </c>
       <c r="X237" s="9"/>
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
@@ -25298,7 +25713,9 @@
       <c r="V238" s="18">
         <v>85.619272991198073</v>
       </c>
-      <c r="W238" s="9"/>
+      <c r="W238" s="18">
+        <v>85.609220672730729</v>
+      </c>
       <c r="X238" s="9"/>
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
@@ -25537,7 +25954,9 @@
       <c r="V240" s="18">
         <v>89.562655577843913</v>
       </c>
-      <c r="W240" s="9"/>
+      <c r="W240" s="18">
+        <v>91.681341180829008</v>
+      </c>
       <c r="X240" s="9"/>
       <c r="Y240" s="9"/>
       <c r="Z240" s="9"/>
@@ -25635,6 +26054,7 @@
       <c r="T241" s="13"/>
       <c r="U241" s="13"/>
       <c r="V241" s="13"/>
+      <c r="W241" s="13"/>
     </row>
     <row r="242" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
@@ -25653,7 +26073,7 @@
     </row>
     <row r="247" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:96" x14ac:dyDescent="0.25">
@@ -25663,7 +26083,7 @@
     </row>
     <row r="250" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:96" x14ac:dyDescent="0.25">
@@ -25696,6 +26116,7 @@
       <c r="T253" s="16"/>
       <c r="U253" s="16"/>
       <c r="V253" s="16"/>
+      <c r="W253" s="16"/>
     </row>
     <row r="254" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
@@ -25763,6 +26184,9 @@
       </c>
       <c r="V254" s="17">
         <v>2020</v>
+      </c>
+      <c r="W254" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="255" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25835,7 +26259,9 @@
       <c r="V256" s="18">
         <v>60.04309487351027</v>
       </c>
-      <c r="W256" s="9"/>
+      <c r="W256" s="18">
+        <v>60.01518309250352</v>
+      </c>
       <c r="X256" s="9"/>
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
@@ -25977,7 +26403,9 @@
       <c r="V257" s="18">
         <v>41.64609788977841</v>
       </c>
-      <c r="W257" s="9"/>
+      <c r="W257" s="18">
+        <v>41.239319917755772</v>
+      </c>
       <c r="X257" s="9"/>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
@@ -26119,7 +26547,9 @@
       <c r="V258" s="18">
         <v>6.5804831247524804</v>
       </c>
-      <c r="W258" s="9"/>
+      <c r="W258" s="18">
+        <v>7.4245275391757026</v>
+      </c>
       <c r="X258" s="9"/>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
@@ -26261,7 +26691,9 @@
       <c r="V259" s="18">
         <v>2.5888236932256588</v>
       </c>
-      <c r="W259" s="9"/>
+      <c r="W259" s="18">
+        <v>2.702083953671861</v>
+      </c>
       <c r="X259" s="9"/>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
@@ -26403,7 +26835,9 @@
       <c r="V260" s="18">
         <v>2.2215652180411305</v>
       </c>
-      <c r="W260" s="9"/>
+      <c r="W260" s="18">
+        <v>2.1376106686198861</v>
+      </c>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
@@ -26545,7 +26979,9 @@
       <c r="V261" s="18">
         <v>0.60867637561257126</v>
       </c>
-      <c r="W261" s="9"/>
+      <c r="W261" s="18">
+        <v>1.0731707410222204</v>
+      </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
@@ -26687,7 +27123,9 @@
       <c r="V262" s="18">
         <v>1.186917586376532</v>
       </c>
-      <c r="W262" s="9"/>
+      <c r="W262" s="18">
+        <v>0.8924818353039401</v>
+      </c>
       <c r="X262" s="9"/>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
@@ -26829,7 +27267,9 @@
       <c r="V263" s="18">
         <v>4.6960435278410362</v>
       </c>
-      <c r="W263" s="9"/>
+      <c r="W263" s="18">
+        <v>4.1930783424179214</v>
+      </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -26971,7 +27411,9 @@
       <c r="V264" s="18">
         <v>0.18213572794077779</v>
       </c>
-      <c r="W264" s="9"/>
+      <c r="W264" s="18">
+        <v>0.19917925589551824</v>
+      </c>
       <c r="X264" s="9"/>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
@@ -27113,7 +27555,9 @@
       <c r="V265" s="18">
         <v>0.33235172994167855</v>
       </c>
-      <c r="W265" s="9"/>
+      <c r="W265" s="18">
+        <v>0.15373083864069645</v>
+      </c>
       <c r="X265" s="9"/>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
@@ -27255,7 +27699,9 @@
       <c r="V266" s="18">
         <v>8.4289491761989161</v>
       </c>
-      <c r="W266" s="9"/>
+      <c r="W266" s="18">
+        <v>7.9743742615198174</v>
+      </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
@@ -27397,7 +27843,9 @@
       <c r="V267" s="18">
         <v>2.9838762930427913</v>
       </c>
-      <c r="W267" s="9"/>
+      <c r="W267" s="18">
+        <v>1.7734380428300507</v>
+      </c>
       <c r="X267" s="9"/>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
@@ -27539,7 +27987,9 @@
       <c r="V268" s="18">
         <v>1.6183668265741757</v>
       </c>
-      <c r="W268" s="9"/>
+      <c r="W268" s="18">
+        <v>2.2428297090855236</v>
+      </c>
       <c r="X268" s="9"/>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
@@ -27681,7 +28131,9 @@
       <c r="V269" s="18">
         <v>7.4514429253010023E-2</v>
       </c>
-      <c r="W269" s="9"/>
+      <c r="W269" s="18">
+        <v>0.10439684331720049</v>
+      </c>
       <c r="X269" s="9"/>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
@@ -27823,7 +28275,9 @@
       <c r="V270" s="18">
         <v>0.46924327621627582</v>
       </c>
-      <c r="W270" s="9"/>
+      <c r="W270" s="18">
+        <v>0.61573947568220677</v>
+      </c>
       <c r="X270" s="9"/>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
@@ -27965,7 +28419,9 @@
       <c r="V271" s="18">
         <v>0.18849395868490015</v>
       </c>
-      <c r="W271" s="9"/>
+      <c r="W271" s="18">
+        <v>0.13909433719516878</v>
+      </c>
       <c r="X271" s="9"/>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
@@ -28107,7 +28563,9 @@
       <c r="V272" s="18">
         <v>1.2275382070901499</v>
       </c>
-      <c r="W272" s="9"/>
+      <c r="W272" s="18">
+        <v>1.2188607215482861</v>
+      </c>
       <c r="X272" s="9"/>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
@@ -28249,7 +28707,9 @@
       <c r="V273" s="18">
         <v>0.13140507748944399</v>
       </c>
-      <c r="W273" s="9"/>
+      <c r="W273" s="18">
+        <v>9.4191697109297562E-2</v>
+      </c>
       <c r="X273" s="9"/>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
@@ -28391,7 +28851,9 @@
       <c r="V274" s="18">
         <v>1.7355111078481693</v>
       </c>
-      <c r="W274" s="9"/>
+      <c r="W274" s="18">
+        <v>1.7858234347520836</v>
+      </c>
       <c r="X274" s="9"/>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -28533,7 +28995,9 @@
       <c r="V275" s="18">
         <v>1.2122282248255338</v>
       </c>
-      <c r="W275" s="9"/>
+      <c r="W275" s="18">
+        <v>1.0467407129731543</v>
+      </c>
       <c r="X275" s="9"/>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
@@ -28675,7 +29139,9 @@
       <c r="V276" s="18">
         <v>0.39281177070101597</v>
       </c>
-      <c r="W276" s="9"/>
+      <c r="W276" s="18">
+        <v>0.46790463673687632</v>
+      </c>
       <c r="X276" s="9"/>
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
@@ -28817,7 +29283,9 @@
       <c r="V277" s="18">
         <v>0.81941645412451769</v>
       </c>
-      <c r="W277" s="9"/>
+      <c r="W277" s="18">
+        <v>0.57883607623627786</v>
+      </c>
       <c r="X277" s="9"/>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
@@ -28959,7 +29427,9 @@
       <c r="V278" s="18">
         <v>1.1852774747958883</v>
       </c>
-      <c r="W278" s="9"/>
+      <c r="W278" s="18">
+        <v>1.2000383976186326</v>
+      </c>
       <c r="X278" s="9"/>
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
@@ -29101,7 +29571,9 @@
       <c r="V279" s="18">
         <v>2.6133512716000817</v>
       </c>
-      <c r="W279" s="9"/>
+      <c r="W279" s="18">
+        <v>3.1897001747362368</v>
+      </c>
       <c r="X279" s="9"/>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
@@ -29243,7 +29715,9 @@
       <c r="V280" s="18">
         <v>3.3992386880200813</v>
       </c>
-      <c r="W280" s="9"/>
+      <c r="W280" s="18">
+        <v>3.617536579614506</v>
+      </c>
       <c r="X280" s="9"/>
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
@@ -29385,7 +29859,9 @@
       <c r="V281" s="18">
         <v>2.8147079271622153</v>
       </c>
-      <c r="W281" s="9"/>
+      <c r="W281" s="18">
+        <v>2.7099939400211674</v>
+      </c>
       <c r="X281" s="9"/>
       <c r="Y281" s="9"/>
       <c r="Z281" s="9"/>
@@ -29527,7 +30003,9 @@
       <c r="V282" s="18">
         <v>0.32346619029864027</v>
       </c>
-      <c r="W282" s="9"/>
+      <c r="W282" s="18">
+        <v>8.5920768308634932E-3</v>
+      </c>
       <c r="X282" s="9"/>
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
@@ -29669,7 +30147,9 @@
       <c r="V283" s="18">
         <v>4.0682537954935043</v>
       </c>
-      <c r="W283" s="9"/>
+      <c r="W283" s="18">
+        <v>3.6831446449935523</v>
+      </c>
       <c r="X283" s="9"/>
       <c r="Y283" s="9"/>
       <c r="Z283" s="9"/>
@@ -29811,7 +30291,9 @@
       <c r="V284" s="18">
         <v>2.1530999004862794</v>
       </c>
-      <c r="W284" s="9"/>
+      <c r="W284" s="18">
+        <v>2.6211242113910642</v>
+      </c>
       <c r="X284" s="9"/>
       <c r="Y284" s="9"/>
       <c r="Z284" s="9"/>
@@ -29953,7 +30435,9 @@
       <c r="V285" s="18">
         <v>0.58751520749360586</v>
       </c>
-      <c r="W285" s="9"/>
+      <c r="W285" s="18">
+        <v>0.51038399815736812</v>
+      </c>
       <c r="X285" s="9"/>
       <c r="Y285" s="9"/>
       <c r="Z285" s="9"/>
@@ -30095,7 +30579,9 @@
       <c r="V286" s="18">
         <v>1.2680383703670139</v>
       </c>
-      <c r="W286" s="9"/>
+      <c r="W286" s="18">
+        <v>1.4049973714342519</v>
+      </c>
       <c r="X286" s="9"/>
       <c r="Y286" s="9"/>
       <c r="Z286" s="9"/>
@@ -30237,7 +30723,9 @@
       <c r="V287" s="18">
         <v>11.902778899747995</v>
       </c>
-      <c r="W287" s="9"/>
+      <c r="W287" s="18">
+        <v>12.018190538205864</v>
+      </c>
       <c r="X287" s="9"/>
       <c r="Y287" s="9"/>
       <c r="Z287" s="9"/>
@@ -30476,7 +30964,9 @@
       <c r="V289" s="18">
         <v>100</v>
       </c>
-      <c r="W289" s="9"/>
+      <c r="W289" s="18">
+        <v>100</v>
+      </c>
       <c r="X289" s="9"/>
       <c r="Y289" s="9"/>
       <c r="Z289" s="9"/>
@@ -30574,6 +31064,7 @@
       <c r="T290" s="13"/>
       <c r="U290" s="13"/>
       <c r="V290" s="13"/>
+      <c r="W290" s="13"/>
     </row>
     <row r="291" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
@@ -30786,7 +31277,7 @@
     </row>
     <row r="296" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298" spans="1:96" x14ac:dyDescent="0.25">
@@ -30796,7 +31287,7 @@
     </row>
     <row r="299" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="1:96" x14ac:dyDescent="0.25">
@@ -30829,6 +31320,7 @@
       <c r="T302" s="16"/>
       <c r="U302" s="16"/>
       <c r="V302" s="16"/>
+      <c r="W302" s="16"/>
     </row>
     <row r="303" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
@@ -30896,6 +31388,9 @@
       </c>
       <c r="V303" s="17">
         <v>2020</v>
+      </c>
+      <c r="W303" s="17">
+        <v>2021</v>
       </c>
     </row>
     <row r="304" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30968,7 +31463,9 @@
       <c r="V305" s="18">
         <v>60.060462779148381</v>
       </c>
-      <c r="W305" s="9"/>
+      <c r="W305" s="18">
+        <v>62.469633967475843</v>
+      </c>
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
@@ -31110,7 +31607,9 @@
       <c r="V306" s="18">
         <v>42.217080080790126</v>
       </c>
-      <c r="W306" s="9"/>
+      <c r="W306" s="18">
+        <v>43.592062644186043</v>
+      </c>
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
@@ -31252,7 +31751,9 @@
       <c r="V307" s="18">
         <v>6.7027378239021358</v>
       </c>
-      <c r="W307" s="9"/>
+      <c r="W307" s="18">
+        <v>7.8908375352710207</v>
+      </c>
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
@@ -31394,7 +31895,9 @@
       <c r="V308" s="18">
         <v>2.5052313510165138</v>
       </c>
-      <c r="W308" s="9"/>
+      <c r="W308" s="18">
+        <v>2.6128570355517149</v>
+      </c>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
@@ -31536,7 +32039,9 @@
       <c r="V309" s="18">
         <v>1.9525053375573469</v>
       </c>
-      <c r="W309" s="9"/>
+      <c r="W309" s="18">
+        <v>1.9344268850319721</v>
+      </c>
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
@@ -31678,7 +32183,9 @@
       <c r="V310" s="18">
         <v>0.5596057137462741</v>
       </c>
-      <c r="W310" s="9"/>
+      <c r="W310" s="18">
+        <v>1.0691159095450458</v>
+      </c>
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
@@ -31820,7 +32327,9 @@
       <c r="V311" s="18">
         <v>1.083104881435222</v>
       </c>
-      <c r="W311" s="9"/>
+      <c r="W311" s="18">
+        <v>0.79834915441149867</v>
+      </c>
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
@@ -31962,7 +32471,9 @@
       <c r="V312" s="18">
         <v>4.5847346248817127</v>
       </c>
-      <c r="W312" s="9"/>
+      <c r="W312" s="18">
+        <v>4.2686016161965785</v>
+      </c>
       <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
@@ -32104,7 +32615,9 @@
       <c r="V313" s="18">
         <v>0.14431016575976946</v>
       </c>
-      <c r="W313" s="9"/>
+      <c r="W313" s="18">
+        <v>0.15867715470304411</v>
+      </c>
       <c r="X313" s="9"/>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
@@ -32246,7 +32759,9 @@
       <c r="V314" s="18">
         <v>0.31115280005926554</v>
       </c>
-      <c r="W314" s="9"/>
+      <c r="W314" s="18">
+        <v>0.14470603257892325</v>
+      </c>
       <c r="X314" s="9"/>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
@@ -32388,7 +32903,9 @@
       <c r="V315" s="18">
         <v>7.0445880704779489</v>
       </c>
-      <c r="W315" s="9"/>
+      <c r="W315" s="18">
+        <v>6.322381106709293</v>
+      </c>
       <c r="X315" s="9"/>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
@@ -32530,7 +33047,9 @@
       <c r="V316" s="18">
         <v>2.0591801121309881</v>
       </c>
-      <c r="W316" s="9"/>
+      <c r="W316" s="18">
+        <v>1.2942263035985588</v>
+      </c>
       <c r="X316" s="9"/>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
@@ -32672,7 +33191,9 @@
       <c r="V317" s="18">
         <v>1.4932307372747882</v>
       </c>
-      <c r="W317" s="9"/>
+      <c r="W317" s="18">
+        <v>1.6771386194941091</v>
+      </c>
       <c r="X317" s="9"/>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
@@ -32814,7 +33335,9 @@
       <c r="V318" s="18">
         <v>5.9892988106047644E-2</v>
       </c>
-      <c r="W318" s="9"/>
+      <c r="W318" s="18">
+        <v>7.270966666127246E-2</v>
+      </c>
       <c r="X318" s="9"/>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
@@ -32956,7 +33479,9 @@
       <c r="V319" s="18">
         <v>0.48424003984312275</v>
       </c>
-      <c r="W319" s="9"/>
+      <c r="W319" s="18">
+        <v>0.60625183016456596</v>
+      </c>
       <c r="X319" s="9"/>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
@@ -33098,7 +33623,9 @@
       <c r="V320" s="18">
         <v>0.1651756706086312</v>
       </c>
-      <c r="W320" s="9"/>
+      <c r="W320" s="18">
+        <v>0.12603331505017568</v>
+      </c>
       <c r="X320" s="9"/>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
@@ -33240,7 +33767,9 @@
       <c r="V321" s="18">
         <v>0.96344662733800912</v>
       </c>
-      <c r="W321" s="9"/>
+      <c r="W321" s="18">
+        <v>0.94690177648420748</v>
+      </c>
       <c r="X321" s="9"/>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
@@ -33382,7 +33911,9 @@
       <c r="V322" s="18">
         <v>0.11343630096319397</v>
       </c>
-      <c r="W322" s="9"/>
+      <c r="W322" s="18">
+        <v>7.4344234957656172E-2</v>
+      </c>
       <c r="X322" s="9"/>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
@@ -33524,7 +34055,9 @@
       <c r="V323" s="18">
         <v>1.7059855942131676</v>
       </c>
-      <c r="W323" s="9"/>
+      <c r="W323" s="18">
+        <v>1.5247753602987482</v>
+      </c>
       <c r="X323" s="9"/>
       <c r="Y323" s="9"/>
       <c r="Z323" s="9"/>
@@ -33666,7 +34199,9 @@
       <c r="V324" s="18">
         <v>1.0631203806108329</v>
       </c>
-      <c r="W324" s="9"/>
+      <c r="W324" s="18">
+        <v>0.82523601010513614</v>
+      </c>
       <c r="X324" s="9"/>
       <c r="Y324" s="9"/>
       <c r="Z324" s="9"/>
@@ -33808,7 +34343,9 @@
       <c r="V325" s="18">
         <v>0.33186178091468255</v>
       </c>
-      <c r="W325" s="9"/>
+      <c r="W325" s="18">
+        <v>0.35122671444665371</v>
+      </c>
       <c r="X325" s="9"/>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
@@ -33950,7 +34487,9 @@
       <c r="V326" s="18">
         <v>0.73125859969615015</v>
       </c>
-      <c r="W326" s="9"/>
+      <c r="W326" s="18">
+        <v>0.47400929565848249</v>
+      </c>
       <c r="X326" s="9"/>
       <c r="Y326" s="9"/>
       <c r="Z326" s="9"/>
@@ -34092,7 +34631,9 @@
       <c r="V327" s="18">
         <v>1.2064480634738923</v>
       </c>
-      <c r="W327" s="9"/>
+      <c r="W327" s="18">
+        <v>1.2569463813611546</v>
+      </c>
       <c r="X327" s="9"/>
       <c r="Y327" s="9"/>
       <c r="Z327" s="9"/>
@@ -34234,7 +34775,9 @@
       <c r="V328" s="18">
         <v>2.5932373077105222</v>
       </c>
-      <c r="W328" s="9"/>
+      <c r="W328" s="18">
+        <v>2.1462001552616394</v>
+      </c>
       <c r="X328" s="9"/>
       <c r="Y328" s="9"/>
       <c r="Z328" s="9"/>
@@ -34376,7 +34919,9 @@
       <c r="V329" s="18">
         <v>3.2012760278640249</v>
       </c>
-      <c r="W329" s="9"/>
+      <c r="W329" s="18">
+        <v>3.1283566888425938</v>
+      </c>
       <c r="X329" s="9"/>
       <c r="Y329" s="9"/>
       <c r="Z329" s="9"/>
@@ -34518,7 +35063,9 @@
       <c r="V330" s="18">
         <v>2.9644774362590902</v>
       </c>
-      <c r="W330" s="9"/>
+      <c r="W330" s="18">
+        <v>2.2175226232739482</v>
+      </c>
       <c r="X330" s="9"/>
       <c r="Y330" s="9"/>
       <c r="Z330" s="9"/>
@@ -34660,7 +35207,9 @@
       <c r="V331" s="18">
         <v>0.59136078297198891</v>
       </c>
-      <c r="W331" s="9"/>
+      <c r="W331" s="18">
+        <v>1.0964463465661347E-2</v>
+      </c>
       <c r="X331" s="9"/>
       <c r="Y331" s="9"/>
       <c r="Z331" s="9"/>
@@ -34802,7 +35351,9 @@
       <c r="V332" s="18">
         <v>4.3709425786805687</v>
       </c>
-      <c r="W332" s="9"/>
+      <c r="W332" s="18">
+        <v>4.1101561689534112</v>
+      </c>
       <c r="X332" s="9"/>
       <c r="Y332" s="9"/>
       <c r="Z332" s="9"/>
@@ -34944,7 +35495,9 @@
       <c r="V333" s="18">
         <v>2.4864247471177574</v>
       </c>
-      <c r="W333" s="9"/>
+      <c r="W333" s="18">
+        <v>2.648362766830485</v>
+      </c>
       <c r="X333" s="9"/>
       <c r="Y333" s="9"/>
       <c r="Z333" s="9"/>
@@ -35086,7 +35639,9 @@
       <c r="V334" s="18">
         <v>0.62607570927590861</v>
       </c>
-      <c r="W334" s="9"/>
+      <c r="W334" s="18">
+        <v>0.57234194156587781</v>
+      </c>
       <c r="X334" s="9"/>
       <c r="Y334" s="9"/>
       <c r="Z334" s="9"/>
@@ -35228,7 +35783,9 @@
       <c r="V335" s="18">
         <v>1.3405987420249368</v>
       </c>
-      <c r="W335" s="9"/>
+      <c r="W335" s="18">
+        <v>1.4212767994486872</v>
+      </c>
       <c r="X335" s="9"/>
       <c r="Y335" s="9"/>
       <c r="Z335" s="9"/>
@@ -35370,7 +35927,9 @@
       <c r="V336" s="18">
         <v>12.450987374384157</v>
       </c>
-      <c r="W336" s="9"/>
+      <c r="W336" s="18">
+        <v>12.870620926706264</v>
+      </c>
       <c r="X336" s="9"/>
       <c r="Y336" s="9"/>
       <c r="Z336" s="9"/>
@@ -35609,7 +36168,9 @@
       <c r="V338" s="18">
         <v>100</v>
       </c>
-      <c r="W338" s="9"/>
+      <c r="W338" s="18">
+        <v>100</v>
+      </c>
       <c r="X338" s="9"/>
       <c r="Y338" s="9"/>
       <c r="Z338" s="9"/>
@@ -35707,6 +36268,7 @@
       <c r="T339" s="13"/>
       <c r="U339" s="13"/>
       <c r="V339" s="13"/>
+      <c r="W339" s="13"/>
     </row>
     <row r="340" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
@@ -35903,12 +36465,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="49" max="21" man="1"/>
-    <brk id="98" max="21" man="1"/>
-    <brk id="147" max="21" man="1"/>
-    <brk id="196" max="21" man="1"/>
-    <brk id="244" max="21" man="1"/>
-    <brk id="293" max="21" man="1"/>
+    <brk id="49" max="22" man="1"/>
+    <brk id="98" max="22" man="1"/>
+    <brk id="147" max="22" man="1"/>
+    <brk id="196" max="22" man="1"/>
+    <brk id="244" max="22" man="1"/>
+    <brk id="293" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5DF637-8185-42E4-9344-9F0D53552DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOG" sheetId="1" r:id="rId1"/>
@@ -284,19 +285,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -417,7 +418,7 @@
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,17 +708,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:CR342"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="96" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -739,7 +740,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -749,7 +750,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -926,7 +927,7 @@
         <v>1532232.7781556607</v>
       </c>
       <c r="W12" s="8">
-        <v>1749910.5817349574</v>
+        <v>1749260.484941493</v>
       </c>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
@@ -1070,7 +1071,7 @@
         <v>1062761.9446237115</v>
       </c>
       <c r="W13" s="11">
-        <v>1202447.7572017629</v>
+        <v>1202337.8774415997</v>
       </c>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
@@ -1214,7 +1215,7 @@
         <v>167926.58608099609</v>
       </c>
       <c r="W14" s="11">
-        <v>216482.8737614736</v>
+        <v>216618.59278987156</v>
       </c>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
@@ -1358,7 +1359,7 @@
         <v>66063.891742801614</v>
       </c>
       <c r="W15" s="11">
-        <v>78786.817928699165</v>
+        <v>78780.139516677969</v>
       </c>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
@@ -1502,7 +1503,7 @@
         <v>56691.865285493463</v>
       </c>
       <c r="W16" s="11">
-        <v>62328.019942585437</v>
+        <v>61653.529269754363</v>
       </c>
       <c r="X16" s="9"/>
       <c r="Y16" s="9"/>
@@ -1646,7 +1647,7 @@
         <v>15532.741874270487</v>
       </c>
       <c r="W17" s="11">
-        <v>31291.295618120072</v>
+        <v>31294.57623913524</v>
       </c>
       <c r="X17" s="9"/>
       <c r="Y17" s="9"/>
@@ -1790,7 +1791,7 @@
         <v>30288.812304674648</v>
       </c>
       <c r="W18" s="11">
-        <v>26022.805015814065</v>
+        <v>26025.982616532812</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -1934,7 +1935,7 @@
         <v>119837.79044304814</v>
       </c>
       <c r="W19" s="11">
-        <v>122260.93104025409</v>
+        <v>122258.8853179834</v>
       </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
@@ -2078,7 +2079,7 @@
         <v>4647.9005289786146</v>
       </c>
       <c r="W20" s="11">
-        <v>5807.6284965495515</v>
+        <v>5808.4490202393845</v>
       </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="9"/>
@@ -2366,7 +2367,7 @@
         <v>215097.37698211166</v>
       </c>
       <c r="W22" s="8">
-        <v>232515.19338764562</v>
+        <v>232948.0410287322</v>
       </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -2510,7 +2511,7 @@
         <v>76145.193244841154</v>
       </c>
       <c r="W23" s="11">
-        <v>51709.548105790542</v>
+        <v>51922.808319782409</v>
       </c>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -2654,7 +2655,7 @@
         <v>41298.915453652058</v>
       </c>
       <c r="W24" s="11">
-        <v>65395.975463557872</v>
+        <v>65379.822909169859</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -2798,7 +2799,7 @@
         <v>1901.5250827350987</v>
       </c>
       <c r="W25" s="11">
-        <v>3043.9820626543192</v>
+        <v>3087.6297208967253</v>
       </c>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
@@ -2942,7 +2943,7 @@
         <v>11974.564773224763</v>
       </c>
       <c r="W26" s="11">
-        <v>17953.607213485564</v>
+        <v>17970.10678646712</v>
       </c>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
@@ -3086,7 +3087,7 @@
         <v>4810.1554823207925</v>
       </c>
       <c r="W27" s="11">
-        <v>4055.6845780520412</v>
+        <v>4063.1112453069854</v>
       </c>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
@@ -3230,7 +3231,7 @@
         <v>31325.405216108553</v>
       </c>
       <c r="W28" s="11">
-        <v>35539.29463167581</v>
+        <v>35577.935048222644</v>
       </c>
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3518,7 +3519,7 @@
         <v>44288.306788652801</v>
       </c>
       <c r="W30" s="11">
-        <v>52070.67886081789</v>
+        <v>52200.204527274909</v>
       </c>
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
@@ -3662,7 +3663,7 @@
         <v>30934.711553361063</v>
       </c>
       <c r="W31" s="8">
-        <v>30520.654200808625</v>
+        <v>30520.355995233331</v>
       </c>
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
@@ -3806,7 +3807,7 @@
         <v>10024.11804357204</v>
       </c>
       <c r="W32" s="11">
-        <v>13643.068851538439</v>
+        <v>13642.468238607997</v>
       </c>
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
@@ -3950,7 +3951,7 @@
         <v>20910.593509789021</v>
       </c>
       <c r="W33" s="11">
-        <v>16877.585349270186</v>
+        <v>16877.887756625332</v>
       </c>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
@@ -4094,7 +4095,7 @@
         <v>30246.958487362448</v>
       </c>
       <c r="W34" s="11">
-        <v>34990.477113839093</v>
+        <v>34976.787380646092</v>
       </c>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
@@ -4382,7 +4383,7 @@
         <v>86744.778055354021</v>
       </c>
       <c r="W36" s="11">
-        <v>105479.40061639888</v>
+        <v>105478.50016394199</v>
       </c>
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
@@ -4526,7 +4527,7 @@
         <v>71828.205325159419</v>
       </c>
       <c r="W37" s="11">
-        <v>79017.455712352938</v>
+        <v>79027.611827561894</v>
       </c>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
@@ -4814,7 +4815,7 @@
         <v>103817.29703379123</v>
       </c>
       <c r="W39" s="11">
-        <v>107392.38732972764</v>
+        <v>107394.98099084177</v>
       </c>
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
@@ -4958,7 +4959,7 @@
         <v>54944.70678299827</v>
       </c>
       <c r="W40" s="11">
-        <v>76426.210122282311</v>
+        <v>76397.006919195643</v>
       </c>
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
@@ -5102,7 +5103,7 @@
         <v>14992.732477948612</v>
       </c>
       <c r="W41" s="11">
-        <v>14881.673488309887</v>
+        <v>14865.566347759466</v>
       </c>
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
@@ -5246,7 +5247,7 @@
         <v>32358.92418817681</v>
       </c>
       <c r="W42" s="11">
-        <v>40966.629457633084</v>
+        <v>40943.585634627154</v>
       </c>
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
@@ -5390,7 +5391,7 @@
         <v>303745.63502687786</v>
       </c>
       <c r="W43" s="11">
-        <v>350423.9712757009</v>
+        <v>351065.78278293082</v>
       </c>
       <c r="X43" s="9"/>
       <c r="Y43" s="9"/>
@@ -5631,7 +5632,7 @@
         <v>2551888.408456522</v>
       </c>
       <c r="W45" s="8">
-        <v>2915779.7936528134</v>
+        <v>2916133.8632261218</v>
       </c>
       <c r="X45" s="9"/>
       <c r="Y45" s="9"/>
@@ -5943,7 +5944,7 @@
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.25">
@@ -5953,7 +5954,7 @@
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.25">
@@ -6130,7 +6131,7 @@
         <v>1711289.1280834088</v>
       </c>
       <c r="W61" s="8">
-        <v>1986747.7296169992</v>
+        <v>1986181.9157533466</v>
       </c>
       <c r="X61" s="9"/>
       <c r="Y61" s="9"/>
@@ -6274,7 +6275,7 @@
         <v>1202881.6765422062</v>
       </c>
       <c r="W62" s="11">
-        <v>1386376.4838569302</v>
+        <v>1386272.6037151765</v>
       </c>
       <c r="X62" s="9"/>
       <c r="Y62" s="9"/>
@@ -6418,7 +6419,7 @@
         <v>190979.58683094603</v>
       </c>
       <c r="W63" s="11">
-        <v>250955.58533508325</v>
+        <v>251118.09723489618</v>
       </c>
       <c r="X63" s="9"/>
       <c r="Y63" s="9"/>
@@ -6562,7 +6563,7 @@
         <v>71380.988023566795</v>
       </c>
       <c r="W64" s="11">
-        <v>83097.778128472099</v>
+        <v>83077.344608187064</v>
       </c>
       <c r="X64" s="9"/>
       <c r="Y64" s="9"/>
@@ -6706,7 +6707,7 @@
         <v>55632.291229143462</v>
       </c>
       <c r="W65" s="11">
-        <v>61521.382115801825</v>
+        <v>60957.792444082093</v>
       </c>
       <c r="X65" s="9"/>
       <c r="Y65" s="9"/>
@@ -6850,7 +6851,7 @@
         <v>15944.718532535651</v>
       </c>
       <c r="W66" s="11">
-        <v>34001.537564505401</v>
+        <v>33991.043826171859</v>
       </c>
       <c r="X66" s="9"/>
       <c r="Y66" s="9"/>
@@ -6994,7 +6995,7 @@
         <v>30860.661446945422</v>
       </c>
       <c r="W67" s="11">
-        <v>25390.229928263892</v>
+        <v>25380.549483334406</v>
       </c>
       <c r="X67" s="9"/>
       <c r="Y67" s="9"/>
@@ -7138,7 +7139,7 @@
         <v>130631.80261460665</v>
       </c>
       <c r="W68" s="11">
-        <v>135756.11110565107</v>
+        <v>135735.43789387229</v>
       </c>
       <c r="X68" s="9"/>
       <c r="Y68" s="9"/>
@@ -7282,7 +7283,7 @@
         <v>4111.7967845953008</v>
       </c>
       <c r="W69" s="11">
-        <v>5046.47549259678</v>
+        <v>5046.657083166413</v>
       </c>
       <c r="X69" s="9"/>
       <c r="Y69" s="9"/>
@@ -7426,7 +7427,7 @@
         <v>8865.6060788628147</v>
       </c>
       <c r="W70" s="11">
-        <v>4602.1460896943981</v>
+        <v>4602.389464459854</v>
       </c>
       <c r="X70" s="9"/>
       <c r="Y70" s="9"/>
@@ -7570,7 +7571,7 @@
         <v>200719.84828295937</v>
       </c>
       <c r="W71" s="8">
-        <v>201073.31373300246</v>
+        <v>201500.47588378441</v>
       </c>
       <c r="X71" s="9"/>
       <c r="Y71" s="9"/>
@@ -7714,7 +7715,7 @@
         <v>58671.751358511603</v>
       </c>
       <c r="W72" s="11">
-        <v>41160.816975872767</v>
+        <v>41398.855503510262</v>
       </c>
       <c r="X72" s="9"/>
       <c r="Y72" s="9"/>
@@ -7858,7 +7859,7 @@
         <v>42546.284330421055</v>
       </c>
       <c r="W73" s="11">
-        <v>53338.73648543717</v>
+        <v>53324.641413164558</v>
       </c>
       <c r="X73" s="9"/>
       <c r="Y73" s="9"/>
@@ -8002,7 +8003,7 @@
         <v>1706.5173102510939</v>
       </c>
       <c r="W74" s="11">
-        <v>2312.4157448353426</v>
+        <v>2348.6394676108312</v>
       </c>
       <c r="X74" s="9"/>
       <c r="Y74" s="9"/>
@@ -8146,7 +8147,7 @@
         <v>13797.34149923849</v>
       </c>
       <c r="W75" s="11">
-        <v>19280.878895219656</v>
+        <v>19302.526745761439</v>
       </c>
       <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
@@ -8290,7 +8291,7 @@
         <v>4706.3128763398581</v>
       </c>
       <c r="W76" s="11">
-        <v>4008.2898942933898</v>
+        <v>4015.5779992276471</v>
       </c>
       <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
@@ -8434,7 +8435,7 @@
         <v>27451.265983660815</v>
       </c>
       <c r="W77" s="11">
-        <v>30114.710702159035</v>
+        <v>30142.655112404791</v>
       </c>
       <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
@@ -8722,7 +8723,7 @@
         <v>48608.260159085366</v>
       </c>
       <c r="W79" s="11">
-        <v>48493.064435541208</v>
+        <v>48603.179042460964</v>
       </c>
       <c r="X79" s="9"/>
       <c r="Y79" s="9"/>
@@ -8866,7 +8867,7 @@
         <v>30291.247602821255</v>
       </c>
       <c r="W80" s="8">
-        <v>26245.323773278025</v>
+        <v>26244.52132658512</v>
       </c>
       <c r="X80" s="9"/>
       <c r="Y80" s="9"/>
@@ -9010,7 +9011,7 @@
         <v>9455.6623680039338</v>
       </c>
       <c r="W81" s="11">
-        <v>11170.209159077656</v>
+        <v>11169.733313269389</v>
       </c>
       <c r="X81" s="9"/>
       <c r="Y81" s="9"/>
@@ -9154,7 +9155,7 @@
         <v>20835.585234817321</v>
       </c>
       <c r="W82" s="11">
-        <v>15075.114614200369</v>
+        <v>15074.78801331573</v>
       </c>
       <c r="X82" s="9"/>
       <c r="Y82" s="9"/>
@@ -9298,7 +9299,7 @@
         <v>34375.050725332236</v>
       </c>
       <c r="W83" s="11">
-        <v>39975.188116513309</v>
+        <v>39881.730202219245</v>
       </c>
       <c r="X83" s="9"/>
       <c r="Y83" s="9"/>
@@ -9586,7 +9587,7 @@
         <v>91213.230950656085</v>
       </c>
       <c r="W85" s="11">
-        <v>99492.427828632441</v>
+        <v>99529.617485516821</v>
       </c>
       <c r="X85" s="9"/>
       <c r="Y85" s="9"/>
@@ -9730,7 +9731,7 @@
         <v>84466.182449729866</v>
       </c>
       <c r="W86" s="11">
-        <v>70524.793525404806</v>
+        <v>70536.477873958749</v>
       </c>
       <c r="X86" s="9"/>
       <c r="Y86" s="9"/>
@@ -9874,7 +9875,7 @@
         <v>16849.508509384919</v>
       </c>
       <c r="W87" s="11">
-        <v>348.70738810815874</v>
+        <v>348.8230888561813</v>
       </c>
       <c r="X87" s="9"/>
       <c r="Y87" s="9"/>
@@ -10018,7 +10019,7 @@
         <v>124540.27438779215</v>
       </c>
       <c r="W88" s="11">
-        <v>130717.00470169159</v>
+        <v>130937.13885846666</v>
       </c>
       <c r="X88" s="9"/>
       <c r="Y88" s="9"/>
@@ -10162,7 +10163,7 @@
         <v>70845.135729080546</v>
       </c>
       <c r="W89" s="11">
-        <v>84226.981655472337</v>
+        <v>84239.388952899782</v>
       </c>
       <c r="X89" s="9"/>
       <c r="Y89" s="9"/>
@@ -10306,7 +10307,7 @@
         <v>17838.633021871014</v>
       </c>
       <c r="W90" s="11">
-        <v>18202.428616159516</v>
+        <v>18185.154064661136</v>
       </c>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
@@ -10450,7 +10451,7 @@
         <v>38197.37554779624</v>
       </c>
       <c r="W91" s="11">
-        <v>45201.456693857588</v>
+        <v>45171.903343561513</v>
       </c>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
@@ -10594,7 +10595,7 @@
         <v>354763.15602224733</v>
       </c>
       <c r="W92" s="11">
-        <v>409329.705984956</v>
+        <v>409700.26607221627</v>
       </c>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
@@ -10835,7 +10836,7 @@
         <v>2849277.293077284</v>
       </c>
       <c r="W94" s="8">
-        <v>3180341.557069757</v>
+        <v>3180713.9083417552</v>
       </c>
       <c r="X94" s="9"/>
       <c r="Y94" s="9"/>
@@ -11147,7 +11148,7 @@
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:96" x14ac:dyDescent="0.25">
@@ -11157,7 +11158,7 @@
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.25">
@@ -11329,7 +11330,7 @@
         <v>-8.6721342505160948</v>
       </c>
       <c r="V110" s="18">
-        <v>14.206575311703887</v>
+        <v>14.164147241848397</v>
       </c>
       <c r="W110" s="18"/>
       <c r="X110" s="9"/>
@@ -11466,7 +11467,7 @@
         <v>-8.3710309997742911</v>
       </c>
       <c r="V111" s="18">
-        <v>13.143659620547425</v>
+        <v>13.133320545017014</v>
       </c>
       <c r="W111" s="18"/>
       <c r="X111" s="9"/>
@@ -11603,7 +11604,7 @@
         <v>-20.290809467140463</v>
       </c>
       <c r="V112" s="18">
-        <v>28.915187769646764</v>
+        <v>28.996008223134993</v>
       </c>
       <c r="W112" s="18"/>
       <c r="X112" s="9"/>
@@ -11740,7 +11741,7 @@
         <v>-22.215958009801696</v>
       </c>
       <c r="V113" s="18">
-        <v>19.258517550601084</v>
+        <v>19.248408530612977</v>
       </c>
       <c r="W113" s="18"/>
       <c r="X113" s="9"/>
@@ -11877,7 +11878,7 @@
         <v>6.3915691226624318</v>
       </c>
       <c r="V114" s="18">
-        <v>9.9417343717815214</v>
+        <v>8.7519857730461865</v>
       </c>
       <c r="W114" s="18"/>
       <c r="X114" s="9"/>
@@ -12014,7 +12015,7 @@
         <v>-52.053506770689552</v>
       </c>
       <c r="V115" s="18">
-        <v>101.45377983750024</v>
+        <v>101.47490051948748</v>
       </c>
       <c r="W115" s="18"/>
       <c r="X115" s="9"/>
@@ -12151,7 +12152,7 @@
         <v>-34.327848403541196</v>
       </c>
       <c r="V116" s="18">
-        <v>-14.08443238364346</v>
+        <v>-14.073941378955709</v>
       </c>
       <c r="W116" s="18"/>
       <c r="X116" s="9"/>
@@ -12288,7 +12289,7 @@
         <v>51.342497514840659</v>
       </c>
       <c r="V117" s="18">
-        <v>2.0220170851343653</v>
+        <v>2.020310009041637</v>
       </c>
       <c r="W117" s="18"/>
       <c r="X117" s="9"/>
@@ -12425,7 +12426,7 @@
         <v>36.390049018072631</v>
       </c>
       <c r="V118" s="18">
-        <v>24.951652048926036</v>
+        <v>24.969305690279114</v>
       </c>
       <c r="W118" s="18"/>
       <c r="X118" s="9"/>
@@ -12699,7 +12700,7 @@
         <v>-12.55397054424482</v>
       </c>
       <c r="V120" s="18">
-        <v>8.0976424026697913</v>
+        <v>8.2988757450561934</v>
       </c>
       <c r="W120" s="18"/>
       <c r="X120" s="9"/>
@@ -12836,7 +12837,7 @@
         <v>-21.628390642015148</v>
       </c>
       <c r="V121" s="18">
-        <v>-32.090857082047179</v>
+        <v>-31.810786594464147</v>
       </c>
       <c r="W121" s="18"/>
       <c r="X121" s="9"/>
@@ -12973,7 +12974,7 @@
         <v>-10.786359759604153</v>
       </c>
       <c r="V122" s="18">
-        <v>58.347924504092305</v>
+        <v>58.308813175839305</v>
       </c>
       <c r="W122" s="18"/>
       <c r="X122" s="9"/>
@@ -13110,7 +13111,7 @@
         <v>-37.097664826065071</v>
       </c>
       <c r="V123" s="18">
-        <v>60.081089136933343</v>
+        <v>62.376491844933639</v>
       </c>
       <c r="W123" s="18"/>
       <c r="X123" s="9"/>
@@ -13247,7 +13248,7 @@
         <v>-4.4630660092150691</v>
       </c>
       <c r="V124" s="18">
-        <v>49.931187926178268</v>
+        <v>50.068976424499738</v>
       </c>
       <c r="W124" s="18"/>
       <c r="X124" s="9"/>
@@ -13384,7 +13385,7 @@
         <v>-27.740881239713914</v>
       </c>
       <c r="V125" s="18">
-        <v>-15.684958771950889</v>
+        <v>-15.53056319612719</v>
       </c>
       <c r="W125" s="18"/>
       <c r="X125" s="9"/>
@@ -13521,7 +13522,7 @@
         <v>3.2609603488516541</v>
       </c>
       <c r="V126" s="18">
-        <v>13.451986930404772</v>
+        <v>13.575338619809131</v>
       </c>
       <c r="W126" s="18"/>
       <c r="X126" s="9"/>
@@ -13795,7 +13796,7 @@
         <v>-6.6751898204199165</v>
       </c>
       <c r="V128" s="18">
-        <v>17.572069551683626</v>
+        <v>17.864529742304882</v>
       </c>
       <c r="W128" s="18"/>
       <c r="X128" s="9"/>
@@ -13932,7 +13933,7 @@
         <v>-11.395635976893075</v>
       </c>
       <c r="V129" s="18">
-        <v>-1.3384878402315366</v>
+        <v>-1.3394518239259696</v>
       </c>
       <c r="W129" s="18"/>
       <c r="X129" s="9"/>
@@ -14069,7 +14070,7 @@
         <v>-25.509865841799865</v>
       </c>
       <c r="V130" s="18">
-        <v>36.102436067051798</v>
+        <v>36.096444388503812</v>
       </c>
       <c r="W130" s="18"/>
       <c r="X130" s="9"/>
@@ -14206,7 +14207,7 @@
         <v>-2.5434781172648258</v>
       </c>
       <c r="V131" s="18">
-        <v>-19.286913872773795</v>
+        <v>-19.285467680655884</v>
       </c>
       <c r="W131" s="18"/>
       <c r="X131" s="9"/>
@@ -14343,7 +14344,7 @@
         <v>-30.017110927088893</v>
       </c>
       <c r="V132" s="18">
-        <v>15.682630134393662</v>
+        <v>15.637370267360367</v>
       </c>
       <c r="W132" s="18"/>
       <c r="X132" s="9"/>
@@ -14617,7 +14618,7 @@
         <v>-24.440151288104346</v>
       </c>
       <c r="V134" s="18">
-        <v>21.597406761580302</v>
+        <v>21.596368713553588</v>
       </c>
       <c r="W134" s="18"/>
       <c r="X134" s="9"/>
@@ -14754,7 +14755,7 @@
         <v>-19.033433747683347</v>
       </c>
       <c r="V135" s="18">
-        <v>10.00895171283824</v>
+        <v>10.023091165665974</v>
       </c>
       <c r="W135" s="18"/>
       <c r="X135" s="9"/>
@@ -15028,7 +15029,7 @@
         <v>-25.607847793680733</v>
       </c>
       <c r="V137" s="18">
-        <v>3.4436364633658059</v>
+        <v>3.4461347571840975</v>
       </c>
       <c r="W137" s="18"/>
       <c r="X137" s="9"/>
@@ -15165,7 +15166,7 @@
         <v>-16.42250355832337</v>
       </c>
       <c r="V138" s="18">
-        <v>39.096583814932899</v>
+        <v>39.043433648526502</v>
       </c>
       <c r="W138" s="18"/>
       <c r="X138" s="9"/>
@@ -15302,7 +15303,7 @@
         <v>-16.302264368037655</v>
       </c>
       <c r="V139" s="18">
-        <v>-0.74075215976854736</v>
+        <v>-0.84818514821219537</v>
       </c>
       <c r="W139" s="18"/>
       <c r="X139" s="9"/>
@@ -15439,7 +15440,7 @@
         <v>-19.858034840518641</v>
       </c>
       <c r="V140" s="18">
-        <v>26.60071521352161</v>
+        <v>26.52950202092002</v>
       </c>
       <c r="W140" s="18"/>
       <c r="X140" s="9"/>
@@ -15576,7 +15577,7 @@
         <v>-23.732079663561663</v>
       </c>
       <c r="V141" s="18">
-        <v>15.367574333929952</v>
+        <v>15.578873339814649</v>
       </c>
       <c r="W141" s="18"/>
       <c r="X141" s="9"/>
@@ -15805,7 +15806,7 @@
         <v>-13.247613875477512</v>
       </c>
       <c r="V143" s="18">
-        <v>14.259690352854676</v>
+        <v>14.273565159140688</v>
       </c>
       <c r="W143" s="18"/>
       <c r="X143" s="9"/>
@@ -16107,7 +16108,7 @@
     </row>
     <row r="150" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:92" x14ac:dyDescent="0.25">
@@ -16117,7 +16118,7 @@
     </row>
     <row r="153" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.25">
@@ -16289,7 +16290,7 @@
         <v>-2.9698060882001869</v>
       </c>
       <c r="V159" s="18">
-        <v>16.096555340247832</v>
+        <v>16.063491736069707</v>
       </c>
       <c r="W159" s="18"/>
       <c r="X159" s="9"/>
@@ -16426,7 +16427,7 @@
         <v>-2.6220250473295437</v>
       </c>
       <c r="V160" s="18">
-        <v>15.254601586599662</v>
+        <v>15.245965646441988</v>
       </c>
       <c r="W160" s="18"/>
       <c r="X160" s="9"/>
@@ -16563,7 +16564,7 @@
         <v>-13.28937215158021</v>
       </c>
       <c r="V161" s="18">
-        <v>31.404402690025506</v>
+        <v>31.489496548751248</v>
       </c>
       <c r="W161" s="18"/>
       <c r="X161" s="9"/>
@@ -16700,7 +16701,7 @@
         <v>-18.224782050742476</v>
       </c>
       <c r="V162" s="18">
-        <v>16.414440916728353</v>
+        <v>16.385814918614813</v>
       </c>
       <c r="W162" s="18"/>
       <c r="X162" s="9"/>
@@ -16837,7 +16838,7 @@
         <v>6.1620266715334679</v>
       </c>
       <c r="V163" s="18">
-        <v>10.585742123044724</v>
+        <v>9.5726799980311057</v>
       </c>
       <c r="W163" s="18"/>
       <c r="X163" s="9"/>
@@ -16974,7 +16975,7 @@
         <v>-52.31028083115087</v>
       </c>
       <c r="V164" s="18">
-        <v>113.24639563328947</v>
+        <v>113.18058237787119</v>
       </c>
       <c r="W164" s="18"/>
       <c r="X164" s="9"/>
@@ -17111,7 +17112,7 @@
         <v>-33.542543131363374</v>
       </c>
       <c r="V165" s="18">
-        <v>-17.726228998967201</v>
+        <v>-17.757597234369825</v>
       </c>
       <c r="W165" s="18"/>
       <c r="X165" s="9"/>
@@ -17248,7 +17249,7 @@
         <v>68.615665299481691</v>
       </c>
       <c r="V166" s="18">
-        <v>3.9227113064973054</v>
+        <v>3.9068857484287491</v>
       </c>
       <c r="W166" s="18"/>
       <c r="X166" s="9"/>
@@ -17385,7 +17386,7 @@
         <v>31.937857589595467</v>
       </c>
       <c r="V167" s="18">
-        <v>22.731636726387336</v>
+        <v>22.736053057717555</v>
       </c>
       <c r="W167" s="18"/>
       <c r="X167" s="9"/>
@@ -17522,7 +17523,7 @@
         <v>10.911064984164057</v>
       </c>
       <c r="V168" s="18">
-        <v>-48.089887496053599</v>
+        <v>-48.087142339509413</v>
       </c>
       <c r="W168" s="18"/>
       <c r="X168" s="9"/>
@@ -17659,7 +17660,7 @@
         <v>-18.338576872333348</v>
       </c>
       <c r="V169" s="18">
-        <v>0.17609890255836547</v>
+        <v>0.38891400501886153</v>
       </c>
       <c r="W169" s="18"/>
       <c r="X169" s="9"/>
@@ -17796,7 +17797,7 @@
         <v>-28.295181489624326</v>
       </c>
       <c r="V170" s="18">
-        <v>-29.845596862515507</v>
+        <v>-29.439884535670231</v>
       </c>
       <c r="W170" s="18"/>
       <c r="X170" s="9"/>
@@ -17933,7 +17934,7 @@
         <v>-26.226027667224699</v>
       </c>
       <c r="V171" s="18">
-        <v>25.366379990318904</v>
+        <v>25.333251193070367</v>
       </c>
       <c r="W171" s="18"/>
       <c r="X171" s="9"/>
@@ -18070,7 +18071,7 @@
         <v>-52.908687198125001</v>
       </c>
       <c r="V172" s="18">
-        <v>35.504968566366188</v>
+        <v>37.627638085033936</v>
       </c>
       <c r="W172" s="18"/>
       <c r="X172" s="9"/>
@@ -18207,7 +18208,7 @@
         <v>-11.681085432928555</v>
       </c>
       <c r="V173" s="18">
-        <v>39.743434605020241</v>
+        <v>39.900333312955951</v>
       </c>
       <c r="W173" s="18"/>
       <c r="X173" s="9"/>
@@ -18344,7 +18345,7 @@
         <v>-29.181590512563503</v>
       </c>
       <c r="V174" s="18">
-        <v>-14.831631478554115</v>
+        <v>-14.676773416080266</v>
       </c>
       <c r="W174" s="18"/>
       <c r="X174" s="9"/>
@@ -18481,7 +18482,7 @@
         <v>1.0658523441246217</v>
       </c>
       <c r="V175" s="18">
-        <v>9.7024476761236542</v>
+        <v>9.804244111531716</v>
       </c>
       <c r="W175" s="18"/>
       <c r="X175" s="9"/>
@@ -18755,7 +18756,7 @@
         <v>-4.2394787519171615</v>
       </c>
       <c r="V177" s="18">
-        <v>-0.23698795876903489</v>
+        <v>-1.0453195830862683E-2</v>
       </c>
       <c r="W177" s="18"/>
       <c r="X177" s="9"/>
@@ -18892,7 +18893,7 @@
         <v>-7.0845528791486743</v>
       </c>
       <c r="V178" s="18">
-        <v>-13.356742127605216</v>
+        <v>-13.359391231740588</v>
       </c>
       <c r="W178" s="18"/>
       <c r="X178" s="9"/>
@@ -19029,7 +19030,7 @@
         <v>-22.319837440796121</v>
       </c>
       <c r="V179" s="18">
-        <v>18.132487438166194</v>
+        <v>18.127455048157472</v>
       </c>
       <c r="W179" s="18"/>
       <c r="X179" s="9"/>
@@ -19166,7 +19167,7 @@
         <v>1.9936487933601938</v>
       </c>
       <c r="V180" s="18">
-        <v>-27.647270550341503</v>
+        <v>-27.6488380651531</v>
       </c>
       <c r="W180" s="18"/>
       <c r="X180" s="9"/>
@@ -19303,7 +19304,7 @@
         <v>-25.749279680996082</v>
       </c>
       <c r="V181" s="18">
-        <v>16.291284734175321</v>
+        <v>16.019407566514317</v>
       </c>
       <c r="W181" s="18"/>
       <c r="X181" s="9"/>
@@ -19577,7 +19578,7 @@
         <v>-19.984028073567515</v>
       </c>
       <c r="V183" s="18">
-        <v>9.0767499316575879</v>
+        <v>9.117522149127339</v>
       </c>
       <c r="W183" s="18"/>
       <c r="X183" s="9"/>
@@ -19714,7 +19715,7 @@
         <v>-14.615318491837499</v>
       </c>
       <c r="V184" s="18">
-        <v>-16.505290661883876</v>
+        <v>-16.491457494318979</v>
       </c>
       <c r="W184" s="18"/>
       <c r="X184" s="9"/>
@@ -19851,7 +19852,7 @@
         <v>23.398390930726379</v>
       </c>
       <c r="V185" s="18">
-        <v>-97.930459586320069</v>
+        <v>-97.929772914967273</v>
       </c>
       <c r="W185" s="18"/>
       <c r="X185" s="9"/>
@@ -19988,7 +19989,7 @@
         <v>-20.270697708342098</v>
       </c>
       <c r="V186" s="18">
-        <v>4.959624783438656</v>
+        <v>5.1363821881073051</v>
       </c>
       <c r="W186" s="18"/>
       <c r="X186" s="9"/>
@@ -20125,7 +20126,7 @@
         <v>-4.4812613035224729</v>
       </c>
       <c r="V187" s="18">
-        <v>18.888870475970876</v>
+        <v>18.906383742477843</v>
       </c>
       <c r="W187" s="18"/>
       <c r="X187" s="9"/>
@@ -20262,7 +20263,7 @@
         <v>-10.926406082506844</v>
       </c>
       <c r="V188" s="18">
-        <v>2.0393692377800079</v>
+        <v>1.9425313720242485</v>
       </c>
       <c r="W188" s="18"/>
       <c r="X188" s="9"/>
@@ -20399,7 +20400,7 @@
         <v>-15.719706140723289</v>
       </c>
       <c r="V189" s="18">
-        <v>18.336550733170583</v>
+        <v>18.259180626265987</v>
       </c>
       <c r="W189" s="18"/>
       <c r="X189" s="9"/>
@@ -20536,7 +20537,7 @@
         <v>-18.431137815017635</v>
       </c>
       <c r="V190" s="18">
-        <v>15.381120907405261</v>
+        <v>15.48557371795502</v>
       </c>
       <c r="W190" s="18"/>
       <c r="X190" s="9"/>
@@ -20765,7 +20766,7 @@
         <v>-8.5742194239769987</v>
       </c>
       <c r="V192" s="18">
-        <v>11.619236386603717</v>
+        <v>11.63230465738603</v>
       </c>
       <c r="W192" s="18"/>
       <c r="X192" s="9"/>
@@ -21063,7 +21064,7 @@
     </row>
     <row r="198" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.25">
@@ -21073,7 +21074,7 @@
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:96" x14ac:dyDescent="0.25">
@@ -21250,7 +21251,7 @@
         <v>89.536756414254455</v>
       </c>
       <c r="W207" s="18">
-        <v>88.079153465160942</v>
+        <v>88.071514047493949</v>
       </c>
       <c r="X207" s="9"/>
       <c r="Y207" s="9"/>
@@ -21394,7 +21395,7 @@
         <v>88.351328759011309</v>
       </c>
       <c r="W208" s="18">
-        <v>86.733132825257286</v>
+        <v>86.731705886660663</v>
       </c>
       <c r="X208" s="9"/>
       <c r="Y208" s="9"/>
@@ -21538,7 +21539,7 @@
         <v>87.929076016717787</v>
       </c>
       <c r="W209" s="18">
-        <v>86.263421263336028</v>
+        <v>86.261641504573149</v>
       </c>
       <c r="X209" s="9"/>
       <c r="Y209" s="9"/>
@@ -21682,7 +21683,7 @@
         <v>92.551102992564751</v>
       </c>
       <c r="W210" s="18">
-        <v>94.812183554284644</v>
+        <v>94.827464561155921</v>
       </c>
       <c r="X210" s="9"/>
       <c r="Y210" s="9"/>
@@ -21826,7 +21827,7 @@
         <v>101.90460258411025</v>
       </c>
       <c r="W211" s="18">
-        <v>101.31115036600653</v>
+        <v>101.141341898676</v>
       </c>
       <c r="X211" s="9"/>
       <c r="Y211" s="9"/>
@@ -21970,7 +21971,7 @@
         <v>97.416218684421963</v>
       </c>
       <c r="W212" s="18">
-        <v>92.029060623380204</v>
+        <v>92.067123325702525</v>
       </c>
       <c r="X212" s="9"/>
       <c r="Y212" s="9"/>
@@ -22114,7 +22115,7 @@
         <v>98.146996482062193</v>
       </c>
       <c r="W213" s="18">
-        <v>102.49141141824008</v>
+        <v>102.54302269390274</v>
       </c>
       <c r="X213" s="9"/>
       <c r="Y213" s="9"/>
@@ -22258,7 +22259,7 @@
         <v>91.737071711853133</v>
       </c>
       <c r="W214" s="18">
-        <v>90.059246721575221</v>
+        <v>90.071456072933714</v>
       </c>
       <c r="X214" s="9"/>
       <c r="Y214" s="9"/>
@@ -22402,7 +22403,7 @@
         <v>113.03818677011974</v>
       </c>
       <c r="W215" s="18">
-        <v>115.08286337800291</v>
+        <v>115.09498118296958</v>
       </c>
       <c r="X215" s="9"/>
       <c r="Y215" s="9"/>
@@ -22546,7 +22547,7 @@
         <v>95.664585097089073</v>
       </c>
       <c r="W216" s="18">
-        <v>97.399183822869304</v>
+        <v>97.394033345339864</v>
       </c>
       <c r="X216" s="9"/>
       <c r="Y216" s="9"/>
@@ -22690,7 +22691,7 @@
         <v>107.16298304434943</v>
       </c>
       <c r="W217" s="18">
-        <v>115.63702267143894</v>
+        <v>115.60669522343223</v>
       </c>
       <c r="X217" s="9"/>
       <c r="Y217" s="9"/>
@@ -22834,7 +22835,7 @@
         <v>129.78169473680566</v>
       </c>
       <c r="W218" s="18">
-        <v>125.6280897828173</v>
+        <v>125.42087864090786</v>
       </c>
       <c r="X218" s="9"/>
       <c r="Y218" s="9"/>
@@ -22978,7 +22979,7 @@
         <v>97.068207256168975</v>
       </c>
       <c r="W219" s="18">
-        <v>122.60503298838479</v>
+        <v>122.60714967138846</v>
       </c>
       <c r="X219" s="9"/>
       <c r="Y219" s="9"/>
@@ -23122,7 +23123,7 @@
         <v>111.42723670674701</v>
       </c>
       <c r="W220" s="18">
-        <v>131.636452893598</v>
+        <v>131.46461019143294</v>
       </c>
       <c r="X220" s="9"/>
       <c r="Y220" s="9"/>
@@ -23266,7 +23267,7 @@
         <v>86.788927953154385</v>
       </c>
       <c r="W221" s="18">
-        <v>93.116124586710797</v>
+        <v>93.097173355364475</v>
       </c>
       <c r="X221" s="9"/>
       <c r="Y221" s="9"/>
@@ -23410,7 +23411,7 @@
         <v>102.20645351699808</v>
       </c>
       <c r="W222" s="18">
-        <v>101.18241656687874</v>
+        <v>101.18372115019261</v>
       </c>
       <c r="X222" s="9"/>
       <c r="Y222" s="9"/>
@@ -23554,7 +23555,7 @@
         <v>114.11278895025698</v>
       </c>
       <c r="W223" s="18">
-        <v>118.01307003466536</v>
+        <v>118.03185524151468</v>
       </c>
       <c r="X223" s="9"/>
       <c r="Y223" s="9"/>
@@ -23842,7 +23843,7 @@
         <v>91.112717558097742</v>
       </c>
       <c r="W225" s="18">
-        <v>107.37757959188615</v>
+        <v>107.40080290153755</v>
       </c>
       <c r="X225" s="9"/>
       <c r="Y225" s="9"/>
@@ -23986,7 +23987,7 @@
         <v>102.12425700973728</v>
       </c>
       <c r="W226" s="18">
-        <v>116.2898749676831</v>
+        <v>116.29229436285007</v>
       </c>
       <c r="X226" s="9"/>
       <c r="Y226" s="9"/>
@@ -24130,7 +24131,7 @@
         <v>106.0118017484597</v>
       </c>
       <c r="W227" s="18">
-        <v>122.13798915708909</v>
+        <v>122.13781525473892</v>
       </c>
       <c r="X227" s="9"/>
       <c r="Y227" s="9"/>
@@ -24274,7 +24275,7 @@
         <v>100.36000080691929</v>
       </c>
       <c r="W228" s="18">
-        <v>111.95659722130362</v>
+        <v>111.9610288497384</v>
       </c>
       <c r="X228" s="9"/>
       <c r="Y228" s="9"/>
@@ -24418,7 +24419,7 @@
         <v>87.991022119633868</v>
       </c>
       <c r="W229" s="18">
-        <v>87.530487691150881</v>
+        <v>87.701278764229201</v>
       </c>
       <c r="X229" s="9"/>
       <c r="Y229" s="9"/>
@@ -24706,7 +24707,7 @@
         <v>95.101091312378387</v>
       </c>
       <c r="W231" s="18">
-        <v>106.01751602451446</v>
+        <v>105.97699742922335</v>
       </c>
       <c r="X231" s="9"/>
       <c r="Y231" s="9"/>
@@ -24850,7 +24851,7 @@
         <v>85.037826076617179</v>
       </c>
       <c r="W232" s="18">
-        <v>112.04209436485462</v>
+        <v>112.03793300932307</v>
       </c>
       <c r="X232" s="9"/>
       <c r="Y232" s="9"/>
@@ -24994,7 +24995,7 @@
         <v>48.989537059251823</v>
       </c>
       <c r="W233" s="18">
-        <v>71.844201939230771</v>
+        <v>71.820372014632866</v>
       </c>
       <c r="X233" s="9"/>
       <c r="Y233" s="9"/>
@@ -25138,7 +25139,7 @@
         <v>83.360420991627223</v>
       </c>
       <c r="W234" s="18">
-        <v>82.156401590448851</v>
+        <v>82.020259436803329</v>
       </c>
       <c r="X234" s="9"/>
       <c r="Y234" s="9"/>
@@ -25282,7 +25283,7 @@
         <v>77.556075258452125</v>
       </c>
       <c r="W235" s="18">
-        <v>90.738393588531025</v>
+        <v>90.690362155773713</v>
       </c>
       <c r="X235" s="9"/>
       <c r="Y235" s="9"/>
@@ -25426,7 +25427,7 @@
         <v>84.046420258585997</v>
       </c>
       <c r="W236" s="18">
-        <v>81.756527121322847</v>
+        <v>81.745616753654232</v>
       </c>
       <c r="X236" s="9"/>
       <c r="Y236" s="9"/>
@@ -25570,7 +25571,7 @@
         <v>84.715045795976749</v>
       </c>
       <c r="W237" s="18">
-        <v>90.631215128958502</v>
+        <v>90.639496244434795</v>
       </c>
       <c r="X237" s="9"/>
       <c r="Y237" s="9"/>
@@ -25714,7 +25715,7 @@
         <v>85.619272991198073</v>
       </c>
       <c r="W238" s="18">
-        <v>85.609220672730729</v>
+        <v>85.688443932093961</v>
       </c>
       <c r="X238" s="9"/>
       <c r="Y238" s="9"/>
@@ -25955,7 +25956,7 @@
         <v>89.562655577843913</v>
       </c>
       <c r="W240" s="18">
-        <v>91.681341180829008</v>
+        <v>91.681740240084324</v>
       </c>
       <c r="X240" s="9"/>
       <c r="Y240" s="9"/>
@@ -26073,7 +26074,7 @@
     </row>
     <row r="247" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:96" x14ac:dyDescent="0.25">
@@ -26083,7 +26084,7 @@
     </row>
     <row r="250" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:96" x14ac:dyDescent="0.25">
@@ -26260,7 +26261,7 @@
         <v>60.04309487351027</v>
       </c>
       <c r="W256" s="18">
-        <v>60.01518309250352</v>
+        <v>59.985603095952676</v>
       </c>
       <c r="X256" s="9"/>
       <c r="Y256" s="9"/>
@@ -26404,7 +26405,7 @@
         <v>41.64609788977841</v>
       </c>
       <c r="W257" s="18">
-        <v>41.239319917755772</v>
+        <v>41.230544749802817</v>
       </c>
       <c r="X257" s="9"/>
       <c r="Y257" s="9"/>
@@ -26548,7 +26549,7 @@
         <v>6.5804831247524804</v>
       </c>
       <c r="W258" s="18">
-        <v>7.4245275391757026</v>
+        <v>7.4282801458992767</v>
       </c>
       <c r="X258" s="9"/>
       <c r="Y258" s="9"/>
@@ -26692,7 +26693,7 @@
         <v>2.5888236932256588</v>
       </c>
       <c r="W259" s="18">
-        <v>2.702083953671861</v>
+        <v>2.7015268575333309</v>
       </c>
       <c r="X259" s="9"/>
       <c r="Y259" s="9"/>
@@ -26836,7 +26837,7 @@
         <v>2.2215652180411305</v>
       </c>
       <c r="W260" s="18">
-        <v>2.1376106686198861</v>
+        <v>2.1142215056460749</v>
       </c>
       <c r="X260" s="9"/>
       <c r="Y260" s="9"/>
@@ -26980,7 +26981,7 @@
         <v>0.60867637561257126</v>
       </c>
       <c r="W261" s="18">
-        <v>1.0731707410222204</v>
+        <v>1.073152938339875</v>
       </c>
       <c r="X261" s="9"/>
       <c r="Y261" s="9"/>
@@ -27124,7 +27125,7 @@
         <v>1.186917586376532</v>
       </c>
       <c r="W262" s="18">
-        <v>0.8924818353039401</v>
+        <v>0.89248243864018784</v>
       </c>
       <c r="X262" s="9"/>
       <c r="Y262" s="9"/>
@@ -27268,7 +27269,7 @@
         <v>4.6960435278410362</v>
       </c>
       <c r="W263" s="18">
-        <v>4.1930783424179214</v>
+        <v>4.1924990776221867</v>
       </c>
       <c r="X263" s="9"/>
       <c r="Y263" s="9"/>
@@ -27412,7 +27413,7 @@
         <v>0.18213572794077779</v>
       </c>
       <c r="W264" s="18">
-        <v>0.19917925589551824</v>
+        <v>0.19918320943653431</v>
       </c>
       <c r="X264" s="9"/>
       <c r="Y264" s="9"/>
@@ -27556,7 +27557,7 @@
         <v>0.33235172994167855</v>
       </c>
       <c r="W265" s="18">
-        <v>0.15373083864069645</v>
+        <v>0.15371217303239629</v>
       </c>
       <c r="X265" s="9"/>
       <c r="Y265" s="9"/>
@@ -27700,7 +27701,7 @@
         <v>8.4289491761989161</v>
       </c>
       <c r="W266" s="18">
-        <v>7.9743742615198174</v>
+        <v>7.9882492352741847</v>
       </c>
       <c r="X266" s="9"/>
       <c r="Y266" s="9"/>
@@ -27844,7 +27845,7 @@
         <v>2.9838762930427913</v>
       </c>
       <c r="W267" s="18">
-        <v>1.7734380428300507</v>
+        <v>1.7805358311754644</v>
       </c>
       <c r="X267" s="9"/>
       <c r="Y267" s="9"/>
@@ -27988,7 +27989,7 @@
         <v>1.6183668265741757</v>
       </c>
       <c r="W268" s="18">
-        <v>2.2428297090855236</v>
+        <v>2.2420034873447166</v>
       </c>
       <c r="X268" s="9"/>
       <c r="Y268" s="9"/>
@@ -28132,7 +28133,7 @@
         <v>7.4514429253010023E-2</v>
       </c>
       <c r="W269" s="18">
-        <v>0.10439684331720049</v>
+        <v>0.10588093227931854</v>
       </c>
       <c r="X269" s="9"/>
       <c r="Y269" s="9"/>
@@ -28276,7 +28277,7 @@
         <v>0.46924327621627582</v>
       </c>
       <c r="W270" s="18">
-        <v>0.61573947568220677</v>
+        <v>0.6162305171610597</v>
       </c>
       <c r="X270" s="9"/>
       <c r="Y270" s="9"/>
@@ -28420,7 +28421,7 @@
         <v>0.18849395868490015</v>
       </c>
       <c r="W271" s="18">
-        <v>0.13909433719516878</v>
+        <v>0.13933212382822377</v>
       </c>
       <c r="X271" s="9"/>
       <c r="Y271" s="9"/>
@@ -28564,7 +28565,7 @@
         <v>1.2275382070901499</v>
       </c>
       <c r="W272" s="18">
-        <v>1.2188607215482861</v>
+        <v>1.2200377869095056</v>
       </c>
       <c r="X272" s="9"/>
       <c r="Y272" s="9"/>
@@ -28708,7 +28709,7 @@
         <v>0.13140507748944399</v>
       </c>
       <c r="W273" s="18">
-        <v>9.4191697109297562E-2</v>
+        <v>9.4180260592467785E-2</v>
       </c>
       <c r="X273" s="9"/>
       <c r="Y273" s="9"/>
@@ -28852,7 +28853,7 @@
         <v>1.7355111078481693</v>
       </c>
       <c r="W274" s="18">
-        <v>1.7858234347520836</v>
+        <v>1.7900482959834283</v>
       </c>
       <c r="X274" s="9"/>
       <c r="Y274" s="9"/>
@@ -28996,7 +28997,7 @@
         <v>1.2122282248255338</v>
       </c>
       <c r="W275" s="18">
-        <v>1.0467407129731543</v>
+        <v>1.0466033943129287</v>
       </c>
       <c r="X275" s="9"/>
       <c r="Y275" s="9"/>
@@ -29140,7 +29141,7 @@
         <v>0.39281177070101597</v>
       </c>
       <c r="W276" s="18">
-        <v>0.46790463673687632</v>
+        <v>0.46782722873754912</v>
       </c>
       <c r="X276" s="9"/>
       <c r="Y276" s="9"/>
@@ -29284,7 +29285,7 @@
         <v>0.81941645412451769</v>
       </c>
       <c r="W277" s="18">
-        <v>0.57883607623627786</v>
+        <v>0.57877616557537959</v>
       </c>
       <c r="X277" s="9"/>
       <c r="Y277" s="9"/>
@@ -29428,7 +29429,7 @@
         <v>1.1852774747958883</v>
       </c>
       <c r="W278" s="18">
-        <v>1.2000383976186326</v>
+        <v>1.1994232439642272</v>
       </c>
       <c r="X278" s="9"/>
       <c r="Y278" s="9"/>
@@ -29572,7 +29573,7 @@
         <v>2.6133512716000817</v>
       </c>
       <c r="W279" s="18">
-        <v>3.1897001747362368</v>
+        <v>3.1893128894356226</v>
       </c>
       <c r="X279" s="9"/>
       <c r="Y279" s="9"/>
@@ -29716,7 +29717,7 @@
         <v>3.3992386880200813</v>
       </c>
       <c r="W280" s="18">
-        <v>3.617536579614506</v>
+        <v>3.6170664692069732</v>
       </c>
       <c r="X280" s="9"/>
       <c r="Y280" s="9"/>
@@ -29860,7 +29861,7 @@
         <v>2.8147079271622153</v>
       </c>
       <c r="W281" s="18">
-        <v>2.7099939400211674</v>
+        <v>2.7100131727194983</v>
       </c>
       <c r="X281" s="9"/>
       <c r="Y281" s="9"/>
@@ -30004,7 +30005,7 @@
         <v>0.32346619029864027</v>
       </c>
       <c r="W282" s="18">
-        <v>8.5920768308634932E-3</v>
+        <v>8.5910336026990726E-3</v>
       </c>
       <c r="X282" s="9"/>
       <c r="Y282" s="9"/>
@@ -30148,7 +30149,7 @@
         <v>4.0682537954935043</v>
       </c>
       <c r="W283" s="18">
-        <v>3.6831446449935523</v>
+        <v>3.6827863886889816</v>
       </c>
       <c r="X283" s="9"/>
       <c r="Y283" s="9"/>
@@ -30292,7 +30293,7 @@
         <v>2.1530999004862794</v>
       </c>
       <c r="W284" s="18">
-        <v>2.6211242113910642</v>
+        <v>2.6198045255260523</v>
       </c>
       <c r="X284" s="9"/>
       <c r="Y284" s="9"/>
@@ -30436,7 +30437,7 @@
         <v>0.58751520749360586</v>
       </c>
       <c r="W285" s="18">
-        <v>0.51038399815736812</v>
+        <v>0.50976968290864655</v>
       </c>
       <c r="X285" s="9"/>
       <c r="Y285" s="9"/>
@@ -30580,7 +30581,7 @@
         <v>1.2680383703670139</v>
       </c>
       <c r="W286" s="18">
-        <v>1.4049973714342519</v>
+        <v>1.4040365619337936</v>
       </c>
       <c r="X286" s="9"/>
       <c r="Y286" s="9"/>
@@ -30724,7 +30725,7 @@
         <v>11.902778899747995</v>
       </c>
       <c r="W287" s="18">
-        <v>12.018190538205864</v>
+        <v>12.038740306473668</v>
       </c>
       <c r="X287" s="9"/>
       <c r="Y287" s="9"/>
@@ -31277,7 +31278,7 @@
     </row>
     <row r="296" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298" spans="1:96" x14ac:dyDescent="0.25">
@@ -31287,7 +31288,7 @@
     </row>
     <row r="299" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" spans="1:96" x14ac:dyDescent="0.25">
@@ -31464,7 +31465,7 @@
         <v>60.060462779148381</v>
       </c>
       <c r="W305" s="18">
-        <v>62.469633967475843</v>
+        <v>62.444532044971936</v>
       </c>
       <c r="X305" s="9"/>
       <c r="Y305" s="9"/>
@@ -31608,7 +31609,7 @@
         <v>42.217080080790126</v>
       </c>
       <c r="W306" s="18">
-        <v>43.592062644186043</v>
+        <v>43.583693587767556</v>
       </c>
       <c r="X306" s="9"/>
       <c r="Y306" s="9"/>
@@ -31752,7 +31753,7 @@
         <v>6.7027378239021358</v>
       </c>
       <c r="W307" s="18">
-        <v>7.8908375352710207</v>
+        <v>7.8950230819663698</v>
       </c>
       <c r="X307" s="9"/>
       <c r="Y307" s="9"/>
@@ -31896,7 +31897,7 @@
         <v>2.5052313510165138</v>
       </c>
       <c r="W308" s="18">
-        <v>2.6128570355517149</v>
+        <v>2.6119087413145845</v>
       </c>
       <c r="X308" s="9"/>
       <c r="Y308" s="9"/>
@@ -32040,7 +32041,7 @@
         <v>1.9525053375573469</v>
       </c>
       <c r="W309" s="18">
-        <v>1.9344268850319721</v>
+        <v>1.9164814629889819</v>
       </c>
       <c r="X309" s="9"/>
       <c r="Y309" s="9"/>
@@ -32184,7 +32185,7 @@
         <v>0.5596057137462741</v>
       </c>
       <c r="W310" s="18">
-        <v>1.0691159095450458</v>
+        <v>1.0686608354503933</v>
       </c>
       <c r="X310" s="9"/>
       <c r="Y310" s="9"/>
@@ -32328,7 +32329,7 @@
         <v>1.083104881435222</v>
       </c>
       <c r="W311" s="18">
-        <v>0.79834915441149867</v>
+        <v>0.79795134723595407</v>
       </c>
       <c r="X311" s="9"/>
       <c r="Y311" s="9"/>
@@ -32472,7 +32473,7 @@
         <v>4.5847346248817127</v>
       </c>
       <c r="W312" s="18">
-        <v>4.2686016161965785</v>
+        <v>4.2674519559238542</v>
       </c>
       <c r="X312" s="9"/>
       <c r="Y312" s="9"/>
@@ -32616,7 +32617,7 @@
         <v>0.14431016575976946</v>
       </c>
       <c r="W313" s="18">
-        <v>0.15867715470304411</v>
+        <v>0.15866428822570389</v>
       </c>
       <c r="X313" s="9"/>
       <c r="Y313" s="9"/>
@@ -32760,7 +32761,7 @@
         <v>0.31115280005926554</v>
       </c>
       <c r="W314" s="18">
-        <v>0.14470603257892325</v>
+        <v>0.14469674409853731</v>
       </c>
       <c r="X314" s="9"/>
       <c r="Y314" s="9"/>
@@ -32904,7 +32905,7 @@
         <v>7.0445880704779489</v>
       </c>
       <c r="W315" s="18">
-        <v>6.322381106709293</v>
+        <v>6.3350707322443665</v>
       </c>
       <c r="X315" s="9"/>
       <c r="Y315" s="9"/>
@@ -33048,7 +33049,7 @@
         <v>2.0591801121309881</v>
       </c>
       <c r="W316" s="18">
-        <v>1.2942263035985588</v>
+        <v>1.3015586027695678</v>
       </c>
       <c r="X316" s="9"/>
       <c r="Y316" s="9"/>
@@ -33192,7 +33193,7 @@
         <v>1.4932307372747882</v>
       </c>
       <c r="W317" s="18">
-        <v>1.6771386194941091</v>
+        <v>1.6764991429538856</v>
       </c>
       <c r="X317" s="9"/>
       <c r="Y317" s="9"/>
@@ -33336,7 +33337,7 @@
         <v>5.9892988106047644E-2</v>
       </c>
       <c r="W318" s="18">
-        <v>7.270966666127246E-2</v>
+        <v>7.3840009988049488E-2</v>
       </c>
       <c r="X318" s="9"/>
       <c r="Y318" s="9"/>
@@ -33480,7 +33481,7 @@
         <v>0.48424003984312275</v>
       </c>
       <c r="W319" s="18">
-        <v>0.60625183016456596</v>
+        <v>0.60686145632710131</v>
       </c>
       <c r="X319" s="9"/>
       <c r="Y319" s="9"/>
@@ -33624,7 +33625,7 @@
         <v>0.1651756706086312</v>
       </c>
       <c r="W320" s="18">
-        <v>0.12603331505017568</v>
+        <v>0.12624769516982881</v>
       </c>
       <c r="X320" s="9"/>
       <c r="Y320" s="9"/>
@@ -33768,7 +33769,7 @@
         <v>0.96344662733800912</v>
       </c>
       <c r="W321" s="18">
-        <v>0.94690177648420748</v>
+        <v>0.94766948493394898</v>
       </c>
       <c r="X321" s="9"/>
       <c r="Y321" s="9"/>
@@ -33912,7 +33913,7 @@
         <v>0.11343630096319397</v>
       </c>
       <c r="W322" s="18">
-        <v>7.4344234957656172E-2</v>
+        <v>7.4335531826456733E-2</v>
       </c>
       <c r="X322" s="9"/>
       <c r="Y322" s="9"/>
@@ -34056,7 +34057,7 @@
         <v>1.7059855942131676</v>
       </c>
       <c r="W323" s="18">
-        <v>1.5247753602987482</v>
+        <v>1.5280588082755271</v>
       </c>
       <c r="X323" s="9"/>
       <c r="Y323" s="9"/>
@@ -34200,7 +34201,7 @@
         <v>1.0631203806108329</v>
       </c>
       <c r="W324" s="18">
-        <v>0.82523601010513614</v>
+        <v>0.82511417508365392</v>
       </c>
       <c r="X324" s="9"/>
       <c r="Y324" s="9"/>
@@ -34344,7 +34345,7 @@
         <v>0.33186178091468255</v>
       </c>
       <c r="W325" s="18">
-        <v>0.35122671444665371</v>
+        <v>0.35117063763501633</v>
       </c>
       <c r="X325" s="9"/>
       <c r="Y325" s="9"/>
@@ -34488,7 +34489,7 @@
         <v>0.73125859969615015</v>
       </c>
       <c r="W326" s="18">
-        <v>0.47400929565848249</v>
+        <v>0.4739435374486376</v>
       </c>
       <c r="X326" s="9"/>
       <c r="Y326" s="9"/>
@@ -34632,7 +34633,7 @@
         <v>1.2064480634738923</v>
       </c>
       <c r="W327" s="18">
-        <v>1.2569463813611546</v>
+        <v>1.2538609680557951</v>
       </c>
       <c r="X327" s="9"/>
       <c r="Y327" s="9"/>
@@ -34776,7 +34777,7 @@
         <v>2.5932373077105222</v>
       </c>
       <c r="W328" s="18">
-        <v>2.1462001552616394</v>
+        <v>2.1459489096668447</v>
       </c>
       <c r="X328" s="9"/>
       <c r="Y328" s="9"/>
@@ -34920,7 +34921,7 @@
         <v>3.2012760278640249</v>
       </c>
       <c r="W329" s="18">
-        <v>3.1283566888425938</v>
+        <v>3.1291596903603933</v>
       </c>
       <c r="X329" s="9"/>
       <c r="Y329" s="9"/>
@@ -35064,7 +35065,7 @@
         <v>2.9644774362590902</v>
       </c>
       <c r="W330" s="18">
-        <v>2.2175226232739482</v>
+        <v>2.2176303781666582</v>
       </c>
       <c r="X330" s="9"/>
       <c r="Y330" s="9"/>
@@ -35208,7 +35209,7 @@
         <v>0.59136078297198891</v>
       </c>
       <c r="W331" s="18">
-        <v>1.0964463465661347E-2</v>
+        <v>1.096681747897402E-2</v>
       </c>
       <c r="X331" s="9"/>
       <c r="Y331" s="9"/>
@@ -35352,7 +35353,7 @@
         <v>4.3709425786805687</v>
       </c>
       <c r="W332" s="18">
-        <v>4.1101561689534112</v>
+        <v>4.1165959162523329</v>
       </c>
       <c r="X332" s="9"/>
       <c r="Y332" s="9"/>
@@ -35496,7 +35497,7 @@
         <v>2.4864247471177574</v>
       </c>
       <c r="W333" s="18">
-        <v>2.648362766830485</v>
+        <v>2.6484428144251884</v>
       </c>
       <c r="X333" s="9"/>
       <c r="Y333" s="9"/>
@@ -35640,7 +35641,7 @@
         <v>0.62607570927590861</v>
       </c>
       <c r="W334" s="18">
-        <v>0.57234194156587781</v>
+        <v>0.57173183721329568</v>
       </c>
       <c r="X334" s="9"/>
       <c r="Y334" s="9"/>
@@ -35784,7 +35785,7 @@
         <v>1.3405987420249368</v>
       </c>
       <c r="W335" s="18">
-        <v>1.4212767994486872</v>
+        <v>1.4201812751877327</v>
       </c>
       <c r="X335" s="9"/>
       <c r="Y335" s="9"/>
@@ -35928,7 +35929,7 @@
         <v>12.450987374384157</v>
       </c>
       <c r="W336" s="18">
-        <v>12.870620926706264</v>
+        <v>12.880764440892795</v>
       </c>
       <c r="X336" s="9"/>
       <c r="Y336" s="9"/>

--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5DF637-8185-42E4-9344-9F0D53552DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5B217-4261-4E35-A68D-18D2FB28076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="2085" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOG" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOG!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$W$342</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$X$342</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="80">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -285,13 +285,16 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2000 to 2021</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2001 to 2021</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>As of April 2022</t>
+    <t>Annual 2000 to 2022</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2022</t>
   </si>
 </sst>
 </file>
@@ -299,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -374,46 +377,46 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -434,7 +437,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="HFCE"/>
@@ -715,50 +718,50 @@
   <dimension ref="A1:CR342"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="96" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.7265625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="23" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="7.7265625" style="1"/>
+    <col min="2" max="24" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -784,8 +787,9 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -855,11 +859,14 @@
       <c r="W10" s="6">
         <v>2021</v>
       </c>
+      <c r="X10" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -929,7 +936,9 @@
       <c r="W12" s="8">
         <v>1749260.484941493</v>
       </c>
-      <c r="X12" s="9"/>
+      <c r="X12" s="8">
+        <v>2235275.7324007312</v>
+      </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -1003,7 +1012,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -1073,7 +1082,9 @@
       <c r="W13" s="11">
         <v>1202337.8774415997</v>
       </c>
-      <c r="X13" s="9"/>
+      <c r="X13" s="11">
+        <v>1643165.3131658593</v>
+      </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1147,7 +1158,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>30</v>
       </c>
@@ -1217,7 +1228,9 @@
       <c r="W14" s="11">
         <v>216618.59278987156</v>
       </c>
-      <c r="X14" s="9"/>
+      <c r="X14" s="11">
+        <v>199399.5639946158</v>
+      </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1291,7 +1304,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
@@ -1361,7 +1374,9 @@
       <c r="W15" s="11">
         <v>78780.139516677969</v>
       </c>
-      <c r="X15" s="9"/>
+      <c r="X15" s="11">
+        <v>74115.939826906033</v>
+      </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1435,7 +1450,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -1505,7 +1520,9 @@
       <c r="W16" s="11">
         <v>61653.529269754363</v>
       </c>
-      <c r="X16" s="9"/>
+      <c r="X16" s="11">
+        <v>61123.011025020351</v>
+      </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1579,7 +1596,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1649,7 +1666,9 @@
       <c r="W17" s="11">
         <v>31294.57623913524</v>
       </c>
-      <c r="X17" s="9"/>
+      <c r="X17" s="11">
+        <v>51510.02329168393</v>
+      </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1723,7 +1742,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
@@ -1793,7 +1812,9 @@
       <c r="W18" s="11">
         <v>26025.982616532812</v>
       </c>
-      <c r="X18" s="9"/>
+      <c r="X18" s="11">
+        <v>28798.697614903525</v>
+      </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1867,7 +1888,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1937,7 +1958,9 @@
       <c r="W19" s="11">
         <v>122258.8853179834</v>
       </c>
-      <c r="X19" s="9"/>
+      <c r="X19" s="11">
+        <v>166174.14549300901</v>
+      </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2011,7 +2034,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>24</v>
       </c>
@@ -2081,7 +2104,9 @@
       <c r="W20" s="11">
         <v>5808.4490202393845</v>
       </c>
-      <c r="X20" s="9"/>
+      <c r="X20" s="11">
+        <v>6187.7410026970183</v>
+      </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -2155,7 +2180,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>23</v>
       </c>
@@ -2225,7 +2250,9 @@
       <c r="W21" s="11">
         <v>4482.4527296984388</v>
       </c>
-      <c r="X21" s="9"/>
+      <c r="X21" s="11">
+        <v>4801.2969860358808</v>
+      </c>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2299,7 +2326,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -2369,7 +2396,9 @@
       <c r="W22" s="8">
         <v>232948.0410287322</v>
       </c>
-      <c r="X22" s="9"/>
+      <c r="X22" s="8">
+        <v>285312.57832592161</v>
+      </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -2443,7 +2472,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>21</v>
       </c>
@@ -2513,7 +2542,9 @@
       <c r="W23" s="11">
         <v>51922.808319782409</v>
       </c>
-      <c r="X23" s="9"/>
+      <c r="X23" s="11">
+        <v>55885.998897682686</v>
+      </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2587,7 +2618,7 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>20</v>
       </c>
@@ -2657,7 +2688,9 @@
       <c r="W24" s="11">
         <v>65379.822909169859</v>
       </c>
-      <c r="X24" s="9"/>
+      <c r="X24" s="11">
+        <v>102217.15994935874</v>
+      </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -2731,7 +2764,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
@@ -2801,7 +2834,9 @@
       <c r="W25" s="11">
         <v>3087.6297208967253</v>
       </c>
-      <c r="X25" s="9"/>
+      <c r="X25" s="11">
+        <v>3322.8108730816948</v>
+      </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2875,7 +2910,7 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>64</v>
       </c>
@@ -2945,7 +2980,9 @@
       <c r="W26" s="11">
         <v>17970.10678646712</v>
       </c>
-      <c r="X26" s="9"/>
+      <c r="X26" s="11">
+        <v>17422.795638178461</v>
+      </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -3019,7 +3056,7 @@
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
     </row>
-    <row r="27" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3126,9 @@
       <c r="W27" s="11">
         <v>4063.1112453069854</v>
       </c>
-      <c r="X27" s="9"/>
+      <c r="X27" s="11">
+        <v>6453.0937195670722</v>
+      </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -3163,7 +3202,7 @@
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
     </row>
-    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3233,7 +3272,9 @@
       <c r="W28" s="11">
         <v>35577.935048222644</v>
       </c>
-      <c r="X28" s="9"/>
+      <c r="X28" s="11">
+        <v>38545.676123363548</v>
+      </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -3307,7 +3348,7 @@
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
     </row>
-    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3418,9 @@
       <c r="W29" s="11">
         <v>2746.4224716115596</v>
       </c>
-      <c r="X29" s="9"/>
+      <c r="X29" s="11">
+        <v>0.23213301980399587</v>
+      </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
@@ -3451,7 +3494,7 @@
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
     </row>
-    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
         <v>15</v>
       </c>
@@ -3521,7 +3564,9 @@
       <c r="W30" s="11">
         <v>52200.204527274909</v>
       </c>
-      <c r="X30" s="9"/>
+      <c r="X30" s="11">
+        <v>61464.810991669605</v>
+      </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3595,7 +3640,7 @@
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -3665,7 +3710,9 @@
       <c r="W31" s="8">
         <v>30520.355995233331</v>
       </c>
-      <c r="X31" s="9"/>
+      <c r="X31" s="8">
+        <v>33561.948162689616</v>
+      </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3739,7 +3786,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
@@ -3809,7 +3856,9 @@
       <c r="W32" s="11">
         <v>13642.468238607997</v>
       </c>
-      <c r="X32" s="9"/>
+      <c r="X32" s="11">
+        <v>15401.496169591883</v>
+      </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -3883,7 +3932,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>12</v>
       </c>
@@ -3953,7 +4002,9 @@
       <c r="W33" s="11">
         <v>16877.887756625332</v>
       </c>
-      <c r="X33" s="9"/>
+      <c r="X33" s="11">
+        <v>18160.451993097737</v>
+      </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -4027,7 +4078,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -4097,7 +4148,9 @@
       <c r="W34" s="11">
         <v>34976.787380646092</v>
       </c>
-      <c r="X34" s="9"/>
+      <c r="X34" s="11">
+        <v>42598.611592513633</v>
+      </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4171,7 +4224,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -4241,7 +4294,9 @@
       <c r="W35" s="11">
         <v>93004.633173067676</v>
       </c>
-      <c r="X35" s="9"/>
+      <c r="X35" s="11">
+        <v>94592.637441298604</v>
+      </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
@@ -4315,7 +4370,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -4385,7 +4440,9 @@
       <c r="W36" s="11">
         <v>105478.50016394199</v>
       </c>
-      <c r="X36" s="9"/>
+      <c r="X36" s="11">
+        <v>118937.68593154429</v>
+      </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -4459,7 +4516,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4529,7 +4586,9 @@
       <c r="W37" s="11">
         <v>79027.611827561894</v>
       </c>
-      <c r="X37" s="9"/>
+      <c r="X37" s="11">
+        <v>75009.787066359873</v>
+      </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -4603,7 +4662,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -4673,7 +4732,9 @@
       <c r="W38" s="11">
         <v>250.52604008944274</v>
       </c>
-      <c r="X38" s="9"/>
+      <c r="X38" s="11">
+        <v>320.61084445103427</v>
+      </c>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
@@ -4747,7 +4808,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -4817,7 +4878,9 @@
       <c r="W39" s="11">
         <v>107394.98099084177</v>
       </c>
-      <c r="X39" s="9"/>
+      <c r="X39" s="11">
+        <v>112675.86809151003</v>
+      </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -4891,7 +4954,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -4961,7 +5024,9 @@
       <c r="W40" s="11">
         <v>76397.006919195643</v>
       </c>
-      <c r="X40" s="9"/>
+      <c r="X40" s="11">
+        <v>80404.821050799481</v>
+      </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -5035,7 +5100,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -5105,7 +5170,9 @@
       <c r="W41" s="11">
         <v>14865.566347759466</v>
       </c>
-      <c r="X41" s="9"/>
+      <c r="X41" s="11">
+        <v>12841.540297059124</v>
+      </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -5179,7 +5246,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -5249,7 +5316,9 @@
       <c r="W42" s="11">
         <v>40943.585634627154</v>
       </c>
-      <c r="X42" s="9"/>
+      <c r="X42" s="11">
+        <v>43186.396986617045</v>
+      </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -5323,7 +5392,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -5393,7 +5462,9 @@
       <c r="W43" s="11">
         <v>351065.78278293082</v>
       </c>
-      <c r="X43" s="9"/>
+      <c r="X43" s="11">
+        <v>416603.26439943269</v>
+      </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -5467,7 +5538,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -5490,7 +5561,7 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
-      <c r="X44" s="9"/>
+      <c r="X44" s="8"/>
       <c r="Y44" s="9"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
@@ -5564,7 +5635,7 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>1</v>
       </c>
@@ -5634,7 +5705,9 @@
       <c r="W45" s="8">
         <v>2916133.8632261218</v>
       </c>
-      <c r="X45" s="9"/>
+      <c r="X45" s="8">
+        <v>3551321.4825909287</v>
+      </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
@@ -5708,7 +5781,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -5732,13 +5805,14 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -5761,7 +5835,7 @@
       <c r="U48" s="15"/>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="9"/>
+      <c r="X48" s="15"/>
       <c r="Y48" s="9"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
@@ -5835,7 +5909,7 @@
       <c r="CQ48" s="9"/>
       <c r="CR48" s="9"/>
     </row>
-    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -5932,37 +6006,37 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="16" t="s">
         <v>34</v>
@@ -5988,8 +6062,9 @@
       <c r="U58" s="16"/>
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>33</v>
       </c>
@@ -6059,11 +6134,14 @@
       <c r="W59" s="17">
         <v>2021</v>
       </c>
+      <c r="X59" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="60" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>32</v>
       </c>
@@ -6133,7 +6211,9 @@
       <c r="W61" s="8">
         <v>1986181.9157533466</v>
       </c>
-      <c r="X61" s="9"/>
+      <c r="X61" s="8">
+        <v>2144731.2364010899</v>
+      </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6207,7 +6287,7 @@
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
     </row>
-    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
         <v>31</v>
       </c>
@@ -6277,7 +6357,9 @@
       <c r="W62" s="11">
         <v>1386272.6037151765</v>
       </c>
-      <c r="X62" s="9"/>
+      <c r="X62" s="11">
+        <v>1579555.3631665716</v>
+      </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -6351,7 +6433,7 @@
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>30</v>
       </c>
@@ -6421,7 +6503,9 @@
       <c r="W63" s="11">
         <v>251118.09723489618</v>
       </c>
-      <c r="X63" s="9"/>
+      <c r="X63" s="11">
+        <v>200304.98464536972</v>
+      </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -6495,7 +6579,7 @@
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
         <v>29</v>
       </c>
@@ -6565,7 +6649,9 @@
       <c r="W64" s="11">
         <v>83077.344608187064</v>
       </c>
-      <c r="X64" s="9"/>
+      <c r="X64" s="11">
+        <v>68649.828484486556</v>
+      </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -6639,7 +6725,7 @@
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
     </row>
-    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
         <v>28</v>
       </c>
@@ -6709,7 +6795,9 @@
       <c r="W65" s="11">
         <v>60957.792444082093</v>
       </c>
-      <c r="X65" s="9"/>
+      <c r="X65" s="11">
+        <v>54312.004705910884</v>
+      </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -6783,7 +6871,7 @@
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
     </row>
-    <row r="66" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
         <v>27</v>
       </c>
@@ -6853,7 +6941,9 @@
       <c r="W66" s="11">
         <v>33991.043826171859</v>
       </c>
-      <c r="X66" s="9"/>
+      <c r="X66" s="11">
+        <v>48381.119793384758</v>
+      </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -6927,7 +7017,7 @@
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
     </row>
-    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
         <v>26</v>
       </c>
@@ -6997,7 +7087,9 @@
       <c r="W67" s="11">
         <v>25380.549483334406</v>
       </c>
-      <c r="X67" s="9"/>
+      <c r="X67" s="11">
+        <v>25547.103861618732</v>
+      </c>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -7071,7 +7163,7 @@
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
     </row>
-    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
         <v>25</v>
       </c>
@@ -7141,7 +7233,9 @@
       <c r="W68" s="11">
         <v>135735.43789387229</v>
       </c>
-      <c r="X68" s="9"/>
+      <c r="X68" s="11">
+        <v>158815.10932691471</v>
+      </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -7215,7 +7309,7 @@
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
         <v>24</v>
       </c>
@@ -7285,7 +7379,9 @@
       <c r="W69" s="11">
         <v>5046.657083166413</v>
       </c>
-      <c r="X69" s="9"/>
+      <c r="X69" s="11">
+        <v>5014.8736017847896</v>
+      </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -7359,7 +7455,7 @@
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>23</v>
       </c>
@@ -7429,7 +7525,9 @@
       <c r="W70" s="11">
         <v>4602.389464459854</v>
       </c>
-      <c r="X70" s="9"/>
+      <c r="X70" s="11">
+        <v>4150.8488150479616</v>
+      </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -7503,7 +7601,7 @@
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>22</v>
       </c>
@@ -7573,7 +7671,9 @@
       <c r="W71" s="8">
         <v>201500.47588378441</v>
       </c>
-      <c r="X71" s="9"/>
+      <c r="X71" s="8">
+        <v>213192.69458837641</v>
+      </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -7647,7 +7747,7 @@
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>21</v>
       </c>
@@ -7717,7 +7817,9 @@
       <c r="W72" s="11">
         <v>41398.855503510262</v>
       </c>
-      <c r="X72" s="9"/>
+      <c r="X72" s="11">
+        <v>40767.644582290741</v>
+      </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -7791,7 +7893,7 @@
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
         <v>20</v>
       </c>
@@ -7861,7 +7963,9 @@
       <c r="W73" s="11">
         <v>53324.641413164558</v>
       </c>
-      <c r="X73" s="9"/>
+      <c r="X73" s="11">
+        <v>71723.359403246359</v>
+      </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -7935,7 +8039,7 @@
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
     </row>
-    <row r="74" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
         <v>19</v>
       </c>
@@ -8005,7 +8109,9 @@
       <c r="W74" s="11">
         <v>2348.6394676108312</v>
       </c>
-      <c r="X74" s="9"/>
+      <c r="X74" s="11">
+        <v>2094.5567401031112</v>
+      </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -8079,7 +8185,7 @@
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
     </row>
-    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
         <v>64</v>
       </c>
@@ -8149,7 +8255,9 @@
       <c r="W75" s="11">
         <v>19302.526745761439</v>
       </c>
-      <c r="X75" s="9"/>
+      <c r="X75" s="11">
+        <v>15991.829509859674</v>
+      </c>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -8223,7 +8331,7 @@
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
         <v>18</v>
       </c>
@@ -8293,7 +8401,9 @@
       <c r="W76" s="11">
         <v>4015.5779992276471</v>
       </c>
-      <c r="X76" s="9"/>
+      <c r="X76" s="11">
+        <v>5423.145595017204</v>
+      </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -8367,7 +8477,7 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
         <v>17</v>
       </c>
@@ -8437,7 +8547,9 @@
       <c r="W77" s="11">
         <v>30142.655112404791</v>
       </c>
-      <c r="X77" s="9"/>
+      <c r="X77" s="11">
+        <v>29735.650013423106</v>
+      </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
@@ -8511,7 +8623,7 @@
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
     </row>
-    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
         <v>16</v>
       </c>
@@ -8581,7 +8693,9 @@
       <c r="W78" s="11">
         <v>2364.4005996439209</v>
       </c>
-      <c r="X78" s="9"/>
+      <c r="X78" s="11">
+        <v>0.15590894800099067</v>
+      </c>
       <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
@@ -8655,7 +8769,7 @@
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
     </row>
-    <row r="79" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
         <v>15</v>
       </c>
@@ -8725,7 +8839,9 @@
       <c r="W79" s="11">
         <v>48603.179042460964</v>
       </c>
-      <c r="X79" s="9"/>
+      <c r="X79" s="11">
+        <v>47456.352835488193</v>
+      </c>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
@@ -8799,7 +8915,7 @@
       <c r="CQ79" s="9"/>
       <c r="CR79" s="9"/>
     </row>
-    <row r="80" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -8869,7 +8985,9 @@
       <c r="W80" s="8">
         <v>26244.52132658512</v>
       </c>
-      <c r="X80" s="9"/>
+      <c r="X80" s="8">
+        <v>24660.457704743851</v>
+      </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
@@ -8943,7 +9061,7 @@
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
         <v>13</v>
       </c>
@@ -9013,7 +9131,9 @@
       <c r="W81" s="11">
         <v>11169.733313269389</v>
       </c>
-      <c r="X81" s="9"/>
+      <c r="X81" s="11">
+        <v>11521.14529745218</v>
+      </c>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
@@ -9087,7 +9207,7 @@
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
         <v>12</v>
       </c>
@@ -9157,7 +9277,9 @@
       <c r="W82" s="11">
         <v>15074.78801331573</v>
       </c>
-      <c r="X82" s="9"/>
+      <c r="X82" s="11">
+        <v>13139.312407291669</v>
+      </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
@@ -9231,7 +9353,7 @@
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -9301,7 +9423,9 @@
       <c r="W83" s="11">
         <v>39881.730202219245</v>
       </c>
-      <c r="X83" s="9"/>
+      <c r="X83" s="11">
+        <v>43026.933670991901</v>
+      </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
@@ -9375,7 +9499,7 @@
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -9445,7 +9569,9 @@
       <c r="W84" s="11">
         <v>68256.495435681572</v>
       </c>
-      <c r="X84" s="9"/>
+      <c r="X84" s="11">
+        <v>66675.912373631349</v>
+      </c>
       <c r="Y84" s="9"/>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
@@ -9519,7 +9645,7 @@
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -9589,7 +9715,9 @@
       <c r="W85" s="11">
         <v>99529.617485516821</v>
       </c>
-      <c r="X85" s="9"/>
+      <c r="X85" s="11">
+        <v>114307.07017715258</v>
+      </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -9663,7 +9791,7 @@
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -9733,7 +9861,9 @@
       <c r="W86" s="11">
         <v>70536.477873958749</v>
       </c>
-      <c r="X86" s="9"/>
+      <c r="X86" s="11">
+        <v>65600.512899029884</v>
+      </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
@@ -9807,7 +9937,7 @@
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -9877,7 +10007,9 @@
       <c r="W87" s="11">
         <v>348.8230888561813</v>
       </c>
-      <c r="X87" s="9"/>
+      <c r="X87" s="11">
+        <v>257.29621772311879</v>
+      </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
@@ -9951,7 +10083,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -10021,7 +10153,9 @@
       <c r="W88" s="11">
         <v>130937.13885846666</v>
       </c>
-      <c r="X88" s="9"/>
+      <c r="X88" s="11">
+        <v>117010.61703359996</v>
+      </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -10095,7 +10229,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -10165,7 +10299,9 @@
       <c r="W89" s="11">
         <v>84239.388952899782</v>
       </c>
-      <c r="X89" s="9"/>
+      <c r="X89" s="11">
+        <v>65177.050768368339</v>
+      </c>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
@@ -10239,7 +10375,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -10309,7 +10445,9 @@
       <c r="W90" s="11">
         <v>18185.154064661136</v>
       </c>
-      <c r="X90" s="9"/>
+      <c r="X90" s="11">
+        <v>13351.702656128462</v>
+      </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -10383,7 +10521,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -10453,7 +10591,9 @@
       <c r="W91" s="11">
         <v>45171.903343561513</v>
       </c>
-      <c r="X91" s="9"/>
+      <c r="X91" s="11">
+        <v>39758.206944331163</v>
+      </c>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -10527,7 +10667,7 @@
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -10597,7 +10737,9 @@
       <c r="W92" s="11">
         <v>409700.26607221627</v>
       </c>
-      <c r="X92" s="9"/>
+      <c r="X92" s="11">
+        <v>427248.80436855863</v>
+      </c>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
@@ -10671,7 +10813,7 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -10694,7 +10836,7 @@
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
-      <c r="X93" s="9"/>
+      <c r="X93" s="8"/>
       <c r="Y93" s="9"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
@@ -10768,7 +10910,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>1</v>
       </c>
@@ -10838,7 +10980,9 @@
       <c r="W94" s="8">
         <v>3180713.9083417552</v>
       </c>
-      <c r="X94" s="9"/>
+      <c r="X94" s="8">
+        <v>3334998.4958037259</v>
+      </c>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
@@ -10912,7 +11056,7 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -10936,13 +11080,14 @@
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
       <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -11039,7 +11184,7 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -11136,37 +11281,37 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="16" t="s">
         <v>34</v>
@@ -11192,8 +11337,9 @@
       <c r="U107" s="16"/>
       <c r="V107" s="16"/>
       <c r="W107" s="16"/>
+      <c r="X107" s="16"/>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>33</v>
       </c>
@@ -11260,12 +11406,15 @@
       <c r="V108" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="W108" s="17"/>
+      <c r="W108" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X108" s="17"/>
     </row>
-    <row r="109" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
     </row>
-    <row r="110" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>32</v>
       </c>
@@ -11332,8 +11481,10 @@
       <c r="V110" s="18">
         <v>14.164147241848397</v>
       </c>
-      <c r="W110" s="18"/>
-      <c r="X110" s="9"/>
+      <c r="W110" s="18">
+        <v>27.784040835718855</v>
+      </c>
+      <c r="X110" s="18"/>
       <c r="Y110" s="9"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
@@ -11402,7 +11553,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
         <v>31</v>
       </c>
@@ -11469,8 +11620,10 @@
       <c r="V111" s="18">
         <v>13.133320545017014</v>
       </c>
-      <c r="W111" s="18"/>
-      <c r="X111" s="9"/>
+      <c r="W111" s="18">
+        <v>36.664189326071664</v>
+      </c>
+      <c r="X111" s="18"/>
       <c r="Y111" s="9"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
@@ -11539,7 +11692,7 @@
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
         <v>30</v>
       </c>
@@ -11606,8 +11759,10 @@
       <c r="V112" s="18">
         <v>28.996008223134993</v>
       </c>
-      <c r="W112" s="18"/>
-      <c r="X112" s="9"/>
+      <c r="W112" s="18">
+        <v>-7.9490077806750747</v>
+      </c>
+      <c r="X112" s="18"/>
       <c r="Y112" s="9"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
@@ -11676,7 +11831,7 @@
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
     </row>
-    <row r="113" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
         <v>29</v>
       </c>
@@ -11743,8 +11898,10 @@
       <c r="V113" s="18">
         <v>19.248408530612977</v>
       </c>
-      <c r="W113" s="18"/>
-      <c r="X113" s="9"/>
+      <c r="W113" s="18">
+        <v>-5.920527328825699</v>
+      </c>
+      <c r="X113" s="18"/>
       <c r="Y113" s="9"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
@@ -11813,7 +11970,7 @@
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
     </row>
-    <row r="114" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>28</v>
       </c>
@@ -11880,8 +12037,10 @@
       <c r="V114" s="18">
         <v>8.7519857730461865</v>
       </c>
-      <c r="W114" s="18"/>
-      <c r="X114" s="9"/>
+      <c r="W114" s="18">
+        <v>-0.86048317268719643</v>
+      </c>
+      <c r="X114" s="18"/>
       <c r="Y114" s="9"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
@@ -11950,7 +12109,7 @@
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
     </row>
-    <row r="115" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
         <v>27</v>
       </c>
@@ -12017,8 +12176,10 @@
       <c r="V115" s="18">
         <v>101.47490051948748</v>
       </c>
-      <c r="W115" s="18"/>
-      <c r="X115" s="9"/>
+      <c r="W115" s="18">
+        <v>64.597286437348799</v>
+      </c>
+      <c r="X115" s="18"/>
       <c r="Y115" s="9"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
@@ -12087,7 +12248,7 @@
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
     </row>
-    <row r="116" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
         <v>26</v>
       </c>
@@ -12154,8 +12315,10 @@
       <c r="V116" s="18">
         <v>-14.073941378955709</v>
       </c>
-      <c r="W116" s="18"/>
-      <c r="X116" s="9"/>
+      <c r="W116" s="18">
+        <v>10.653641936306244</v>
+      </c>
+      <c r="X116" s="18"/>
       <c r="Y116" s="9"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
@@ -12224,7 +12387,7 @@
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
     </row>
-    <row r="117" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
         <v>25</v>
       </c>
@@ -12291,8 +12454,10 @@
       <c r="V117" s="18">
         <v>2.020310009041637</v>
       </c>
-      <c r="W117" s="18"/>
-      <c r="X117" s="9"/>
+      <c r="W117" s="18">
+        <v>35.919892497634265</v>
+      </c>
+      <c r="X117" s="18"/>
       <c r="Y117" s="9"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
@@ -12361,7 +12526,7 @@
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
     </row>
-    <row r="118" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
         <v>24</v>
       </c>
@@ -12428,8 +12593,10 @@
       <c r="V118" s="18">
         <v>24.969305690279114</v>
       </c>
-      <c r="W118" s="18"/>
-      <c r="X118" s="9"/>
+      <c r="W118" s="18">
+        <v>6.5300045009606009</v>
+      </c>
+      <c r="X118" s="18"/>
       <c r="Y118" s="9"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
@@ -12498,7 +12665,7 @@
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
     </row>
-    <row r="119" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>23</v>
       </c>
@@ -12565,8 +12732,10 @@
       <c r="V119" s="18">
         <v>-47.148648740739183</v>
       </c>
-      <c r="W119" s="18"/>
-      <c r="X119" s="9"/>
+      <c r="W119" s="18">
+        <v>7.1131649470599569</v>
+      </c>
+      <c r="X119" s="18"/>
       <c r="Y119" s="9"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
@@ -12635,7 +12804,7 @@
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
     </row>
-    <row r="120" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>22</v>
       </c>
@@ -12702,8 +12871,10 @@
       <c r="V120" s="18">
         <v>8.2988757450561934</v>
       </c>
-      <c r="W120" s="18"/>
-      <c r="X120" s="9"/>
+      <c r="W120" s="18">
+        <v>22.479063170456399</v>
+      </c>
+      <c r="X120" s="18"/>
       <c r="Y120" s="9"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
@@ -12772,7 +12943,7 @@
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
     </row>
-    <row r="121" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>21</v>
       </c>
@@ -12839,8 +13010,10 @@
       <c r="V121" s="18">
         <v>-31.810786594464147</v>
       </c>
-      <c r="W121" s="18"/>
-      <c r="X121" s="9"/>
+      <c r="W121" s="18">
+        <v>7.6328509688685671</v>
+      </c>
+      <c r="X121" s="18"/>
       <c r="Y121" s="9"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
@@ -12909,7 +13082,7 @@
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
     </row>
-    <row r="122" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
         <v>20</v>
       </c>
@@ -12976,8 +13149,10 @@
       <c r="V122" s="18">
         <v>58.308813175839305</v>
       </c>
-      <c r="W122" s="18"/>
-      <c r="X122" s="9"/>
+      <c r="W122" s="18">
+        <v>56.34358644771163</v>
+      </c>
+      <c r="X122" s="18"/>
       <c r="Y122" s="9"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
@@ -13046,7 +13221,7 @@
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
     </row>
-    <row r="123" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
         <v>19</v>
       </c>
@@ -13113,8 +13288,10 @@
       <c r="V123" s="18">
         <v>62.376491844933639</v>
       </c>
-      <c r="W123" s="18"/>
-      <c r="X123" s="9"/>
+      <c r="W123" s="18">
+        <v>7.6168832873090508</v>
+      </c>
+      <c r="X123" s="18"/>
       <c r="Y123" s="9"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
@@ -13183,7 +13360,7 @@
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
     </row>
-    <row r="124" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
         <v>64</v>
       </c>
@@ -13250,8 +13427,10 @@
       <c r="V124" s="18">
         <v>50.068976424499738</v>
       </c>
-      <c r="W124" s="18"/>
-      <c r="X124" s="9"/>
+      <c r="W124" s="18">
+        <v>-3.0456755476869262</v>
+      </c>
+      <c r="X124" s="18"/>
       <c r="Y124" s="9"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
@@ -13320,7 +13499,7 @@
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
     </row>
-    <row r="125" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
         <v>18</v>
       </c>
@@ -13387,8 +13566,10 @@
       <c r="V125" s="18">
         <v>-15.53056319612719</v>
       </c>
-      <c r="W125" s="18"/>
-      <c r="X125" s="9"/>
+      <c r="W125" s="18">
+        <v>58.821487524383883</v>
+      </c>
+      <c r="X125" s="18"/>
       <c r="Y125" s="9"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
@@ -13457,7 +13638,7 @@
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
     </row>
-    <row r="126" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
         <v>17</v>
       </c>
@@ -13524,8 +13705,10 @@
       <c r="V126" s="18">
         <v>13.575338619809131</v>
       </c>
-      <c r="W126" s="18"/>
-      <c r="X126" s="9"/>
+      <c r="W126" s="18">
+        <v>8.3415214264639133</v>
+      </c>
+      <c r="X126" s="18"/>
       <c r="Y126" s="9"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
@@ -13594,7 +13777,7 @@
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
     </row>
-    <row r="127" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
         <v>16</v>
       </c>
@@ -13661,8 +13844,10 @@
       <c r="V127" s="18">
         <v>-18.09818653025205</v>
       </c>
-      <c r="W127" s="18"/>
-      <c r="X127" s="9"/>
+      <c r="W127" s="18">
+        <v>-99.991547803653532</v>
+      </c>
+      <c r="X127" s="18"/>
       <c r="Y127" s="9"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
@@ -13731,7 +13916,7 @@
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
     </row>
-    <row r="128" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>15</v>
       </c>
@@ -13798,8 +13983,10 @@
       <c r="V128" s="18">
         <v>17.864529742304882</v>
       </c>
-      <c r="W128" s="18"/>
-      <c r="X128" s="9"/>
+      <c r="W128" s="18">
+        <v>17.74821870583645</v>
+      </c>
+      <c r="X128" s="18"/>
       <c r="Y128" s="9"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
@@ -13868,7 +14055,7 @@
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
     </row>
-    <row r="129" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>14</v>
       </c>
@@ -13935,8 +14122,10 @@
       <c r="V129" s="18">
         <v>-1.3394518239259696</v>
       </c>
-      <c r="W129" s="18"/>
-      <c r="X129" s="9"/>
+      <c r="W129" s="18">
+        <v>9.9657820764978027</v>
+      </c>
+      <c r="X129" s="18"/>
       <c r="Y129" s="9"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
@@ -14005,7 +14194,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
         <v>13</v>
       </c>
@@ -14072,8 +14261,10 @@
       <c r="V130" s="18">
         <v>36.096444388503812</v>
       </c>
-      <c r="W130" s="18"/>
-      <c r="X130" s="9"/>
+      <c r="W130" s="18">
+        <v>12.893765997606366</v>
+      </c>
+      <c r="X130" s="18"/>
       <c r="Y130" s="9"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
@@ -14142,7 +14333,7 @@
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
     </row>
-    <row r="131" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="10" t="s">
         <v>12</v>
       </c>
@@ -14209,8 +14400,10 @@
       <c r="V131" s="18">
         <v>-19.285467680655884</v>
       </c>
-      <c r="W131" s="18"/>
-      <c r="X131" s="9"/>
+      <c r="W131" s="18">
+        <v>7.5990802579484011</v>
+      </c>
+      <c r="X131" s="18"/>
       <c r="Y131" s="9"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
@@ -14279,7 +14472,7 @@
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
     </row>
-    <row r="132" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -14346,8 +14539,10 @@
       <c r="V132" s="18">
         <v>15.637370267360367</v>
       </c>
-      <c r="W132" s="18"/>
-      <c r="X132" s="9"/>
+      <c r="W132" s="18">
+        <v>21.791092843721188</v>
+      </c>
+      <c r="X132" s="18"/>
       <c r="Y132" s="9"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
@@ -14416,7 +14611,7 @@
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
     </row>
-    <row r="133" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -14483,8 +14678,10 @@
       <c r="V133" s="18">
         <v>39.458540550755686</v>
       </c>
-      <c r="W133" s="18"/>
-      <c r="X133" s="9"/>
+      <c r="W133" s="18">
+        <v>1.7074464078320659</v>
+      </c>
+      <c r="X133" s="18"/>
       <c r="Y133" s="9"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
@@ -14553,7 +14750,7 @@
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
     </row>
-    <row r="134" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -14620,8 +14817,10 @@
       <c r="V134" s="18">
         <v>21.596368713553588</v>
       </c>
-      <c r="W134" s="18"/>
-      <c r="X134" s="9"/>
+      <c r="W134" s="18">
+        <v>12.760122438869615</v>
+      </c>
+      <c r="X134" s="18"/>
       <c r="Y134" s="9"/>
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
@@ -14690,7 +14889,7 @@
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
     </row>
-    <row r="135" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -14757,8 +14956,10 @@
       <c r="V135" s="18">
         <v>10.023091165665974</v>
       </c>
-      <c r="W135" s="18"/>
-      <c r="X135" s="9"/>
+      <c r="W135" s="18">
+        <v>-5.0840771577014152</v>
+      </c>
+      <c r="X135" s="18"/>
       <c r="Y135" s="9"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
@@ -14827,7 +15028,7 @@
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
     </row>
-    <row r="136" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
@@ -14894,8 +15095,10 @@
       <c r="V136" s="18">
         <v>-96.964974802231978</v>
       </c>
-      <c r="W136" s="18"/>
-      <c r="X136" s="9"/>
+      <c r="W136" s="18">
+        <v>27.975057737139778</v>
+      </c>
+      <c r="X136" s="18"/>
       <c r="Y136" s="9"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
@@ -14964,7 +15167,7 @@
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
     </row>
-    <row r="137" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -15031,8 +15234,10 @@
       <c r="V137" s="18">
         <v>3.4461347571840975</v>
       </c>
-      <c r="W137" s="18"/>
-      <c r="X137" s="9"/>
+      <c r="W137" s="18">
+        <v>4.9172568884933128</v>
+      </c>
+      <c r="X137" s="18"/>
       <c r="Y137" s="9"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
@@ -15101,7 +15306,7 @@
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
     </row>
-    <row r="138" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -15168,8 +15373,10 @@
       <c r="V138" s="18">
         <v>39.043433648526502</v>
       </c>
-      <c r="W138" s="18"/>
-      <c r="X138" s="9"/>
+      <c r="W138" s="18">
+        <v>5.2460355362388356</v>
+      </c>
+      <c r="X138" s="18"/>
       <c r="Y138" s="9"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
@@ -15238,7 +15445,7 @@
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
     </row>
-    <row r="139" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -15305,8 +15512,10 @@
       <c r="V139" s="18">
         <v>-0.84818514821219537</v>
       </c>
-      <c r="W139" s="18"/>
-      <c r="X139" s="9"/>
+      <c r="W139" s="18">
+        <v>-13.615532724088936</v>
+      </c>
+      <c r="X139" s="18"/>
       <c r="Y139" s="9"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
@@ -15375,7 +15584,7 @@
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
     </row>
-    <row r="140" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -15442,8 +15651,10 @@
       <c r="V140" s="18">
         <v>26.52950202092002</v>
       </c>
-      <c r="W140" s="18"/>
-      <c r="X140" s="9"/>
+      <c r="W140" s="18">
+        <v>5.4778088367841491</v>
+      </c>
+      <c r="X140" s="18"/>
       <c r="Y140" s="9"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
@@ -15512,7 +15723,7 @@
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
     </row>
-    <row r="141" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -15579,8 +15790,10 @@
       <c r="V141" s="18">
         <v>15.578873339814649</v>
       </c>
-      <c r="W141" s="18"/>
-      <c r="X141" s="9"/>
+      <c r="W141" s="18">
+        <v>18.668148486867693</v>
+      </c>
+      <c r="X141" s="18"/>
       <c r="Y141" s="9"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
@@ -15649,7 +15862,7 @@
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
     </row>
-    <row r="142" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -15741,7 +15954,7 @@
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
     </row>
-    <row r="143" spans="1:91" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:91" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
         <v>1</v>
       </c>
@@ -15808,8 +16021,10 @@
       <c r="V143" s="18">
         <v>14.273565159140688</v>
       </c>
-      <c r="W143" s="18"/>
-      <c r="X143" s="9"/>
+      <c r="W143" s="18">
+        <v>21.781840243166954</v>
+      </c>
+      <c r="X143" s="18"/>
       <c r="Y143" s="9"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
@@ -15878,7 +16093,7 @@
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
     </row>
-    <row r="144" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -15902,13 +16117,14 @@
       <c r="U144" s="13"/>
       <c r="V144" s="13"/>
       <c r="W144" s="13"/>
+      <c r="X144" s="13"/>
     </row>
-    <row r="145" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
         <v>0</v>
       </c>
@@ -16003,7 +16219,7 @@
       <c r="CL146" s="9"/>
       <c r="CM146" s="9"/>
     </row>
-    <row r="147" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -16096,37 +16312,37 @@
       <c r="CM147" s="9"/>
       <c r="CN147" s="9"/>
     </row>
-    <row r="148" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="153" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="156" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="16" t="s">
         <v>34</v>
@@ -16152,8 +16368,9 @@
       <c r="U156" s="16"/>
       <c r="V156" s="16"/>
       <c r="W156" s="16"/>
+      <c r="X156" s="16"/>
     </row>
-    <row r="157" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>33</v>
       </c>
@@ -16220,12 +16437,15 @@
       <c r="V157" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="W157" s="17"/>
+      <c r="W157" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X157" s="17"/>
     </row>
-    <row r="158" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>32</v>
       </c>
@@ -16292,8 +16512,10 @@
       <c r="V159" s="18">
         <v>16.063491736069707</v>
       </c>
-      <c r="W159" s="18"/>
-      <c r="X159" s="9"/>
+      <c r="W159" s="18">
+        <v>7.9826182783265551</v>
+      </c>
+      <c r="X159" s="18"/>
       <c r="Y159" s="9"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
@@ -16362,7 +16584,7 @@
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
     </row>
-    <row r="160" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
         <v>31</v>
       </c>
@@ -16429,8 +16651,10 @@
       <c r="V160" s="18">
         <v>15.245965646441988</v>
       </c>
-      <c r="W160" s="18"/>
-      <c r="X160" s="9"/>
+      <c r="W160" s="18">
+        <v>13.942622752076474</v>
+      </c>
+      <c r="X160" s="18"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
@@ -16499,7 +16723,7 @@
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
     </row>
-    <row r="161" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
         <v>30</v>
       </c>
@@ -16566,8 +16790,10 @@
       <c r="V161" s="18">
         <v>31.489496548751248</v>
       </c>
-      <c r="W161" s="18"/>
-      <c r="X161" s="9"/>
+      <c r="W161" s="18">
+        <v>-20.23474737545331</v>
+      </c>
+      <c r="X161" s="18"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
@@ -16636,7 +16862,7 @@
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
     </row>
-    <row r="162" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
         <v>29</v>
       </c>
@@ -16703,8 +16929,10 @@
       <c r="V162" s="18">
         <v>16.385814918614813</v>
       </c>
-      <c r="W162" s="18"/>
-      <c r="X162" s="9"/>
+      <c r="W162" s="18">
+        <v>-17.366366476617884</v>
+      </c>
+      <c r="X162" s="18"/>
       <c r="Y162" s="9"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
@@ -16773,7 +17001,7 @@
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
     </row>
-    <row r="163" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
         <v>28</v>
       </c>
@@ -16840,8 +17068,10 @@
       <c r="V163" s="18">
         <v>9.5726799980311057</v>
       </c>
-      <c r="W163" s="18"/>
-      <c r="X163" s="9"/>
+      <c r="W163" s="18">
+        <v>-10.902277578814122</v>
+      </c>
+      <c r="X163" s="18"/>
       <c r="Y163" s="9"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
@@ -16910,7 +17140,7 @@
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
     </row>
-    <row r="164" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
         <v>27</v>
       </c>
@@ -16977,8 +17207,10 @@
       <c r="V164" s="18">
         <v>113.18058237787119</v>
       </c>
-      <c r="W164" s="18"/>
-      <c r="X164" s="9"/>
+      <c r="W164" s="18">
+        <v>42.334904573107167</v>
+      </c>
+      <c r="X164" s="18"/>
       <c r="Y164" s="9"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
@@ -17047,7 +17279,7 @@
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
     </row>
-    <row r="165" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>26</v>
       </c>
@@ -17114,8 +17346,10 @@
       <c r="V165" s="18">
         <v>-17.757597234369825</v>
       </c>
-      <c r="W165" s="18"/>
-      <c r="X165" s="9"/>
+      <c r="W165" s="18">
+        <v>0.65622841772471929</v>
+      </c>
+      <c r="X165" s="18"/>
       <c r="Y165" s="9"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
@@ -17184,7 +17418,7 @@
       <c r="CL165" s="9"/>
       <c r="CM165" s="9"/>
     </row>
-    <row r="166" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>25</v>
       </c>
@@ -17251,8 +17485,10 @@
       <c r="V166" s="18">
         <v>3.9068857484287491</v>
       </c>
-      <c r="W166" s="18"/>
-      <c r="X166" s="9"/>
+      <c r="W166" s="18">
+        <v>17.003423565102977</v>
+      </c>
+      <c r="X166" s="18"/>
       <c r="Y166" s="9"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
@@ -17321,7 +17557,7 @@
       <c r="CL166" s="9"/>
       <c r="CM166" s="9"/>
     </row>
-    <row r="167" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
         <v>24</v>
       </c>
@@ -17388,8 +17624,10 @@
       <c r="V167" s="18">
         <v>22.736053057717555</v>
       </c>
-      <c r="W167" s="18"/>
-      <c r="X167" s="9"/>
+      <c r="W167" s="18">
+        <v>-0.62979276891311997</v>
+      </c>
+      <c r="X167" s="18"/>
       <c r="Y167" s="9"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
@@ -17458,7 +17696,7 @@
       <c r="CL167" s="9"/>
       <c r="CM167" s="9"/>
     </row>
-    <row r="168" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>23</v>
       </c>
@@ -17525,8 +17763,10 @@
       <c r="V168" s="18">
         <v>-48.087142339509413</v>
       </c>
-      <c r="W168" s="18"/>
-      <c r="X168" s="9"/>
+      <c r="W168" s="18">
+        <v>-9.8110047595653924</v>
+      </c>
+      <c r="X168" s="18"/>
       <c r="Y168" s="9"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
@@ -17595,7 +17835,7 @@
       <c r="CL168" s="9"/>
       <c r="CM168" s="9"/>
     </row>
-    <row r="169" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>22</v>
       </c>
@@ -17662,8 +17902,10 @@
       <c r="V169" s="18">
         <v>0.38891400501886153</v>
       </c>
-      <c r="W169" s="18"/>
-      <c r="X169" s="9"/>
+      <c r="W169" s="18">
+        <v>5.8025762238574004</v>
+      </c>
+      <c r="X169" s="18"/>
       <c r="Y169" s="9"/>
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
@@ -17732,7 +17974,7 @@
       <c r="CL169" s="9"/>
       <c r="CM169" s="9"/>
     </row>
-    <row r="170" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>21</v>
       </c>
@@ -17799,8 +18041,10 @@
       <c r="V170" s="18">
         <v>-29.439884535670231</v>
       </c>
-      <c r="W170" s="18"/>
-      <c r="X170" s="9"/>
+      <c r="W170" s="18">
+        <v>-1.5247062111801597</v>
+      </c>
+      <c r="X170" s="18"/>
       <c r="Y170" s="9"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
@@ -17869,7 +18113,7 @@
       <c r="CL170" s="9"/>
       <c r="CM170" s="9"/>
     </row>
-    <row r="171" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
         <v>20</v>
       </c>
@@ -17936,8 +18180,10 @@
       <c r="V171" s="18">
         <v>25.333251193070367</v>
       </c>
-      <c r="W171" s="18"/>
-      <c r="X171" s="9"/>
+      <c r="W171" s="18">
+        <v>34.503219341929992</v>
+      </c>
+      <c r="X171" s="18"/>
       <c r="Y171" s="9"/>
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
@@ -18006,7 +18252,7 @@
       <c r="CL171" s="9"/>
       <c r="CM171" s="9"/>
     </row>
-    <row r="172" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
         <v>19</v>
       </c>
@@ -18073,8 +18319,10 @@
       <c r="V172" s="18">
         <v>37.627638085033936</v>
       </c>
-      <c r="W172" s="18"/>
-      <c r="X172" s="9"/>
+      <c r="W172" s="18">
+        <v>-10.818294208697239</v>
+      </c>
+      <c r="X172" s="18"/>
       <c r="Y172" s="9"/>
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
@@ -18143,7 +18391,7 @@
       <c r="CL172" s="9"/>
       <c r="CM172" s="9"/>
     </row>
-    <row r="173" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
         <v>64</v>
       </c>
@@ -18210,8 +18458,10 @@
       <c r="V173" s="18">
         <v>39.900333312955951</v>
       </c>
-      <c r="W173" s="18"/>
-      <c r="X173" s="9"/>
+      <c r="W173" s="18">
+        <v>-17.151626206806043</v>
+      </c>
+      <c r="X173" s="18"/>
       <c r="Y173" s="9"/>
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
@@ -18280,7 +18530,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
         <v>18</v>
       </c>
@@ -18347,8 +18597,10 @@
       <c r="V174" s="18">
         <v>-14.676773416080266</v>
       </c>
-      <c r="W174" s="18"/>
-      <c r="X174" s="9"/>
+      <c r="W174" s="18">
+        <v>35.052677249957213</v>
+      </c>
+      <c r="X174" s="18"/>
       <c r="Y174" s="9"/>
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
@@ -18417,7 +18669,7 @@
       <c r="CL174" s="9"/>
       <c r="CM174" s="9"/>
     </row>
-    <row r="175" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
         <v>17</v>
       </c>
@@ -18484,8 +18736,10 @@
       <c r="V175" s="18">
         <v>9.804244111531716</v>
       </c>
-      <c r="W175" s="18"/>
-      <c r="X175" s="9"/>
+      <c r="W175" s="18">
+        <v>-1.3502629329232008</v>
+      </c>
+      <c r="X175" s="18"/>
       <c r="Y175" s="9"/>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
@@ -18554,7 +18808,7 @@
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
     </row>
-    <row r="176" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
         <v>16</v>
       </c>
@@ -18621,8 +18875,10 @@
       <c r="V176" s="18">
         <v>-26.846638463534561</v>
       </c>
-      <c r="W176" s="18"/>
-      <c r="X176" s="9"/>
+      <c r="W176" s="18">
+        <v>-99.993405984247147</v>
+      </c>
+      <c r="X176" s="18"/>
       <c r="Y176" s="9"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
@@ -18691,7 +18947,7 @@
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
     </row>
-    <row r="177" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
         <v>15</v>
       </c>
@@ -18758,8 +19014,10 @@
       <c r="V177" s="18">
         <v>-1.0453195830862683E-2</v>
       </c>
-      <c r="W177" s="18"/>
-      <c r="X177" s="9"/>
+      <c r="W177" s="18">
+        <v>-2.3595703605537324</v>
+      </c>
+      <c r="X177" s="18"/>
       <c r="Y177" s="9"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
@@ -18828,7 +19086,7 @@
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
     </row>
-    <row r="178" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
@@ -18895,8 +19153,10 @@
       <c r="V178" s="18">
         <v>-13.359391231740588</v>
       </c>
-      <c r="W178" s="18"/>
-      <c r="X178" s="9"/>
+      <c r="W178" s="18">
+        <v>-6.0357878207389746</v>
+      </c>
+      <c r="X178" s="18"/>
       <c r="Y178" s="9"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
@@ -18965,7 +19225,7 @@
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
     </row>
-    <row r="179" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
         <v>13</v>
       </c>
@@ -19032,8 +19292,10 @@
       <c r="V179" s="18">
         <v>18.127455048157472</v>
       </c>
-      <c r="W179" s="18"/>
-      <c r="X179" s="9"/>
+      <c r="W179" s="18">
+        <v>3.1461089922829331</v>
+      </c>
+      <c r="X179" s="18"/>
       <c r="Y179" s="9"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
@@ -19102,7 +19364,7 @@
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
     </row>
-    <row r="180" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="10" t="s">
         <v>12</v>
       </c>
@@ -19169,8 +19431,10 @@
       <c r="V180" s="18">
         <v>-27.6488380651531</v>
       </c>
-      <c r="W180" s="18"/>
-      <c r="X180" s="9"/>
+      <c r="W180" s="18">
+        <v>-12.839156373638119</v>
+      </c>
+      <c r="X180" s="18"/>
       <c r="Y180" s="9"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
@@ -19239,7 +19503,7 @@
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
     </row>
-    <row r="181" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>11</v>
       </c>
@@ -19306,8 +19570,10 @@
       <c r="V181" s="18">
         <v>16.019407566514317</v>
       </c>
-      <c r="W181" s="18"/>
-      <c r="X181" s="9"/>
+      <c r="W181" s="18">
+        <v>7.8863265280241848</v>
+      </c>
+      <c r="X181" s="18"/>
       <c r="Y181" s="9"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
@@ -19376,7 +19642,7 @@
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
     </row>
-    <row r="182" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -19443,8 +19709,10 @@
       <c r="V182" s="18">
         <v>-7.6223291440260965</v>
       </c>
-      <c r="W182" s="18"/>
-      <c r="X182" s="9"/>
+      <c r="W182" s="18">
+        <v>-2.3156522349431441</v>
+      </c>
+      <c r="X182" s="18"/>
       <c r="Y182" s="9"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
@@ -19513,7 +19781,7 @@
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
     </row>
-    <row r="183" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
@@ -19580,8 +19848,10 @@
       <c r="V183" s="18">
         <v>9.117522149127339</v>
       </c>
-      <c r="W183" s="18"/>
-      <c r="X183" s="9"/>
+      <c r="W183" s="18">
+        <v>14.847291755929959</v>
+      </c>
+      <c r="X183" s="18"/>
       <c r="Y183" s="9"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
@@ -19650,7 +19920,7 @@
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
     </row>
-    <row r="184" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -19717,8 +19987,10 @@
       <c r="V184" s="18">
         <v>-16.491457494318979</v>
       </c>
-      <c r="W184" s="18"/>
-      <c r="X184" s="9"/>
+      <c r="W184" s="18">
+        <v>-6.9977480074195171</v>
+      </c>
+      <c r="X184" s="18"/>
       <c r="Y184" s="9"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
@@ -19787,7 +20059,7 @@
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
     </row>
-    <row r="185" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>7</v>
       </c>
@@ -19854,8 +20126,10 @@
       <c r="V185" s="18">
         <v>-97.929772914967273</v>
       </c>
-      <c r="W185" s="18"/>
-      <c r="X185" s="9"/>
+      <c r="W185" s="18">
+        <v>-26.238765166946493</v>
+      </c>
+      <c r="X185" s="18"/>
       <c r="Y185" s="9"/>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
@@ -19924,7 +20198,7 @@
       <c r="CL185" s="9"/>
       <c r="CM185" s="9"/>
     </row>
-    <row r="186" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -19991,8 +20265,10 @@
       <c r="V186" s="18">
         <v>5.1363821881073051</v>
       </c>
-      <c r="W186" s="18"/>
-      <c r="X186" s="9"/>
+      <c r="W186" s="18">
+        <v>-10.636036457097347</v>
+      </c>
+      <c r="X186" s="18"/>
       <c r="Y186" s="9"/>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
@@ -20061,7 +20337,7 @@
       <c r="CL186" s="9"/>
       <c r="CM186" s="9"/>
     </row>
-    <row r="187" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -20128,8 +20404,10 @@
       <c r="V187" s="18">
         <v>18.906383742477843</v>
       </c>
-      <c r="W187" s="18"/>
-      <c r="X187" s="9"/>
+      <c r="W187" s="18">
+        <v>-22.628770722909266</v>
+      </c>
+      <c r="X187" s="18"/>
       <c r="Y187" s="9"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
@@ -20198,7 +20476,7 @@
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
     </row>
-    <row r="188" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
@@ -20265,8 +20543,10 @@
       <c r="V188" s="18">
         <v>1.9425313720242485</v>
       </c>
-      <c r="W188" s="18"/>
-      <c r="X188" s="9"/>
+      <c r="W188" s="18">
+        <v>-26.579106183793229</v>
+      </c>
+      <c r="X188" s="18"/>
       <c r="Y188" s="9"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
@@ -20335,7 +20615,7 @@
       <c r="CL188" s="9"/>
       <c r="CM188" s="9"/>
     </row>
-    <row r="189" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
@@ -20402,8 +20682,10 @@
       <c r="V189" s="18">
         <v>18.259180626265987</v>
       </c>
-      <c r="W189" s="18"/>
-      <c r="X189" s="9"/>
+      <c r="W189" s="18">
+        <v>-11.98465417331586</v>
+      </c>
+      <c r="X189" s="18"/>
       <c r="Y189" s="9"/>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
@@ -20472,7 +20754,7 @@
       <c r="CL189" s="9"/>
       <c r="CM189" s="9"/>
     </row>
-    <row r="190" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -20539,8 +20821,10 @@
       <c r="V190" s="18">
         <v>15.48557371795502</v>
       </c>
-      <c r="W190" s="18"/>
-      <c r="X190" s="9"/>
+      <c r="W190" s="18">
+        <v>4.2832626067294655</v>
+      </c>
+      <c r="X190" s="18"/>
       <c r="Y190" s="9"/>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
@@ -20609,7 +20893,7 @@
       <c r="CL190" s="9"/>
       <c r="CM190" s="9"/>
     </row>
-    <row r="191" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -20701,7 +20985,7 @@
       <c r="CL191" s="9"/>
       <c r="CM191" s="9"/>
     </row>
-    <row r="192" spans="1:91" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:91" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12" t="s">
         <v>1</v>
       </c>
@@ -20768,8 +21052,10 @@
       <c r="V192" s="18">
         <v>11.63230465738603</v>
       </c>
-      <c r="W192" s="18"/>
-      <c r="X192" s="9"/>
+      <c r="W192" s="18">
+        <v>4.8506276234823673</v>
+      </c>
+      <c r="X192" s="18"/>
       <c r="Y192" s="9"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
@@ -20838,7 +21124,7 @@
       <c r="CL192" s="9"/>
       <c r="CM192" s="9"/>
     </row>
-    <row r="193" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -20862,13 +21148,14 @@
       <c r="U193" s="13"/>
       <c r="V193" s="13"/>
       <c r="W193" s="13"/>
+      <c r="X193" s="13"/>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A194" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="14" t="s">
         <v>0</v>
       </c>
@@ -20964,7 +21251,7 @@
       <c r="CM195" s="9"/>
       <c r="CN195" s="9"/>
     </row>
-    <row r="196" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -21057,32 +21344,32 @@
       <c r="CM196" s="9"/>
       <c r="CN196" s="9"/>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="198" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="202" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="16" t="s">
         <v>34</v>
@@ -21108,8 +21395,9 @@
       <c r="U204" s="16"/>
       <c r="V204" s="16"/>
       <c r="W204" s="16"/>
+      <c r="X204" s="16"/>
     </row>
-    <row r="205" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>33</v>
       </c>
@@ -21179,11 +21467,14 @@
       <c r="W205" s="17">
         <v>2021</v>
       </c>
+      <c r="X205" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="206" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
     </row>
-    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>32</v>
       </c>
@@ -21253,7 +21544,9 @@
       <c r="W207" s="18">
         <v>88.071514047493949</v>
       </c>
-      <c r="X207" s="9"/>
+      <c r="X207" s="18">
+        <v>104.22171759626056</v>
+      </c>
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
@@ -21327,7 +21620,7 @@
       <c r="CQ207" s="9"/>
       <c r="CR207" s="9"/>
     </row>
-    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
         <v>31</v>
       </c>
@@ -21397,7 +21690,9 @@
       <c r="W208" s="18">
         <v>86.731705886660663</v>
       </c>
-      <c r="X208" s="9"/>
+      <c r="X208" s="18">
+        <v>104.02707948594896</v>
+      </c>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
@@ -21471,7 +21766,7 @@
       <c r="CQ208" s="9"/>
       <c r="CR208" s="9"/>
     </row>
-    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
         <v>30</v>
       </c>
@@ -21541,7 +21836,9 @@
       <c r="W209" s="18">
         <v>86.261641504573149</v>
       </c>
-      <c r="X209" s="9"/>
+      <c r="X209" s="18">
+        <v>99.547978971987689</v>
+      </c>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
@@ -21615,7 +21912,7 @@
       <c r="CQ209" s="9"/>
       <c r="CR209" s="9"/>
     </row>
-    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
         <v>29</v>
       </c>
@@ -21685,7 +21982,9 @@
       <c r="W210" s="18">
         <v>94.827464561155921</v>
       </c>
-      <c r="X210" s="9"/>
+      <c r="X210" s="18">
+        <v>107.96230881138284</v>
+      </c>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
@@ -21759,7 +22058,7 @@
       <c r="CQ210" s="9"/>
       <c r="CR210" s="9"/>
     </row>
-    <row r="211" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
         <v>28</v>
       </c>
@@ -21829,7 +22128,9 @@
       <c r="W211" s="18">
         <v>101.141341898676</v>
       </c>
-      <c r="X211" s="9"/>
+      <c r="X211" s="18">
+        <v>112.54051725026495</v>
+      </c>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
@@ -21903,7 +22204,7 @@
       <c r="CQ211" s="9"/>
       <c r="CR211" s="9"/>
     </row>
-    <row r="212" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
         <v>27</v>
       </c>
@@ -21973,7 +22274,9 @@
       <c r="W212" s="18">
         <v>92.067123325702525</v>
       </c>
-      <c r="X212" s="9"/>
+      <c r="X212" s="18">
+        <v>106.46719941923915</v>
+      </c>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
@@ -22047,7 +22350,7 @@
       <c r="CQ212" s="9"/>
       <c r="CR212" s="9"/>
     </row>
-    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
         <v>26</v>
       </c>
@@ -22117,7 +22420,9 @@
       <c r="W213" s="18">
         <v>102.54302269390274</v>
       </c>
-      <c r="X213" s="9"/>
+      <c r="X213" s="18">
+        <v>112.72783706089635</v>
+      </c>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
@@ -22191,7 +22496,7 @@
       <c r="CQ213" s="9"/>
       <c r="CR213" s="9"/>
     </row>
-    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
         <v>25</v>
       </c>
@@ -22261,7 +22566,9 @@
       <c r="W214" s="18">
         <v>90.071456072933714</v>
       </c>
-      <c r="X214" s="9"/>
+      <c r="X214" s="18">
+        <v>104.63371287359442</v>
+      </c>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
@@ -22335,7 +22642,7 @@
       <c r="CQ214" s="9"/>
       <c r="CR214" s="9"/>
     </row>
-    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
         <v>24</v>
       </c>
@@ -22405,7 +22712,9 @@
       <c r="W215" s="18">
         <v>115.09498118296958</v>
       </c>
-      <c r="X215" s="9"/>
+      <c r="X215" s="18">
+        <v>123.38777592509622</v>
+      </c>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
@@ -22479,7 +22788,7 @@
       <c r="CQ215" s="9"/>
       <c r="CR215" s="9"/>
     </row>
-    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
         <v>23</v>
       </c>
@@ -22549,7 +22858,9 @@
       <c r="W216" s="18">
         <v>97.394033345339864</v>
       </c>
-      <c r="X216" s="9"/>
+      <c r="X216" s="18">
+        <v>115.67024480944397</v>
+      </c>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -22623,7 +22934,7 @@
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
     </row>
-    <row r="217" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>22</v>
       </c>
@@ -22693,7 +23004,9 @@
       <c r="W217" s="18">
         <v>115.60669522343223</v>
       </c>
-      <c r="X217" s="9"/>
+      <c r="X217" s="18">
+        <v>133.82849673943625</v>
+      </c>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -22767,7 +23080,7 @@
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
     </row>
-    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
         <v>21</v>
       </c>
@@ -22837,7 +23150,9 @@
       <c r="W218" s="18">
         <v>125.42087864090786</v>
       </c>
-      <c r="X218" s="9"/>
+      <c r="X218" s="18">
+        <v>137.08419868328446</v>
+      </c>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -22911,7 +23226,7 @@
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
     </row>
-    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
         <v>20</v>
       </c>
@@ -22981,7 +23296,9 @@
       <c r="W219" s="18">
         <v>122.60714967138846</v>
       </c>
-      <c r="X219" s="9"/>
+      <c r="X219" s="18">
+        <v>142.51585647943335</v>
+      </c>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -23055,7 +23372,7 @@
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
     </row>
-    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
         <v>19</v>
       </c>
@@ -23125,7 +23442,9 @@
       <c r="W220" s="18">
         <v>131.46461019143294</v>
       </c>
-      <c r="X220" s="9"/>
+      <c r="X220" s="18">
+        <v>158.64028934914978</v>
+      </c>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -23199,7 +23518,7 @@
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
     </row>
-    <row r="221" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
         <v>64</v>
       </c>
@@ -23269,7 +23588,9 @@
       <c r="W221" s="18">
         <v>93.097173355364475</v>
       </c>
-      <c r="X221" s="9"/>
+      <c r="X221" s="18">
+        <v>108.94810770360286</v>
+      </c>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -23343,7 +23664,7 @@
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
     </row>
-    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
         <v>18</v>
       </c>
@@ -23413,7 +23734,9 @@
       <c r="W222" s="18">
         <v>101.18372115019261</v>
       </c>
-      <c r="X222" s="9"/>
+      <c r="X222" s="18">
+        <v>118.99171074249209</v>
+      </c>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -23487,7 +23810,7 @@
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
     </row>
-    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
         <v>17</v>
       </c>
@@ -23557,7 +23880,9 @@
       <c r="W223" s="18">
         <v>118.03185524151468</v>
       </c>
-      <c r="X223" s="9"/>
+      <c r="X223" s="18">
+        <v>129.62782419743127</v>
+      </c>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -23631,7 +23956,7 @@
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
     </row>
-    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
         <v>16</v>
       </c>
@@ -23701,7 +24026,9 @@
       <c r="W224" s="18">
         <v>116.15723968371397</v>
       </c>
-      <c r="X224" s="9"/>
+      <c r="X224" s="18">
+        <v>148.89012002218169</v>
+      </c>
       <c r="Y224" s="9"/>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
@@ -23775,7 +24102,7 @@
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
     </row>
-    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
         <v>15</v>
       </c>
@@ -23845,7 +24172,9 @@
       <c r="W225" s="18">
         <v>107.40080290153755</v>
       </c>
-      <c r="X225" s="9"/>
+      <c r="X225" s="18">
+        <v>129.51861514672868</v>
+      </c>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -23919,7 +24248,7 @@
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
     </row>
-    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>14</v>
       </c>
@@ -23989,7 +24318,9 @@
       <c r="W226" s="18">
         <v>116.29229436285007</v>
       </c>
-      <c r="X226" s="9"/>
+      <c r="X226" s="18">
+        <v>136.09620942369375</v>
+      </c>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
@@ -24063,7 +24394,7 @@
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
     </row>
-    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
         <v>13</v>
       </c>
@@ -24133,7 +24464,9 @@
       <c r="W227" s="18">
         <v>122.13781525473892</v>
       </c>
-      <c r="X227" s="9"/>
+      <c r="X227" s="18">
+        <v>133.68025289115843</v>
+      </c>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
@@ -24207,7 +24540,7 @@
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
     </row>
-    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="10" t="s">
         <v>12</v>
       </c>
@@ -24277,7 +24610,9 @@
       <c r="W228" s="18">
         <v>111.9610288497384</v>
       </c>
-      <c r="X228" s="9"/>
+      <c r="X228" s="18">
+        <v>138.21462973221935</v>
+      </c>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
@@ -24351,7 +24686,7 @@
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
     </row>
-    <row r="229" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -24421,7 +24756,9 @@
       <c r="W229" s="18">
         <v>87.701278764229201</v>
       </c>
-      <c r="X229" s="9"/>
+      <c r="X229" s="18">
+        <v>99.004525672794955</v>
+      </c>
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
@@ -24495,7 +24832,7 @@
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
     </row>
-    <row r="230" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -24565,7 +24902,9 @@
       <c r="W230" s="18">
         <v>136.2575569979364</v>
       </c>
-      <c r="X230" s="9"/>
+      <c r="X230" s="18">
+        <v>141.8692809349657</v>
+      </c>
       <c r="Y230" s="9"/>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
@@ -24639,7 +24978,7 @@
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
     </row>
-    <row r="231" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>9</v>
       </c>
@@ -24709,7 +25048,9 @@
       <c r="W231" s="18">
         <v>105.97699742922335</v>
       </c>
-      <c r="X231" s="9"/>
+      <c r="X231" s="18">
+        <v>104.05103179288491</v>
+      </c>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
@@ -24783,7 +25124,7 @@
       <c r="CQ231" s="9"/>
       <c r="CR231" s="9"/>
     </row>
-    <row r="232" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>8</v>
       </c>
@@ -24853,7 +25194,9 @@
       <c r="W232" s="18">
         <v>112.03793300932307</v>
       </c>
-      <c r="X232" s="9"/>
+      <c r="X232" s="18">
+        <v>114.34329359865285</v>
+      </c>
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
@@ -24927,7 +25270,7 @@
       <c r="CQ232" s="9"/>
       <c r="CR232" s="9"/>
     </row>
-    <row r="233" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>7</v>
       </c>
@@ -24997,7 +25340,9 @@
       <c r="W233" s="18">
         <v>71.820372014632866</v>
       </c>
-      <c r="X233" s="9"/>
+      <c r="X233" s="18">
+        <v>124.60767876349024</v>
+      </c>
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
@@ -25071,7 +25416,7 @@
       <c r="CQ233" s="9"/>
       <c r="CR233" s="9"/>
     </row>
-    <row r="234" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -25141,7 +25486,9 @@
       <c r="W234" s="18">
         <v>82.020259436803329</v>
       </c>
-      <c r="X234" s="9"/>
+      <c r="X234" s="18">
+        <v>96.29542254200301</v>
+      </c>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
@@ -25215,7 +25562,7 @@
       <c r="CQ234" s="9"/>
       <c r="CR234" s="9"/>
     </row>
-    <row r="235" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -25285,7 +25632,9 @@
       <c r="W235" s="18">
         <v>90.690362155773713</v>
       </c>
-      <c r="X235" s="9"/>
+      <c r="X235" s="18">
+        <v>123.36369949685032</v>
+      </c>
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
@@ -25359,7 +25708,7 @@
       <c r="CQ235" s="9"/>
       <c r="CR235" s="9"/>
     </row>
-    <row r="236" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>4</v>
       </c>
@@ -25429,7 +25778,9 @@
       <c r="W236" s="18">
         <v>81.745616753654232</v>
       </c>
-      <c r="X236" s="9"/>
+      <c r="X236" s="18">
+        <v>96.179046431691077</v>
+      </c>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
@@ -25503,7 +25854,7 @@
       <c r="CQ236" s="9"/>
       <c r="CR236" s="9"/>
     </row>
-    <row r="237" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
@@ -25573,7 +25924,9 @@
       <c r="W237" s="18">
         <v>90.639496244434795</v>
       </c>
-      <c r="X237" s="9"/>
+      <c r="X237" s="18">
+        <v>108.62259720888817</v>
+      </c>
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
@@ -25647,7 +26000,7 @@
       <c r="CQ237" s="9"/>
       <c r="CR237" s="9"/>
     </row>
-    <row r="238" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -25717,7 +26070,9 @@
       <c r="W238" s="18">
         <v>85.688443932093961</v>
       </c>
-      <c r="X238" s="9"/>
+      <c r="X238" s="18">
+        <v>97.508351138662803</v>
+      </c>
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
@@ -25791,7 +26146,7 @@
       <c r="CQ238" s="9"/>
       <c r="CR238" s="9"/>
     </row>
-    <row r="239" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -25888,7 +26243,7 @@
       <c r="CQ239" s="9"/>
       <c r="CR239" s="9"/>
     </row>
-    <row r="240" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12" t="s">
         <v>1</v>
       </c>
@@ -25958,7 +26313,9 @@
       <c r="W240" s="18">
         <v>91.681740240084324</v>
       </c>
-      <c r="X240" s="9"/>
+      <c r="X240" s="18">
+        <v>106.48644930603093</v>
+      </c>
       <c r="Y240" s="9"/>
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
@@ -26032,7 +26389,7 @@
       <c r="CQ240" s="9"/>
       <c r="CR240" s="9"/>
     </row>
-    <row r="241" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -26056,43 +26413,44 @@
       <c r="U241" s="13"/>
       <c r="V241" s="13"/>
       <c r="W241" s="13"/>
+      <c r="X241" s="13"/>
     </row>
-    <row r="242" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="246" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="249" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="250" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="253" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="16" t="s">
         <v>34</v>
@@ -26118,8 +26476,9 @@
       <c r="U253" s="16"/>
       <c r="V253" s="16"/>
       <c r="W253" s="16"/>
+      <c r="X253" s="16"/>
     </row>
-    <row r="254" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>33</v>
       </c>
@@ -26189,11 +26548,14 @@
       <c r="W254" s="17">
         <v>2021</v>
       </c>
+      <c r="X254" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="255" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
     </row>
-    <row r="256" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>32</v>
       </c>
@@ -26263,7 +26625,9 @@
       <c r="W256" s="18">
         <v>59.985603095952676</v>
       </c>
-      <c r="X256" s="9"/>
+      <c r="X256" s="18">
+        <v>62.942083485214262</v>
+      </c>
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
@@ -26337,7 +26701,7 @@
       <c r="CQ256" s="9"/>
       <c r="CR256" s="9"/>
     </row>
-    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
         <v>31</v>
       </c>
@@ -26407,7 +26771,9 @@
       <c r="W257" s="18">
         <v>41.230544749802817</v>
       </c>
-      <c r="X257" s="9"/>
+      <c r="X257" s="18">
+        <v>46.269123232601835</v>
+      </c>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -26481,7 +26847,7 @@
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
     </row>
-    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
         <v>30</v>
       </c>
@@ -26551,7 +26917,9 @@
       <c r="W258" s="18">
         <v>7.4282801458992767</v>
       </c>
-      <c r="X258" s="9"/>
+      <c r="X258" s="18">
+        <v>5.6147990254360289</v>
+      </c>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
@@ -26625,7 +26993,7 @@
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
     </row>
-    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
         <v>29</v>
       </c>
@@ -26695,7 +27063,9 @@
       <c r="W259" s="18">
         <v>2.7015268575333309</v>
       </c>
-      <c r="X259" s="9"/>
+      <c r="X259" s="18">
+        <v>2.0869960714689633</v>
+      </c>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
@@ -26769,7 +27139,7 @@
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
     </row>
-    <row r="260" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
         <v>28</v>
       </c>
@@ -26839,7 +27209,9 @@
       <c r="W260" s="18">
         <v>2.1142215056460749</v>
       </c>
-      <c r="X260" s="9"/>
+      <c r="X260" s="18">
+        <v>1.7211342685998394</v>
+      </c>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
@@ -26913,7 +27285,7 @@
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
     </row>
-    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
         <v>27</v>
       </c>
@@ -26983,7 +27355,9 @@
       <c r="W261" s="18">
         <v>1.073152938339875</v>
       </c>
-      <c r="X261" s="9"/>
+      <c r="X261" s="18">
+        <v>1.4504466448389204</v>
+      </c>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
@@ -27057,7 +27431,7 @@
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
     </row>
-    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
         <v>26</v>
       </c>
@@ -27127,7 +27501,9 @@
       <c r="W262" s="18">
         <v>0.89248243864018784</v>
       </c>
-      <c r="X262" s="9"/>
+      <c r="X262" s="18">
+        <v>0.81092905151163419</v>
+      </c>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
@@ -27201,7 +27577,7 @@
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
     </row>
-    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
         <v>25</v>
       </c>
@@ -27271,7 +27647,9 @@
       <c r="W263" s="18">
         <v>4.1924990776221867</v>
       </c>
-      <c r="X263" s="9"/>
+      <c r="X263" s="18">
+        <v>4.6792200116947384</v>
+      </c>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
@@ -27345,7 +27723,7 @@
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
     </row>
-    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
         <v>24</v>
       </c>
@@ -27415,7 +27793,9 @@
       <c r="W264" s="18">
         <v>0.19918320943653431</v>
       </c>
-      <c r="X264" s="9"/>
+      <c r="X264" s="18">
+        <v>0.1742377037119896</v>
+      </c>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -27489,7 +27869,7 @@
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
     </row>
-    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
         <v>23</v>
       </c>
@@ -27559,7 +27939,9 @@
       <c r="W265" s="18">
         <v>0.15371217303239629</v>
       </c>
-      <c r="X265" s="9"/>
+      <c r="X265" s="18">
+        <v>0.13519747535030285</v>
+      </c>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -27633,7 +28015,7 @@
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
     </row>
-    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>22</v>
       </c>
@@ -27703,7 +28085,9 @@
       <c r="W266" s="18">
         <v>7.9882492352741847</v>
       </c>
-      <c r="X266" s="9"/>
+      <c r="X266" s="18">
+        <v>8.033983398139636</v>
+      </c>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -27777,7 +28161,7 @@
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
     </row>
-    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>21</v>
       </c>
@@ -27847,7 +28231,9 @@
       <c r="W267" s="18">
         <v>1.7805358311754644</v>
       </c>
-      <c r="X267" s="9"/>
+      <c r="X267" s="18">
+        <v>1.5736676944524346</v>
+      </c>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -27921,7 +28307,7 @@
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
     </row>
-    <row r="268" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>20</v>
       </c>
@@ -27991,7 +28377,9 @@
       <c r="W268" s="18">
         <v>2.2420034873447166</v>
       </c>
-      <c r="X268" s="9"/>
+      <c r="X268" s="18">
+        <v>2.8782851806135117</v>
+      </c>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -28065,7 +28453,7 @@
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
     </row>
-    <row r="269" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
         <v>19</v>
       </c>
@@ -28135,7 +28523,9 @@
       <c r="W269" s="18">
         <v>0.10588093227931854</v>
       </c>
-      <c r="X269" s="9"/>
+      <c r="X269" s="18">
+        <v>9.3565476664688771E-2</v>
+      </c>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -28209,7 +28599,7 @@
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
     </row>
-    <row r="270" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
         <v>64</v>
       </c>
@@ -28279,7 +28669,9 @@
       <c r="W270" s="18">
         <v>0.6162305171610597</v>
       </c>
-      <c r="X270" s="9"/>
+      <c r="X270" s="18">
+        <v>0.49060035042131289</v>
+      </c>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -28353,7 +28745,7 @@
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
     </row>
-    <row r="271" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
         <v>18</v>
       </c>
@@ -28423,7 +28815,9 @@
       <c r="W271" s="18">
         <v>0.13933212382822377</v>
       </c>
-      <c r="X271" s="9"/>
+      <c r="X271" s="18">
+        <v>0.18170964671041567</v>
+      </c>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -28497,7 +28891,7 @@
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
     </row>
-    <row r="272" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
         <v>17</v>
       </c>
@@ -28567,7 +28961,9 @@
       <c r="W272" s="18">
         <v>1.2200377869095056</v>
       </c>
-      <c r="X272" s="9"/>
+      <c r="X272" s="18">
+        <v>1.0853896588162972</v>
+      </c>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -28641,7 +29037,7 @@
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
     </row>
-    <row r="273" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
         <v>16</v>
       </c>
@@ -28711,7 +29107,9 @@
       <c r="W273" s="18">
         <v>9.4180260592467785E-2</v>
       </c>
-      <c r="X273" s="9"/>
+      <c r="X273" s="18">
+        <v>6.5365250919113969E-6</v>
+      </c>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -28785,7 +29183,7 @@
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
     </row>
-    <row r="274" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
         <v>15</v>
       </c>
@@ -28855,7 +29253,9 @@
       <c r="W274" s="18">
         <v>1.7900482959834283</v>
       </c>
-      <c r="X274" s="9"/>
+      <c r="X274" s="18">
+        <v>1.730758853935884</v>
+      </c>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -28929,7 +29329,7 @@
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
     </row>
-    <row r="275" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>14</v>
       </c>
@@ -28999,7 +29399,9 @@
       <c r="W275" s="18">
         <v>1.0466033943129287</v>
       </c>
-      <c r="X275" s="9"/>
+      <c r="X275" s="18">
+        <v>0.9450551950088143</v>
+      </c>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -29073,7 +29475,7 @@
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
     </row>
-    <row r="276" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
         <v>13</v>
       </c>
@@ -29143,7 +29545,9 @@
       <c r="W276" s="18">
         <v>0.46782722873754912</v>
       </c>
-      <c r="X276" s="9"/>
+      <c r="X276" s="18">
+        <v>0.43368352443145902</v>
+      </c>
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
@@ -29217,7 +29621,7 @@
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
     </row>
-    <row r="277" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="10" t="s">
         <v>12</v>
       </c>
@@ -29287,7 +29691,9 @@
       <c r="W277" s="18">
         <v>0.57877616557537959</v>
       </c>
-      <c r="X277" s="9"/>
+      <c r="X277" s="18">
+        <v>0.51137167057735544</v>
+      </c>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -29361,7 +29767,7 @@
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
     </row>
-    <row r="278" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>11</v>
       </c>
@@ -29431,7 +29837,9 @@
       <c r="W278" s="18">
         <v>1.1994232439642272</v>
       </c>
-      <c r="X278" s="9"/>
+      <c r="X278" s="18">
+        <v>1.1995143723635819</v>
+      </c>
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
@@ -29505,7 +29913,7 @@
       <c r="CQ278" s="9"/>
       <c r="CR278" s="9"/>
     </row>
-    <row r="279" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>10</v>
       </c>
@@ -29575,7 +29983,9 @@
       <c r="W279" s="18">
         <v>3.1893128894356226</v>
       </c>
-      <c r="X279" s="9"/>
+      <c r="X279" s="18">
+        <v>2.6635898187478904</v>
+      </c>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
@@ -29649,7 +30059,7 @@
       <c r="CQ279" s="9"/>
       <c r="CR279" s="9"/>
     </row>
-    <row r="280" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>9</v>
       </c>
@@ -29719,7 +30129,9 @@
       <c r="W280" s="18">
         <v>3.6170664692069732</v>
       </c>
-      <c r="X280" s="9"/>
+      <c r="X280" s="18">
+        <v>3.3491106483767616</v>
+      </c>
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
@@ -29793,7 +30205,7 @@
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
     </row>
-    <row r="281" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>8</v>
       </c>
@@ -29863,7 +30275,9 @@
       <c r="W281" s="18">
         <v>2.7100131727194983</v>
       </c>
-      <c r="X281" s="9"/>
+      <c r="X281" s="18">
+        <v>2.1121654976624415</v>
+      </c>
       <c r="Y281" s="9"/>
       <c r="Z281" s="9"/>
       <c r="AA281" s="9"/>
@@ -29937,7 +30351,7 @@
       <c r="CQ281" s="9"/>
       <c r="CR281" s="9"/>
     </row>
-    <row r="282" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>7</v>
       </c>
@@ -30007,7 +30421,9 @@
       <c r="W282" s="18">
         <v>8.5910336026990726E-3</v>
       </c>
-      <c r="X282" s="9"/>
+      <c r="X282" s="18">
+        <v>9.02793075824628E-3</v>
+      </c>
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
@@ -30081,7 +30497,7 @@
       <c r="CQ282" s="9"/>
       <c r="CR282" s="9"/>
     </row>
-    <row r="283" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -30151,7 +30567,9 @@
       <c r="W283" s="18">
         <v>3.6827863886889816</v>
       </c>
-      <c r="X283" s="9"/>
+      <c r="X283" s="18">
+        <v>3.1727870496620141</v>
+      </c>
       <c r="Y283" s="9"/>
       <c r="Z283" s="9"/>
       <c r="AA283" s="9"/>
@@ -30225,7 +30643,7 @@
       <c r="CQ283" s="9"/>
       <c r="CR283" s="9"/>
     </row>
-    <row r="284" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -30295,7 +30713,9 @@
       <c r="W284" s="18">
         <v>2.6198045255260523</v>
       </c>
-      <c r="X284" s="9"/>
+      <c r="X284" s="18">
+        <v>2.2640817353471117</v>
+      </c>
       <c r="Y284" s="9"/>
       <c r="Z284" s="9"/>
       <c r="AA284" s="9"/>
@@ -30369,7 +30789,7 @@
       <c r="CQ284" s="9"/>
       <c r="CR284" s="9"/>
     </row>
-    <row r="285" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>4</v>
       </c>
@@ -30439,7 +30859,9 @@
       <c r="W285" s="18">
         <v>0.50976968290864655</v>
       </c>
-      <c r="X285" s="9"/>
+      <c r="X285" s="18">
+        <v>0.36159892479490069</v>
+      </c>
       <c r="Y285" s="9"/>
       <c r="Z285" s="9"/>
       <c r="AA285" s="9"/>
@@ -30513,7 +30935,7 @@
       <c r="CQ285" s="9"/>
       <c r="CR285" s="9"/>
     </row>
-    <row r="286" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
@@ -30583,7 +31005,9 @@
       <c r="W286" s="18">
         <v>1.4040365619337936</v>
       </c>
-      <c r="X286" s="9"/>
+      <c r="X286" s="18">
+        <v>1.2160655462571544</v>
+      </c>
       <c r="Y286" s="9"/>
       <c r="Z286" s="9"/>
       <c r="AA286" s="9"/>
@@ -30657,7 +31081,7 @@
       <c r="CQ286" s="9"/>
       <c r="CR286" s="9"/>
     </row>
-    <row r="287" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
@@ -30727,7 +31151,9 @@
       <c r="W287" s="18">
         <v>12.038740306473668</v>
       </c>
-      <c r="X287" s="9"/>
+      <c r="X287" s="18">
+        <v>11.730936397667172</v>
+      </c>
       <c r="Y287" s="9"/>
       <c r="Z287" s="9"/>
       <c r="AA287" s="9"/>
@@ -30801,7 +31227,7 @@
       <c r="CQ287" s="9"/>
       <c r="CR287" s="9"/>
     </row>
-    <row r="288" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
@@ -30898,7 +31324,7 @@
       <c r="CQ288" s="9"/>
       <c r="CR288" s="9"/>
     </row>
-    <row r="289" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12" t="s">
         <v>1</v>
       </c>
@@ -30968,7 +31394,9 @@
       <c r="W289" s="18">
         <v>100</v>
       </c>
-      <c r="X289" s="9"/>
+      <c r="X289" s="18">
+        <v>100</v>
+      </c>
       <c r="Y289" s="9"/>
       <c r="Z289" s="9"/>
       <c r="AA289" s="9"/>
@@ -31042,7 +31470,7 @@
       <c r="CQ289" s="9"/>
       <c r="CR289" s="9"/>
     </row>
-    <row r="290" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -31066,13 +31494,14 @@
       <c r="U290" s="13"/>
       <c r="V290" s="13"/>
       <c r="W290" s="13"/>
+      <c r="X290" s="13"/>
     </row>
-    <row r="291" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
@@ -31169,7 +31598,7 @@
       <c r="CQ292" s="9"/>
       <c r="CR292" s="9"/>
     </row>
-    <row r="293" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -31266,37 +31695,37 @@
       <c r="CQ293" s="9"/>
       <c r="CR293" s="9"/>
     </row>
-    <row r="294" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="298" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="300" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="16" t="s">
         <v>34</v>
@@ -31322,8 +31751,9 @@
       <c r="U302" s="16"/>
       <c r="V302" s="16"/>
       <c r="W302" s="16"/>
+      <c r="X302" s="16"/>
     </row>
-    <row r="303" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
         <v>33</v>
       </c>
@@ -31393,11 +31823,14 @@
       <c r="W303" s="17">
         <v>2021</v>
       </c>
+      <c r="X303" s="17">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="304" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
     </row>
-    <row r="305" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>32</v>
       </c>
@@ -31467,7 +31900,9 @@
       <c r="W305" s="18">
         <v>62.444532044971936</v>
       </c>
-      <c r="X305" s="9"/>
+      <c r="X305" s="18">
+        <v>64.30981120680282</v>
+      </c>
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
@@ -31541,7 +31976,7 @@
       <c r="CQ305" s="9"/>
       <c r="CR305" s="9"/>
     </row>
-    <row r="306" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
         <v>31</v>
       </c>
@@ -31611,7 +32046,9 @@
       <c r="W306" s="18">
         <v>43.583693587767556</v>
       </c>
-      <c r="X306" s="9"/>
+      <c r="X306" s="18">
+        <v>47.36300076758814</v>
+      </c>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
@@ -31685,7 +32122,7 @@
       <c r="CQ306" s="9"/>
       <c r="CR306" s="9"/>
     </row>
-    <row r="307" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
         <v>30</v>
       </c>
@@ -31755,7 +32192,9 @@
       <c r="W307" s="18">
         <v>7.8950230819663698</v>
       </c>
-      <c r="X307" s="9"/>
+      <c r="X307" s="18">
+        <v>6.0061491751017044</v>
+      </c>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
@@ -31829,7 +32268,7 @@
       <c r="CQ307" s="9"/>
       <c r="CR307" s="9"/>
     </row>
-    <row r="308" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
         <v>29</v>
       </c>
@@ -31899,7 +32338,9 @@
       <c r="W308" s="18">
         <v>2.6119087413145845</v>
       </c>
-      <c r="X308" s="9"/>
+      <c r="X308" s="18">
+        <v>2.0584665501608308</v>
+      </c>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
@@ -31973,7 +32414,7 @@
       <c r="CQ308" s="9"/>
       <c r="CR308" s="9"/>
     </row>
-    <row r="309" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
         <v>28</v>
       </c>
@@ -32043,7 +32484,9 @@
       <c r="W309" s="18">
         <v>1.9164814629889819</v>
       </c>
-      <c r="X309" s="9"/>
+      <c r="X309" s="18">
+        <v>1.6285466027720603</v>
+      </c>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
@@ -32117,7 +32560,7 @@
       <c r="CQ309" s="9"/>
       <c r="CR309" s="9"/>
     </row>
-    <row r="310" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="10" t="s">
         <v>27</v>
       </c>
@@ -32187,7 +32630,9 @@
       <c r="W310" s="18">
         <v>1.0686608354503933</v>
       </c>
-      <c r="X310" s="9"/>
+      <c r="X310" s="18">
+        <v>1.4507088939998167</v>
+      </c>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
@@ -32261,7 +32706,7 @@
       <c r="CQ310" s="9"/>
       <c r="CR310" s="9"/>
     </row>
-    <row r="311" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
         <v>26</v>
       </c>
@@ -32331,7 +32776,9 @@
       <c r="W311" s="18">
         <v>0.79795134723595407</v>
       </c>
-      <c r="X311" s="9"/>
+      <c r="X311" s="18">
+        <v>0.76603044630345318</v>
+      </c>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
@@ -32405,7 +32852,7 @@
       <c r="CQ311" s="9"/>
       <c r="CR311" s="9"/>
     </row>
-    <row r="312" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="10" t="s">
         <v>25</v>
       </c>
@@ -32475,7 +32922,9 @@
       <c r="W312" s="18">
         <v>4.2674519559238542</v>
       </c>
-      <c r="X312" s="9"/>
+      <c r="X312" s="18">
+        <v>4.7620743915400379</v>
+      </c>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
@@ -32549,7 +32998,7 @@
       <c r="CQ312" s="9"/>
       <c r="CR312" s="9"/>
     </row>
-    <row r="313" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
         <v>24</v>
       </c>
@@ -32619,7 +33068,9 @@
       <c r="W313" s="18">
         <v>0.15866428822570389</v>
       </c>
-      <c r="X313" s="9"/>
+      <c r="X313" s="18">
+        <v>0.15037109036465152</v>
+      </c>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -32693,7 +33144,7 @@
       <c r="CQ313" s="9"/>
       <c r="CR313" s="9"/>
     </row>
-    <row r="314" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
         <v>23</v>
       </c>
@@ -32763,7 +33214,9 @@
       <c r="W314" s="18">
         <v>0.14469674409853731</v>
       </c>
-      <c r="X314" s="9"/>
+      <c r="X314" s="18">
+        <v>0.12446328897211745</v>
+      </c>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
@@ -32837,7 +33290,7 @@
       <c r="CQ314" s="9"/>
       <c r="CR314" s="9"/>
     </row>
-    <row r="315" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>22</v>
       </c>
@@ -32907,7 +33360,9 @@
       <c r="W315" s="18">
         <v>6.3350707322443665</v>
       </c>
-      <c r="X315" s="9"/>
+      <c r="X315" s="18">
+        <v>6.3925874286488256</v>
+      </c>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
@@ -32981,7 +33436,7 @@
       <c r="CQ315" s="9"/>
       <c r="CR315" s="9"/>
     </row>
-    <row r="316" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
         <v>21</v>
       </c>
@@ -33051,7 +33506,9 @@
       <c r="W316" s="18">
         <v>1.3015586027695678</v>
       </c>
-      <c r="X316" s="9"/>
+      <c r="X316" s="18">
+        <v>1.2224186797561312</v>
+      </c>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
@@ -33125,7 +33582,7 @@
       <c r="CQ316" s="9"/>
       <c r="CR316" s="9"/>
     </row>
-    <row r="317" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
         <v>20</v>
       </c>
@@ -33195,7 +33652,9 @@
       <c r="W317" s="18">
         <v>1.6764991429538856</v>
       </c>
-      <c r="X317" s="9"/>
+      <c r="X317" s="18">
+        <v>2.1506264393669903</v>
+      </c>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
@@ -33269,7 +33728,7 @@
       <c r="CQ317" s="9"/>
       <c r="CR317" s="9"/>
     </row>
-    <row r="318" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
         <v>19</v>
       </c>
@@ -33339,7 +33798,9 @@
       <c r="W318" s="18">
         <v>7.3840009988049488E-2</v>
       </c>
-      <c r="X318" s="9"/>
+      <c r="X318" s="18">
+        <v>6.2805327880615089E-2</v>
+      </c>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
@@ -33413,7 +33874,7 @@
       <c r="CQ318" s="9"/>
       <c r="CR318" s="9"/>
     </row>
-    <row r="319" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
         <v>64</v>
       </c>
@@ -33483,7 +33944,9 @@
       <c r="W319" s="18">
         <v>0.60686145632710131</v>
       </c>
-      <c r="X319" s="9"/>
+      <c r="X319" s="18">
+        <v>0.47951534400934365</v>
+      </c>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
@@ -33557,7 +34020,7 @@
       <c r="CQ319" s="9"/>
       <c r="CR319" s="9"/>
     </row>
-    <row r="320" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="10" t="s">
         <v>18</v>
       </c>
@@ -33627,7 +34090,9 @@
       <c r="W320" s="18">
         <v>0.12624769516982881</v>
       </c>
-      <c r="X320" s="9"/>
+      <c r="X320" s="18">
+        <v>0.16261313466380559</v>
+      </c>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
@@ -33701,7 +34166,7 @@
       <c r="CQ320" s="9"/>
       <c r="CR320" s="9"/>
     </row>
-    <row r="321" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="10" t="s">
         <v>17</v>
       </c>
@@ -33771,7 +34236,9 @@
       <c r="W321" s="18">
         <v>0.94766948493394898</v>
       </c>
-      <c r="X321" s="9"/>
+      <c r="X321" s="18">
+        <v>0.89162409071062854</v>
+      </c>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
@@ -33845,7 +34312,7 @@
       <c r="CQ321" s="9"/>
       <c r="CR321" s="9"/>
     </row>
-    <row r="322" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="10" t="s">
         <v>16</v>
       </c>
@@ -33915,7 +34382,9 @@
       <c r="W322" s="18">
         <v>7.4335531826456733E-2</v>
       </c>
-      <c r="X322" s="9"/>
+      <c r="X322" s="18">
+        <v>4.6749330830932505E-6</v>
+      </c>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
@@ -33989,7 +34458,7 @@
       <c r="CQ322" s="9"/>
       <c r="CR322" s="9"/>
     </row>
-    <row r="323" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
         <v>15</v>
       </c>
@@ -34059,7 +34528,9 @@
       <c r="W323" s="18">
         <v>1.5280588082755271</v>
       </c>
-      <c r="X323" s="9"/>
+      <c r="X323" s="18">
+        <v>1.4229797373282274</v>
+      </c>
       <c r="Y323" s="9"/>
       <c r="Z323" s="9"/>
       <c r="AA323" s="9"/>
@@ -34133,7 +34604,7 @@
       <c r="CQ323" s="9"/>
       <c r="CR323" s="9"/>
     </row>
-    <row r="324" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>14</v>
       </c>
@@ -34203,7 +34674,9 @@
       <c r="W324" s="18">
         <v>0.82511417508365392</v>
       </c>
-      <c r="X324" s="9"/>
+      <c r="X324" s="18">
+        <v>0.73944434265181713</v>
+      </c>
       <c r="Y324" s="9"/>
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
@@ -34277,7 +34750,7 @@
       <c r="CQ324" s="9"/>
       <c r="CR324" s="9"/>
     </row>
-    <row r="325" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
         <v>13</v>
       </c>
@@ -34347,7 +34820,9 @@
       <c r="W325" s="18">
         <v>0.35117063763501633</v>
       </c>
-      <c r="X325" s="9"/>
+      <c r="X325" s="18">
+        <v>0.34546178392430171</v>
+      </c>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
       <c r="AA325" s="9"/>
@@ -34421,7 +34896,7 @@
       <c r="CQ325" s="9"/>
       <c r="CR325" s="9"/>
     </row>
-    <row r="326" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="10" t="s">
         <v>12</v>
       </c>
@@ -34491,7 +34966,9 @@
       <c r="W326" s="18">
         <v>0.4739435374486376</v>
       </c>
-      <c r="X326" s="9"/>
+      <c r="X326" s="18">
+        <v>0.39398255872751542</v>
+      </c>
       <c r="Y326" s="9"/>
       <c r="Z326" s="9"/>
       <c r="AA326" s="9"/>
@@ -34565,7 +35042,7 @@
       <c r="CQ326" s="9"/>
       <c r="CR326" s="9"/>
     </row>
-    <row r="327" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>11</v>
       </c>
@@ -34635,7 +35112,9 @@
       <c r="W327" s="18">
         <v>1.2538609680557951</v>
       </c>
-      <c r="X327" s="9"/>
+      <c r="X327" s="18">
+        <v>1.2901635105722147</v>
+      </c>
       <c r="Y327" s="9"/>
       <c r="Z327" s="9"/>
       <c r="AA327" s="9"/>
@@ -34709,7 +35188,7 @@
       <c r="CQ327" s="9"/>
       <c r="CR327" s="9"/>
     </row>
-    <row r="328" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -34779,7 +35258,9 @@
       <c r="W328" s="18">
         <v>2.1459489096668447</v>
       </c>
-      <c r="X328" s="9"/>
+      <c r="X328" s="18">
+        <v>1.9992786340841402</v>
+      </c>
       <c r="Y328" s="9"/>
       <c r="Z328" s="9"/>
       <c r="AA328" s="9"/>
@@ -34853,7 +35334,7 @@
       <c r="CQ328" s="9"/>
       <c r="CR328" s="9"/>
     </row>
-    <row r="329" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>9</v>
       </c>
@@ -34923,7 +35404,9 @@
       <c r="W329" s="18">
         <v>3.1291596903603933</v>
       </c>
-      <c r="X329" s="9"/>
+      <c r="X329" s="18">
+        <v>3.4274999020533254</v>
+      </c>
       <c r="Y329" s="9"/>
       <c r="Z329" s="9"/>
       <c r="AA329" s="9"/>
@@ -34997,7 +35480,7 @@
       <c r="CQ329" s="9"/>
       <c r="CR329" s="9"/>
     </row>
-    <row r="330" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
@@ -35067,7 +35550,9 @@
       <c r="W330" s="18">
         <v>2.2176303781666582</v>
       </c>
-      <c r="X330" s="9"/>
+      <c r="X330" s="18">
+        <v>1.967032758232784</v>
+      </c>
       <c r="Y330" s="9"/>
       <c r="Z330" s="9"/>
       <c r="AA330" s="9"/>
@@ -35141,7 +35626,7 @@
       <c r="CQ330" s="9"/>
       <c r="CR330" s="9"/>
     </row>
-    <row r="331" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>7</v>
       </c>
@@ -35211,7 +35696,9 @@
       <c r="W331" s="18">
         <v>1.096681747897402E-2</v>
       </c>
-      <c r="X331" s="9"/>
+      <c r="X331" s="18">
+        <v>7.7150324969220427E-3</v>
+      </c>
       <c r="Y331" s="9"/>
       <c r="Z331" s="9"/>
       <c r="AA331" s="9"/>
@@ -35285,7 +35772,7 @@
       <c r="CQ331" s="9"/>
       <c r="CR331" s="9"/>
     </row>
-    <row r="332" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>6</v>
       </c>
@@ -35355,7 +35842,9 @@
       <c r="W332" s="18">
         <v>4.1165959162523329</v>
       </c>
-      <c r="X332" s="9"/>
+      <c r="X332" s="18">
+        <v>3.5085658113737983</v>
+      </c>
       <c r="Y332" s="9"/>
       <c r="Z332" s="9"/>
       <c r="AA332" s="9"/>
@@ -35429,7 +35918,7 @@
       <c r="CQ332" s="9"/>
       <c r="CR332" s="9"/>
     </row>
-    <row r="333" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>5</v>
       </c>
@@ -35499,7 +35988,9 @@
       <c r="W333" s="18">
         <v>2.6484428144251884</v>
       </c>
-      <c r="X333" s="9"/>
+      <c r="X333" s="18">
+        <v>1.954335237343513</v>
+      </c>
       <c r="Y333" s="9"/>
       <c r="Z333" s="9"/>
       <c r="AA333" s="9"/>
@@ -35573,7 +36064,7 @@
       <c r="CQ333" s="9"/>
       <c r="CR333" s="9"/>
     </row>
-    <row r="334" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>4</v>
       </c>
@@ -35643,7 +36134,9 @@
       <c r="W334" s="18">
         <v>0.57173183721329568</v>
       </c>
-      <c r="X334" s="9"/>
+      <c r="X334" s="18">
+        <v>0.40035108480343518</v>
+      </c>
       <c r="Y334" s="9"/>
       <c r="Z334" s="9"/>
       <c r="AA334" s="9"/>
@@ -35717,7 +36210,7 @@
       <c r="CQ334" s="9"/>
       <c r="CR334" s="9"/>
     </row>
-    <row r="335" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>3</v>
       </c>
@@ -35787,7 +36280,9 @@
       <c r="W335" s="18">
         <v>1.4201812751877327</v>
       </c>
-      <c r="X335" s="9"/>
+      <c r="X335" s="18">
+        <v>1.1921506709630327</v>
+      </c>
       <c r="Y335" s="9"/>
       <c r="Z335" s="9"/>
       <c r="AA335" s="9"/>
@@ -35861,7 +36356,7 @@
       <c r="CQ335" s="9"/>
       <c r="CR335" s="9"/>
     </row>
-    <row r="336" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>2</v>
       </c>
@@ -35931,7 +36426,9 @@
       <c r="W336" s="18">
         <v>12.880764440892795</v>
       </c>
-      <c r="X336" s="9"/>
+      <c r="X336" s="18">
+        <v>12.811064379973363</v>
+      </c>
       <c r="Y336" s="9"/>
       <c r="Z336" s="9"/>
       <c r="AA336" s="9"/>
@@ -36005,7 +36502,7 @@
       <c r="CQ336" s="9"/>
       <c r="CR336" s="9"/>
     </row>
-    <row r="337" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -36102,7 +36599,7 @@
       <c r="CQ337" s="9"/>
       <c r="CR337" s="9"/>
     </row>
-    <row r="338" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="12" t="s">
         <v>1</v>
       </c>
@@ -36172,7 +36669,9 @@
       <c r="W338" s="18">
         <v>100</v>
       </c>
-      <c r="X338" s="9"/>
+      <c r="X338" s="18">
+        <v>100</v>
+      </c>
       <c r="Y338" s="9"/>
       <c r="Z338" s="9"/>
       <c r="AA338" s="9"/>
@@ -36246,7 +36745,7 @@
       <c r="CQ338" s="9"/>
       <c r="CR338" s="9"/>
     </row>
-    <row r="339" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -36270,13 +36769,14 @@
       <c r="U339" s="13"/>
       <c r="V339" s="13"/>
       <c r="W339" s="13"/>
+      <c r="X339" s="13"/>
     </row>
-    <row r="340" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -36368,7 +36868,7 @@
       <c r="CL341" s="9"/>
       <c r="CM341" s="9"/>
     </row>
-    <row r="342" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
@@ -36466,12 +36966,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="49" max="22" man="1"/>
-    <brk id="98" max="22" man="1"/>
-    <brk id="147" max="22" man="1"/>
-    <brk id="196" max="22" man="1"/>
-    <brk id="244" max="22" man="1"/>
-    <brk id="293" max="22" man="1"/>
+    <brk id="49" max="23" man="1"/>
+    <brk id="98" max="23" man="1"/>
+    <brk id="147" max="23" man="1"/>
+    <brk id="196" max="23" man="1"/>
+    <brk id="244" max="23" man="1"/>
+    <brk id="293" max="23" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5B217-4261-4E35-A68D-18D2FB28076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C968C-C5F4-40B5-B252-D438C59395FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14340" yWindow="2085" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOG" sheetId="1" r:id="rId1"/>
@@ -288,13 +288,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -375,10 +375,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -418,8 +419,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 3" xfId="3" xr:uid="{C3B8345F-9CE9-4D6E-805D-3E9F8D892130}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
@@ -718,10 +720,10 @@
   <dimension ref="A1:CR342"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="96" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,7 +745,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -753,7 +755,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -934,10 +936,10 @@
         <v>1532232.7781556607</v>
       </c>
       <c r="W12" s="8">
-        <v>1749260.484941493</v>
+        <v>1750025.3410625064</v>
       </c>
       <c r="X12" s="8">
-        <v>2235275.7324007312</v>
+        <v>2249336.0259818225</v>
       </c>
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
@@ -1080,10 +1082,10 @@
         <v>1062761.9446237115</v>
       </c>
       <c r="W13" s="11">
-        <v>1202337.8774415997</v>
+        <v>1202817.6364158951</v>
       </c>
       <c r="X13" s="11">
-        <v>1643165.3131658593</v>
+        <v>1654422.3563103364</v>
       </c>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
@@ -1226,10 +1228,10 @@
         <v>167926.58608099609</v>
       </c>
       <c r="W14" s="11">
-        <v>216618.59278987156</v>
+        <v>216604.29827546811</v>
       </c>
       <c r="X14" s="11">
-        <v>199399.5639946158</v>
+        <v>201527.63927911554</v>
       </c>
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
@@ -1372,10 +1374,10 @@
         <v>66063.891742801614</v>
       </c>
       <c r="W15" s="11">
-        <v>78780.139516677969</v>
+        <v>78375.731365465006</v>
       </c>
       <c r="X15" s="11">
-        <v>74115.939826906033</v>
+        <v>75958.059300341716</v>
       </c>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
@@ -1518,10 +1520,10 @@
         <v>56691.865285493463</v>
       </c>
       <c r="W16" s="11">
-        <v>61653.529269754363</v>
+        <v>61517.748483953481</v>
       </c>
       <c r="X16" s="11">
-        <v>61123.011025020351</v>
+        <v>60100.191947446496</v>
       </c>
       <c r="Y16" s="9"/>
       <c r="Z16" s="9"/>
@@ -1664,10 +1666,10 @@
         <v>15532.741874270487</v>
       </c>
       <c r="W17" s="11">
-        <v>31294.57623913524</v>
+        <v>31307.44164432586</v>
       </c>
       <c r="X17" s="11">
-        <v>51510.02329168393</v>
+        <v>51900.400162958969</v>
       </c>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
@@ -1810,10 +1812,10 @@
         <v>30288.812304674648</v>
       </c>
       <c r="W18" s="11">
-        <v>26025.982616532812</v>
+        <v>26012.177325309065</v>
       </c>
       <c r="X18" s="11">
-        <v>28798.697614903525</v>
+        <v>28410.570820265682</v>
       </c>
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
@@ -1956,10 +1958,10 @@
         <v>119837.79044304814</v>
       </c>
       <c r="W19" s="11">
-        <v>122258.8853179834</v>
+        <v>123101.31533310024</v>
       </c>
       <c r="X19" s="11">
-        <v>166174.14549300901</v>
+        <v>166005.14485265745</v>
       </c>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2105,7 +2107,7 @@
         <v>5808.4490202393845</v>
       </c>
       <c r="X20" s="11">
-        <v>6187.7410026970183</v>
+        <v>6210.3663226645749</v>
       </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
@@ -2248,7 +2250,7 @@
         <v>8481.2452716864191</v>
       </c>
       <c r="W21" s="11">
-        <v>4482.4527296984388</v>
+        <v>4480.5431987501079</v>
       </c>
       <c r="X21" s="11">
         <v>4801.2969860358808</v>
@@ -2394,10 +2396,10 @@
         <v>215097.37698211166</v>
       </c>
       <c r="W22" s="8">
-        <v>232948.0410287322</v>
+        <v>234553.05123462301</v>
       </c>
       <c r="X22" s="8">
-        <v>285312.57832592161</v>
+        <v>285312.70596974582</v>
       </c>
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
@@ -2540,10 +2542,10 @@
         <v>76145.193244841154</v>
       </c>
       <c r="W23" s="11">
-        <v>51922.808319782409</v>
+        <v>53151.426787782024</v>
       </c>
       <c r="X23" s="11">
-        <v>55885.998897682686</v>
+        <v>55939.616238446753</v>
       </c>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
@@ -2686,10 +2688,10 @@
         <v>41298.915453652058</v>
       </c>
       <c r="W24" s="11">
-        <v>65379.822909169859</v>
+        <v>65171.705039019856</v>
       </c>
       <c r="X24" s="11">
-        <v>102217.15994935874</v>
+        <v>102820.1106917015</v>
       </c>
       <c r="Y24" s="9"/>
       <c r="Z24" s="9"/>
@@ -2832,10 +2834,10 @@
         <v>1901.5250827350987</v>
       </c>
       <c r="W25" s="11">
-        <v>3087.6297208967253</v>
+        <v>3086.566948938349</v>
       </c>
       <c r="X25" s="11">
-        <v>3322.8108730816948</v>
+        <v>3323.7341279471689</v>
       </c>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
@@ -2978,10 +2980,10 @@
         <v>11974.564773224763</v>
       </c>
       <c r="W26" s="11">
-        <v>17970.10678646712</v>
+        <v>18133.734699664932</v>
       </c>
       <c r="X26" s="11">
-        <v>17422.795638178461</v>
+        <v>17392.116447146152</v>
       </c>
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
@@ -3124,10 +3126,10 @@
         <v>4810.1554823207925</v>
       </c>
       <c r="W27" s="11">
-        <v>4063.1112453069854</v>
+        <v>4075.7728379381197</v>
       </c>
       <c r="X27" s="11">
-        <v>6453.0937195670722</v>
+        <v>5859.4384407762209</v>
       </c>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
@@ -3270,10 +3272,10 @@
         <v>31325.405216108553</v>
       </c>
       <c r="W28" s="11">
-        <v>35577.935048222644</v>
+        <v>35844.076670783776</v>
       </c>
       <c r="X28" s="11">
-        <v>38545.676123363548</v>
+        <v>38361.328369165072</v>
       </c>
       <c r="Y28" s="9"/>
       <c r="Z28" s="9"/>
@@ -3416,7 +3418,7 @@
         <v>3353.3109405764317</v>
       </c>
       <c r="W29" s="11">
-        <v>2746.4224716115596</v>
+        <v>2744.600344881449</v>
       </c>
       <c r="X29" s="11">
         <v>0.23213301980399587</v>
@@ -3562,10 +3564,10 @@
         <v>44288.306788652801</v>
       </c>
       <c r="W30" s="11">
-        <v>52200.204527274909</v>
+        <v>52345.167905614522</v>
       </c>
       <c r="X30" s="11">
-        <v>61464.810991669605</v>
+        <v>61616.129521543153</v>
       </c>
       <c r="Y30" s="9"/>
       <c r="Z30" s="9"/>
@@ -3708,10 +3710,10 @@
         <v>30934.711553361063</v>
       </c>
       <c r="W31" s="8">
-        <v>30520.355995233331</v>
+        <v>30533.370924928895</v>
       </c>
       <c r="X31" s="8">
-        <v>33561.948162689616</v>
+        <v>33268.842881071636</v>
       </c>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
@@ -3854,10 +3856,10 @@
         <v>10024.11804357204</v>
       </c>
       <c r="W32" s="11">
-        <v>13642.468238607997</v>
+        <v>13651.804058600326</v>
       </c>
       <c r="X32" s="11">
-        <v>15401.496169591883</v>
+        <v>15326.45577481685</v>
       </c>
       <c r="Y32" s="9"/>
       <c r="Z32" s="9"/>
@@ -4000,10 +4002,10 @@
         <v>20910.593509789021</v>
       </c>
       <c r="W33" s="11">
-        <v>16877.887756625332</v>
+        <v>16881.566866328569</v>
       </c>
       <c r="X33" s="11">
-        <v>18160.451993097737</v>
+        <v>17942.387106254788</v>
       </c>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
@@ -4146,10 +4148,10 @@
         <v>30246.958487362448</v>
       </c>
       <c r="W34" s="11">
-        <v>34976.787380646092</v>
+        <v>35017.695649048408</v>
       </c>
       <c r="X34" s="11">
-        <v>42598.611592513633</v>
+        <v>43411.943418658557</v>
       </c>
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
@@ -4441,7 +4443,7 @@
         <v>105478.50016394199</v>
       </c>
       <c r="X36" s="11">
-        <v>118937.68593154429</v>
+        <v>118940.18778825109</v>
       </c>
       <c r="Y36" s="9"/>
       <c r="Z36" s="9"/>
@@ -4584,10 +4586,10 @@
         <v>71828.205325159419</v>
       </c>
       <c r="W37" s="11">
-        <v>79027.611827561894</v>
+        <v>77733.707004613927</v>
       </c>
       <c r="X37" s="11">
-        <v>75009.787066359873</v>
+        <v>75665.756726636784</v>
       </c>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
@@ -4876,10 +4878,10 @@
         <v>103817.29703379123</v>
       </c>
       <c r="W39" s="11">
-        <v>107394.98099084177</v>
+        <v>107333.19485513651</v>
       </c>
       <c r="X39" s="11">
-        <v>112675.86809151003</v>
+        <v>111019.91540930416</v>
       </c>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
@@ -5022,10 +5024,10 @@
         <v>54944.70678299827</v>
       </c>
       <c r="W40" s="11">
-        <v>76397.006919195643</v>
+        <v>76390.608479012619</v>
       </c>
       <c r="X40" s="11">
-        <v>80404.821050799481</v>
+        <v>80320.151600239216</v>
       </c>
       <c r="Y40" s="9"/>
       <c r="Z40" s="9"/>
@@ -5168,10 +5170,10 @@
         <v>14992.732477948612</v>
       </c>
       <c r="W41" s="11">
-        <v>14865.566347759466</v>
+        <v>14871.86387452423</v>
       </c>
       <c r="X41" s="11">
-        <v>12841.540297059124</v>
+        <v>12630.296443092944</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5314,10 +5316,10 @@
         <v>32358.92418817681</v>
       </c>
       <c r="W42" s="11">
-        <v>40943.585634627154</v>
+        <v>40973.206406749108</v>
       </c>
       <c r="X42" s="11">
-        <v>43186.396986617045</v>
+        <v>43572.218256811015</v>
       </c>
       <c r="Y42" s="9"/>
       <c r="Z42" s="9"/>
@@ -5460,10 +5462,10 @@
         <v>303745.63502687786</v>
       </c>
       <c r="W43" s="11">
-        <v>351065.78278293082</v>
+        <v>351785.71811764943</v>
       </c>
       <c r="X43" s="11">
-        <v>416603.26439943269</v>
+        <v>420645.29175931407</v>
       </c>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
@@ -5703,10 +5705,10 @@
         <v>2551888.408456522</v>
       </c>
       <c r="W45" s="8">
-        <v>2916133.8632261218</v>
+        <v>2917951.4169858918</v>
       </c>
       <c r="X45" s="8">
-        <v>3551321.4825909287</v>
+        <v>3569036.5845206971</v>
       </c>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
@@ -6018,7 +6020,7 @@
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.2">
@@ -6028,7 +6030,7 @@
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
@@ -6209,10 +6211,10 @@
         <v>1711289.1280834088</v>
       </c>
       <c r="W61" s="8">
-        <v>1986181.9157533466</v>
+        <v>1987109.2084500298</v>
       </c>
       <c r="X61" s="8">
-        <v>2144731.2364010899</v>
+        <v>2156677.5070377868</v>
       </c>
       <c r="Y61" s="9"/>
       <c r="Z61" s="9"/>
@@ -6355,10 +6357,10 @@
         <v>1202881.6765422062</v>
       </c>
       <c r="W62" s="11">
-        <v>1386272.6037151765</v>
+        <v>1386765.2199858637</v>
       </c>
       <c r="X62" s="11">
-        <v>1579555.3631665716</v>
+        <v>1589685.0576975909</v>
       </c>
       <c r="Y62" s="9"/>
       <c r="Z62" s="9"/>
@@ -6501,10 +6503,10 @@
         <v>190979.58683094603</v>
       </c>
       <c r="W63" s="11">
-        <v>251118.09723489618</v>
+        <v>251092.48033624783</v>
       </c>
       <c r="X63" s="11">
-        <v>200304.98464536972</v>
+        <v>201964.02900990527</v>
       </c>
       <c r="Y63" s="9"/>
       <c r="Z63" s="9"/>
@@ -6647,10 +6649,10 @@
         <v>71380.988023566795</v>
       </c>
       <c r="W64" s="11">
-        <v>83077.344608187064</v>
+        <v>82696.853612820429</v>
       </c>
       <c r="X64" s="11">
-        <v>68649.828484486556</v>
+        <v>70093.923899324276</v>
       </c>
       <c r="Y64" s="9"/>
       <c r="Z64" s="9"/>
@@ -6793,10 +6795,10 @@
         <v>55632.291229143462</v>
       </c>
       <c r="W65" s="11">
-        <v>60957.792444082093</v>
+        <v>60827.858719892502</v>
       </c>
       <c r="X65" s="11">
-        <v>54312.004705910884</v>
+        <v>53349.360290783232</v>
       </c>
       <c r="Y65" s="9"/>
       <c r="Z65" s="9"/>
@@ -6939,10 +6941,10 @@
         <v>15944.718532535651</v>
       </c>
       <c r="W66" s="11">
-        <v>33991.043826171859</v>
+        <v>34006.873669914567</v>
       </c>
       <c r="X66" s="11">
-        <v>48381.119793384758</v>
+        <v>48704.116804010831</v>
       </c>
       <c r="Y66" s="9"/>
       <c r="Z66" s="9"/>
@@ -7085,10 +7087,10 @@
         <v>30860.661446945422</v>
       </c>
       <c r="W67" s="11">
-        <v>25380.549483334406</v>
+        <v>25361.955773925351</v>
       </c>
       <c r="X67" s="11">
-        <v>25547.103861618732</v>
+        <v>25175.029868070105</v>
       </c>
       <c r="Y67" s="9"/>
       <c r="Z67" s="9"/>
@@ -7231,10 +7233,10 @@
         <v>130631.80261460665</v>
       </c>
       <c r="W68" s="11">
-        <v>135735.43789387229</v>
+        <v>136711.51670216647</v>
       </c>
       <c r="X68" s="11">
-        <v>158815.10932691471</v>
+        <v>158513.31195205619</v>
       </c>
       <c r="Y68" s="9"/>
       <c r="Z68" s="9"/>
@@ -7380,7 +7382,7 @@
         <v>5046.657083166413</v>
       </c>
       <c r="X69" s="11">
-        <v>5014.8736017847896</v>
+        <v>5041.8081276560533</v>
       </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
@@ -7523,10 +7525,10 @@
         <v>8865.6060788628147</v>
       </c>
       <c r="W70" s="11">
-        <v>4602.389464459854</v>
+        <v>4599.7925660323408</v>
       </c>
       <c r="X70" s="11">
-        <v>4150.8488150479616</v>
+        <v>4150.8693883897358</v>
       </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
@@ -7669,10 +7671,10 @@
         <v>200719.84828295937</v>
       </c>
       <c r="W71" s="8">
-        <v>201500.47588378441</v>
+        <v>202883.85037484372</v>
       </c>
       <c r="X71" s="8">
-        <v>213192.69458837641</v>
+        <v>213316.45949791043</v>
       </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
@@ -7815,10 +7817,10 @@
         <v>58671.751358511603</v>
       </c>
       <c r="W72" s="11">
-        <v>41398.855503510262</v>
+        <v>42402.720251650419</v>
       </c>
       <c r="X72" s="11">
-        <v>40767.644582290741</v>
+        <v>40839.148263819341</v>
       </c>
       <c r="Y72" s="9"/>
       <c r="Z72" s="9"/>
@@ -7961,10 +7963,10 @@
         <v>42546.284330421055</v>
       </c>
       <c r="W73" s="11">
-        <v>53324.641413164558</v>
+        <v>53199.984009579523</v>
       </c>
       <c r="X73" s="11">
-        <v>71723.359403246359</v>
+        <v>72224.769804156909</v>
       </c>
       <c r="Y73" s="9"/>
       <c r="Z73" s="9"/>
@@ -8107,10 +8109,10 @@
         <v>1706.5173102510939</v>
       </c>
       <c r="W74" s="11">
-        <v>2348.6394676108312</v>
+        <v>2346.8370053440644</v>
       </c>
       <c r="X74" s="11">
-        <v>2094.5567401031112</v>
+        <v>2098.6875139377175</v>
       </c>
       <c r="Y74" s="9"/>
       <c r="Z74" s="9"/>
@@ -8253,10 +8255,10 @@
         <v>13797.34149923849</v>
       </c>
       <c r="W75" s="11">
-        <v>19302.526745761439</v>
+        <v>19458.306900947791</v>
       </c>
       <c r="X75" s="11">
-        <v>15991.829509859674</v>
+        <v>15834.78258033459</v>
       </c>
       <c r="Y75" s="9"/>
       <c r="Z75" s="9"/>
@@ -8399,10 +8401,10 @@
         <v>4706.3128763398581</v>
       </c>
       <c r="W76" s="11">
-        <v>4015.5779992276471</v>
+        <v>4026.5962499910365</v>
       </c>
       <c r="X76" s="11">
-        <v>5423.145595017204</v>
+        <v>4975.0418017922793</v>
       </c>
       <c r="Y76" s="9"/>
       <c r="Z76" s="9"/>
@@ -8545,10 +8547,10 @@
         <v>27451.265983660815</v>
       </c>
       <c r="W77" s="11">
-        <v>30142.655112404791</v>
+        <v>30380.669995695625</v>
       </c>
       <c r="X77" s="11">
-        <v>29735.650013423106</v>
+        <v>29796.427215636784</v>
       </c>
       <c r="Y77" s="9"/>
       <c r="Z77" s="9"/>
@@ -8691,7 +8693,7 @@
         <v>3232.1147654510942</v>
       </c>
       <c r="W78" s="11">
-        <v>2364.4005996439209</v>
+        <v>2363.0203281036393</v>
       </c>
       <c r="X78" s="11">
         <v>0.15590894800099067</v>
@@ -8837,10 +8839,10 @@
         <v>48608.260159085366</v>
       </c>
       <c r="W79" s="11">
-        <v>48603.179042460964</v>
+        <v>48705.715633531625</v>
       </c>
       <c r="X79" s="11">
-        <v>47456.352835488193</v>
+        <v>47547.44640928477</v>
       </c>
       <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
@@ -8983,10 +8985,10 @@
         <v>30291.247602821255</v>
       </c>
       <c r="W80" s="8">
-        <v>26244.52132658512</v>
+        <v>26255.339015642268</v>
       </c>
       <c r="X80" s="8">
-        <v>24660.457704743851</v>
+        <v>24437.927619014052</v>
       </c>
       <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
@@ -9129,10 +9131,10 @@
         <v>9455.6623680039338</v>
       </c>
       <c r="W81" s="11">
-        <v>11169.733313269389</v>
+        <v>11176.984193638054</v>
       </c>
       <c r="X81" s="11">
-        <v>11521.14529745218</v>
+        <v>11455.323154303444</v>
       </c>
       <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
@@ -9275,10 +9277,10 @@
         <v>20835.585234817321</v>
       </c>
       <c r="W82" s="11">
-        <v>15074.78801331573</v>
+        <v>15078.354822004212</v>
       </c>
       <c r="X82" s="11">
-        <v>13139.312407291669</v>
+        <v>12982.60446471061</v>
       </c>
       <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
@@ -9421,10 +9423,10 @@
         <v>34375.050725332236</v>
       </c>
       <c r="W83" s="11">
-        <v>39881.730202219245</v>
+        <v>39929.027431033006</v>
       </c>
       <c r="X83" s="11">
-        <v>43026.933670991901</v>
+        <v>43843.066673798421</v>
       </c>
       <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
@@ -9716,7 +9718,7 @@
         <v>99529.617485516821</v>
       </c>
       <c r="X85" s="11">
-        <v>114307.07017715258</v>
+        <v>114548.45516329921</v>
       </c>
       <c r="Y85" s="9"/>
       <c r="Z85" s="9"/>
@@ -9859,10 +9861,10 @@
         <v>84466.182449729866</v>
       </c>
       <c r="W86" s="11">
-        <v>70536.477873958749</v>
+        <v>69105.115474338061</v>
       </c>
       <c r="X86" s="11">
-        <v>65600.512899029884</v>
+        <v>66016.674733453459</v>
       </c>
       <c r="Y86" s="9"/>
       <c r="Z86" s="9"/>
@@ -10008,7 +10010,7 @@
         <v>348.8230888561813</v>
       </c>
       <c r="X87" s="11">
-        <v>257.29621772311879</v>
+        <v>257.81058438325869</v>
       </c>
       <c r="Y87" s="9"/>
       <c r="Z87" s="9"/>
@@ -10151,10 +10153,10 @@
         <v>124540.27438779215</v>
       </c>
       <c r="W88" s="11">
-        <v>130937.13885846666</v>
+        <v>130861.53791578765</v>
       </c>
       <c r="X88" s="11">
-        <v>117010.61703359996</v>
+        <v>115329.07062754343</v>
       </c>
       <c r="Y88" s="9"/>
       <c r="Z88" s="9"/>
@@ -10297,10 +10299,10 @@
         <v>70845.135729080546</v>
       </c>
       <c r="W89" s="11">
-        <v>84239.388952899782</v>
+        <v>84233.012818934774</v>
       </c>
       <c r="X89" s="11">
-        <v>65177.050768368339</v>
+        <v>65142.270019184085</v>
       </c>
       <c r="Y89" s="9"/>
       <c r="Z89" s="9"/>
@@ -10443,10 +10445,10 @@
         <v>17838.633021871014</v>
       </c>
       <c r="W90" s="11">
-        <v>18185.154064661136</v>
+        <v>18193.839352989089</v>
       </c>
       <c r="X90" s="11">
-        <v>13351.702656128462</v>
+        <v>13134.443996994196</v>
       </c>
       <c r="Y90" s="9"/>
       <c r="Z90" s="9"/>
@@ -10589,10 +10591,10 @@
         <v>38197.37554779624</v>
       </c>
       <c r="W91" s="11">
-        <v>45171.903343561513</v>
+        <v>45202.362696340766</v>
       </c>
       <c r="X91" s="11">
-        <v>39758.206944331163</v>
+        <v>40068.361849668378</v>
       </c>
       <c r="Y91" s="9"/>
       <c r="Z91" s="9"/>
@@ -10735,10 +10737,10 @@
         <v>354763.15602224733</v>
       </c>
       <c r="W92" s="11">
-        <v>409700.26607221627</v>
+        <v>410398.12362601596</v>
       </c>
       <c r="X92" s="11">
-        <v>427248.80436855863</v>
+        <v>420743.19333622995</v>
       </c>
       <c r="Y92" s="9"/>
       <c r="Z92" s="9"/>
@@ -10978,10 +10980,10 @@
         <v>2849277.293077284</v>
       </c>
       <c r="W94" s="8">
-        <v>3180713.9083417552</v>
+        <v>3182306.3531660102</v>
       </c>
       <c r="X94" s="8">
-        <v>3334998.4958037259</v>
+        <v>3340191.1535128965</v>
       </c>
       <c r="Y94" s="9"/>
       <c r="Z94" s="9"/>
@@ -11293,7 +11295,7 @@
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:96" x14ac:dyDescent="0.2">
@@ -11303,7 +11305,7 @@
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
@@ -11479,10 +11481,10 @@
         <v>-8.6721342505160948</v>
       </c>
       <c r="V110" s="18">
-        <v>14.164147241848397</v>
+        <v>14.214064991417374</v>
       </c>
       <c r="W110" s="18">
-        <v>27.784040835718855</v>
+        <v>28.531625982979506</v>
       </c>
       <c r="X110" s="18"/>
       <c r="Y110" s="9"/>
@@ -11618,10 +11620,10 @@
         <v>-8.3710309997742911</v>
       </c>
       <c r="V111" s="18">
-        <v>13.133320545017014</v>
+        <v>13.178463201537809</v>
       </c>
       <c r="W111" s="18">
-        <v>36.664189326071664</v>
+        <v>37.545568523597126</v>
       </c>
       <c r="X111" s="18"/>
       <c r="Y111" s="9"/>
@@ -11757,10 +11759,10 @@
         <v>-20.290809467140463</v>
       </c>
       <c r="V112" s="18">
-        <v>28.996008223134993</v>
+        <v>28.987495863813564</v>
       </c>
       <c r="W112" s="18">
-        <v>-7.9490077806750747</v>
+        <v>-6.9604615958168665</v>
       </c>
       <c r="X112" s="18"/>
       <c r="Y112" s="9"/>
@@ -11896,10 +11898,10 @@
         <v>-22.215958009801696</v>
       </c>
       <c r="V113" s="18">
-        <v>19.248408530612977</v>
+        <v>18.636261500602401</v>
       </c>
       <c r="W113" s="18">
-        <v>-5.920527328825699</v>
+        <v>-3.0847202609819533</v>
       </c>
       <c r="X113" s="18"/>
       <c r="Y113" s="9"/>
@@ -12035,10 +12037,10 @@
         <v>6.3915691226624318</v>
       </c>
       <c r="V114" s="18">
-        <v>8.7519857730461865</v>
+        <v>8.5124791258101027</v>
       </c>
       <c r="W114" s="18">
-        <v>-0.86048317268719643</v>
+        <v>-2.304304971234032</v>
       </c>
       <c r="X114" s="18"/>
       <c r="Y114" s="9"/>
@@ -12174,10 +12176,10 @@
         <v>-52.053506770689552</v>
       </c>
       <c r="V115" s="18">
-        <v>101.47490051948748</v>
+        <v>101.55772817023171</v>
       </c>
       <c r="W115" s="18">
-        <v>64.597286437348799</v>
+        <v>65.776561216925131</v>
       </c>
       <c r="X115" s="18"/>
       <c r="Y115" s="9"/>
@@ -12313,10 +12315,10 @@
         <v>-34.327848403541196</v>
       </c>
       <c r="V116" s="18">
-        <v>-14.073941378955709</v>
+        <v>-14.11952022531284</v>
       </c>
       <c r="W116" s="18">
-        <v>10.653641936306244</v>
+        <v>9.2202719709397485</v>
       </c>
       <c r="X116" s="18"/>
       <c r="Y116" s="9"/>
@@ -12452,10 +12454,10 @@
         <v>51.342497514840659</v>
       </c>
       <c r="V117" s="18">
-        <v>2.020310009041637</v>
+        <v>2.7232852658469824</v>
       </c>
       <c r="W117" s="18">
-        <v>35.919892497634265</v>
+        <v>34.852454178465621</v>
       </c>
       <c r="X117" s="18"/>
       <c r="Y117" s="9"/>
@@ -12594,7 +12596,7 @@
         <v>24.969305690279114</v>
       </c>
       <c r="W118" s="18">
-        <v>6.5300045009606009</v>
+        <v>6.9195287937402981</v>
       </c>
       <c r="X118" s="18"/>
       <c r="Y118" s="9"/>
@@ -12730,10 +12732,10 @@
         <v>7.7236910134451477</v>
       </c>
       <c r="V119" s="18">
-        <v>-47.148648740739183</v>
+        <v>-47.171163488127817</v>
       </c>
       <c r="W119" s="18">
-        <v>7.1131649470599569</v>
+        <v>7.1588147476236941</v>
       </c>
       <c r="X119" s="18"/>
       <c r="Y119" s="9"/>
@@ -12869,10 +12871,10 @@
         <v>-12.55397054424482</v>
       </c>
       <c r="V120" s="18">
-        <v>8.2988757450561934</v>
+        <v>9.0450541635983512</v>
       </c>
       <c r="W120" s="18">
-        <v>22.479063170456399</v>
+        <v>21.641012328740942</v>
       </c>
       <c r="X120" s="18"/>
       <c r="Y120" s="9"/>
@@ -13008,10 +13010,10 @@
         <v>-21.628390642015148</v>
       </c>
       <c r="V121" s="18">
-        <v>-31.810786594464147</v>
+        <v>-30.197265877471466</v>
       </c>
       <c r="W121" s="18">
-        <v>7.6328509688685671</v>
+        <v>5.2457471401419582</v>
       </c>
       <c r="X121" s="18"/>
       <c r="Y121" s="9"/>
@@ -13147,10 +13149,10 @@
         <v>-10.786359759604153</v>
       </c>
       <c r="V122" s="18">
-        <v>58.308813175839305</v>
+        <v>57.804882581382003</v>
       </c>
       <c r="W122" s="18">
-        <v>56.34358644771163</v>
+        <v>57.768023147684488</v>
       </c>
       <c r="X122" s="18"/>
       <c r="Y122" s="9"/>
@@ -13286,10 +13288,10 @@
         <v>-37.097664826065071</v>
       </c>
       <c r="V123" s="18">
-        <v>62.376491844933639</v>
+        <v>62.320601340620783</v>
       </c>
       <c r="W123" s="18">
-        <v>7.6168832873090508</v>
+        <v>7.6838501458844206</v>
       </c>
       <c r="X123" s="18"/>
       <c r="Y123" s="9"/>
@@ -13425,10 +13427,10 @@
         <v>-4.4630660092150691</v>
       </c>
       <c r="V124" s="18">
-        <v>50.068976424499738</v>
+        <v>51.435438724354555</v>
       </c>
       <c r="W124" s="18">
-        <v>-3.0456755476869262</v>
+        <v>-4.0897160171450082</v>
       </c>
       <c r="X124" s="18"/>
       <c r="Y124" s="9"/>
@@ -13564,10 +13566,10 @@
         <v>-27.740881239713914</v>
       </c>
       <c r="V125" s="18">
-        <v>-15.53056319612719</v>
+        <v>-15.267336930829302</v>
       </c>
       <c r="W125" s="18">
-        <v>58.821487524383883</v>
+        <v>43.762635302816193</v>
       </c>
       <c r="X125" s="18"/>
       <c r="Y125" s="9"/>
@@ -13703,10 +13705,10 @@
         <v>3.2609603488516541</v>
       </c>
       <c r="V126" s="18">
-        <v>13.575338619809131</v>
+        <v>14.424941747765715</v>
       </c>
       <c r="W126" s="18">
-        <v>8.3415214264639133</v>
+        <v>7.0227829314768826</v>
       </c>
       <c r="X126" s="18"/>
       <c r="Y126" s="9"/>
@@ -13842,10 +13844,10 @@
         <v>33.068901498133584</v>
       </c>
       <c r="V127" s="18">
-        <v>-18.09818653025205</v>
+        <v>-18.152524668360925</v>
       </c>
       <c r="W127" s="18">
-        <v>-99.991547803653532</v>
+        <v>-99.99154219228177</v>
       </c>
       <c r="X127" s="18"/>
       <c r="Y127" s="9"/>
@@ -13981,10 +13983,10 @@
         <v>-6.6751898204199165</v>
       </c>
       <c r="V128" s="18">
-        <v>17.864529742304882</v>
+        <v>18.191847241778021</v>
       </c>
       <c r="W128" s="18">
-        <v>17.74821870583645</v>
+        <v>17.711208095932449</v>
       </c>
       <c r="X128" s="18"/>
       <c r="Y128" s="9"/>
@@ -14120,10 +14122,10 @@
         <v>-11.395635976893075</v>
       </c>
       <c r="V129" s="18">
-        <v>-1.3394518239259696</v>
+        <v>-1.2973795722642194</v>
       </c>
       <c r="W129" s="18">
-        <v>9.9657820764978027</v>
+        <v>8.9589582587141621</v>
       </c>
       <c r="X129" s="18"/>
       <c r="Y129" s="9"/>
@@ -14259,10 +14261,10 @@
         <v>-25.509865841799865</v>
       </c>
       <c r="V130" s="18">
-        <v>36.096444388503812</v>
+        <v>36.189577968453165</v>
       </c>
       <c r="W130" s="18">
-        <v>12.893765997606366</v>
+        <v>12.266889482357698</v>
       </c>
       <c r="X130" s="18"/>
       <c r="Y130" s="9"/>
@@ -14398,10 +14400,10 @@
         <v>-2.5434781172648258</v>
       </c>
       <c r="V131" s="18">
-        <v>-19.285467680655884</v>
+        <v>-19.267873202997876</v>
       </c>
       <c r="W131" s="18">
-        <v>7.5990802579484011</v>
+        <v>6.2838967989523411</v>
       </c>
       <c r="X131" s="18"/>
       <c r="Y131" s="9"/>
@@ -14537,10 +14539,10 @@
         <v>-30.017110927088893</v>
       </c>
       <c r="V132" s="18">
-        <v>15.637370267360367</v>
+        <v>15.772617811074241</v>
       </c>
       <c r="W132" s="18">
-        <v>21.791092843721188</v>
+        <v>23.971445333634506</v>
       </c>
       <c r="X132" s="18"/>
       <c r="Y132" s="9"/>
@@ -14818,7 +14820,7 @@
         <v>21.596368713553588</v>
       </c>
       <c r="W134" s="18">
-        <v>12.760122438869615</v>
+        <v>12.762494350399379</v>
       </c>
       <c r="X134" s="18"/>
       <c r="Y134" s="9"/>
@@ -14954,10 +14956,10 @@
         <v>-19.033433747683347</v>
       </c>
       <c r="V135" s="18">
-        <v>10.023091165665974</v>
+        <v>8.221702954599607</v>
       </c>
       <c r="W135" s="18">
-        <v>-5.0840771577014152</v>
+        <v>-2.6603006053145037</v>
       </c>
       <c r="X135" s="18"/>
       <c r="Y135" s="9"/>
@@ -15232,10 +15234,10 @@
         <v>-25.607847793680733</v>
       </c>
       <c r="V137" s="18">
-        <v>3.4461347571840975</v>
+        <v>3.3866204590174362</v>
       </c>
       <c r="W137" s="18">
-        <v>4.9172568884933128</v>
+        <v>3.4348372459642889</v>
       </c>
       <c r="X137" s="18"/>
       <c r="Y137" s="9"/>
@@ -15371,10 +15373,10 @@
         <v>-16.42250355832337</v>
       </c>
       <c r="V138" s="18">
-        <v>39.043433648526502</v>
+        <v>39.031788413602783</v>
       </c>
       <c r="W138" s="18">
-        <v>5.2460355362388356</v>
+        <v>5.1440133800036278</v>
       </c>
       <c r="X138" s="18"/>
       <c r="Y138" s="9"/>
@@ -15510,10 +15512,10 @@
         <v>-16.302264368037655</v>
       </c>
       <c r="V139" s="18">
-        <v>-0.84818514821219537</v>
+        <v>-0.80618128551387258</v>
       </c>
       <c r="W139" s="18">
-        <v>-13.615532724088936</v>
+        <v>-15.072538656510503</v>
       </c>
       <c r="X139" s="18"/>
       <c r="Y139" s="9"/>
@@ -15649,10 +15651,10 @@
         <v>-19.858034840518641</v>
       </c>
       <c r="V140" s="18">
-        <v>26.52950202092002</v>
+        <v>26.621040206644935</v>
       </c>
       <c r="W140" s="18">
-        <v>5.4778088367841491</v>
+        <v>6.3431985875379127</v>
       </c>
       <c r="X140" s="18"/>
       <c r="Y140" s="9"/>
@@ -15788,10 +15790,10 @@
         <v>-23.732079663561663</v>
       </c>
       <c r="V141" s="18">
-        <v>15.578873339814649</v>
+        <v>15.815892493902211</v>
       </c>
       <c r="W141" s="18">
-        <v>18.668148486867693</v>
+        <v>19.574294832127208</v>
       </c>
       <c r="X141" s="18"/>
       <c r="Y141" s="9"/>
@@ -16019,10 +16021,10 @@
         <v>-13.247613875477512</v>
       </c>
       <c r="V143" s="18">
-        <v>14.273565159140688</v>
+        <v>14.344789032165338</v>
       </c>
       <c r="W143" s="18">
-        <v>21.781840243166954</v>
+        <v>22.313091429306468</v>
       </c>
       <c r="X143" s="18"/>
       <c r="Y143" s="9"/>
@@ -16324,7 +16326,7 @@
     </row>
     <row r="150" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:92" x14ac:dyDescent="0.2">
@@ -16334,7 +16336,7 @@
     </row>
     <row r="153" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.2">
@@ -16510,10 +16512,10 @@
         <v>-2.9698060882001869</v>
       </c>
       <c r="V159" s="18">
-        <v>16.063491736069707</v>
+        <v>16.117678529023976</v>
       </c>
       <c r="W159" s="18">
-        <v>7.9826182783265551</v>
+        <v>8.5334161739415606</v>
       </c>
       <c r="X159" s="18"/>
       <c r="Y159" s="9"/>
@@ -16649,10 +16651,10 @@
         <v>-2.6220250473295437</v>
       </c>
       <c r="V160" s="18">
-        <v>15.245965646441988</v>
+        <v>15.286918657888918</v>
       </c>
       <c r="W160" s="18">
-        <v>13.942622752076474</v>
+        <v>14.632602172831795</v>
       </c>
       <c r="X160" s="18"/>
       <c r="Y160" s="9"/>
@@ -16788,10 +16790,10 @@
         <v>-13.28937215158021</v>
       </c>
       <c r="V161" s="18">
-        <v>31.489496548751248</v>
+        <v>31.476083126367513</v>
       </c>
       <c r="W161" s="18">
-        <v>-20.23474737545331</v>
+        <v>-19.565879177485812</v>
       </c>
       <c r="X161" s="18"/>
       <c r="Y161" s="9"/>
@@ -16927,10 +16929,10 @@
         <v>-18.224782050742476</v>
       </c>
       <c r="V162" s="18">
-        <v>16.385814918614813</v>
+        <v>15.85277242942847</v>
       </c>
       <c r="W162" s="18">
-        <v>-17.366366476617884</v>
+        <v>-15.239914413796185</v>
       </c>
       <c r="X162" s="18"/>
       <c r="Y162" s="9"/>
@@ -17066,10 +17068,10 @@
         <v>6.1620266715334679</v>
       </c>
       <c r="V163" s="18">
-        <v>9.5726799980311057</v>
+        <v>9.3391218947805896</v>
       </c>
       <c r="W163" s="18">
-        <v>-10.902277578814122</v>
+        <v>-12.294528504689211</v>
       </c>
       <c r="X163" s="18"/>
       <c r="Y163" s="9"/>
@@ -17205,10 +17207,10 @@
         <v>-52.31028083115087</v>
       </c>
       <c r="V164" s="18">
-        <v>113.18058237787119</v>
+        <v>113.27986192119087</v>
       </c>
       <c r="W164" s="18">
-        <v>42.334904573107167</v>
+        <v>43.218448354747522</v>
       </c>
       <c r="X164" s="18"/>
       <c r="Y164" s="9"/>
@@ -17344,10 +17346,10 @@
         <v>-33.542543131363374</v>
       </c>
       <c r="V165" s="18">
-        <v>-17.757597234369825</v>
+        <v>-17.817847755704307</v>
       </c>
       <c r="W165" s="18">
-        <v>0.65622841772471929</v>
+        <v>-0.73703269385644887</v>
       </c>
       <c r="X165" s="18"/>
       <c r="Y165" s="9"/>
@@ -17483,10 +17485,10 @@
         <v>68.615665299481691</v>
       </c>
       <c r="V166" s="18">
-        <v>3.9068857484287491</v>
+        <v>4.6540842014531023</v>
       </c>
       <c r="W166" s="18">
-        <v>17.003423565102977</v>
+        <v>15.94729966853204</v>
       </c>
       <c r="X166" s="18"/>
       <c r="Y166" s="9"/>
@@ -17625,7 +17627,7 @@
         <v>22.736053057717555</v>
       </c>
       <c r="W167" s="18">
-        <v>-0.62979276891311997</v>
+        <v>-9.6082524143241699E-2</v>
       </c>
       <c r="X167" s="18"/>
       <c r="Y167" s="9"/>
@@ -17761,10 +17763,10 @@
         <v>10.911064984164057</v>
       </c>
       <c r="V168" s="18">
-        <v>-48.087142339509413</v>
+        <v>-48.116434171386594</v>
       </c>
       <c r="W168" s="18">
-        <v>-9.8110047595653924</v>
+        <v>-9.7596396184846697</v>
       </c>
       <c r="X168" s="18"/>
       <c r="Y168" s="9"/>
@@ -17900,10 +17902,10 @@
         <v>-18.338576872333348</v>
       </c>
       <c r="V169" s="18">
-        <v>0.38891400501886153</v>
+        <v>1.0781206295222603</v>
       </c>
       <c r="W169" s="18">
-        <v>5.8025762238574004</v>
+        <v>5.1421584831871314</v>
       </c>
       <c r="X169" s="18"/>
       <c r="Y169" s="9"/>
@@ -18039,10 +18041,10 @@
         <v>-28.295181489624326</v>
       </c>
       <c r="V170" s="18">
-        <v>-29.439884535670231</v>
+        <v>-27.728899734814235</v>
       </c>
       <c r="W170" s="18">
-        <v>-1.5247062111801597</v>
+        <v>-3.6874332084159533</v>
       </c>
       <c r="X170" s="18"/>
       <c r="Y170" s="9"/>
@@ -18178,10 +18180,10 @@
         <v>-26.226027667224699</v>
       </c>
       <c r="V171" s="18">
-        <v>25.333251193070367</v>
+        <v>25.040258736627095</v>
       </c>
       <c r="W171" s="18">
-        <v>34.503219341929992</v>
+        <v>35.760886302431345</v>
       </c>
       <c r="X171" s="18"/>
       <c r="Y171" s="9"/>
@@ -18317,10 +18319,10 @@
         <v>-52.908687198125001</v>
       </c>
       <c r="V172" s="18">
-        <v>37.627638085033936</v>
+        <v>37.522015818213703</v>
       </c>
       <c r="W172" s="18">
-        <v>-10.818294208697239</v>
+        <v>-10.573784665968574</v>
       </c>
       <c r="X172" s="18"/>
       <c r="Y172" s="9"/>
@@ -18456,10 +18458,10 @@
         <v>-11.681085432928555</v>
       </c>
       <c r="V173" s="18">
-        <v>39.900333312955951</v>
+        <v>41.029392524797231</v>
       </c>
       <c r="W173" s="18">
-        <v>-17.151626206806043</v>
+        <v>-18.621991826209211</v>
       </c>
       <c r="X173" s="18"/>
       <c r="Y173" s="9"/>
@@ -18595,10 +18597,10 @@
         <v>-29.181590512563503</v>
       </c>
       <c r="V174" s="18">
-        <v>-14.676773416080266</v>
+        <v>-14.442657005784184</v>
       </c>
       <c r="W174" s="18">
-        <v>35.052677249957213</v>
+        <v>23.55452329752093</v>
       </c>
       <c r="X174" s="18"/>
       <c r="Y174" s="9"/>
@@ -18734,10 +18736,10 @@
         <v>1.0658523441246217</v>
       </c>
       <c r="V175" s="18">
-        <v>9.804244111531716</v>
+        <v>10.671289308764173</v>
       </c>
       <c r="W175" s="18">
-        <v>-1.3502629329232008</v>
+        <v>-1.9230740472202257</v>
       </c>
       <c r="X175" s="18"/>
       <c r="Y175" s="9"/>
@@ -18873,10 +18875,10 @@
         <v>29.990240564866809</v>
       </c>
       <c r="V176" s="18">
-        <v>-26.846638463534561</v>
+        <v>-26.889343368540892</v>
       </c>
       <c r="W176" s="18">
-        <v>-99.993405984247147</v>
+        <v>-99.993402132595023</v>
       </c>
       <c r="X176" s="18"/>
       <c r="Y176" s="9"/>
@@ -19012,10 +19014,10 @@
         <v>-4.2394787519171615</v>
       </c>
       <c r="V177" s="18">
-        <v>-1.0453195830862683E-2</v>
+        <v>0.20049159160873842</v>
       </c>
       <c r="W177" s="18">
-        <v>-2.3595703605537324</v>
+        <v>-2.3780971271663986</v>
       </c>
       <c r="X177" s="18"/>
       <c r="Y177" s="9"/>
@@ -19151,10 +19153,10 @@
         <v>-7.0845528791486743</v>
       </c>
       <c r="V178" s="18">
-        <v>-13.359391231740588</v>
+        <v>-13.323678971885897</v>
       </c>
       <c r="W178" s="18">
-        <v>-6.0357878207389746</v>
+        <v>-6.9220641011165327</v>
       </c>
       <c r="X178" s="18"/>
       <c r="Y178" s="9"/>
@@ -19290,10 +19292,10 @@
         <v>-22.319837440796121</v>
       </c>
       <c r="V179" s="18">
-        <v>18.127455048157472</v>
+        <v>18.204137993111175</v>
       </c>
       <c r="W179" s="18">
-        <v>3.1461089922829331</v>
+        <v>2.4902867879496426</v>
       </c>
       <c r="X179" s="18"/>
       <c r="Y179" s="9"/>
@@ -19429,10 +19431,10 @@
         <v>1.9936487933601938</v>
       </c>
       <c r="V180" s="18">
-        <v>-27.6488380651531</v>
+        <v>-27.631719233844635</v>
       </c>
       <c r="W180" s="18">
-        <v>-12.839156373638119</v>
+        <v>-13.899065130336524</v>
       </c>
       <c r="X180" s="18"/>
       <c r="Y180" s="9"/>
@@ -19568,10 +19570,10 @@
         <v>-25.749279680996082</v>
       </c>
       <c r="V181" s="18">
-        <v>16.019407566514317</v>
+        <v>16.156999301844934</v>
       </c>
       <c r="W181" s="18">
-        <v>7.8863265280241848</v>
+        <v>9.8024908057825684</v>
       </c>
       <c r="X181" s="18"/>
       <c r="Y181" s="9"/>
@@ -19849,7 +19851,7 @@
         <v>9.117522149127339</v>
       </c>
       <c r="W183" s="18">
-        <v>14.847291755929959</v>
+        <v>15.089817540962486</v>
       </c>
       <c r="X183" s="18"/>
       <c r="Y183" s="9"/>
@@ -19985,10 +19987,10 @@
         <v>-14.615318491837499</v>
       </c>
       <c r="V184" s="18">
-        <v>-16.491457494318979</v>
+        <v>-18.186055685106822</v>
       </c>
       <c r="W184" s="18">
-        <v>-6.9977480074195171</v>
+        <v>-4.4691926490325926</v>
       </c>
       <c r="X184" s="18"/>
       <c r="Y184" s="9"/>
@@ -20127,7 +20129,7 @@
         <v>-97.929772914967273</v>
       </c>
       <c r="W185" s="18">
-        <v>-26.238765166946493</v>
+        <v>-26.091307422154841</v>
       </c>
       <c r="X185" s="18"/>
       <c r="Y185" s="9"/>
@@ -20263,10 +20265,10 @@
         <v>-20.270697708342098</v>
       </c>
       <c r="V186" s="18">
-        <v>5.1363821881073051</v>
+        <v>5.0756781764527119</v>
       </c>
       <c r="W186" s="18">
-        <v>-10.636036457097347</v>
+        <v>-11.869390758833745</v>
       </c>
       <c r="X186" s="18"/>
       <c r="Y186" s="9"/>
@@ -20402,10 +20404,10 @@
         <v>-4.4812613035224729</v>
       </c>
       <c r="V187" s="18">
-        <v>18.906383742477843</v>
+        <v>18.897383641201444</v>
       </c>
       <c r="W187" s="18">
-        <v>-22.628770722909266</v>
+        <v>-22.664205114908668</v>
       </c>
       <c r="X187" s="18"/>
       <c r="Y187" s="9"/>
@@ -20541,10 +20543,10 @@
         <v>-10.926406082506844</v>
       </c>
       <c r="V188" s="18">
-        <v>1.9425313720242485</v>
+        <v>1.9912194543302491</v>
       </c>
       <c r="W188" s="18">
-        <v>-26.579106183793229</v>
+        <v>-27.808288607119522</v>
       </c>
       <c r="X188" s="18"/>
       <c r="Y188" s="9"/>
@@ -20680,10 +20682,10 @@
         <v>-15.719706140723289</v>
       </c>
       <c r="V189" s="18">
-        <v>18.259180626265987</v>
+        <v>18.338922630376047</v>
       </c>
       <c r="W189" s="18">
-        <v>-11.98465417331586</v>
+        <v>-11.357815256608248</v>
       </c>
       <c r="X189" s="18"/>
       <c r="Y189" s="9"/>
@@ -20819,10 +20821,10 @@
         <v>-18.431137815017635</v>
       </c>
       <c r="V190" s="18">
-        <v>15.48557371795502</v>
+        <v>15.682284549379673</v>
       </c>
       <c r="W190" s="18">
-        <v>4.2832626067294655</v>
+        <v>2.5207400118722632</v>
       </c>
       <c r="X190" s="18"/>
       <c r="Y190" s="9"/>
@@ -21050,10 +21052,10 @@
         <v>-8.5742194239769987</v>
       </c>
       <c r="V192" s="18">
-        <v>11.63230465738603</v>
+        <v>11.688194086895876</v>
       </c>
       <c r="W192" s="18">
-        <v>4.8506276234823673</v>
+        <v>4.9613325313513599</v>
       </c>
       <c r="X192" s="18"/>
       <c r="Y192" s="9"/>
@@ -21351,7 +21353,7 @@
     </row>
     <row r="198" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.2">
@@ -21361,7 +21363,7 @@
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="1:96" x14ac:dyDescent="0.2">
@@ -21542,10 +21544,10 @@
         <v>89.536756414254455</v>
       </c>
       <c r="W207" s="18">
-        <v>88.071514047493949</v>
+        <v>88.068906007815656</v>
       </c>
       <c r="X207" s="18">
-        <v>104.22171759626056</v>
+        <v>104.29635486259153</v>
       </c>
       <c r="Y207" s="9"/>
       <c r="Z207" s="9"/>
@@ -21688,10 +21690,10 @@
         <v>88.351328759011309</v>
       </c>
       <c r="W208" s="18">
-        <v>86.731705886660663</v>
+        <v>86.735491998289106</v>
       </c>
       <c r="X208" s="18">
-        <v>104.02707948594896</v>
+        <v>104.07233485018142</v>
       </c>
       <c r="Y208" s="9"/>
       <c r="Z208" s="9"/>
@@ -21834,10 +21836,10 @@
         <v>87.929076016717787</v>
       </c>
       <c r="W209" s="18">
-        <v>86.261641504573149</v>
+        <v>86.264749141593072</v>
       </c>
       <c r="X209" s="18">
-        <v>99.547978971987689</v>
+        <v>99.783927002779123</v>
       </c>
       <c r="Y209" s="9"/>
       <c r="Z209" s="9"/>
@@ -21980,10 +21982,10 @@
         <v>92.551102992564751</v>
       </c>
       <c r="W210" s="18">
-        <v>94.827464561155921</v>
+        <v>94.774744069966005</v>
       </c>
       <c r="X210" s="18">
-        <v>107.96230881138284</v>
+        <v>108.36611089063879</v>
       </c>
       <c r="Y210" s="9"/>
       <c r="Z210" s="9"/>
@@ -22126,10 +22128,10 @@
         <v>101.90460258411025</v>
       </c>
       <c r="W211" s="18">
-        <v>101.141341898676</v>
+        <v>101.13416743344175</v>
       </c>
       <c r="X211" s="18">
-        <v>112.54051725026495</v>
+        <v>112.65400675822077</v>
       </c>
       <c r="Y211" s="9"/>
       <c r="Z211" s="9"/>
@@ -22272,10 +22274,10 @@
         <v>97.416218684421963</v>
       </c>
       <c r="W212" s="18">
-        <v>92.067123325702525</v>
+        <v>92.062098822165879</v>
       </c>
       <c r="X212" s="18">
-        <v>106.46719941923915</v>
+        <v>106.56265541537326</v>
       </c>
       <c r="Y212" s="9"/>
       <c r="Z212" s="9"/>
@@ -22418,10 +22420,10 @@
         <v>98.146996482062193</v>
       </c>
       <c r="W213" s="18">
-        <v>102.54302269390274</v>
+        <v>102.56376738915462</v>
       </c>
       <c r="X213" s="18">
-        <v>112.72783706089635</v>
+        <v>112.85218317178351</v>
       </c>
       <c r="Y213" s="9"/>
       <c r="Z213" s="9"/>
@@ -22564,10 +22566,10 @@
         <v>91.737071711853133</v>
       </c>
       <c r="W214" s="18">
-        <v>90.071456072933714</v>
+        <v>90.044583150432899</v>
       </c>
       <c r="X214" s="18">
-        <v>104.63371287359442</v>
+        <v>104.7263115055392</v>
       </c>
       <c r="Y214" s="9"/>
       <c r="Z214" s="9"/>
@@ -22713,7 +22715,7 @@
         <v>115.09498118296958</v>
       </c>
       <c r="X215" s="18">
-        <v>123.38777592509622</v>
+        <v>123.17736346606642</v>
       </c>
       <c r="Y215" s="9"/>
       <c r="Z215" s="9"/>
@@ -22856,10 +22858,10 @@
         <v>95.664585097089073</v>
       </c>
       <c r="W216" s="18">
-        <v>97.394033345339864</v>
+        <v>97.407505543557718</v>
       </c>
       <c r="X216" s="18">
-        <v>115.67024480944397</v>
+        <v>115.66967150220229</v>
       </c>
       <c r="Y216" s="9"/>
       <c r="Z216" s="9"/>
@@ -23002,10 +23004,10 @@
         <v>107.16298304434943</v>
       </c>
       <c r="W217" s="18">
-        <v>115.60669522343223</v>
+        <v>115.60952278915644</v>
       </c>
       <c r="X217" s="18">
-        <v>133.82849673943625</v>
+        <v>133.75091009915278</v>
       </c>
       <c r="Y217" s="9"/>
       <c r="Z217" s="9"/>
@@ -23148,10 +23150,10 @@
         <v>129.78169473680566</v>
       </c>
       <c r="W218" s="18">
-        <v>125.42087864090786</v>
+        <v>125.34909664365988</v>
       </c>
       <c r="X218" s="18">
-        <v>137.08419868328446</v>
+        <v>136.97547235088982</v>
       </c>
       <c r="Y218" s="9"/>
       <c r="Z218" s="9"/>
@@ -23294,10 +23296,10 @@
         <v>97.068207256168975</v>
       </c>
       <c r="W219" s="18">
-        <v>122.60714967138846</v>
+        <v>122.50324178158519</v>
       </c>
       <c r="X219" s="18">
-        <v>142.51585647943335</v>
+        <v>142.3612854295088</v>
       </c>
       <c r="Y219" s="9"/>
       <c r="Z219" s="9"/>
@@ -23440,10 +23442,10 @@
         <v>111.42723670674701</v>
       </c>
       <c r="W220" s="18">
-        <v>131.46461019143294</v>
+        <v>131.52029484407396</v>
       </c>
       <c r="X220" s="18">
-        <v>158.64028934914978</v>
+        <v>158.37203518264258</v>
       </c>
       <c r="Y220" s="9"/>
       <c r="Z220" s="9"/>
@@ -23586,10 +23588,10 @@
         <v>86.788927953154385</v>
       </c>
       <c r="W221" s="18">
-        <v>93.097173355364475</v>
+        <v>93.192767448753003</v>
       </c>
       <c r="X221" s="18">
-        <v>108.94810770360286</v>
+        <v>109.8348926416308</v>
       </c>
       <c r="Y221" s="9"/>
       <c r="Z221" s="9"/>
@@ -23732,10 +23734,10 @@
         <v>102.20645351699808</v>
       </c>
       <c r="W222" s="18">
-        <v>101.18372115019261</v>
+        <v>101.22129423696732</v>
       </c>
       <c r="X222" s="18">
-        <v>118.99171074249209</v>
+        <v>117.77666749785567</v>
       </c>
       <c r="Y222" s="9"/>
       <c r="Z222" s="9"/>
@@ -23878,10 +23880,10 @@
         <v>114.11278895025698</v>
       </c>
       <c r="W223" s="18">
-        <v>118.03185524151468</v>
+        <v>117.98316717788717</v>
       </c>
       <c r="X223" s="18">
-        <v>129.62782419743127</v>
+        <v>128.74472530395704</v>
       </c>
       <c r="Y223" s="9"/>
       <c r="Z223" s="9"/>
@@ -24024,7 +24026,7 @@
         <v>103.74974850586479</v>
       </c>
       <c r="W224" s="18">
-        <v>116.15723968371397</v>
+        <v>116.14797859500572</v>
       </c>
       <c r="X224" s="18">
         <v>148.89012002218169</v>
@@ -24170,10 +24172,10 @@
         <v>91.112717558097742</v>
       </c>
       <c r="W225" s="18">
-        <v>107.40080290153755</v>
+        <v>107.47233096720439</v>
       </c>
       <c r="X225" s="18">
-        <v>129.51861514672868</v>
+        <v>129.58872489419565</v>
       </c>
       <c r="Y225" s="9"/>
       <c r="Z225" s="9"/>
@@ -24316,10 +24318,10 @@
         <v>102.12425700973728</v>
       </c>
       <c r="W226" s="18">
-        <v>116.29229436285007</v>
+        <v>116.29395037229526</v>
       </c>
       <c r="X226" s="18">
-        <v>136.09620942369375</v>
+        <v>136.13610531846672</v>
       </c>
       <c r="Y226" s="9"/>
       <c r="Z226" s="9"/>
@@ -24462,10 +24464,10 @@
         <v>106.0118017484597</v>
       </c>
       <c r="W227" s="18">
-        <v>122.13781525473892</v>
+        <v>122.14210758543382</v>
       </c>
       <c r="X227" s="18">
-        <v>133.68025289115843</v>
+        <v>133.79330786542786</v>
       </c>
       <c r="Y227" s="9"/>
       <c r="Z227" s="9"/>
@@ -24608,10 +24610,10 @@
         <v>100.36000080691929</v>
       </c>
       <c r="W228" s="18">
-        <v>111.9610288497384</v>
+        <v>111.95894423238326</v>
       </c>
       <c r="X228" s="18">
-        <v>138.21462973221935</v>
+        <v>138.20329468579195</v>
       </c>
       <c r="Y228" s="9"/>
       <c r="Z228" s="9"/>
@@ -24754,10 +24756,10 @@
         <v>87.991022119633868</v>
       </c>
       <c r="W229" s="18">
-        <v>87.701278764229201</v>
+        <v>87.699846207204416</v>
       </c>
       <c r="X229" s="18">
-        <v>99.004525672794955</v>
+        <v>99.01666719997597</v>
       </c>
       <c r="Y229" s="9"/>
       <c r="Z229" s="9"/>
@@ -25049,7 +25051,7 @@
         <v>105.97699742922335</v>
       </c>
       <c r="X231" s="18">
-        <v>104.05103179288491</v>
+        <v>103.83395185791993</v>
       </c>
       <c r="Y231" s="9"/>
       <c r="Z231" s="9"/>
@@ -25192,10 +25194,10 @@
         <v>85.037826076617179</v>
       </c>
       <c r="W232" s="18">
-        <v>112.03793300932307</v>
+        <v>112.48618350616904</v>
       </c>
       <c r="X232" s="18">
-        <v>114.34329359865285</v>
+        <v>114.61612847381681</v>
       </c>
       <c r="Y232" s="9"/>
       <c r="Z232" s="9"/>
@@ -25341,7 +25343,7 @@
         <v>71.820372014632866</v>
       </c>
       <c r="X233" s="18">
-        <v>124.60767876349024</v>
+        <v>124.35906974805089</v>
       </c>
       <c r="Y233" s="9"/>
       <c r="Z233" s="9"/>
@@ -25484,10 +25486,10 @@
         <v>83.360420991627223</v>
       </c>
       <c r="W234" s="18">
-        <v>82.020259436803329</v>
+        <v>82.020429046315996</v>
       </c>
       <c r="X234" s="18">
-        <v>96.29542254200301</v>
+        <v>96.263600153203583</v>
       </c>
       <c r="Y234" s="9"/>
       <c r="Z234" s="9"/>
@@ -25630,10 +25632,10 @@
         <v>77.556075258452125</v>
       </c>
       <c r="W235" s="18">
-        <v>90.690362155773713</v>
+        <v>90.689630968347302</v>
       </c>
       <c r="X235" s="18">
-        <v>123.36369949685032</v>
+        <v>123.29958961605931</v>
       </c>
       <c r="Y235" s="9"/>
       <c r="Z235" s="9"/>
@@ -25776,10 +25778,10 @@
         <v>84.046420258585997</v>
       </c>
       <c r="W236" s="18">
-        <v>81.745616753654232</v>
+        <v>81.741206932669286</v>
       </c>
       <c r="X236" s="18">
-        <v>96.179046431691077</v>
+        <v>96.161637645136523</v>
       </c>
       <c r="Y236" s="9"/>
       <c r="Z236" s="9"/>
@@ -25922,10 +25924,10 @@
         <v>84.715045795976749</v>
       </c>
       <c r="W237" s="18">
-        <v>90.639496244434795</v>
+        <v>90.643948596222344</v>
       </c>
       <c r="X237" s="18">
-        <v>108.62259720888817</v>
+        <v>108.7446959281457</v>
       </c>
       <c r="Y237" s="9"/>
       <c r="Z237" s="9"/>
@@ -26068,10 +26070,10 @@
         <v>85.619272991198073</v>
       </c>
       <c r="W238" s="18">
-        <v>85.688443932093961</v>
+        <v>85.71815948121187</v>
       </c>
       <c r="X238" s="18">
-        <v>97.508351138662803</v>
+        <v>99.97673127492817</v>
       </c>
       <c r="Y238" s="9"/>
       <c r="Z238" s="9"/>
@@ -26311,10 +26313,10 @@
         <v>89.562655577843913</v>
       </c>
       <c r="W240" s="18">
-        <v>91.681740240084324</v>
+        <v>91.692976513178337</v>
       </c>
       <c r="X240" s="18">
-        <v>106.48644930603093</v>
+        <v>106.85126750207463</v>
       </c>
       <c r="Y240" s="9"/>
       <c r="Z240" s="9"/>
@@ -26432,7 +26434,7 @@
     </row>
     <row r="247" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:96" x14ac:dyDescent="0.2">
@@ -26442,7 +26444,7 @@
     </row>
     <row r="250" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="251" spans="1:96" x14ac:dyDescent="0.2">
@@ -26623,10 +26625,10 @@
         <v>60.04309487351027</v>
       </c>
       <c r="W256" s="18">
-        <v>59.985603095952676</v>
+        <v>59.974450941003035</v>
       </c>
       <c r="X256" s="18">
-        <v>62.942083485214262</v>
+        <v>63.023619195651825</v>
       </c>
       <c r="Y256" s="9"/>
       <c r="Z256" s="9"/>
@@ -26769,10 +26771,10 @@
         <v>41.64609788977841</v>
       </c>
       <c r="W257" s="18">
-        <v>41.230544749802817</v>
+        <v>41.221304419740811</v>
       </c>
       <c r="X257" s="18">
-        <v>46.269123232601835</v>
+        <v>46.354872446131473</v>
       </c>
       <c r="Y257" s="9"/>
       <c r="Z257" s="9"/>
@@ -26915,10 +26917,10 @@
         <v>6.5804831247524804</v>
       </c>
       <c r="W258" s="18">
-        <v>7.4282801458992767</v>
+        <v>7.4231632855357912</v>
       </c>
       <c r="X258" s="18">
-        <v>5.6147990254360289</v>
+        <v>5.6465557162726494</v>
       </c>
       <c r="Y258" s="9"/>
       <c r="Z258" s="9"/>
@@ -27061,10 +27063,10 @@
         <v>2.5888236932256588</v>
       </c>
       <c r="W259" s="18">
-        <v>2.7015268575333309</v>
+        <v>2.6859847943055715</v>
       </c>
       <c r="X259" s="18">
-        <v>2.0869960714689633</v>
+        <v>2.1282510700445085</v>
       </c>
       <c r="Y259" s="9"/>
       <c r="Z259" s="9"/>
@@ -27207,10 +27209,10 @@
         <v>2.2215652180411305</v>
       </c>
       <c r="W260" s="18">
-        <v>2.1142215056460749</v>
+        <v>2.1082512932137321</v>
       </c>
       <c r="X260" s="18">
-        <v>1.7211342685998394</v>
+        <v>1.6839331994552147</v>
       </c>
       <c r="Y260" s="9"/>
       <c r="Z260" s="9"/>
@@ -27353,10 +27355,10 @@
         <v>0.60867637561257126</v>
       </c>
       <c r="W261" s="18">
-        <v>1.073152938339875</v>
+        <v>1.0729253908094534</v>
       </c>
       <c r="X261" s="18">
-        <v>1.4504466448389204</v>
+        <v>1.4541851542810376</v>
       </c>
       <c r="Y261" s="9"/>
       <c r="Z261" s="9"/>
@@ -27499,10 +27501,10 @@
         <v>1.186917586376532</v>
       </c>
       <c r="W262" s="18">
-        <v>0.89248243864018784</v>
+        <v>0.89145340713651899</v>
       </c>
       <c r="X262" s="18">
-        <v>0.81092905151163419</v>
+        <v>0.79602912851847596</v>
       </c>
       <c r="Y262" s="9"/>
       <c r="Z262" s="9"/>
@@ -27645,10 +27647,10 @@
         <v>4.6960435278410362</v>
       </c>
       <c r="W263" s="18">
-        <v>4.1924990776221867</v>
+        <v>4.2187582225155129</v>
       </c>
       <c r="X263" s="18">
-        <v>4.6792200116947384</v>
+        <v>4.651259266229995</v>
       </c>
       <c r="Y263" s="9"/>
       <c r="Z263" s="9"/>
@@ -27791,10 +27793,10 @@
         <v>0.18213572794077779</v>
       </c>
       <c r="W264" s="18">
-        <v>0.19918320943653431</v>
+        <v>0.19905914082144804</v>
       </c>
       <c r="X264" s="18">
-        <v>0.1742377037119896</v>
+        <v>0.17400679919056067</v>
       </c>
       <c r="Y264" s="9"/>
       <c r="Z264" s="9"/>
@@ -27937,10 +27939,10 @@
         <v>0.33235172994167855</v>
       </c>
       <c r="W265" s="18">
-        <v>0.15371217303239629</v>
+        <v>0.15355098692418603</v>
       </c>
       <c r="X265" s="18">
-        <v>0.13519747535030285</v>
+        <v>0.13452641552792236</v>
       </c>
       <c r="Y265" s="9"/>
       <c r="Z265" s="9"/>
@@ -28083,10 +28085,10 @@
         <v>8.4289491761989161</v>
       </c>
       <c r="W266" s="18">
-        <v>7.9882492352741847</v>
+        <v>8.0382781518996449</v>
       </c>
       <c r="X266" s="18">
-        <v>8.033983398139636</v>
+        <v>7.9941098728765718</v>
       </c>
       <c r="Y266" s="9"/>
       <c r="Z266" s="9"/>
@@ -28229,10 +28231,10 @@
         <v>2.9838762930427913</v>
       </c>
       <c r="W267" s="18">
-        <v>1.7805358311754644</v>
+        <v>1.8215322735799688</v>
       </c>
       <c r="X267" s="18">
-        <v>1.5736676944524346</v>
+        <v>1.5673590032969402</v>
       </c>
       <c r="Y267" s="9"/>
       <c r="Z267" s="9"/>
@@ -28375,10 +28377,10 @@
         <v>1.6183668265741757</v>
       </c>
       <c r="W268" s="18">
-        <v>2.2420034873447166</v>
+        <v>2.2334746445620812</v>
       </c>
       <c r="X268" s="18">
-        <v>2.8782851806135117</v>
+        <v>2.8808925954315958</v>
       </c>
       <c r="Y268" s="9"/>
       <c r="Z268" s="9"/>
@@ -28521,10 +28523,10 @@
         <v>7.4514429253010023E-2</v>
       </c>
       <c r="W269" s="18">
-        <v>0.10588093227931854</v>
+        <v>0.10577855857951979</v>
       </c>
       <c r="X269" s="18">
-        <v>9.3565476664688771E-2</v>
+        <v>9.312692793238847E-2</v>
       </c>
       <c r="Y269" s="9"/>
       <c r="Z269" s="9"/>
@@ -28667,10 +28669,10 @@
         <v>0.46924327621627582</v>
       </c>
       <c r="W270" s="18">
-        <v>0.6162305171610597</v>
+        <v>0.62145430503418864</v>
       </c>
       <c r="X270" s="18">
-        <v>0.49060035042131289</v>
+        <v>0.48730563655686993</v>
       </c>
       <c r="Y270" s="9"/>
       <c r="Z270" s="9"/>
@@ -28813,10 +28815,10 @@
         <v>0.18849395868490015</v>
       </c>
       <c r="W271" s="18">
-        <v>0.13933212382822377</v>
+        <v>0.13967925628275896</v>
       </c>
       <c r="X271" s="18">
-        <v>0.18170964671041567</v>
+        <v>0.16417423307424889</v>
       </c>
       <c r="Y271" s="9"/>
       <c r="Z271" s="9"/>
@@ -28959,10 +28961,10 @@
         <v>1.2275382070901499</v>
       </c>
       <c r="W272" s="18">
-        <v>1.2200377869095056</v>
+        <v>1.2283986793655748</v>
       </c>
       <c r="X272" s="18">
-        <v>1.0853896588162972</v>
+        <v>1.0748370732746859</v>
       </c>
       <c r="Y272" s="9"/>
       <c r="Z272" s="9"/>
@@ -29105,10 +29107,10 @@
         <v>0.13140507748944399</v>
       </c>
       <c r="W273" s="18">
-        <v>9.4180260592467785E-2</v>
+        <v>9.4059151530236709E-2</v>
       </c>
       <c r="X273" s="18">
-        <v>6.5365250919113969E-6</v>
+        <v>6.5040807037614082E-6</v>
       </c>
       <c r="Y273" s="9"/>
       <c r="Z273" s="9"/>
@@ -29251,10 +29253,10 @@
         <v>1.7355111078481693</v>
       </c>
       <c r="W274" s="18">
-        <v>1.7900482959834283</v>
+        <v>1.7939012829653156</v>
       </c>
       <c r="X274" s="18">
-        <v>1.730758853935884</v>
+        <v>1.7264078992291383</v>
       </c>
       <c r="Y274" s="9"/>
       <c r="Z274" s="9"/>
@@ -29397,10 +29399,10 @@
         <v>1.2122282248255338</v>
       </c>
       <c r="W275" s="18">
-        <v>1.0466033943129287</v>
+        <v>1.0463975084433874</v>
       </c>
       <c r="X275" s="18">
-        <v>0.9450551950088143</v>
+        <v>0.93215191531973229</v>
       </c>
       <c r="Y275" s="9"/>
       <c r="Z275" s="9"/>
@@ -29543,10 +29545,10 @@
         <v>0.39281177070101597</v>
       </c>
       <c r="W276" s="18">
-        <v>0.46782722873754912</v>
+        <v>0.46785576960366276</v>
       </c>
       <c r="X276" s="18">
-        <v>0.43368352443145902</v>
+        <v>0.42942837406849149</v>
       </c>
       <c r="Y276" s="9"/>
       <c r="Z276" s="9"/>
@@ -29689,10 +29691,10 @@
         <v>0.81941645412451769</v>
       </c>
       <c r="W277" s="18">
-        <v>0.57877616557537959</v>
+        <v>0.57854173883972482</v>
       </c>
       <c r="X277" s="18">
-        <v>0.51137167057735544</v>
+        <v>0.50272354125124097</v>
       </c>
       <c r="Y277" s="9"/>
       <c r="Z277" s="9"/>
@@ -29835,10 +29837,10 @@
         <v>1.1852774747958883</v>
       </c>
       <c r="W278" s="18">
-        <v>1.1994232439642272</v>
+        <v>1.200078090581099</v>
       </c>
       <c r="X278" s="18">
-        <v>1.1995143723635819</v>
+        <v>1.216349073218832</v>
       </c>
       <c r="Y278" s="9"/>
       <c r="Z278" s="9"/>
@@ -29981,10 +29983,10 @@
         <v>2.6133512716000817</v>
       </c>
       <c r="W279" s="18">
-        <v>3.1893128894356226</v>
+        <v>3.1873263081651011</v>
       </c>
       <c r="X279" s="18">
-        <v>2.6635898187478904</v>
+        <v>2.6503689497484344</v>
       </c>
       <c r="Y279" s="9"/>
       <c r="Z279" s="9"/>
@@ -30127,10 +30129,10 @@
         <v>3.3992386880200813</v>
       </c>
       <c r="W280" s="18">
-        <v>3.6170664692069732</v>
+        <v>3.6148134458282506</v>
       </c>
       <c r="X280" s="18">
-        <v>3.3491106483767616</v>
+        <v>3.3325572594046173</v>
       </c>
       <c r="Y280" s="9"/>
       <c r="Z280" s="9"/>
@@ -30273,10 +30275,10 @@
         <v>2.8147079271622153</v>
       </c>
       <c r="W281" s="18">
-        <v>2.7100131727194983</v>
+        <v>2.6639822223260055</v>
       </c>
       <c r="X281" s="18">
-        <v>2.1121654976624415</v>
+        <v>2.1200611127049651</v>
       </c>
       <c r="Y281" s="9"/>
       <c r="Z281" s="9"/>
@@ -30419,10 +30421,10 @@
         <v>0.32346619029864027</v>
       </c>
       <c r="W282" s="18">
-        <v>8.5910336026990726E-3</v>
+        <v>8.5856823602712511E-3</v>
       </c>
       <c r="X282" s="18">
-        <v>9.02793075824628E-3</v>
+        <v>8.9831201462478322E-3</v>
       </c>
       <c r="Y282" s="9"/>
       <c r="Z282" s="9"/>
@@ -30565,10 +30567,10 @@
         <v>4.0682537954935043</v>
       </c>
       <c r="W283" s="18">
-        <v>3.6827863886889816</v>
+        <v>3.6783749801429768</v>
       </c>
       <c r="X283" s="18">
-        <v>3.1727870496620141</v>
+        <v>3.1106410029756963</v>
       </c>
       <c r="Y283" s="9"/>
       <c r="Z283" s="9"/>
@@ -30711,10 +30713,10 @@
         <v>2.1530999004862794</v>
       </c>
       <c r="W284" s="18">
-        <v>2.6198045255260523</v>
+        <v>2.6179534050611633</v>
       </c>
       <c r="X284" s="18">
-        <v>2.2640817353471117</v>
+        <v>2.2504715123570467</v>
       </c>
       <c r="Y284" s="9"/>
       <c r="Z284" s="9"/>
@@ -30857,10 +30859,10 @@
         <v>0.58751520749360586</v>
       </c>
       <c r="W285" s="18">
-        <v>0.50976968290864655</v>
+        <v>0.50966797418053567</v>
       </c>
       <c r="X285" s="18">
-        <v>0.36159892479490069</v>
+        <v>0.35388531733947265</v>
       </c>
       <c r="Y285" s="9"/>
       <c r="Z285" s="9"/>
@@ -31003,10 +31005,10 @@
         <v>1.2680383703670139</v>
       </c>
       <c r="W286" s="18">
-        <v>1.4040365619337936</v>
+        <v>1.4041771281124524</v>
       </c>
       <c r="X286" s="18">
-        <v>1.2160655462571544</v>
+        <v>1.2208397763639773</v>
       </c>
       <c r="Y286" s="9"/>
       <c r="Z286" s="9"/>
@@ -31149,10 +31151,10 @@
         <v>11.902778899747995</v>
       </c>
       <c r="W287" s="18">
-        <v>12.038740306473668</v>
+        <v>12.05591416189608</v>
       </c>
       <c r="X287" s="18">
-        <v>11.730936397667172</v>
+        <v>11.785961891892585</v>
       </c>
       <c r="Y287" s="9"/>
       <c r="Z287" s="9"/>
@@ -31707,7 +31709,7 @@
     </row>
     <row r="296" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="1:96" x14ac:dyDescent="0.2">
@@ -31717,7 +31719,7 @@
     </row>
     <row r="299" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="1:96" x14ac:dyDescent="0.2">
@@ -31898,10 +31900,10 @@
         <v>60.060462779148381</v>
       </c>
       <c r="W305" s="18">
-        <v>62.444532044971936</v>
+        <v>62.442423447795846</v>
       </c>
       <c r="X305" s="18">
-        <v>64.30981120680282</v>
+        <v>64.567487545423802</v>
       </c>
       <c r="Y305" s="9"/>
       <c r="Z305" s="9"/>
@@ -32044,10 +32046,10 @@
         <v>42.217080080790126</v>
       </c>
       <c r="W306" s="18">
-        <v>43.583693587767556</v>
+        <v>43.577363901693495</v>
       </c>
       <c r="X306" s="18">
-        <v>47.36300076758814</v>
+        <v>47.592637206577557</v>
       </c>
       <c r="Y306" s="9"/>
       <c r="Z306" s="9"/>
@@ -32190,10 +32192,10 @@
         <v>6.7027378239021358</v>
       </c>
       <c r="W307" s="18">
-        <v>7.8950230819663698</v>
+        <v>7.8902673869359301</v>
       </c>
       <c r="X307" s="18">
-        <v>6.0061491751017044</v>
+        <v>6.0464811661302269</v>
       </c>
       <c r="Y307" s="9"/>
       <c r="Z307" s="9"/>
@@ -32336,10 +32338,10 @@
         <v>2.5052313510165138</v>
       </c>
       <c r="W308" s="18">
-        <v>2.6119087413145845</v>
+        <v>2.5986452728081018</v>
       </c>
       <c r="X308" s="18">
-        <v>2.0584665501608308</v>
+        <v>2.0985003755131237</v>
       </c>
       <c r="Y308" s="9"/>
       <c r="Z308" s="9"/>
@@ -32482,10 +32484,10 @@
         <v>1.9525053375573469</v>
       </c>
       <c r="W309" s="18">
-        <v>1.9164814629889819</v>
+        <v>1.9114394394925596</v>
       </c>
       <c r="X309" s="18">
-        <v>1.6285466027720603</v>
+        <v>1.5971948262504507</v>
       </c>
       <c r="Y309" s="9"/>
       <c r="Z309" s="9"/>
@@ -32628,10 +32630,10 @@
         <v>0.5596057137462741</v>
       </c>
       <c r="W310" s="18">
-        <v>1.0686608354503933</v>
+        <v>1.0686235043361503</v>
       </c>
       <c r="X310" s="18">
-        <v>1.4507088939998167</v>
+        <v>1.4581236392051531</v>
       </c>
       <c r="Y310" s="9"/>
       <c r="Z310" s="9"/>
@@ -32774,10 +32776,10 @@
         <v>1.083104881435222</v>
       </c>
       <c r="W311" s="18">
-        <v>0.79795134723595407</v>
+        <v>0.79696776360620547</v>
       </c>
       <c r="X311" s="18">
-        <v>0.76603044630345318</v>
+        <v>0.75370027375808701</v>
       </c>
       <c r="Y311" s="9"/>
       <c r="Z311" s="9"/>
@@ -32920,10 +32922,10 @@
         <v>4.5847346248817127</v>
       </c>
       <c r="W312" s="18">
-        <v>4.2674519559238542</v>
+        <v>4.2959885545323138</v>
       </c>
       <c r="X312" s="18">
-        <v>4.7620743915400379</v>
+        <v>4.7456359431808837</v>
       </c>
       <c r="Y312" s="9"/>
       <c r="Z312" s="9"/>
@@ -33066,10 +33068,10 @@
         <v>0.14431016575976946</v>
       </c>
       <c r="W313" s="18">
-        <v>0.15866428822570389</v>
+        <v>0.1585848916822731</v>
       </c>
       <c r="X313" s="18">
-        <v>0.15037109036465152</v>
+        <v>0.15094370040330049</v>
       </c>
       <c r="Y313" s="9"/>
       <c r="Z313" s="9"/>
@@ -33212,10 +33214,10 @@
         <v>0.31115280005926554</v>
       </c>
       <c r="W314" s="18">
-        <v>0.14469674409853731</v>
+        <v>0.14454273270881363</v>
       </c>
       <c r="X314" s="18">
-        <v>0.12446328897211745</v>
+        <v>0.12427041440500328</v>
       </c>
       <c r="Y314" s="9"/>
       <c r="Z314" s="9"/>
@@ -33358,10 +33360,10 @@
         <v>7.0445880704779489</v>
       </c>
       <c r="W315" s="18">
-        <v>6.3350707322443665</v>
+        <v>6.3753714400563224</v>
       </c>
       <c r="X315" s="18">
-        <v>6.3925874286488256</v>
+        <v>6.3863548430024553</v>
       </c>
       <c r="Y315" s="9"/>
       <c r="Z315" s="9"/>
@@ -33504,10 +33506,10 @@
         <v>2.0591801121309881</v>
       </c>
       <c r="W316" s="18">
-        <v>1.3015586027695678</v>
+        <v>1.3324524902973227</v>
       </c>
       <c r="X316" s="18">
-        <v>1.2224186797561312</v>
+        <v>1.2226590152144015</v>
       </c>
       <c r="Y316" s="9"/>
       <c r="Z316" s="9"/>
@@ -33650,10 +33652,10 @@
         <v>1.4932307372747882</v>
       </c>
       <c r="W317" s="18">
-        <v>1.6764991429538856</v>
+        <v>1.6717430098033135</v>
       </c>
       <c r="X317" s="18">
-        <v>2.1506264393669903</v>
+        <v>2.1622945060553715</v>
       </c>
       <c r="Y317" s="9"/>
       <c r="Z317" s="9"/>
@@ -33796,10 +33798,10 @@
         <v>5.9892988106047644E-2</v>
       </c>
       <c r="W318" s="18">
-        <v>7.3840009988049488E-2</v>
+        <v>7.3746419888495188E-2</v>
       </c>
       <c r="X318" s="18">
-        <v>6.2805327880615089E-2</v>
+        <v>6.2831359568464126E-2</v>
       </c>
       <c r="Y318" s="9"/>
       <c r="Z318" s="9"/>
@@ -33942,10 +33944,10 @@
         <v>0.48424003984312275</v>
       </c>
       <c r="W319" s="18">
-        <v>0.60686145632710131</v>
+        <v>0.61145297597100068</v>
       </c>
       <c r="X319" s="18">
-        <v>0.47951534400934365</v>
+        <v>0.47406815516175072</v>
       </c>
       <c r="Y319" s="9"/>
       <c r="Z319" s="9"/>
@@ -34088,10 +34090,10 @@
         <v>0.1651756706086312</v>
       </c>
       <c r="W320" s="18">
-        <v>0.12624769516982881</v>
+        <v>0.12653075484027676</v>
       </c>
       <c r="X320" s="18">
-        <v>0.16261313466380559</v>
+        <v>0.14894482300990475</v>
       </c>
       <c r="Y320" s="9"/>
       <c r="Z320" s="9"/>
@@ -34234,10 +34236,10 @@
         <v>0.96344662733800912</v>
       </c>
       <c r="W321" s="18">
-        <v>0.94766948493394898</v>
+        <v>0.95467458579123066</v>
       </c>
       <c r="X321" s="18">
-        <v>0.89162409071062854</v>
+        <v>0.89205754539825444</v>
       </c>
       <c r="Y321" s="9"/>
       <c r="Z321" s="9"/>
@@ -34380,10 +34382,10 @@
         <v>0.11343630096319397</v>
       </c>
       <c r="W322" s="18">
-        <v>7.4335531826456733E-2</v>
+        <v>7.4254960580797627E-2</v>
       </c>
       <c r="X322" s="18">
-        <v>4.6749330830932505E-6</v>
+        <v>4.6676654369622055E-6</v>
       </c>
       <c r="Y322" s="9"/>
       <c r="Z322" s="9"/>
@@ -34526,10 +34528,10 @@
         <v>1.7059855942131676</v>
       </c>
       <c r="W323" s="18">
-        <v>1.5280588082755271</v>
+        <v>1.5305162428838859</v>
       </c>
       <c r="X323" s="18">
-        <v>1.4229797373282274</v>
+        <v>1.4234947709288694</v>
       </c>
       <c r="Y323" s="9"/>
       <c r="Z323" s="9"/>
@@ -34672,10 +34674,10 @@
         <v>1.0631203806108329</v>
       </c>
       <c r="W324" s="18">
-        <v>0.82511417508365392</v>
+        <v>0.82504121545436315</v>
       </c>
       <c r="X324" s="18">
-        <v>0.73944434265181713</v>
+        <v>0.73163260711329514</v>
       </c>
       <c r="Y324" s="9"/>
       <c r="Z324" s="9"/>
@@ -34818,10 +34820,10 @@
         <v>0.33186178091468255</v>
       </c>
       <c r="W325" s="18">
-        <v>0.35117063763501633</v>
+        <v>0.35122275963526595</v>
       </c>
       <c r="X325" s="18">
-        <v>0.34546178392430171</v>
+        <v>0.34295411932505182</v>
       </c>
       <c r="Y325" s="9"/>
       <c r="Z325" s="9"/>
@@ -34964,10 +34966,10 @@
         <v>0.73125859969615015</v>
       </c>
       <c r="W326" s="18">
-        <v>0.4739435374486376</v>
+        <v>0.4738184558190971</v>
       </c>
       <c r="X326" s="18">
-        <v>0.39398255872751542</v>
+        <v>0.38867848778824343</v>
       </c>
       <c r="Y326" s="9"/>
       <c r="Z326" s="9"/>
@@ -35110,10 +35112,10 @@
         <v>1.2064480634738923</v>
       </c>
       <c r="W327" s="18">
-        <v>1.2538609680557951</v>
+        <v>1.2547197849543446</v>
       </c>
       <c r="X327" s="18">
-        <v>1.2901635105722147</v>
+        <v>1.3125915451781387</v>
       </c>
       <c r="Y327" s="9"/>
       <c r="Z327" s="9"/>
@@ -35256,10 +35258,10 @@
         <v>2.5932373077105222</v>
       </c>
       <c r="W328" s="18">
-        <v>2.1459489096668447</v>
+        <v>2.1448750642053871</v>
       </c>
       <c r="X328" s="18">
-        <v>1.9992786340841402</v>
+        <v>1.9961705575894346</v>
       </c>
       <c r="Y328" s="9"/>
       <c r="Z328" s="9"/>
@@ -35402,10 +35404,10 @@
         <v>3.2012760278640249</v>
       </c>
       <c r="W329" s="18">
-        <v>3.1291596903603933</v>
+        <v>3.1275938404389283</v>
       </c>
       <c r="X329" s="18">
-        <v>3.4274999020533254</v>
+        <v>3.4293981960531807</v>
       </c>
       <c r="Y329" s="9"/>
       <c r="Z329" s="9"/>
@@ -35548,10 +35550,10 @@
         <v>2.9644774362590902</v>
       </c>
       <c r="W330" s="18">
-        <v>2.2176303781666582</v>
+        <v>2.1715418883410402</v>
       </c>
       <c r="X330" s="18">
-        <v>1.967032758232784</v>
+        <v>1.9764340332445758</v>
       </c>
       <c r="Y330" s="9"/>
       <c r="Z330" s="9"/>
@@ -35694,10 +35696,10 @@
         <v>0.59136078297198891</v>
       </c>
       <c r="W331" s="18">
-        <v>1.096681747897402E-2</v>
+        <v>1.0961329618977271E-2</v>
       </c>
       <c r="X331" s="18">
-        <v>7.7150324969220427E-3</v>
+        <v>7.7184380334675735E-3</v>
       </c>
       <c r="Y331" s="9"/>
       <c r="Z331" s="9"/>
@@ -35840,10 +35842,10 @@
         <v>4.3709425786805687</v>
       </c>
       <c r="W332" s="18">
-        <v>4.1165959162523329</v>
+        <v>4.1121602822932566</v>
       </c>
       <c r="X332" s="18">
-        <v>3.5085658113737983</v>
+        <v>3.4527685790153431</v>
       </c>
       <c r="Y332" s="9"/>
       <c r="Z332" s="9"/>
@@ -35986,10 +35988,10 @@
         <v>2.4864247471177574</v>
       </c>
       <c r="W333" s="18">
-        <v>2.6484428144251884</v>
+        <v>2.6469171560158911</v>
       </c>
       <c r="X333" s="18">
-        <v>1.954335237343513</v>
+        <v>1.9502557496050374</v>
       </c>
       <c r="Y333" s="9"/>
       <c r="Z333" s="9"/>
@@ -36132,10 +36134,10 @@
         <v>0.62607570927590861</v>
       </c>
       <c r="W334" s="18">
-        <v>0.57173183721329568</v>
+        <v>0.57171866356890555</v>
       </c>
       <c r="X334" s="18">
-        <v>0.40035108480343518</v>
+        <v>0.39322432140390029</v>
       </c>
       <c r="Y334" s="9"/>
       <c r="Z334" s="9"/>
@@ -36278,10 +36280,10 @@
         <v>1.3405987420249368</v>
       </c>
       <c r="W335" s="18">
-        <v>1.4201812751877327</v>
+        <v>1.4204277552150151</v>
       </c>
       <c r="X335" s="18">
-        <v>1.1921506709630327</v>
+        <v>1.1995828983478467</v>
       </c>
       <c r="Y335" s="9"/>
       <c r="Z335" s="9"/>
@@ -36424,10 +36426,10 @@
         <v>12.450987374384157</v>
       </c>
       <c r="W336" s="18">
-        <v>12.880764440892795</v>
+        <v>12.896248132041702</v>
       </c>
       <c r="X336" s="18">
-        <v>12.811064379973363</v>
+        <v>12.596380685989548</v>
       </c>
       <c r="Y336" s="9"/>
       <c r="Z336" s="9"/>

--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22C968C-C5F4-40B5-B252-D438C59395FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C3A02-CD8A-40F0-8DA3-A943E5560C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOG" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOG!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$X$342</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$Y$342</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="81">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Tuna</t>
-  </si>
-  <si>
-    <t>Shrimps and prawns</t>
   </si>
   <si>
     <t>Fishery products</t>
@@ -288,13 +285,19 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>Shrimps, prawns, and other fishery products</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>As of January 2024</t>
+  </si>
+  <si>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -720,53 +723,53 @@
   <dimension ref="A1:CR342"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="96" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:X1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="24" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -790,10 +793,11 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6">
         <v>2000</v>
@@ -863,6 +867,9 @@
       </c>
       <c r="X10" s="6">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -870,7 +877,7 @@
     </row>
     <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="8">
         <v>960006.7892699776</v>
@@ -941,7 +948,9 @@
       <c r="X12" s="8">
         <v>2249336.0259818225</v>
       </c>
-      <c r="Y12" s="9"/>
+      <c r="Y12" s="8">
+        <v>2044179.1546272787</v>
+      </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
@@ -1016,7 +1025,7 @@
     </row>
     <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11">
         <v>672996.19358416286</v>
@@ -1087,7 +1096,9 @@
       <c r="X13" s="11">
         <v>1654422.3563103364</v>
       </c>
-      <c r="Y13" s="9"/>
+      <c r="Y13" s="11">
+        <v>1540113.8686766834</v>
+      </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
@@ -1162,7 +1173,7 @@
     </row>
     <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11">
         <v>216964.72233206069</v>
@@ -1233,7 +1244,9 @@
       <c r="X14" s="11">
         <v>201527.63927911554</v>
       </c>
-      <c r="Y14" s="9"/>
+      <c r="Y14" s="11">
+        <v>142834.23095331443</v>
+      </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
@@ -1308,7 +1321,7 @@
     </row>
     <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="11">
         <v>3525.7577695601249</v>
@@ -1379,7 +1392,9 @@
       <c r="X15" s="11">
         <v>75958.059300341716</v>
       </c>
-      <c r="Y15" s="9"/>
+      <c r="Y15" s="11">
+        <v>47278.460941019774</v>
+      </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
@@ -1454,7 +1469,7 @@
     </row>
     <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="11">
         <v>20409.743383696983</v>
@@ -1525,7 +1540,9 @@
       <c r="X16" s="11">
         <v>60100.191947446496</v>
       </c>
-      <c r="Y16" s="9"/>
+      <c r="Y16" s="11">
+        <v>63023.852826448769</v>
+      </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
@@ -1600,7 +1617,7 @@
     </row>
     <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="11">
         <v>9155.871451576586</v>
@@ -1671,7 +1688,9 @@
       <c r="X17" s="11">
         <v>51900.400162958969</v>
       </c>
-      <c r="Y17" s="9"/>
+      <c r="Y17" s="11">
+        <v>46031.015999568721</v>
+      </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
@@ -1746,7 +1765,7 @@
     </row>
     <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="11">
         <v>20620.578875032272</v>
@@ -1817,7 +1836,9 @@
       <c r="X18" s="11">
         <v>28410.570820265682</v>
       </c>
-      <c r="Y18" s="9"/>
+      <c r="Y18" s="11">
+        <v>34586.305455375768</v>
+      </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
@@ -1892,7 +1913,7 @@
     </row>
     <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="11">
         <v>657.07656751956506</v>
@@ -1963,7 +1984,9 @@
       <c r="X19" s="11">
         <v>166005.14485265745</v>
       </c>
-      <c r="Y19" s="9"/>
+      <c r="Y19" s="11">
+        <v>158512.89772724448</v>
+      </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
@@ -2038,7 +2061,7 @@
     </row>
     <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="11">
         <v>62.951357270479193</v>
@@ -2109,7 +2132,9 @@
       <c r="X20" s="11">
         <v>6210.3663226645749</v>
       </c>
-      <c r="Y20" s="9"/>
+      <c r="Y20" s="11">
+        <v>9631.9328145682812</v>
+      </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
@@ -2184,7 +2209,7 @@
     </row>
     <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="11">
         <v>15613.89394909811</v>
@@ -2255,7 +2280,9 @@
       <c r="X21" s="11">
         <v>4801.2969860358808</v>
       </c>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="11">
+        <v>2166.589233055211</v>
+      </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
@@ -2330,7 +2357,7 @@
     </row>
     <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="8">
         <v>58634.29472718035</v>
@@ -2401,7 +2428,9 @@
       <c r="X22" s="8">
         <v>285312.70596974582</v>
       </c>
-      <c r="Y22" s="9"/>
+      <c r="Y22" s="8">
+        <v>235416.06575476361</v>
+      </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
@@ -2476,7 +2505,7 @@
     </row>
     <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>12104.130468565138</v>
@@ -2547,7 +2576,9 @@
       <c r="X23" s="11">
         <v>55939.616238446753</v>
       </c>
-      <c r="Y23" s="9"/>
+      <c r="Y23" s="11">
+        <v>62943.115580241021</v>
+      </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -2622,7 +2653,7 @@
     </row>
     <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="11">
         <v>20096.344835496566</v>
@@ -2693,7 +2724,9 @@
       <c r="X24" s="11">
         <v>102820.1106917015</v>
       </c>
-      <c r="Y24" s="9"/>
+      <c r="Y24" s="11">
+        <v>59450.474594885483</v>
+      </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -2768,7 +2801,7 @@
     </row>
     <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="11">
         <v>1054.3271242650094</v>
@@ -2839,7 +2872,9 @@
       <c r="X25" s="11">
         <v>3323.7341279471689</v>
       </c>
-      <c r="Y25" s="9"/>
+      <c r="Y25" s="11">
+        <v>3359.2185568948967</v>
+      </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
@@ -2914,7 +2949,7 @@
     </row>
     <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="11">
         <v>3146.362844778776</v>
@@ -2985,7 +3020,9 @@
       <c r="X26" s="11">
         <v>17392.116447146152</v>
       </c>
-      <c r="Y26" s="9"/>
+      <c r="Y26" s="11">
+        <v>12253.230995868245</v>
+      </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
@@ -3060,7 +3097,7 @@
     </row>
     <row r="27" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="11">
         <v>1652.2501322048258</v>
@@ -3131,7 +3168,9 @@
       <c r="X27" s="11">
         <v>5859.4384407762209</v>
       </c>
-      <c r="Y27" s="9"/>
+      <c r="Y27" s="11">
+        <v>5179.6434742257406</v>
+      </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -3206,7 +3245,7 @@
     </row>
     <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="11">
         <v>6694.7951858582237</v>
@@ -3277,7 +3316,9 @@
       <c r="X28" s="11">
         <v>38361.328369165072</v>
       </c>
-      <c r="Y28" s="9"/>
+      <c r="Y28" s="11">
+        <v>37725.884401377698</v>
+      </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -3352,7 +3393,7 @@
     </row>
     <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="11">
         <v>1972.8669152421262</v>
@@ -3423,7 +3464,9 @@
       <c r="X29" s="11">
         <v>0.23213301980399587</v>
       </c>
-      <c r="Y29" s="9"/>
+      <c r="Y29" s="11">
+        <v>9.9036736367458758E-2</v>
+      </c>
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -3498,7 +3541,7 @@
     </row>
     <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="11">
         <v>11913.217220769677</v>
@@ -3569,7 +3612,9 @@
       <c r="X30" s="11">
         <v>61616.129521543153</v>
       </c>
-      <c r="Y30" s="9"/>
+      <c r="Y30" s="11">
+        <v>54504.399114534186</v>
+      </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -3644,7 +3689,7 @@
     </row>
     <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="8">
         <v>17383.548103063666</v>
@@ -3715,7 +3760,9 @@
       <c r="X31" s="8">
         <v>33268.842881071636</v>
       </c>
-      <c r="Y31" s="9"/>
+      <c r="Y31" s="8">
+        <v>33379.176255923499</v>
+      </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
@@ -3790,7 +3837,7 @@
     </row>
     <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B32" s="11">
         <v>11830.877631986172</v>
@@ -3861,7 +3908,9 @@
       <c r="X32" s="11">
         <v>15326.45577481685</v>
       </c>
-      <c r="Y32" s="9"/>
+      <c r="Y32" s="11">
+        <v>14947.965311153463</v>
+      </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
@@ -4007,7 +4056,9 @@
       <c r="X33" s="11">
         <v>17942.387106254788</v>
       </c>
-      <c r="Y33" s="9"/>
+      <c r="Y33" s="11">
+        <v>18431.210944770035</v>
+      </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
@@ -4153,7 +4204,9 @@
       <c r="X34" s="11">
         <v>43411.943418658557</v>
       </c>
-      <c r="Y34" s="9"/>
+      <c r="Y34" s="11">
+        <v>36737.629419773584</v>
+      </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
@@ -4299,7 +4352,9 @@
       <c r="X35" s="11">
         <v>94592.637441298604</v>
       </c>
-      <c r="Y35" s="9"/>
+      <c r="Y35" s="11">
+        <v>100627.28720766974</v>
+      </c>
       <c r="Z35" s="9"/>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -4445,7 +4500,9 @@
       <c r="X36" s="11">
         <v>118940.18778825109</v>
       </c>
-      <c r="Y36" s="9"/>
+      <c r="Y36" s="11">
+        <v>135589.20638072069</v>
+      </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
@@ -4591,7 +4648,9 @@
       <c r="X37" s="11">
         <v>75665.756726636784</v>
       </c>
-      <c r="Y37" s="9"/>
+      <c r="Y37" s="11">
+        <v>72103.19900812424</v>
+      </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
@@ -4737,7 +4796,9 @@
       <c r="X38" s="11">
         <v>320.61084445103427</v>
       </c>
-      <c r="Y38" s="9"/>
+      <c r="Y38" s="11">
+        <v>309.53287075451669</v>
+      </c>
       <c r="Z38" s="9"/>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
@@ -4883,7 +4944,9 @@
       <c r="X39" s="11">
         <v>111019.91540930416</v>
       </c>
-      <c r="Y39" s="9"/>
+      <c r="Y39" s="11">
+        <v>123807.85377034009</v>
+      </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
@@ -5029,7 +5092,9 @@
       <c r="X40" s="11">
         <v>80320.151600239216</v>
       </c>
-      <c r="Y40" s="9"/>
+      <c r="Y40" s="11">
+        <v>80443.282072856178</v>
+      </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -5175,7 +5240,9 @@
       <c r="X41" s="11">
         <v>12630.296443092944</v>
       </c>
-      <c r="Y41" s="9"/>
+      <c r="Y41" s="11">
+        <v>8434.2782829998341</v>
+      </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -5321,7 +5388,9 @@
       <c r="X42" s="11">
         <v>43572.218256811015</v>
       </c>
-      <c r="Y42" s="9"/>
+      <c r="Y42" s="11">
+        <v>41888.257323791651</v>
+      </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -5467,7 +5536,9 @@
       <c r="X43" s="11">
         <v>420645.29175931407</v>
       </c>
-      <c r="Y43" s="9"/>
+      <c r="Y43" s="11">
+        <v>403892.59279811103</v>
+      </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
@@ -5564,7 +5635,7 @@
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
-      <c r="Y44" s="9"/>
+      <c r="Y44" s="8"/>
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
@@ -5710,7 +5781,9 @@
       <c r="X45" s="8">
         <v>3569036.5845206971</v>
       </c>
-      <c r="Y45" s="9"/>
+      <c r="Y45" s="8">
+        <v>3316807.5157731078</v>
+      </c>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
@@ -5808,6 +5881,7 @@
       <c r="V46" s="13"/>
       <c r="W46" s="13"/>
       <c r="X46" s="13"/>
+      <c r="Y46" s="13"/>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -5838,7 +5912,7 @@
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
       <c r="X48" s="15"/>
-      <c r="Y48" s="9"/>
+      <c r="Y48" s="15"/>
       <c r="Z48" s="9"/>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
@@ -6010,38 +6084,38 @@
     </row>
     <row r="50" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -6065,10 +6139,11 @@
       <c r="V58" s="16"/>
       <c r="W58" s="16"/>
       <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
     </row>
     <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="17">
         <v>2000</v>
@@ -6138,6 +6213,9 @@
       </c>
       <c r="X59" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y59" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="60" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6145,7 +6223,7 @@
     </row>
     <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" s="8">
         <v>642104.07913174061</v>
@@ -6216,7 +6294,9 @@
       <c r="X61" s="8">
         <v>2156677.5070377868</v>
       </c>
-      <c r="Y61" s="9"/>
+      <c r="Y61" s="8">
+        <v>1947518.1871256137</v>
+      </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -6291,7 +6371,7 @@
     </row>
     <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="11">
         <v>410895.95166660997</v>
@@ -6362,7 +6442,9 @@
       <c r="X62" s="11">
         <v>1589685.0576975909</v>
       </c>
-      <c r="Y62" s="9"/>
+      <c r="Y62" s="11">
+        <v>1478953.3909145764</v>
+      </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
@@ -6437,7 +6519,7 @@
     </row>
     <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" s="11">
         <v>177151.90820049599</v>
@@ -6508,7 +6590,9 @@
       <c r="X63" s="11">
         <v>201964.02900990527</v>
       </c>
-      <c r="Y63" s="9"/>
+      <c r="Y63" s="11">
+        <v>139135.55451709928</v>
+      </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
@@ -6583,7 +6667,7 @@
     </row>
     <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64" s="11">
         <v>3873.4344431594436</v>
@@ -6654,7 +6738,9 @@
       <c r="X64" s="11">
         <v>70093.923899324276</v>
       </c>
-      <c r="Y64" s="9"/>
+      <c r="Y64" s="11">
+        <v>46948.817399309286</v>
+      </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
@@ -6729,7 +6815,7 @@
     </row>
     <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="11">
         <v>11982.58178736825</v>
@@ -6800,7 +6886,9 @@
       <c r="X65" s="11">
         <v>53349.360290783232</v>
       </c>
-      <c r="Y65" s="9"/>
+      <c r="Y65" s="11">
+        <v>55306.145021754099</v>
+      </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
@@ -6875,7 +6963,7 @@
     </row>
     <row r="66" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="11">
         <v>6799.406100745904</v>
@@ -6946,7 +7034,9 @@
       <c r="X66" s="11">
         <v>48704.116804010831</v>
       </c>
-      <c r="Y66" s="9"/>
+      <c r="Y66" s="11">
+        <v>42536.982852023481</v>
+      </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
@@ -7021,7 +7111,7 @@
     </row>
     <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="11">
         <v>14127.557700574482</v>
@@ -7092,7 +7182,9 @@
       <c r="X67" s="11">
         <v>25175.029868070105</v>
       </c>
-      <c r="Y67" s="9"/>
+      <c r="Y67" s="11">
+        <v>30708.822404939427</v>
+      </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
@@ -7167,7 +7259,7 @@
     </row>
     <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="11">
         <v>550.36849228191841</v>
@@ -7238,7 +7330,9 @@
       <c r="X68" s="11">
         <v>158513.31195205619</v>
       </c>
-      <c r="Y68" s="9"/>
+      <c r="Y68" s="11">
+        <v>144211.50026894885</v>
+      </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
@@ -7313,7 +7407,7 @@
     </row>
     <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="11">
         <v>58.877897311014145</v>
@@ -7384,7 +7478,9 @@
       <c r="X69" s="11">
         <v>5041.8081276560533</v>
       </c>
-      <c r="Y69" s="9"/>
+      <c r="Y69" s="11">
+        <v>7829.1462750784021</v>
+      </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
@@ -7459,7 +7555,7 @@
     </row>
     <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="11">
         <v>16663.992843193635</v>
@@ -7530,7 +7626,9 @@
       <c r="X70" s="11">
         <v>4150.8693883897358</v>
       </c>
-      <c r="Y70" s="9"/>
+      <c r="Y70" s="11">
+        <v>1887.8274718841294</v>
+      </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
@@ -7605,7 +7703,7 @@
     </row>
     <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71" s="8">
         <v>133769.94117131931</v>
@@ -7676,7 +7774,9 @@
       <c r="X71" s="8">
         <v>213316.45949791043</v>
       </c>
-      <c r="Y71" s="9"/>
+      <c r="Y71" s="8">
+        <v>182446.52445787136</v>
+      </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
@@ -7751,7 +7851,7 @@
     </row>
     <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="11">
         <v>23613.733968142602</v>
@@ -7822,7 +7922,9 @@
       <c r="X72" s="11">
         <v>40839.148263819341</v>
       </c>
-      <c r="Y72" s="9"/>
+      <c r="Y72" s="11">
+        <v>42753.546646195144</v>
+      </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
@@ -7897,7 +7999,7 @@
     </row>
     <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73" s="11">
         <v>48925.010316730557</v>
@@ -7968,7 +8070,9 @@
       <c r="X73" s="11">
         <v>72224.769804156909</v>
       </c>
-      <c r="Y73" s="9"/>
+      <c r="Y73" s="11">
+        <v>53333.606406429208</v>
+      </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
@@ -8043,7 +8147,7 @@
     </row>
     <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" s="11">
         <v>2180.6442967651092</v>
@@ -8114,7 +8218,9 @@
       <c r="X74" s="11">
         <v>2098.6875139377175</v>
       </c>
-      <c r="Y74" s="9"/>
+      <c r="Y74" s="11">
+        <v>2988.7319739644722</v>
+      </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
@@ -8189,7 +8295,7 @@
     </row>
     <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B75" s="11">
         <v>6169.9978855832323</v>
@@ -8260,7 +8366,9 @@
       <c r="X75" s="11">
         <v>15834.78258033459</v>
       </c>
-      <c r="Y75" s="9"/>
+      <c r="Y75" s="11">
+        <v>13020.742533490025</v>
+      </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
@@ -8335,7 +8443,7 @@
     </row>
     <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="11">
         <v>4047.6054604604542</v>
@@ -8406,7 +8514,9 @@
       <c r="X76" s="11">
         <v>4975.0418017922793</v>
       </c>
-      <c r="Y76" s="9"/>
+      <c r="Y76" s="11">
+        <v>4091.5039268822366</v>
+      </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
@@ -8481,7 +8591,7 @@
     </row>
     <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77" s="11">
         <v>20933.732944252377</v>
@@ -8552,7 +8662,9 @@
       <c r="X77" s="11">
         <v>29796.427215636784</v>
       </c>
-      <c r="Y77" s="9"/>
+      <c r="Y77" s="11">
+        <v>26178.51360808151</v>
+      </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
@@ -8627,7 +8739,7 @@
     </row>
     <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="11">
         <v>2091.9407970028915</v>
@@ -8698,7 +8810,9 @@
       <c r="X78" s="11">
         <v>0.15590894800099067</v>
       </c>
-      <c r="Y78" s="9"/>
+      <c r="Y78" s="11">
+        <v>5.5648529281942589E-2</v>
+      </c>
       <c r="Z78" s="9"/>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
@@ -8773,7 +8887,7 @@
     </row>
     <row r="79" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B79" s="11">
         <v>25807.275502382072</v>
@@ -8844,7 +8958,9 @@
       <c r="X79" s="11">
         <v>47547.44640928477</v>
       </c>
-      <c r="Y79" s="9"/>
+      <c r="Y79" s="11">
+        <v>40079.823714299506</v>
+      </c>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
@@ -8919,7 +9035,7 @@
     </row>
     <row r="80" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="8">
         <v>24747.895275695191</v>
@@ -8990,7 +9106,9 @@
       <c r="X80" s="8">
         <v>24437.927619014052</v>
       </c>
-      <c r="Y80" s="9"/>
+      <c r="Y80" s="8">
+        <v>22872.21417937598</v>
+      </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
@@ -9065,7 +9183,7 @@
     </row>
     <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B81" s="11">
         <v>16335.74019226931</v>
@@ -9136,7 +9254,9 @@
       <c r="X81" s="11">
         <v>11455.323154303444</v>
       </c>
-      <c r="Y81" s="9"/>
+      <c r="Y81" s="11">
+        <v>10020.161665192136</v>
+      </c>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
@@ -9282,7 +9402,9 @@
       <c r="X82" s="11">
         <v>12982.60446471061</v>
       </c>
-      <c r="Y82" s="9"/>
+      <c r="Y82" s="11">
+        <v>12852.052514183844</v>
+      </c>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
@@ -9428,7 +9550,9 @@
       <c r="X83" s="11">
         <v>43843.066673798421</v>
       </c>
-      <c r="Y83" s="9"/>
+      <c r="Y83" s="11">
+        <v>36307.230687053947</v>
+      </c>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
@@ -9574,7 +9698,9 @@
       <c r="X84" s="11">
         <v>66675.912373631349</v>
       </c>
-      <c r="Y84" s="9"/>
+      <c r="Y84" s="11">
+        <v>67068.836687602627</v>
+      </c>
       <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
@@ -9720,7 +9846,9 @@
       <c r="X85" s="11">
         <v>114548.45516329921</v>
       </c>
-      <c r="Y85" s="9"/>
+      <c r="Y85" s="11">
+        <v>128325.22359036586</v>
+      </c>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
@@ -9866,7 +9994,9 @@
       <c r="X86" s="11">
         <v>66016.674733453459</v>
       </c>
-      <c r="Y86" s="9"/>
+      <c r="Y86" s="11">
+        <v>66487.613712255261</v>
+      </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
@@ -10012,7 +10142,9 @@
       <c r="X87" s="11">
         <v>257.81058438325869</v>
       </c>
-      <c r="Y87" s="9"/>
+      <c r="Y87" s="11">
+        <v>285.57177181990301</v>
+      </c>
       <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
       <c r="AB87" s="9"/>
@@ -10158,7 +10290,9 @@
       <c r="X88" s="11">
         <v>115329.07062754343</v>
       </c>
-      <c r="Y88" s="9"/>
+      <c r="Y88" s="11">
+        <v>115129.80097854613</v>
+      </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
       <c r="AB88" s="9"/>
@@ -10304,7 +10438,9 @@
       <c r="X89" s="11">
         <v>65142.270019184085</v>
       </c>
-      <c r="Y89" s="9"/>
+      <c r="Y89" s="11">
+        <v>75172.500378068362</v>
+      </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
       <c r="AB89" s="9"/>
@@ -10450,7 +10586,9 @@
       <c r="X90" s="11">
         <v>13134.443996994196</v>
       </c>
-      <c r="Y90" s="9"/>
+      <c r="Y90" s="11">
+        <v>8484.3765645867425</v>
+      </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
       <c r="AB90" s="9"/>
@@ -10596,7 +10734,9 @@
       <c r="X91" s="11">
         <v>40068.361849668378</v>
       </c>
-      <c r="Y91" s="9"/>
+      <c r="Y91" s="11">
+        <v>36730.001483046697</v>
+      </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
       <c r="AB91" s="9"/>
@@ -10742,7 +10882,9 @@
       <c r="X92" s="11">
         <v>420743.19333622995</v>
       </c>
-      <c r="Y92" s="9"/>
+      <c r="Y92" s="11">
+        <v>409573.07814266533</v>
+      </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
       <c r="AB92" s="9"/>
@@ -10839,7 +10981,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
       <c r="X93" s="8"/>
-      <c r="Y93" s="9"/>
+      <c r="Y93" s="8"/>
       <c r="Z93" s="9"/>
       <c r="AA93" s="9"/>
       <c r="AB93" s="9"/>
@@ -10985,7 +11127,9 @@
       <c r="X94" s="8">
         <v>3340191.1535128965</v>
       </c>
-      <c r="Y94" s="9"/>
+      <c r="Y94" s="8">
+        <v>3096401.1597588724</v>
+      </c>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
       <c r="AB94" s="9"/>
@@ -11083,6 +11227,7 @@
       <c r="V95" s="13"/>
       <c r="W95" s="13"/>
       <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
     </row>
     <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
@@ -11285,38 +11430,38 @@
     </row>
     <row r="99" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -11340,85 +11485,89 @@
       <c r="V107" s="16"/>
       <c r="W107" s="16"/>
       <c r="X107" s="16"/>
+      <c r="Y107" s="16"/>
     </row>
     <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E108" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F108" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I108" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J108" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K108" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L108" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M108" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N108" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O108" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P108" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q108" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R108" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S108" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T108" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U108" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V108" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="V108" s="17" t="s">
+      <c r="W108" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="W108" s="17" t="s">
+      <c r="X108" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="X108" s="17"/>
+      <c r="Y108" s="17"/>
     </row>
     <row r="109" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
     </row>
     <row r="110" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B110" s="18">
         <v>-4.7763516949683265</v>
@@ -11486,8 +11635,10 @@
       <c r="W110" s="18">
         <v>28.531625982979506</v>
       </c>
-      <c r="X110" s="18"/>
-      <c r="Y110" s="9"/>
+      <c r="X110" s="18">
+        <v>-9.1207747079493799</v>
+      </c>
+      <c r="Y110" s="18"/>
       <c r="Z110" s="9"/>
       <c r="AA110" s="9"/>
       <c r="AB110" s="9"/>
@@ -11557,7 +11708,7 @@
     </row>
     <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B111" s="18">
         <v>-15.166234347365346</v>
@@ -11625,8 +11776,10 @@
       <c r="W111" s="18">
         <v>37.545568523597126</v>
       </c>
-      <c r="X111" s="18"/>
-      <c r="Y111" s="9"/>
+      <c r="X111" s="18">
+        <v>-6.9092687969099842</v>
+      </c>
+      <c r="Y111" s="18"/>
       <c r="Z111" s="9"/>
       <c r="AA111" s="9"/>
       <c r="AB111" s="9"/>
@@ -11696,7 +11849,7 @@
     </row>
     <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112" s="18">
         <v>18.726037273081047</v>
@@ -11764,8 +11917,10 @@
       <c r="W112" s="18">
         <v>-6.9604615958168665</v>
       </c>
-      <c r="X112" s="18"/>
-      <c r="Y112" s="9"/>
+      <c r="X112" s="18">
+        <v>-29.124247441072242</v>
+      </c>
+      <c r="Y112" s="18"/>
       <c r="Z112" s="9"/>
       <c r="AA112" s="9"/>
       <c r="AB112" s="9"/>
@@ -11835,7 +11990,7 @@
     </row>
     <row r="113" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B113" s="18">
         <v>160.74534840891073</v>
@@ -11903,8 +12058,10 @@
       <c r="W113" s="18">
         <v>-3.0847202609819533</v>
       </c>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="9"/>
+      <c r="X113" s="18">
+        <v>-37.757149963404771</v>
+      </c>
+      <c r="Y113" s="18"/>
       <c r="Z113" s="9"/>
       <c r="AA113" s="9"/>
       <c r="AB113" s="9"/>
@@ -11974,7 +12131,7 @@
     </row>
     <row r="114" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B114" s="18">
         <v>13.50627862227023</v>
@@ -12042,8 +12199,10 @@
       <c r="W114" s="18">
         <v>-2.304304971234032</v>
       </c>
-      <c r="X114" s="18"/>
-      <c r="Y114" s="9"/>
+      <c r="X114" s="18">
+        <v>4.8646448276884229</v>
+      </c>
+      <c r="Y114" s="18"/>
       <c r="Z114" s="9"/>
       <c r="AA114" s="9"/>
       <c r="AB114" s="9"/>
@@ -12113,7 +12272,7 @@
     </row>
     <row r="115" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115" s="18">
         <v>40.902975784055968</v>
@@ -12181,8 +12340,10 @@
       <c r="W115" s="18">
         <v>65.776561216925131</v>
       </c>
-      <c r="X115" s="18"/>
-      <c r="Y115" s="9"/>
+      <c r="X115" s="18">
+        <v>-11.308938168032086</v>
+      </c>
+      <c r="Y115" s="18"/>
       <c r="Z115" s="9"/>
       <c r="AA115" s="9"/>
       <c r="AB115" s="9"/>
@@ -12252,7 +12413,7 @@
     </row>
     <row r="116" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B116" s="18">
         <v>-2.1897949812214534</v>
@@ -12320,8 +12481,10 @@
       <c r="W116" s="18">
         <v>9.2202719709397485</v>
       </c>
-      <c r="X116" s="18"/>
-      <c r="Y116" s="9"/>
+      <c r="X116" s="18">
+        <v>21.737453549172784</v>
+      </c>
+      <c r="Y116" s="18"/>
       <c r="Z116" s="9"/>
       <c r="AA116" s="9"/>
       <c r="AB116" s="9"/>
@@ -12391,7 +12554,7 @@
     </row>
     <row r="117" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B117" s="18">
         <v>51.380889085807127</v>
@@ -12459,8 +12622,10 @@
       <c r="W117" s="18">
         <v>34.852454178465621</v>
       </c>
-      <c r="X117" s="18"/>
-      <c r="Y117" s="9"/>
+      <c r="X117" s="18">
+        <v>-4.5132620028511354</v>
+      </c>
+      <c r="Y117" s="18"/>
       <c r="Z117" s="9"/>
       <c r="AA117" s="9"/>
       <c r="AB117" s="9"/>
@@ -12530,7 +12695,7 @@
     </row>
     <row r="118" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" s="18">
         <v>8.8582718279187134</v>
@@ -12598,8 +12763,10 @@
       <c r="W118" s="18">
         <v>6.9195287937402981</v>
       </c>
-      <c r="X118" s="18"/>
-      <c r="Y118" s="9"/>
+      <c r="X118" s="18">
+        <v>55.094439106060236</v>
+      </c>
+      <c r="Y118" s="18"/>
       <c r="Z118" s="9"/>
       <c r="AA118" s="9"/>
       <c r="AB118" s="9"/>
@@ -12669,7 +12836,7 @@
     </row>
     <row r="119" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B119" s="18">
         <v>22.577535562730432</v>
@@ -12737,8 +12904,10 @@
       <c r="W119" s="18">
         <v>7.1588147476236941</v>
       </c>
-      <c r="X119" s="18"/>
-      <c r="Y119" s="9"/>
+      <c r="X119" s="18">
+        <v>-54.874917353445717</v>
+      </c>
+      <c r="Y119" s="18"/>
       <c r="Z119" s="9"/>
       <c r="AA119" s="9"/>
       <c r="AB119" s="9"/>
@@ -12808,7 +12977,7 @@
     </row>
     <row r="120" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B120" s="18">
         <v>9.8484684068038035</v>
@@ -12876,8 +13045,10 @@
       <c r="W120" s="18">
         <v>21.641012328740942</v>
       </c>
-      <c r="X120" s="18"/>
-      <c r="Y120" s="9"/>
+      <c r="X120" s="18">
+        <v>-17.488404536835873</v>
+      </c>
+      <c r="Y120" s="18"/>
       <c r="Z120" s="9"/>
       <c r="AA120" s="9"/>
       <c r="AB120" s="9"/>
@@ -12947,7 +13118,7 @@
     </row>
     <row r="121" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B121" s="18">
         <v>17.269545819848588</v>
@@ -13015,8 +13186,10 @@
       <c r="W121" s="18">
         <v>5.2457471401419582</v>
       </c>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="9"/>
+      <c r="X121" s="18">
+        <v>12.519748637426005</v>
+      </c>
+      <c r="Y121" s="18"/>
       <c r="Z121" s="9"/>
       <c r="AA121" s="9"/>
       <c r="AB121" s="9"/>
@@ -13086,7 +13259,7 @@
     </row>
     <row r="122" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B122" s="18">
         <v>2.86447180196663</v>
@@ -13154,8 +13327,10 @@
       <c r="W122" s="18">
         <v>57.768023147684488</v>
       </c>
-      <c r="X122" s="18"/>
-      <c r="Y122" s="9"/>
+      <c r="X122" s="18">
+        <v>-42.180110296570938</v>
+      </c>
+      <c r="Y122" s="18"/>
       <c r="Z122" s="9"/>
       <c r="AA122" s="9"/>
       <c r="AB122" s="9"/>
@@ -13225,7 +13400,7 @@
     </row>
     <row r="123" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B123" s="18">
         <v>82.180270713844891</v>
@@ -13293,8 +13468,10 @@
       <c r="W123" s="18">
         <v>7.6838501458844206</v>
       </c>
-      <c r="X123" s="18"/>
-      <c r="Y123" s="9"/>
+      <c r="X123" s="18">
+        <v>1.0676073230214627</v>
+      </c>
+      <c r="Y123" s="18"/>
       <c r="Z123" s="9"/>
       <c r="AA123" s="9"/>
       <c r="AB123" s="9"/>
@@ -13364,7 +13541,7 @@
     </row>
     <row r="124" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B124" s="18">
         <v>-0.29248079151535933</v>
@@ -13432,8 +13609,10 @@
       <c r="W124" s="18">
         <v>-4.0897160171450082</v>
       </c>
-      <c r="X124" s="18"/>
-      <c r="Y124" s="9"/>
+      <c r="X124" s="18">
+        <v>-29.547211616796304</v>
+      </c>
+      <c r="Y124" s="18"/>
       <c r="Z124" s="9"/>
       <c r="AA124" s="9"/>
       <c r="AB124" s="9"/>
@@ -13503,7 +13682,7 @@
     </row>
     <row r="125" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B125" s="18">
         <v>6.6721484161446085</v>
@@ -13571,8 +13750,10 @@
       <c r="W125" s="18">
         <v>43.762635302816193</v>
       </c>
-      <c r="X125" s="18"/>
-      <c r="Y125" s="9"/>
+      <c r="X125" s="18">
+        <v>-11.601708481477374</v>
+      </c>
+      <c r="Y125" s="18"/>
       <c r="Z125" s="9"/>
       <c r="AA125" s="9"/>
       <c r="AB125" s="9"/>
@@ -13642,7 +13823,7 @@
     </row>
     <row r="126" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B126" s="18">
         <v>19.793754180018936</v>
@@ -13710,8 +13891,10 @@
       <c r="W126" s="18">
         <v>7.0227829314768826</v>
       </c>
-      <c r="X126" s="18"/>
-      <c r="Y126" s="9"/>
+      <c r="X126" s="18">
+        <v>-1.6564701870390479</v>
+      </c>
+      <c r="Y126" s="18"/>
       <c r="Z126" s="9"/>
       <c r="AA126" s="9"/>
       <c r="AB126" s="9"/>
@@ -13781,7 +13964,7 @@
     </row>
     <row r="127" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B127" s="18">
         <v>-49.337763211062736</v>
@@ -13814,7 +13997,7 @@
         <v>-58.240794856808876</v>
       </c>
       <c r="L127" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M127" s="18">
         <v>-83.446782369104199</v>
@@ -13849,8 +14032,10 @@
       <c r="W127" s="18">
         <v>-99.99154219228177</v>
       </c>
-      <c r="X127" s="18"/>
-      <c r="Y127" s="9"/>
+      <c r="X127" s="18">
+        <v>-57.336213326703131</v>
+      </c>
+      <c r="Y127" s="18"/>
       <c r="Z127" s="9"/>
       <c r="AA127" s="9"/>
       <c r="AB127" s="9"/>
@@ -13920,7 +14105,7 @@
     </row>
     <row r="128" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" s="18">
         <v>15.019684576886874</v>
@@ -13988,8 +14173,10 @@
       <c r="W128" s="18">
         <v>17.711208095932449</v>
       </c>
-      <c r="X128" s="18"/>
-      <c r="Y128" s="9"/>
+      <c r="X128" s="18">
+        <v>-11.541994705335171</v>
+      </c>
+      <c r="Y128" s="18"/>
       <c r="Z128" s="9"/>
       <c r="AA128" s="9"/>
       <c r="AB128" s="9"/>
@@ -14059,7 +14246,7 @@
     </row>
     <row r="129" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B129" s="18">
         <v>4.6654596556599586</v>
@@ -14127,8 +14314,10 @@
       <c r="W129" s="18">
         <v>8.9589582587141621</v>
       </c>
-      <c r="X129" s="18"/>
-      <c r="Y129" s="9"/>
+      <c r="X129" s="18">
+        <v>0.33164175636129301</v>
+      </c>
+      <c r="Y129" s="18"/>
       <c r="Z129" s="9"/>
       <c r="AA129" s="9"/>
       <c r="AB129" s="9"/>
@@ -14198,7 +14387,7 @@
     </row>
     <row r="130" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B130" s="18">
         <v>1.3006951319910911</v>
@@ -14266,8 +14455,10 @@
       <c r="W130" s="18">
         <v>12.266889482357698</v>
       </c>
-      <c r="X130" s="18"/>
-      <c r="Y130" s="9"/>
+      <c r="X130" s="18">
+        <v>-2.4695237387191042</v>
+      </c>
+      <c r="Y130" s="18"/>
       <c r="Z130" s="9"/>
       <c r="AA130" s="9"/>
       <c r="AB130" s="9"/>
@@ -14405,8 +14596,10 @@
       <c r="W131" s="18">
         <v>6.2838967989523411</v>
       </c>
-      <c r="X131" s="18"/>
-      <c r="Y131" s="9"/>
+      <c r="X131" s="18">
+        <v>2.7244080490540767</v>
+      </c>
+      <c r="Y131" s="18"/>
       <c r="Z131" s="9"/>
       <c r="AA131" s="9"/>
       <c r="AB131" s="9"/>
@@ -14544,8 +14737,10 @@
       <c r="W132" s="18">
         <v>23.971445333634506</v>
       </c>
-      <c r="X132" s="18"/>
-      <c r="Y132" s="9"/>
+      <c r="X132" s="18">
+        <v>-15.374372749265902</v>
+      </c>
+      <c r="Y132" s="18"/>
       <c r="Z132" s="9"/>
       <c r="AA132" s="9"/>
       <c r="AB132" s="9"/>
@@ -14683,8 +14878,10 @@
       <c r="W133" s="18">
         <v>1.7074464078320659</v>
       </c>
-      <c r="X133" s="18"/>
-      <c r="Y133" s="9"/>
+      <c r="X133" s="18">
+        <v>6.3796188895949228</v>
+      </c>
+      <c r="Y133" s="18"/>
       <c r="Z133" s="9"/>
       <c r="AA133" s="9"/>
       <c r="AB133" s="9"/>
@@ -14822,8 +15019,10 @@
       <c r="W134" s="18">
         <v>12.762494350399379</v>
       </c>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="9"/>
+      <c r="X134" s="18">
+        <v>13.997807555264501</v>
+      </c>
+      <c r="Y134" s="18"/>
       <c r="Z134" s="9"/>
       <c r="AA134" s="9"/>
       <c r="AB134" s="9"/>
@@ -14961,8 +15160,10 @@
       <c r="W135" s="18">
         <v>-2.6603006053145037</v>
       </c>
-      <c r="X135" s="18"/>
-      <c r="Y135" s="9"/>
+      <c r="X135" s="18">
+        <v>-4.7082826798167901</v>
+      </c>
+      <c r="Y135" s="18"/>
       <c r="Z135" s="9"/>
       <c r="AA135" s="9"/>
       <c r="AB135" s="9"/>
@@ -15100,8 +15301,10 @@
       <c r="W136" s="18">
         <v>27.975057737139778</v>
       </c>
-      <c r="X136" s="18"/>
-      <c r="Y136" s="9"/>
+      <c r="X136" s="18">
+        <v>-3.4552710515721401</v>
+      </c>
+      <c r="Y136" s="18"/>
       <c r="Z136" s="9"/>
       <c r="AA136" s="9"/>
       <c r="AB136" s="9"/>
@@ -15239,8 +15442,10 @@
       <c r="W137" s="18">
         <v>3.4348372459642889</v>
       </c>
-      <c r="X137" s="18"/>
-      <c r="Y137" s="9"/>
+      <c r="X137" s="18">
+        <v>11.518598545035672</v>
+      </c>
+      <c r="Y137" s="18"/>
       <c r="Z137" s="9"/>
       <c r="AA137" s="9"/>
       <c r="AB137" s="9"/>
@@ -15378,8 +15583,10 @@
       <c r="W138" s="18">
         <v>5.1440133800036278</v>
       </c>
-      <c r="X138" s="18"/>
-      <c r="Y138" s="9"/>
+      <c r="X138" s="18">
+        <v>0.15329960186053881</v>
+      </c>
+      <c r="Y138" s="18"/>
       <c r="Z138" s="9"/>
       <c r="AA138" s="9"/>
       <c r="AB138" s="9"/>
@@ -15517,8 +15724,10 @@
       <c r="W139" s="18">
         <v>-15.072538656510503</v>
       </c>
-      <c r="X139" s="18"/>
-      <c r="Y139" s="9"/>
+      <c r="X139" s="18">
+        <v>-33.221850167956759</v>
+      </c>
+      <c r="Y139" s="18"/>
       <c r="Z139" s="9"/>
       <c r="AA139" s="9"/>
       <c r="AB139" s="9"/>
@@ -15656,8 +15865,10 @@
       <c r="W140" s="18">
         <v>6.3431985875379127</v>
       </c>
-      <c r="X140" s="18"/>
-      <c r="Y140" s="9"/>
+      <c r="X140" s="18">
+        <v>-3.8647583262670651</v>
+      </c>
+      <c r="Y140" s="18"/>
       <c r="Z140" s="9"/>
       <c r="AA140" s="9"/>
       <c r="AB140" s="9"/>
@@ -15795,8 +16006,10 @@
       <c r="W141" s="18">
         <v>19.574294832127208</v>
       </c>
-      <c r="X141" s="18"/>
-      <c r="Y141" s="9"/>
+      <c r="X141" s="18">
+        <v>-3.9826189165546708</v>
+      </c>
+      <c r="Y141" s="18"/>
       <c r="Z141" s="9"/>
       <c r="AA141" s="9"/>
       <c r="AB141" s="9"/>
@@ -16026,8 +16239,10 @@
       <c r="W143" s="18">
         <v>22.313091429306468</v>
       </c>
-      <c r="X143" s="18"/>
-      <c r="Y143" s="9"/>
+      <c r="X143" s="18">
+        <v>-7.0671471915287896</v>
+      </c>
+      <c r="Y143" s="18"/>
       <c r="Z143" s="9"/>
       <c r="AA143" s="9"/>
       <c r="AB143" s="9"/>
@@ -16120,10 +16335,11 @@
       <c r="V144" s="13"/>
       <c r="W144" s="13"/>
       <c r="X144" s="13"/>
+      <c r="Y144" s="13"/>
     </row>
     <row r="145" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -16316,38 +16532,38 @@
     </row>
     <row r="148" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
@@ -16371,85 +16587,89 @@
       <c r="V156" s="16"/>
       <c r="W156" s="16"/>
       <c r="X156" s="16"/>
+      <c r="Y156" s="16"/>
     </row>
     <row r="157" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E157" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F157" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G157" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I157" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K157" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L157" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M157" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N157" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O157" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P157" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q157" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R157" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S157" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T157" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U157" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V157" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="V157" s="17" t="s">
+      <c r="W157" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="W157" s="17" t="s">
+      <c r="X157" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="X157" s="17"/>
+      <c r="Y157" s="17"/>
     </row>
     <row r="158" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
     </row>
     <row r="159" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B159" s="18">
         <v>-14.629392467894547</v>
@@ -16517,8 +16737,10 @@
       <c r="W159" s="18">
         <v>8.5334161739415606</v>
       </c>
-      <c r="X159" s="18"/>
-      <c r="Y159" s="9"/>
+      <c r="X159" s="18">
+        <v>-9.6982195636405066</v>
+      </c>
+      <c r="Y159" s="18"/>
       <c r="Z159" s="9"/>
       <c r="AA159" s="9"/>
       <c r="AB159" s="9"/>
@@ -16588,7 +16810,7 @@
     </row>
     <row r="160" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160" s="18">
         <v>-27.161019995627001</v>
@@ -16656,8 +16878,10 @@
       <c r="W160" s="18">
         <v>14.632602172831795</v>
       </c>
-      <c r="X160" s="18"/>
-      <c r="Y160" s="9"/>
+      <c r="X160" s="18">
+        <v>-6.9656355041414315</v>
+      </c>
+      <c r="Y160" s="18"/>
       <c r="Z160" s="9"/>
       <c r="AA160" s="9"/>
       <c r="AB160" s="9"/>
@@ -16727,7 +16951,7 @@
     </row>
     <row r="161" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B161" s="18">
         <v>6.2520462808238904</v>
@@ -16795,8 +17019,10 @@
       <c r="W161" s="18">
         <v>-19.565879177485812</v>
       </c>
-      <c r="X161" s="18"/>
-      <c r="Y161" s="9"/>
+      <c r="X161" s="18">
+        <v>-31.108744859573278</v>
+      </c>
+      <c r="Y161" s="18"/>
       <c r="Z161" s="9"/>
       <c r="AA161" s="9"/>
       <c r="AB161" s="9"/>
@@ -16866,7 +17092,7 @@
     </row>
     <row r="162" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B162" s="18">
         <v>126.13123417373112</v>
@@ -16934,8 +17160,10 @@
       <c r="W162" s="18">
         <v>-15.239914413796185</v>
       </c>
-      <c r="X162" s="18"/>
-      <c r="Y162" s="9"/>
+      <c r="X162" s="18">
+        <v>-33.020132434386539</v>
+      </c>
+      <c r="Y162" s="18"/>
       <c r="Z162" s="9"/>
       <c r="AA162" s="9"/>
       <c r="AB162" s="9"/>
@@ -17005,7 +17233,7 @@
     </row>
     <row r="163" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B163" s="18">
         <v>4.9306523058050686</v>
@@ -17073,8 +17301,10 @@
       <c r="W163" s="18">
         <v>-12.294528504689211</v>
       </c>
-      <c r="X163" s="18"/>
-      <c r="Y163" s="9"/>
+      <c r="X163" s="18">
+        <v>3.6678691558911254</v>
+      </c>
+      <c r="Y163" s="18"/>
       <c r="Z163" s="9"/>
       <c r="AA163" s="9"/>
       <c r="AB163" s="9"/>
@@ -17144,7 +17374,7 @@
     </row>
     <row r="164" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B164" s="18">
         <v>26.710359042717286</v>
@@ -17212,8 +17442,10 @@
       <c r="W164" s="18">
         <v>43.218448354747522</v>
       </c>
-      <c r="X164" s="18"/>
-      <c r="Y164" s="9"/>
+      <c r="X164" s="18">
+        <v>-12.662449001599555</v>
+      </c>
+      <c r="Y164" s="18"/>
       <c r="Z164" s="9"/>
       <c r="AA164" s="9"/>
       <c r="AB164" s="9"/>
@@ -17283,7 +17515,7 @@
     </row>
     <row r="165" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B165" s="18">
         <v>-12.042197928378343</v>
@@ -17351,8 +17583,10 @@
       <c r="W165" s="18">
         <v>-0.73703269385644887</v>
       </c>
-      <c r="X165" s="18"/>
-      <c r="Y165" s="9"/>
+      <c r="X165" s="18">
+        <v>21.98127496121829</v>
+      </c>
+      <c r="Y165" s="18"/>
       <c r="Z165" s="9"/>
       <c r="AA165" s="9"/>
       <c r="AB165" s="9"/>
@@ -17422,7 +17656,7 @@
     </row>
     <row r="166" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B166" s="18">
         <v>31.280460594771114</v>
@@ -17490,8 +17724,10 @@
       <c r="W166" s="18">
         <v>15.94729966853204</v>
       </c>
-      <c r="X166" s="18"/>
-      <c r="Y166" s="9"/>
+      <c r="X166" s="18">
+        <v>-9.0224672659877712</v>
+      </c>
+      <c r="Y166" s="18"/>
       <c r="Z166" s="9"/>
       <c r="AA166" s="9"/>
       <c r="AB166" s="9"/>
@@ -17561,7 +17797,7 @@
     </row>
     <row r="167" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B167" s="18">
         <v>-5.7086632734515348</v>
@@ -17629,8 +17865,10 @@
       <c r="W167" s="18">
         <v>-9.6082524143241699E-2</v>
       </c>
-      <c r="X167" s="18"/>
-      <c r="Y167" s="9"/>
+      <c r="X167" s="18">
+        <v>55.284494706032945</v>
+      </c>
+      <c r="Y167" s="18"/>
       <c r="Z167" s="9"/>
       <c r="AA167" s="9"/>
       <c r="AB167" s="9"/>
@@ -17700,7 +17938,7 @@
     </row>
     <row r="168" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B168" s="18">
         <v>4.9920954201642047</v>
@@ -17768,8 +18006,10 @@
       <c r="W168" s="18">
         <v>-9.7596396184846697</v>
       </c>
-      <c r="X168" s="18"/>
-      <c r="Y168" s="9"/>
+      <c r="X168" s="18">
+        <v>-54.519709120105986</v>
+      </c>
+      <c r="Y168" s="18"/>
       <c r="Z168" s="9"/>
       <c r="AA168" s="9"/>
       <c r="AB168" s="9"/>
@@ -17839,7 +18079,7 @@
     </row>
     <row r="169" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B169" s="18">
         <v>10.554362493533588</v>
@@ -17907,8 +18147,10 @@
       <c r="W169" s="18">
         <v>5.1421584831871314</v>
       </c>
-      <c r="X169" s="18"/>
-      <c r="Y169" s="9"/>
+      <c r="X169" s="18">
+        <v>-14.47142668348171</v>
+      </c>
+      <c r="Y169" s="18"/>
       <c r="Z169" s="9"/>
       <c r="AA169" s="9"/>
       <c r="AB169" s="9"/>
@@ -17978,7 +18220,7 @@
     </row>
     <row r="170" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B170" s="18">
         <v>-15.103981156033981</v>
@@ -18046,8 +18288,10 @@
       <c r="W170" s="18">
         <v>-3.6874332084159533</v>
       </c>
-      <c r="X170" s="18"/>
-      <c r="Y170" s="9"/>
+      <c r="X170" s="18">
+        <v>4.6876550167228288</v>
+      </c>
+      <c r="Y170" s="18"/>
       <c r="Z170" s="9"/>
       <c r="AA170" s="9"/>
       <c r="AB170" s="9"/>
@@ -18117,7 +18361,7 @@
     </row>
     <row r="171" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B171" s="18">
         <v>26.215489476886475</v>
@@ -18185,8 +18429,10 @@
       <c r="W171" s="18">
         <v>35.760886302431345</v>
       </c>
-      <c r="X171" s="18"/>
-      <c r="Y171" s="9"/>
+      <c r="X171" s="18">
+        <v>-26.156072838934023</v>
+      </c>
+      <c r="Y171" s="18"/>
       <c r="Z171" s="9"/>
       <c r="AA171" s="9"/>
       <c r="AB171" s="9"/>
@@ -18256,7 +18502,7 @@
     </row>
     <row r="172" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B172" s="18">
         <v>138.09411444147517</v>
@@ -18324,8 +18570,10 @@
       <c r="W172" s="18">
         <v>-10.573784665968574</v>
       </c>
-      <c r="X172" s="18"/>
-      <c r="Y172" s="9"/>
+      <c r="X172" s="18">
+        <v>42.409575228128432</v>
+      </c>
+      <c r="Y172" s="18"/>
       <c r="Z172" s="9"/>
       <c r="AA172" s="9"/>
       <c r="AB172" s="9"/>
@@ -18395,7 +18643,7 @@
     </row>
     <row r="173" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B173" s="18">
         <v>22.809991783421225</v>
@@ -18463,8 +18711,10 @@
       <c r="W173" s="18">
         <v>-18.621991826209211</v>
       </c>
-      <c r="X173" s="18"/>
-      <c r="Y173" s="9"/>
+      <c r="X173" s="18">
+        <v>-17.771257878458997</v>
+      </c>
+      <c r="Y173" s="18"/>
       <c r="Z173" s="9"/>
       <c r="AA173" s="9"/>
       <c r="AB173" s="9"/>
@@ -18534,7 +18784,7 @@
     </row>
     <row r="174" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B174" s="18">
         <v>-1.5270762354474954</v>
@@ -18602,8 +18852,10 @@
       <c r="W174" s="18">
         <v>23.55452329752093</v>
       </c>
-      <c r="X174" s="18"/>
-      <c r="Y174" s="9"/>
+      <c r="X174" s="18">
+        <v>-17.759406053467615</v>
+      </c>
+      <c r="Y174" s="18"/>
       <c r="Z174" s="9"/>
       <c r="AA174" s="9"/>
       <c r="AB174" s="9"/>
@@ -18673,7 +18925,7 @@
     </row>
     <row r="175" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B175" s="18">
         <v>8.0527346285824706</v>
@@ -18741,8 +18993,10 @@
       <c r="W175" s="18">
         <v>-1.9230740472202257</v>
       </c>
-      <c r="X175" s="18"/>
-      <c r="Y175" s="9"/>
+      <c r="X175" s="18">
+        <v>-12.142105432213157</v>
+      </c>
+      <c r="Y175" s="18"/>
       <c r="Z175" s="9"/>
       <c r="AA175" s="9"/>
       <c r="AB175" s="9"/>
@@ -18812,7 +19066,7 @@
     </row>
     <row r="176" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B176" s="18">
         <v>-58.420509136622805</v>
@@ -18845,7 +19099,7 @@
         <v>-64.39688715953308</v>
       </c>
       <c r="L176" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M176" s="18">
         <v>-79.251351130314049</v>
@@ -18880,8 +19134,10 @@
       <c r="W176" s="18">
         <v>-99.993402132595023</v>
       </c>
-      <c r="X176" s="18"/>
-      <c r="Y176" s="9"/>
+      <c r="X176" s="18">
+        <v>-64.307033050092173</v>
+      </c>
+      <c r="Y176" s="18"/>
       <c r="Z176" s="9"/>
       <c r="AA176" s="9"/>
       <c r="AB176" s="9"/>
@@ -18951,7 +19207,7 @@
     </row>
     <row r="177" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B177" s="18">
         <v>0.15005295094229609</v>
@@ -19019,8 +19275,10 @@
       <c r="W177" s="18">
         <v>-2.3780971271663986</v>
       </c>
-      <c r="X177" s="18"/>
-      <c r="Y177" s="9"/>
+      <c r="X177" s="18">
+        <v>-15.705623033263535</v>
+      </c>
+      <c r="Y177" s="18"/>
       <c r="Z177" s="9"/>
       <c r="AA177" s="9"/>
       <c r="AB177" s="9"/>
@@ -19090,7 +19348,7 @@
     </row>
     <row r="178" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B178" s="18">
         <v>-6.7566940218431313</v>
@@ -19158,8 +19416,10 @@
       <c r="W178" s="18">
         <v>-6.9220641011165327</v>
       </c>
-      <c r="X178" s="18"/>
-      <c r="Y178" s="9"/>
+      <c r="X178" s="18">
+        <v>-6.4068994067232694</v>
+      </c>
+      <c r="Y178" s="18"/>
       <c r="Z178" s="9"/>
       <c r="AA178" s="9"/>
       <c r="AB178" s="9"/>
@@ -19229,7 +19489,7 @@
     </row>
     <row r="179" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B179" s="18">
         <v>-7.7673247550125666</v>
@@ -19297,8 +19557,10 @@
       <c r="W179" s="18">
         <v>2.4902867879496426</v>
       </c>
-      <c r="X179" s="18"/>
-      <c r="Y179" s="9"/>
+      <c r="X179" s="18">
+        <v>-12.528336999137011</v>
+      </c>
+      <c r="Y179" s="18"/>
       <c r="Z179" s="9"/>
       <c r="AA179" s="9"/>
       <c r="AB179" s="9"/>
@@ -19436,8 +19698,10 @@
       <c r="W180" s="18">
         <v>-13.899065130336524</v>
       </c>
-      <c r="X180" s="18"/>
-      <c r="Y180" s="9"/>
+      <c r="X180" s="18">
+        <v>-1.0055913732998079</v>
+      </c>
+      <c r="Y180" s="18"/>
       <c r="Z180" s="9"/>
       <c r="AA180" s="9"/>
       <c r="AB180" s="9"/>
@@ -19575,8 +19839,10 @@
       <c r="W181" s="18">
         <v>9.8024908057825684</v>
       </c>
-      <c r="X181" s="18"/>
-      <c r="Y181" s="9"/>
+      <c r="X181" s="18">
+        <v>-17.188204563363854</v>
+      </c>
+      <c r="Y181" s="18"/>
       <c r="Z181" s="9"/>
       <c r="AA181" s="9"/>
       <c r="AB181" s="9"/>
@@ -19714,8 +19980,10 @@
       <c r="W182" s="18">
         <v>-2.3156522349431441</v>
       </c>
-      <c r="X182" s="18"/>
-      <c r="Y182" s="9"/>
+      <c r="X182" s="18">
+        <v>0.58930474287244294</v>
+      </c>
+      <c r="Y182" s="18"/>
       <c r="Z182" s="9"/>
       <c r="AA182" s="9"/>
       <c r="AB182" s="9"/>
@@ -19853,8 +20121,10 @@
       <c r="W183" s="18">
         <v>15.089817540962486</v>
       </c>
-      <c r="X183" s="18"/>
-      <c r="Y183" s="9"/>
+      <c r="X183" s="18">
+        <v>12.027022457375452</v>
+      </c>
+      <c r="Y183" s="18"/>
       <c r="Z183" s="9"/>
       <c r="AA183" s="9"/>
       <c r="AB183" s="9"/>
@@ -19992,8 +20262,10 @@
       <c r="W184" s="18">
         <v>-4.4691926490325926</v>
       </c>
-      <c r="X184" s="18"/>
-      <c r="Y184" s="9"/>
+      <c r="X184" s="18">
+        <v>0.71336367774239307</v>
+      </c>
+      <c r="Y184" s="18"/>
       <c r="Z184" s="9"/>
       <c r="AA184" s="9"/>
       <c r="AB184" s="9"/>
@@ -20131,8 +20403,10 @@
       <c r="W185" s="18">
         <v>-26.091307422154841</v>
       </c>
-      <c r="X185" s="18"/>
-      <c r="Y185" s="9"/>
+      <c r="X185" s="18">
+        <v>10.768055742573708</v>
+      </c>
+      <c r="Y185" s="18"/>
       <c r="Z185" s="9"/>
       <c r="AA185" s="9"/>
       <c r="AB185" s="9"/>
@@ -20270,8 +20544,10 @@
       <c r="W186" s="18">
         <v>-11.869390758833745</v>
       </c>
-      <c r="X186" s="18"/>
-      <c r="Y186" s="9"/>
+      <c r="X186" s="18">
+        <v>-0.17278353836809401</v>
+      </c>
+      <c r="Y186" s="18"/>
       <c r="Z186" s="9"/>
       <c r="AA186" s="9"/>
       <c r="AB186" s="9"/>
@@ -20409,8 +20685,10 @@
       <c r="W187" s="18">
         <v>-22.664205114908668</v>
       </c>
-      <c r="X187" s="18"/>
-      <c r="Y187" s="9"/>
+      <c r="X187" s="18">
+        <v>15.397422220518891</v>
+      </c>
+      <c r="Y187" s="18"/>
       <c r="Z187" s="9"/>
       <c r="AA187" s="9"/>
       <c r="AB187" s="9"/>
@@ -20548,8 +20826,10 @@
       <c r="W188" s="18">
         <v>-27.808288607119522</v>
       </c>
-      <c r="X188" s="18"/>
-      <c r="Y188" s="9"/>
+      <c r="X188" s="18">
+        <v>-35.403610792140242</v>
+      </c>
+      <c r="Y188" s="18"/>
       <c r="Z188" s="9"/>
       <c r="AA188" s="9"/>
       <c r="AB188" s="9"/>
@@ -20687,8 +20967,10 @@
       <c r="W189" s="18">
         <v>-11.357815256608248</v>
       </c>
-      <c r="X189" s="18"/>
-      <c r="Y189" s="9"/>
+      <c r="X189" s="18">
+        <v>-8.3316617214020425</v>
+      </c>
+      <c r="Y189" s="18"/>
       <c r="Z189" s="9"/>
       <c r="AA189" s="9"/>
       <c r="AB189" s="9"/>
@@ -20826,8 +21108,10 @@
       <c r="W190" s="18">
         <v>2.5207400118722632</v>
       </c>
-      <c r="X190" s="18"/>
-      <c r="Y190" s="9"/>
+      <c r="X190" s="18">
+        <v>-2.6548534522906095</v>
+      </c>
+      <c r="Y190" s="18"/>
       <c r="Z190" s="9"/>
       <c r="AA190" s="9"/>
       <c r="AB190" s="9"/>
@@ -21057,8 +21341,10 @@
       <c r="W192" s="18">
         <v>4.9613325313513599</v>
       </c>
-      <c r="X192" s="18"/>
-      <c r="Y192" s="9"/>
+      <c r="X192" s="18">
+        <v>-7.2986838941127274</v>
+      </c>
+      <c r="Y192" s="18"/>
       <c r="Z192" s="9"/>
       <c r="AA192" s="9"/>
       <c r="AB192" s="9"/>
@@ -21151,10 +21437,11 @@
       <c r="V193" s="13"/>
       <c r="W193" s="13"/>
       <c r="X193" s="13"/>
+      <c r="Y193" s="13"/>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A194" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -21348,33 +21635,33 @@
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="198" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="204" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
@@ -21398,10 +21685,11 @@
       <c r="V204" s="16"/>
       <c r="W204" s="16"/>
       <c r="X204" s="16"/>
+      <c r="Y204" s="16"/>
     </row>
     <row r="205" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B205" s="17">
         <v>2000</v>
@@ -21471,6 +21759,9 @@
       </c>
       <c r="X205" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y205" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="206" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21478,7 +21769,7 @@
     </row>
     <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B207" s="18">
         <v>149.50952975849464</v>
@@ -21549,7 +21840,9 @@
       <c r="X207" s="18">
         <v>104.29635486259153</v>
       </c>
-      <c r="Y207" s="9"/>
+      <c r="Y207" s="18">
+        <v>104.96328959291155</v>
+      </c>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
       <c r="AB207" s="9"/>
@@ -21624,7 +21917,7 @@
     </row>
     <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B208" s="18">
         <v>163.78749677490472</v>
@@ -21695,7 +21988,9 @@
       <c r="X208" s="18">
         <v>104.07233485018142</v>
       </c>
-      <c r="Y208" s="9"/>
+      <c r="Y208" s="18">
+        <v>104.1353891297606</v>
+      </c>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
       <c r="AB208" s="9"/>
@@ -21770,7 +22065,7 @@
     </row>
     <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B209" s="18">
         <v>122.47382742640602</v>
@@ -21841,7 +22136,9 @@
       <c r="X209" s="18">
         <v>99.783927002779123</v>
       </c>
-      <c r="Y209" s="9"/>
+      <c r="Y209" s="18">
+        <v>102.65832586721073</v>
+      </c>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
       <c r="AB209" s="9"/>
@@ -21916,7 +22213,7 @@
     </row>
     <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B210" s="18">
         <v>91.024072339385469</v>
@@ -21987,7 +22284,9 @@
       <c r="X210" s="18">
         <v>108.36611089063879</v>
       </c>
-      <c r="Y210" s="9"/>
+      <c r="Y210" s="18">
+        <v>100.70213385548523</v>
+      </c>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
       <c r="AB210" s="9"/>
@@ -22062,7 +22361,7 @@
     </row>
     <row r="211" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B211" s="18">
         <v>170.32842959780541</v>
@@ -22133,7 +22432,9 @@
       <c r="X211" s="18">
         <v>112.65400675822077</v>
       </c>
-      <c r="Y211" s="9"/>
+      <c r="Y211" s="18">
+        <v>113.95452133150663</v>
+      </c>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
       <c r="AB211" s="9"/>
@@ -22208,7 +22509,7 @@
     </row>
     <row r="212" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B212" s="18">
         <v>134.65692908932405</v>
@@ -22279,7 +22580,9 @@
       <c r="X212" s="18">
         <v>106.56265541537326</v>
       </c>
-      <c r="Y212" s="9"/>
+      <c r="Y212" s="18">
+        <v>108.21410667442069</v>
+      </c>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
       <c r="AB212" s="9"/>
@@ -22354,7 +22657,7 @@
     </row>
     <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B213" s="18">
         <v>145.9599692464449</v>
@@ -22425,7 +22728,9 @@
       <c r="X213" s="18">
         <v>112.85218317178351</v>
       </c>
-      <c r="Y213" s="9"/>
+      <c r="Y213" s="18">
+        <v>112.6266093805429</v>
+      </c>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
       <c r="AB213" s="9"/>
@@ -22500,7 +22805,7 @@
     </row>
     <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B214" s="18">
         <v>119.38847821669758</v>
@@ -22571,7 +22876,9 @@
       <c r="X214" s="18">
         <v>104.7263115055392</v>
       </c>
-      <c r="Y214" s="9"/>
+      <c r="Y214" s="18">
+        <v>109.91696045850996</v>
+      </c>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
       <c r="AB214" s="9"/>
@@ -22646,7 +22953,7 @@
     </row>
     <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B215" s="18">
         <v>106.91848748936732</v>
@@ -22717,7 +23024,9 @@
       <c r="X215" s="18">
         <v>123.17736346606642</v>
       </c>
-      <c r="Y215" s="9"/>
+      <c r="Y215" s="18">
+        <v>123.0266043850589</v>
+      </c>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
       <c r="AB215" s="9"/>
@@ -22792,7 +23101,7 @@
     </row>
     <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B216" s="18">
         <v>93.698395672772776</v>
@@ -22863,7 +23172,9 @@
       <c r="X216" s="18">
         <v>115.66967150220229</v>
       </c>
-      <c r="Y216" s="9"/>
+      <c r="Y216" s="18">
+        <v>114.76627315381029</v>
+      </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
       <c r="AB216" s="9"/>
@@ -22938,7 +23249,7 @@
     </row>
     <row r="217" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B217" s="18">
         <v>43.832189962681781</v>
@@ -23009,7 +23320,9 @@
       <c r="X217" s="18">
         <v>133.75091009915278</v>
       </c>
-      <c r="Y217" s="9"/>
+      <c r="Y217" s="18">
+        <v>129.0329133176354</v>
+      </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
       <c r="AB217" s="9"/>
@@ -23084,7 +23397,7 @@
     </row>
     <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B218" s="18">
         <v>51.25885844608429</v>
@@ -23155,7 +23468,9 @@
       <c r="X218" s="18">
         <v>136.97547235088982</v>
       </c>
-      <c r="Y218" s="9"/>
+      <c r="Y218" s="18">
+        <v>147.22314408468532</v>
+      </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
       <c r="AB218" s="9"/>
@@ -23230,7 +23545,7 @@
     </row>
     <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B219" s="18">
         <v>41.075811135034861</v>
@@ -23301,7 +23616,9 @@
       <c r="X219" s="18">
         <v>142.3612854295088</v>
       </c>
-      <c r="Y219" s="9"/>
+      <c r="Y219" s="18">
+        <v>111.46906913033901</v>
+      </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
       <c r="AB219" s="9"/>
@@ -23376,7 +23693,7 @@
     </row>
     <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B220" s="18">
         <v>48.349339955583666</v>
@@ -23447,7 +23764,9 @@
       <c r="X220" s="18">
         <v>158.37203518264258</v>
       </c>
-      <c r="Y220" s="9"/>
+      <c r="Y220" s="18">
+        <v>112.39611267111999</v>
+      </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
       <c r="AB220" s="9"/>
@@ -23522,7 +23841,7 @@
     </row>
     <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B221" s="18">
         <v>50.994553047263466</v>
@@ -23593,7 +23912,9 @@
       <c r="X221" s="18">
         <v>109.8348926416308</v>
       </c>
-      <c r="Y221" s="9"/>
+      <c r="Y221" s="18">
+        <v>94.105470285986371</v>
+      </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
       <c r="AB221" s="9"/>
@@ -23668,7 +23989,7 @@
     </row>
     <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B222" s="18">
         <v>40.82043441103734</v>
@@ -23739,7 +24060,9 @@
       <c r="X222" s="18">
         <v>117.77666749785567</v>
       </c>
-      <c r="Y222" s="9"/>
+      <c r="Y222" s="18">
+        <v>126.59509966968739</v>
+      </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
       <c r="AB222" s="9"/>
@@ -23814,7 +24137,7 @@
     </row>
     <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B223" s="18">
         <v>31.980895159438656</v>
@@ -23885,7 +24208,9 @@
       <c r="X223" s="18">
         <v>128.74472530395704</v>
       </c>
-      <c r="Y223" s="9"/>
+      <c r="Y223" s="18">
+        <v>144.1101086416588</v>
+      </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
       <c r="AB223" s="9"/>
@@ -23960,7 +24285,7 @@
     </row>
     <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B224" s="18">
         <v>94.307970764212754</v>
@@ -24031,7 +24356,9 @@
       <c r="X224" s="18">
         <v>148.89012002218169</v>
       </c>
-      <c r="Y224" s="9"/>
+      <c r="Y224" s="18">
+        <v>177.96829070843967</v>
+      </c>
       <c r="Z224" s="9"/>
       <c r="AA224" s="9"/>
       <c r="AB224" s="9"/>
@@ -24106,7 +24433,7 @@
     </row>
     <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B225" s="18">
         <v>46.162242967763326</v>
@@ -24177,7 +24504,9 @@
       <c r="X225" s="18">
         <v>129.58872489419565</v>
       </c>
-      <c r="Y225" s="9"/>
+      <c r="Y225" s="18">
+        <v>135.98961787620922</v>
+      </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
       <c r="AB225" s="9"/>
@@ -24252,7 +24581,7 @@
     </row>
     <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B226" s="18">
         <v>70.24253137250011</v>
@@ -24323,7 +24652,9 @@
       <c r="X226" s="18">
         <v>136.13610531846672</v>
       </c>
-      <c r="Y226" s="9"/>
+      <c r="Y226" s="18">
+        <v>145.93766914801677</v>
+      </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
       <c r="AB226" s="9"/>
@@ -24398,7 +24729,7 @@
     </row>
     <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B227" s="18">
         <v>72.423272485595675</v>
@@ -24469,7 +24800,9 @@
       <c r="X227" s="18">
         <v>133.79330786542786</v>
       </c>
-      <c r="Y227" s="9"/>
+      <c r="Y227" s="18">
+        <v>149.17888364096405</v>
+      </c>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
       <c r="AB227" s="9"/>
@@ -24615,7 +24948,9 @@
       <c r="X228" s="18">
         <v>138.20329468579195</v>
       </c>
-      <c r="Y228" s="9"/>
+      <c r="Y228" s="18">
+        <v>143.41064140866911</v>
+      </c>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
       <c r="AB228" s="9"/>
@@ -24761,7 +25096,9 @@
       <c r="X229" s="18">
         <v>99.01666719997597</v>
       </c>
-      <c r="Y229" s="9"/>
+      <c r="Y229" s="18">
+        <v>101.1854353101987</v>
+      </c>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
       <c r="AB229" s="9"/>
@@ -24907,7 +25244,9 @@
       <c r="X230" s="18">
         <v>141.8692809349657</v>
       </c>
-      <c r="Y230" s="9"/>
+      <c r="Y230" s="18">
+        <v>150.0358321054199</v>
+      </c>
       <c r="Z230" s="9"/>
       <c r="AA230" s="9"/>
       <c r="AB230" s="9"/>
@@ -25053,7 +25392,9 @@
       <c r="X231" s="18">
         <v>103.83395185791993</v>
       </c>
-      <c r="Y231" s="9"/>
+      <c r="Y231" s="18">
+        <v>105.66060403957884</v>
+      </c>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
       <c r="AB231" s="9"/>
@@ -25199,7 +25540,9 @@
       <c r="X232" s="18">
         <v>114.61612847381681</v>
       </c>
-      <c r="Y232" s="9"/>
+      <c r="Y232" s="18">
+        <v>108.44606233000343</v>
+      </c>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
       <c r="AB232" s="9"/>
@@ -25345,7 +25688,9 @@
       <c r="X233" s="18">
         <v>124.35906974805089</v>
       </c>
-      <c r="Y233" s="9"/>
+      <c r="Y233" s="18">
+        <v>108.39056983185469</v>
+      </c>
       <c r="Z233" s="9"/>
       <c r="AA233" s="9"/>
       <c r="AB233" s="9"/>
@@ -25491,7 +25836,9 @@
       <c r="X234" s="18">
         <v>96.263600153203583</v>
       </c>
-      <c r="Y234" s="9"/>
+      <c r="Y234" s="18">
+        <v>107.53762511359773</v>
+      </c>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
       <c r="AB234" s="9"/>
@@ -25637,7 +25984,9 @@
       <c r="X235" s="18">
         <v>123.29958961605931</v>
       </c>
-      <c r="Y235" s="9"/>
+      <c r="Y235" s="18">
+        <v>107.01158225185972</v>
+      </c>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
       <c r="AB235" s="9"/>
@@ -25783,7 +26132,9 @@
       <c r="X236" s="18">
         <v>96.161637645136523</v>
       </c>
-      <c r="Y236" s="9"/>
+      <c r="Y236" s="18">
+        <v>99.409523125175568</v>
+      </c>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
       <c r="AB236" s="9"/>
@@ -25929,7 +26280,9 @@
       <c r="X237" s="18">
         <v>108.7446959281457</v>
       </c>
-      <c r="Y237" s="9"/>
+      <c r="Y237" s="18">
+        <v>114.04371258499901</v>
+      </c>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
       <c r="AB237" s="9"/>
@@ -26075,7 +26428,9 @@
       <c r="X238" s="18">
         <v>99.97673127492817</v>
       </c>
-      <c r="Y238" s="9"/>
+      <c r="Y238" s="18">
+        <v>98.613071598769579</v>
+      </c>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
       <c r="AB238" s="9"/>
@@ -26318,7 +26673,9 @@
       <c r="X240" s="18">
         <v>106.85126750207463</v>
       </c>
-      <c r="Y240" s="9"/>
+      <c r="Y240" s="18">
+        <v>107.11814602315286</v>
+      </c>
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
       <c r="AB240" s="9"/>
@@ -26416,6 +26773,7 @@
       <c r="V241" s="13"/>
       <c r="W241" s="13"/>
       <c r="X241" s="13"/>
+      <c r="Y241" s="13"/>
     </row>
     <row r="242" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
@@ -26424,38 +26782,38 @@
     </row>
     <row r="245" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="246" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="253" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C253" s="16"/>
       <c r="D253" s="16"/>
@@ -26479,10 +26837,11 @@
       <c r="V253" s="16"/>
       <c r="W253" s="16"/>
       <c r="X253" s="16"/>
+      <c r="Y253" s="16"/>
     </row>
     <row r="254" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B254" s="17">
         <v>2000</v>
@@ -26552,6 +26911,9 @@
       </c>
       <c r="X254" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y254" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="255" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26559,7 +26921,7 @@
     </row>
     <row r="256" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B256" s="18">
         <v>68.366978485066383</v>
@@ -26630,7 +26992,9 @@
       <c r="X256" s="18">
         <v>63.023619195651825</v>
       </c>
-      <c r="Y256" s="9"/>
+      <c r="Y256" s="18">
+        <v>61.630925065930612</v>
+      </c>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
       <c r="AB256" s="9"/>
@@ -26705,7 +27069,7 @@
     </row>
     <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B257" s="18">
         <v>47.927490515237068</v>
@@ -26776,7 +27140,9 @@
       <c r="X257" s="18">
         <v>46.354872446131473</v>
       </c>
-      <c r="Y257" s="9"/>
+      <c r="Y257" s="18">
+        <v>46.433622130698218</v>
+      </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
       <c r="AB257" s="9"/>
@@ -26851,7 +27217,7 @@
     </row>
     <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B258" s="18">
         <v>15.451164168301448</v>
@@ -26922,7 +27288,9 @@
       <c r="X258" s="18">
         <v>5.6465557162726494</v>
       </c>
-      <c r="Y258" s="9"/>
+      <c r="Y258" s="18">
+        <v>4.3063768480403208</v>
+      </c>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
       <c r="AB258" s="9"/>
@@ -26997,7 +27365,7 @@
     </row>
     <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B259" s="18">
         <v>0.25108718841287775</v>
@@ -27068,7 +27436,9 @@
       <c r="X259" s="18">
         <v>2.1282510700445085</v>
       </c>
-      <c r="Y259" s="9"/>
+      <c r="Y259" s="18">
+        <v>1.4254207009658122</v>
+      </c>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
       <c r="AB259" s="9"/>
@@ -27143,7 +27513,7 @@
     </row>
     <row r="260" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B260" s="18">
         <v>1.4534818944978629</v>
@@ -27214,7 +27584,9 @@
       <c r="X260" s="18">
         <v>1.6839331994552147</v>
       </c>
-      <c r="Y260" s="9"/>
+      <c r="Y260" s="18">
+        <v>1.9001359749318665</v>
+      </c>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
       <c r="AB260" s="9"/>
@@ -27289,7 +27661,7 @@
     </row>
     <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B261" s="18">
         <v>0.65203629134536756</v>
@@ -27360,7 +27732,9 @@
       <c r="X261" s="18">
         <v>1.4541851542810376</v>
       </c>
-      <c r="Y261" s="9"/>
+      <c r="Y261" s="18">
+        <v>1.3878108928741815</v>
+      </c>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
       <c r="AB261" s="9"/>
@@ -27435,7 +27809,7 @@
     </row>
     <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B262" s="18">
         <v>1.4684965648742767</v>
@@ -27506,7 +27880,9 @@
       <c r="X262" s="18">
         <v>0.79602912851847596</v>
       </c>
-      <c r="Y262" s="9"/>
+      <c r="Y262" s="18">
+        <v>1.0427588966468595</v>
+      </c>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
       <c r="AB262" s="9"/>
@@ -27581,7 +27957,7 @@
     </row>
     <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B263" s="18">
         <v>4.6793772769890385E-2</v>
@@ -27652,7 +28028,9 @@
       <c r="X263" s="18">
         <v>4.651259266229995</v>
       </c>
-      <c r="Y263" s="9"/>
+      <c r="Y263" s="18">
+        <v>4.7790803950315164</v>
+      </c>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
       <c r="AB263" s="9"/>
@@ -27727,7 +28105,7 @@
     </row>
     <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B264" s="18">
         <v>4.4830871366954945E-3</v>
@@ -27798,7 +28176,9 @@
       <c r="X264" s="18">
         <v>0.17400679919056067</v>
       </c>
-      <c r="Y264" s="9"/>
+      <c r="Y264" s="18">
+        <v>0.29039770227134193</v>
+      </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
       <c r="AB264" s="9"/>
@@ -27873,7 +28253,7 @@
     </row>
     <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B265" s="18">
         <v>1.1119450024909132</v>
@@ -27944,7 +28324,9 @@
       <c r="X265" s="18">
         <v>0.13452641552792236</v>
       </c>
-      <c r="Y265" s="9"/>
+      <c r="Y265" s="18">
+        <v>6.5321524470502934E-2</v>
+      </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
       <c r="AB265" s="9"/>
@@ -28019,7 +28401,7 @@
     </row>
     <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B266" s="18">
         <v>4.1756471005257128</v>
@@ -28090,7 +28472,9 @@
       <c r="X266" s="18">
         <v>7.9941098728765718</v>
       </c>
-      <c r="Y266" s="9"/>
+      <c r="Y266" s="18">
+        <v>7.0976704145549725</v>
+      </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
       <c r="AB266" s="9"/>
@@ -28165,7 +28549,7 @@
     </row>
     <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B267" s="18">
         <v>0.86199684895364781</v>
@@ -28236,7 +28620,9 @@
       <c r="X267" s="18">
         <v>1.5673590032969402</v>
       </c>
-      <c r="Y267" s="9"/>
+      <c r="Y267" s="18">
+        <v>1.8977017894741999</v>
+      </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
       <c r="AB267" s="9"/>
@@ -28311,7 +28697,7 @@
     </row>
     <row r="268" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B268" s="18">
         <v>1.4311631858787686</v>
@@ -28382,7 +28768,9 @@
       <c r="X268" s="18">
         <v>2.8808925954315958</v>
       </c>
-      <c r="Y268" s="9"/>
+      <c r="Y268" s="18">
+        <v>1.7924005029585897</v>
+      </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
       <c r="AB268" s="9"/>
@@ -28457,7 +28845,7 @@
     </row>
     <row r="269" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B269" s="18">
         <v>7.5084010474197604E-2</v>
@@ -28528,7 +28916,9 @@
       <c r="X269" s="18">
         <v>9.312692793238847E-2</v>
       </c>
-      <c r="Y269" s="9"/>
+      <c r="Y269" s="18">
+        <v>0.10127867055655483</v>
+      </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
       <c r="AB269" s="9"/>
@@ -28603,7 +28993,7 @@
     </row>
     <row r="270" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B270" s="18">
         <v>0.22406854130560672</v>
@@ -28674,7 +29064,9 @@
       <c r="X270" s="18">
         <v>0.48730563655686993</v>
       </c>
-      <c r="Y270" s="9"/>
+      <c r="Y270" s="18">
+        <v>0.36942846208584296</v>
+      </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
       <c r="AB270" s="9"/>
@@ -28749,7 +29141,7 @@
     </row>
     <row r="271" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B271" s="18">
         <v>0.11766515664570834</v>
@@ -28820,7 +29212,9 @@
       <c r="X271" s="18">
         <v>0.16417423307424889</v>
       </c>
-      <c r="Y271" s="9"/>
+      <c r="Y271" s="18">
+        <v>0.15616352319493668</v>
+      </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
       <c r="AB271" s="9"/>
@@ -28895,7 +29289,7 @@
     </row>
     <row r="272" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B272" s="18">
         <v>0.47677050157275286</v>
@@ -28966,7 +29360,9 @@
       <c r="X272" s="18">
         <v>1.0748370732746859</v>
       </c>
-      <c r="Y272" s="9"/>
+      <c r="Y272" s="18">
+        <v>1.1374155485952053</v>
+      </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
       <c r="AB272" s="9"/>
@@ -29041,7 +29437,7 @@
     </row>
     <row r="273" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B273" s="18">
         <v>0.14049791257291458</v>
@@ -29112,7 +29508,9 @@
       <c r="X273" s="18">
         <v>6.5040807037614082E-6</v>
       </c>
-      <c r="Y273" s="9"/>
+      <c r="Y273" s="18">
+        <v>2.9859054496376009E-6</v>
+      </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
       <c r="AB273" s="9"/>
@@ -29187,7 +29585,7 @@
     </row>
     <row r="274" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B274" s="18">
         <v>0.84840094312211545</v>
@@ -29258,7 +29656,9 @@
       <c r="X274" s="18">
         <v>1.7264078992291383</v>
       </c>
-      <c r="Y274" s="9"/>
+      <c r="Y274" s="18">
+        <v>1.643278931784194</v>
+      </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
       <c r="AB274" s="9"/>
@@ -29333,7 +29733,7 @@
     </row>
     <row r="275" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B275" s="18">
         <v>1.2379710981627712</v>
@@ -29404,7 +29804,9 @@
       <c r="X275" s="18">
         <v>0.93215191531973229</v>
       </c>
-      <c r="Y275" s="9"/>
+      <c r="Y275" s="18">
+        <v>1.0063645869465903</v>
+      </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
       <c r="AB275" s="9"/>
@@ -29479,7 +29881,7 @@
     </row>
     <row r="276" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B276" s="18">
         <v>0.84253712115986479</v>
@@ -29550,7 +29952,9 @@
       <c r="X276" s="18">
         <v>0.42942837406849149</v>
       </c>
-      <c r="Y276" s="9"/>
+      <c r="Y276" s="18">
+        <v>0.45067328266920165</v>
+      </c>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
       <c r="AB276" s="9"/>
@@ -29696,7 +30100,9 @@
       <c r="X277" s="18">
         <v>0.50272354125124097</v>
       </c>
-      <c r="Y277" s="9"/>
+      <c r="Y277" s="18">
+        <v>0.55569130427738866</v>
+      </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
       <c r="AB277" s="9"/>
@@ -29842,7 +30248,9 @@
       <c r="X278" s="18">
         <v>1.216349073218832</v>
       </c>
-      <c r="Y278" s="9"/>
+      <c r="Y278" s="18">
+        <v>1.107620181305893</v>
+      </c>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
       <c r="AB278" s="9"/>
@@ -29988,7 +30396,9 @@
       <c r="X279" s="18">
         <v>2.6503689497484344</v>
       </c>
-      <c r="Y279" s="9"/>
+      <c r="Y279" s="18">
+        <v>3.0338597199004096</v>
+      </c>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
       <c r="AB279" s="9"/>
@@ -30134,7 +30544,9 @@
       <c r="X280" s="18">
         <v>3.3325572594046173</v>
       </c>
-      <c r="Y280" s="9"/>
+      <c r="Y280" s="18">
+        <v>4.0879431723404203</v>
+      </c>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
       <c r="AB280" s="9"/>
@@ -30280,7 +30692,9 @@
       <c r="X281" s="18">
         <v>2.1200611127049651</v>
       </c>
-      <c r="Y281" s="9"/>
+      <c r="Y281" s="18">
+        <v>2.1738734812085667</v>
+      </c>
       <c r="Z281" s="9"/>
       <c r="AA281" s="9"/>
       <c r="AB281" s="9"/>
@@ -30426,7 +30840,9 @@
       <c r="X282" s="18">
         <v>8.9831201462478322E-3</v>
       </c>
-      <c r="Y282" s="9"/>
+      <c r="Y282" s="18">
+        <v>9.3322530560646152E-3</v>
+      </c>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
       <c r="AB282" s="9"/>
@@ -30572,7 +30988,9 @@
       <c r="X283" s="18">
         <v>3.1106410029756963</v>
       </c>
-      <c r="Y283" s="9"/>
+      <c r="Y283" s="18">
+        <v>3.7327415950901806</v>
+      </c>
       <c r="Z283" s="9"/>
       <c r="AA283" s="9"/>
       <c r="AB283" s="9"/>
@@ -30718,7 +31136,9 @@
       <c r="X284" s="18">
         <v>2.2504715123570467</v>
       </c>
-      <c r="Y284" s="9"/>
+      <c r="Y284" s="18">
+        <v>2.425322593798628</v>
+      </c>
       <c r="Z284" s="9"/>
       <c r="AA284" s="9"/>
       <c r="AB284" s="9"/>
@@ -30864,7 +31284,9 @@
       <c r="X285" s="18">
         <v>0.35388531733947265</v>
       </c>
-      <c r="Y285" s="9"/>
+      <c r="Y285" s="18">
+        <v>0.25428904881849634</v>
+      </c>
       <c r="Z285" s="9"/>
       <c r="AA285" s="9"/>
       <c r="AB285" s="9"/>
@@ -31010,7 +31432,9 @@
       <c r="X286" s="18">
         <v>1.2208397763639773</v>
       </c>
-      <c r="Y286" s="9"/>
+      <c r="Y286" s="18">
+        <v>1.2629089003384029</v>
+      </c>
       <c r="Z286" s="9"/>
       <c r="AA286" s="9"/>
       <c r="AB286" s="9"/>
@@ -31156,7 +31580,9 @@
       <c r="X287" s="18">
         <v>11.785961891892585</v>
       </c>
-      <c r="Y287" s="9"/>
+      <c r="Y287" s="18">
+        <v>12.177148986710751</v>
+      </c>
       <c r="Z287" s="9"/>
       <c r="AA287" s="9"/>
       <c r="AB287" s="9"/>
@@ -31399,7 +31825,9 @@
       <c r="X289" s="18">
         <v>100</v>
       </c>
-      <c r="Y289" s="9"/>
+      <c r="Y289" s="18">
+        <v>100</v>
+      </c>
       <c r="Z289" s="9"/>
       <c r="AA289" s="9"/>
       <c r="AB289" s="9"/>
@@ -31497,6 +31925,7 @@
       <c r="V290" s="13"/>
       <c r="W290" s="13"/>
       <c r="X290" s="13"/>
+      <c r="Y290" s="13"/>
     </row>
     <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
@@ -31699,38 +32128,38 @@
     </row>
     <row r="294" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="295" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="296" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="298" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="299" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="300" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="302" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C302" s="16"/>
       <c r="D302" s="16"/>
@@ -31754,10 +32183,11 @@
       <c r="V302" s="16"/>
       <c r="W302" s="16"/>
       <c r="X302" s="16"/>
+      <c r="Y302" s="16"/>
     </row>
     <row r="303" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B303" s="17">
         <v>2000</v>
@@ -31827,6 +32257,9 @@
       </c>
       <c r="X303" s="17">
         <v>2022</v>
+      </c>
+      <c r="Y303" s="17">
+        <v>2023</v>
       </c>
     </row>
     <row r="304" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31834,7 +32267,7 @@
     </row>
     <row r="305" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B305" s="18">
         <v>44.252462437356563</v>
@@ -31905,7 +32338,9 @@
       <c r="X305" s="18">
         <v>64.567487545423802</v>
       </c>
-      <c r="Y305" s="9"/>
+      <c r="Y305" s="18">
+        <v>62.896184526596478</v>
+      </c>
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
       <c r="AB305" s="9"/>
@@ -31980,7 +32415,7 @@
     </row>
     <row r="306" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B306" s="18">
         <v>28.318084649728405</v>
@@ -32051,7 +32486,9 @@
       <c r="X306" s="18">
         <v>47.592637206577557</v>
       </c>
-      <c r="Y306" s="9"/>
+      <c r="Y306" s="18">
+        <v>47.763623465047004</v>
+      </c>
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
       <c r="AB306" s="9"/>
@@ -32126,7 +32563,7 @@
     </row>
     <row r="307" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B307" s="18">
         <v>12.208936865732126</v>
@@ -32197,7 +32634,9 @@
       <c r="X307" s="18">
         <v>6.0464811661302269</v>
       </c>
-      <c r="Y307" s="9"/>
+      <c r="Y307" s="18">
+        <v>4.4934602248997431</v>
+      </c>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
       <c r="AB307" s="9"/>
@@ -32272,7 +32711,7 @@
     </row>
     <row r="308" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B308" s="18">
         <v>0.26694895386937478</v>
@@ -32343,7 +32782,9 @@
       <c r="X308" s="18">
         <v>2.0985003755131237</v>
       </c>
-      <c r="Y308" s="9"/>
+      <c r="Y308" s="18">
+        <v>1.516238206129769</v>
+      </c>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
       <c r="AB308" s="9"/>
@@ -32418,7 +32859,7 @@
     </row>
     <row r="309" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B309" s="18">
         <v>0.82581433085596856</v>
@@ -32489,7 +32930,9 @@
       <c r="X309" s="18">
         <v>1.5971948262504507</v>
       </c>
-      <c r="Y309" s="9"/>
+      <c r="Y309" s="18">
+        <v>1.7861427563236343</v>
+      </c>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
       <c r="AB309" s="9"/>
@@ -32564,7 +33007,7 @@
     </row>
     <row r="310" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B310" s="18">
         <v>0.46860076558999308</v>
@@ -32635,7 +33078,9 @@
       <c r="X310" s="18">
         <v>1.4581236392051531</v>
       </c>
-      <c r="Y310" s="9"/>
+      <c r="Y310" s="18">
+        <v>1.3737555522468536</v>
+      </c>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
       <c r="AB310" s="9"/>
@@ -32710,7 +33155,7 @@
     </row>
     <row r="311" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B311" s="18">
         <v>0.97364155873551383</v>
@@ -32781,7 +33226,9 @@
       <c r="X311" s="18">
         <v>0.75370027375808701</v>
       </c>
-      <c r="Y311" s="9"/>
+      <c r="Y311" s="18">
+        <v>0.99175852289536126</v>
+      </c>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
       <c r="AB311" s="9"/>
@@ -32856,7 +33303,7 @@
     </row>
     <row r="312" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B312" s="18">
         <v>3.793023876182728E-2</v>
@@ -32927,7 +33374,9 @@
       <c r="X312" s="18">
         <v>4.7456359431808837</v>
       </c>
-      <c r="Y312" s="9"/>
+      <c r="Y312" s="18">
+        <v>4.6573907200118452</v>
+      </c>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
       <c r="AB312" s="9"/>
@@ -33002,7 +33451,7 @@
     </row>
     <row r="313" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B313" s="18">
         <v>4.0577408302239128E-3</v>
@@ -33073,7 +33522,9 @@
       <c r="X313" s="18">
         <v>0.15094370040330049</v>
       </c>
-      <c r="Y313" s="9"/>
+      <c r="Y313" s="18">
+        <v>0.25284663940921936</v>
+      </c>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
       <c r="AB313" s="9"/>
@@ -33148,7 +33599,7 @@
     </row>
     <row r="314" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B314" s="18">
         <v>1.1484473332531311</v>
@@ -33219,7 +33670,9 @@
       <c r="X314" s="18">
         <v>0.12427041440500328</v>
       </c>
-      <c r="Y314" s="9"/>
+      <c r="Y314" s="18">
+        <v>6.096843963303325E-2</v>
+      </c>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
       <c r="AB314" s="9"/>
@@ -33294,7 +33747,7 @@
     </row>
     <row r="315" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B315" s="18">
         <v>9.2191429541077081</v>
@@ -33365,7 +33818,9 @@
       <c r="X315" s="18">
         <v>6.3863548430024553</v>
       </c>
-      <c r="Y315" s="9"/>
+      <c r="Y315" s="18">
+        <v>5.8922121212510818</v>
+      </c>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
       <c r="AB315" s="9"/>
@@ -33440,7 +33895,7 @@
     </row>
     <row r="316" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B316" s="18">
         <v>1.6274088724743414</v>
@@ -33511,7 +33966,9 @@
       <c r="X316" s="18">
         <v>1.2226590152144015</v>
       </c>
-      <c r="Y316" s="9"/>
+      <c r="Y316" s="18">
+        <v>1.3807496005951796</v>
+      </c>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
       <c r="AB316" s="9"/>
@@ -33586,7 +34043,7 @@
     </row>
     <row r="317" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B317" s="18">
         <v>3.3718087949480182</v>
@@ -33657,7 +34114,9 @@
       <c r="X317" s="18">
         <v>2.1622945060553715</v>
       </c>
-      <c r="Y317" s="9"/>
+      <c r="Y317" s="18">
+        <v>1.7224385231331745</v>
+      </c>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
       <c r="AB317" s="9"/>
@@ -33732,7 +34191,7 @@
     </row>
     <row r="318" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B318" s="18">
         <v>0.15028541784428551</v>
@@ -33803,7 +34262,9 @@
       <c r="X318" s="18">
         <v>6.2831359568464126E-2</v>
       </c>
-      <c r="Y318" s="9"/>
+      <c r="Y318" s="18">
+        <v>9.6522763678244305E-2</v>
+      </c>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
       <c r="AB318" s="9"/>
@@ -33878,7 +34339,7 @@
     </row>
     <row r="319" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B319" s="18">
         <v>0.42522327539103238</v>
@@ -33949,7 +34410,9 @@
       <c r="X319" s="18">
         <v>0.47406815516175072</v>
       </c>
-      <c r="Y319" s="9"/>
+      <c r="Y319" s="18">
+        <v>0.42051213204247717</v>
+      </c>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
       <c r="AB319" s="9"/>
@@ -34024,7 +34487,7 @@
     </row>
     <row r="320" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B320" s="18">
         <v>0.27895245400475988</v>
@@ -34095,7 +34558,9 @@
       <c r="X320" s="18">
         <v>0.14894482300990475</v>
       </c>
-      <c r="Y320" s="9"/>
+      <c r="Y320" s="18">
+        <v>0.13213739808832964</v>
+      </c>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
       <c r="AB320" s="9"/>
@@ -34170,7 +34635,7 @@
     </row>
     <row r="321" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B321" s="18">
         <v>1.4427088394171663</v>
@@ -34241,7 +34706,9 @@
       <c r="X321" s="18">
         <v>0.89205754539825444</v>
       </c>
-      <c r="Y321" s="9"/>
+      <c r="Y321" s="18">
+        <v>0.8454496771380916</v>
+      </c>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
       <c r="AB321" s="9"/>
@@ -34316,7 +34783,7 @@
     </row>
     <row r="322" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B322" s="18">
         <v>0.14417215923269486</v>
@@ -34387,7 +34854,9 @@
       <c r="X322" s="18">
         <v>4.6676654369622055E-6</v>
       </c>
-      <c r="Y322" s="9"/>
+      <c r="Y322" s="18">
+        <v>1.7972002466978838E-6</v>
+      </c>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
       <c r="AB322" s="9"/>
@@ -34462,7 +34931,7 @@
     </row>
     <row r="323" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B323" s="18">
         <v>1.7785831407954085</v>
@@ -34533,7 +35002,9 @@
       <c r="X323" s="18">
         <v>1.4234947709288694</v>
       </c>
-      <c r="Y323" s="9"/>
+      <c r="Y323" s="18">
+        <v>1.2944002293753392</v>
+      </c>
       <c r="Z323" s="9"/>
       <c r="AA323" s="9"/>
       <c r="AB323" s="9"/>
@@ -34608,7 +35079,7 @@
     </row>
     <row r="324" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B324" s="18">
         <v>1.7055728840287312</v>
@@ -34679,7 +35150,9 @@
       <c r="X324" s="18">
         <v>0.73163260711329514</v>
       </c>
-      <c r="Y324" s="9"/>
+      <c r="Y324" s="18">
+        <v>0.73867089563928201</v>
+      </c>
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
       <c r="AB324" s="9"/>
@@ -34754,7 +35227,7 @@
     </row>
     <row r="325" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="10" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B325" s="18">
         <v>1.1258248510464557</v>
@@ -34825,7 +35298,9 @@
       <c r="X325" s="18">
         <v>0.34295411932505182</v>
       </c>
-      <c r="Y325" s="9"/>
+      <c r="Y325" s="18">
+        <v>0.32360670172247452</v>
+      </c>
       <c r="Z325" s="9"/>
       <c r="AA325" s="9"/>
       <c r="AB325" s="9"/>
@@ -34971,7 +35446,9 @@
       <c r="X326" s="18">
         <v>0.38867848778824343</v>
       </c>
-      <c r="Y326" s="9"/>
+      <c r="Y326" s="18">
+        <v>0.4150641939168076</v>
+      </c>
       <c r="Z326" s="9"/>
       <c r="AA326" s="9"/>
       <c r="AB326" s="9"/>
@@ -35117,7 +35594,9 @@
       <c r="X327" s="18">
         <v>1.3125915451781387</v>
       </c>
-      <c r="Y327" s="9"/>
+      <c r="Y327" s="18">
+        <v>1.1725622364087127</v>
+      </c>
       <c r="Z327" s="9"/>
       <c r="AA327" s="9"/>
       <c r="AB327" s="9"/>
@@ -35263,7 +35742,9 @@
       <c r="X328" s="18">
         <v>1.9961705575894346</v>
       </c>
-      <c r="Y328" s="9"/>
+      <c r="Y328" s="18">
+        <v>2.166025434922183</v>
+      </c>
       <c r="Z328" s="9"/>
       <c r="AA328" s="9"/>
       <c r="AB328" s="9"/>
@@ -35409,7 +35890,9 @@
       <c r="X329" s="18">
         <v>3.4293981960531807</v>
       </c>
-      <c r="Y329" s="9"/>
+      <c r="Y329" s="18">
+        <v>4.1443345667897562</v>
+      </c>
       <c r="Z329" s="9"/>
       <c r="AA329" s="9"/>
       <c r="AB329" s="9"/>
@@ -35555,7 +36038,9 @@
       <c r="X330" s="18">
         <v>1.9764340332445758</v>
       </c>
-      <c r="Y330" s="9"/>
+      <c r="Y330" s="18">
+        <v>2.147254515220272</v>
+      </c>
       <c r="Z330" s="9"/>
       <c r="AA330" s="9"/>
       <c r="AB330" s="9"/>
@@ -35701,7 +36186,9 @@
       <c r="X331" s="18">
         <v>7.7184380334675735E-3</v>
       </c>
-      <c r="Y331" s="9"/>
+      <c r="Y331" s="18">
+        <v>9.2226994205796466E-3</v>
+      </c>
       <c r="Z331" s="9"/>
       <c r="AA331" s="9"/>
       <c r="AB331" s="9"/>
@@ -35847,7 +36334,9 @@
       <c r="X332" s="18">
         <v>3.4527685790153431</v>
       </c>
-      <c r="Y332" s="9"/>
+      <c r="Y332" s="18">
+        <v>3.7181810443292718</v>
+      </c>
       <c r="Z332" s="9"/>
       <c r="AA332" s="9"/>
       <c r="AB332" s="9"/>
@@ -35993,7 +36482,9 @@
       <c r="X333" s="18">
         <v>1.9502557496050374</v>
       </c>
-      <c r="Y333" s="9"/>
+      <c r="Y333" s="18">
+        <v>2.4277377671542504</v>
+      </c>
       <c r="Z333" s="9"/>
       <c r="AA333" s="9"/>
       <c r="AB333" s="9"/>
@@ -36139,7 +36630,9 @@
       <c r="X334" s="18">
         <v>0.39322432140390029</v>
       </c>
-      <c r="Y334" s="9"/>
+      <c r="Y334" s="18">
+        <v>0.27400766654045083</v>
+      </c>
       <c r="Z334" s="9"/>
       <c r="AA334" s="9"/>
       <c r="AB334" s="9"/>
@@ -36285,7 +36778,9 @@
       <c r="X335" s="18">
         <v>1.1995828983478467</v>
       </c>
-      <c r="Y335" s="9"/>
+      <c r="Y335" s="18">
+        <v>1.1862158547281707</v>
+      </c>
       <c r="Z335" s="9"/>
       <c r="AA335" s="9"/>
       <c r="AB335" s="9"/>
@@ -36431,7 +36926,9 @@
       <c r="X336" s="18">
         <v>12.596380685989548</v>
       </c>
-      <c r="Y336" s="9"/>
+      <c r="Y336" s="18">
+        <v>13.227390670999498</v>
+      </c>
       <c r="Z336" s="9"/>
       <c r="AA336" s="9"/>
       <c r="AB336" s="9"/>
@@ -36674,7 +37171,9 @@
       <c r="X338" s="18">
         <v>100</v>
       </c>
-      <c r="Y338" s="9"/>
+      <c r="Y338" s="18">
+        <v>100</v>
+      </c>
       <c r="Z338" s="9"/>
       <c r="AA338" s="9"/>
       <c r="AB338" s="9"/>
@@ -36772,6 +37271,7 @@
       <c r="V339" s="13"/>
       <c r="W339" s="13"/>
       <c r="X339" s="13"/>
+      <c r="Y339" s="13"/>
     </row>
     <row r="340" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
@@ -36968,12 +37468,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="49" max="23" man="1"/>
-    <brk id="98" max="23" man="1"/>
-    <brk id="147" max="23" man="1"/>
-    <brk id="196" max="23" man="1"/>
-    <brk id="244" max="23" man="1"/>
-    <brk id="293" max="23" man="1"/>
+    <brk id="49" max="24" man="1"/>
+    <brk id="98" max="24" man="1"/>
+    <brk id="147" max="24" man="1"/>
+    <brk id="196" max="24" man="1"/>
+    <brk id="244" max="24" man="1"/>
+    <brk id="293" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C3A02-CD8A-40F0-8DA3-A943E5560C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2761F7A-5272-4367-9474-F877F8B25376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOG" sheetId="1" r:id="rId1"/>
@@ -291,13 +291,13 @@
     <t>Shrimps, prawns, and other fishery products</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -723,50 +723,50 @@
   <dimension ref="A1:CR342"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="96" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="25" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="25" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>33</v>
@@ -795,7 +795,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -872,10 +872,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -946,10 +946,10 @@
         <v>1750025.3410625064</v>
       </c>
       <c r="X12" s="8">
-        <v>2249336.0259818225</v>
+        <v>2249739.3104125462</v>
       </c>
       <c r="Y12" s="8">
-        <v>2044179.1546272787</v>
+        <v>2041600.7107911867</v>
       </c>
       <c r="Z12" s="9"/>
       <c r="AA12" s="9"/>
@@ -1023,7 +1023,7 @@
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>1202817.6364158951</v>
       </c>
       <c r="X13" s="11">
-        <v>1654422.3563103364</v>
+        <v>1656096.0144429249</v>
       </c>
       <c r="Y13" s="11">
-        <v>1540113.8686766834</v>
+        <v>1540972.8377534701</v>
       </c>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
@@ -1171,7 +1171,7 @@
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1242,10 +1242,10 @@
         <v>216604.29827546811</v>
       </c>
       <c r="X14" s="11">
-        <v>201527.63927911554</v>
+        <v>200569.18179856698</v>
       </c>
       <c r="Y14" s="11">
-        <v>142834.23095331443</v>
+        <v>142195.85522264367</v>
       </c>
       <c r="Z14" s="9"/>
       <c r="AA14" s="9"/>
@@ -1319,7 +1319,7 @@
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
@@ -1390,10 +1390,10 @@
         <v>78375.731365465006</v>
       </c>
       <c r="X15" s="11">
-        <v>75958.059300341716</v>
+        <v>75373.076173858193</v>
       </c>
       <c r="Y15" s="11">
-        <v>47278.460941019774</v>
+        <v>46939.097486344894</v>
       </c>
       <c r="Z15" s="9"/>
       <c r="AA15" s="9"/>
@@ -1467,7 +1467,7 @@
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
@@ -1538,10 +1538,10 @@
         <v>61517.748483953481</v>
       </c>
       <c r="X16" s="11">
-        <v>60100.191947446496</v>
+        <v>60394.649109861399</v>
       </c>
       <c r="Y16" s="11">
-        <v>63023.852826448769</v>
+        <v>62688.463617262583</v>
       </c>
       <c r="Z16" s="9"/>
       <c r="AA16" s="9"/>
@@ -1615,7 +1615,7 @@
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
     </row>
-    <row r="17" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>26</v>
       </c>
@@ -1686,10 +1686,10 @@
         <v>31307.44164432586</v>
       </c>
       <c r="X17" s="11">
-        <v>51900.400162958969</v>
+        <v>51856.962384456099</v>
       </c>
       <c r="Y17" s="11">
-        <v>46031.015999568721</v>
+        <v>44038.758392179945</v>
       </c>
       <c r="Z17" s="9"/>
       <c r="AA17" s="9"/>
@@ -1763,7 +1763,7 @@
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
     </row>
-    <row r="18" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
@@ -1834,10 +1834,10 @@
         <v>26012.177325309065</v>
       </c>
       <c r="X18" s="11">
-        <v>28410.570820265682</v>
+        <v>28473.328614478683</v>
       </c>
       <c r="Y18" s="11">
-        <v>34586.305455375768</v>
+        <v>34583.985699103723</v>
       </c>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
@@ -1911,7 +1911,7 @@
       <c r="CQ18" s="9"/>
       <c r="CR18" s="9"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
@@ -1982,10 +1982,10 @@
         <v>123101.31533310024</v>
       </c>
       <c r="X19" s="11">
-        <v>166005.14485265745</v>
+        <v>165973.6592195433</v>
       </c>
       <c r="Y19" s="11">
-        <v>158512.89772724448</v>
+        <v>158366.06907248689</v>
       </c>
       <c r="Z19" s="9"/>
       <c r="AA19" s="9"/>
@@ -2059,7 +2059,7 @@
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
@@ -2130,10 +2130,10 @@
         <v>5808.4490202393845</v>
       </c>
       <c r="X20" s="11">
-        <v>6210.3663226645749</v>
+        <v>6201.141682820592</v>
       </c>
       <c r="Y20" s="11">
-        <v>9631.9328145682812</v>
+        <v>9653.2417108838836</v>
       </c>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -2207,7 +2207,7 @@
       <c r="CQ20" s="9"/>
       <c r="CR20" s="9"/>
     </row>
-    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>22</v>
       </c>
@@ -2281,7 +2281,7 @@
         <v>4801.2969860358808</v>
       </c>
       <c r="Y21" s="11">
-        <v>2166.589233055211</v>
+        <v>2162.4018368112411</v>
       </c>
       <c r="Z21" s="9"/>
       <c r="AA21" s="9"/>
@@ -2355,7 +2355,7 @@
       <c r="CQ21" s="9"/>
       <c r="CR21" s="9"/>
     </row>
-    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2426,10 +2426,10 @@
         <v>234553.05123462301</v>
       </c>
       <c r="X22" s="8">
-        <v>285312.70596974582</v>
+        <v>285259.29366565828</v>
       </c>
       <c r="Y22" s="8">
-        <v>235416.06575476361</v>
+        <v>235873.67196421762</v>
       </c>
       <c r="Z22" s="9"/>
       <c r="AA22" s="9"/>
@@ -2503,7 +2503,7 @@
       <c r="CQ22" s="9"/>
       <c r="CR22" s="9"/>
     </row>
-    <row r="23" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>20</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>55939.616238446753</v>
       </c>
       <c r="Y23" s="11">
-        <v>62943.115580241021</v>
+        <v>62945.65414760822</v>
       </c>
       <c r="Z23" s="9"/>
       <c r="AA23" s="9"/>
@@ -2651,7 +2651,7 @@
       <c r="CQ23" s="9"/>
       <c r="CR23" s="9"/>
     </row>
-    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>102820.1106917015</v>
       </c>
       <c r="Y24" s="11">
-        <v>59450.474594885483</v>
+        <v>59812.765426135447</v>
       </c>
       <c r="Z24" s="9"/>
       <c r="AA24" s="9"/>
@@ -2799,7 +2799,7 @@
       <c r="CQ24" s="9"/>
       <c r="CR24" s="9"/>
     </row>
-    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>18</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>3323.7341279471689</v>
       </c>
       <c r="Y25" s="11">
-        <v>3359.2185568948967</v>
+        <v>3559.3236528613161</v>
       </c>
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
@@ -2947,7 +2947,7 @@
       <c r="CQ25" s="9"/>
       <c r="CR25" s="9"/>
     </row>
-    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>17392.116447146152</v>
       </c>
       <c r="Y26" s="11">
-        <v>12253.230995868245</v>
+        <v>12255.710909945119</v>
       </c>
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
@@ -3095,7 +3095,7 @@
       <c r="CQ26" s="9"/>
       <c r="CR26" s="9"/>
     </row>
-    <row r="27" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>17</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>5859.4384407762209</v>
       </c>
       <c r="Y27" s="11">
-        <v>5179.6434742257406</v>
+        <v>5162.9916103674586</v>
       </c>
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
@@ -3243,7 +3243,7 @@
       <c r="CQ27" s="9"/>
       <c r="CR27" s="9"/>
     </row>
-    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>38361.328369165072</v>
       </c>
       <c r="Y28" s="11">
-        <v>37725.884401377698</v>
+        <v>37945.991995885866</v>
       </c>
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
@@ -3391,7 +3391,7 @@
       <c r="CQ28" s="9"/>
       <c r="CR28" s="9"/>
     </row>
-    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>15</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="CQ29" s="9"/>
       <c r="CR29" s="9"/>
     </row>
-    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>14</v>
       </c>
@@ -3610,10 +3610,10 @@
         <v>52345.167905614522</v>
       </c>
       <c r="X30" s="11">
-        <v>61616.129521543153</v>
+        <v>61562.717217455633</v>
       </c>
       <c r="Y30" s="11">
-        <v>54504.399114534186</v>
+        <v>54191.135184677856</v>
       </c>
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
@@ -3687,7 +3687,7 @@
       <c r="CQ30" s="9"/>
       <c r="CR30" s="9"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -3758,10 +3758,10 @@
         <v>30533.370924928895</v>
       </c>
       <c r="X31" s="8">
-        <v>33268.842881071636</v>
+        <v>33267.851618942746</v>
       </c>
       <c r="Y31" s="8">
-        <v>33379.176255923499</v>
+        <v>33272.307105464031</v>
       </c>
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
@@ -3835,7 +3835,7 @@
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>77</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>15326.45577481685</v>
       </c>
       <c r="Y32" s="11">
-        <v>14947.965311153463</v>
+        <v>14837.937077723247</v>
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
@@ -3983,7 +3983,7 @@
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>12</v>
       </c>
@@ -4054,10 +4054,10 @@
         <v>16881.566866328569</v>
       </c>
       <c r="X33" s="11">
-        <v>17942.387106254788</v>
+        <v>17941.395844125898</v>
       </c>
       <c r="Y33" s="11">
-        <v>18431.210944770035</v>
+        <v>18434.370027740784</v>
       </c>
       <c r="Z33" s="9"/>
       <c r="AA33" s="9"/>
@@ -4131,7 +4131,7 @@
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
@@ -4202,10 +4202,10 @@
         <v>35017.695649048408</v>
       </c>
       <c r="X34" s="11">
-        <v>43411.943418658557</v>
+        <v>44533.505121056834</v>
       </c>
       <c r="Y34" s="11">
-        <v>36737.629419773584</v>
+        <v>37643.408283962592</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -4279,7 +4279,7 @@
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
     </row>
-    <row r="35" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
     </row>
-    <row r="36" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -4498,10 +4498,10 @@
         <v>105478.50016394199</v>
       </c>
       <c r="X36" s="11">
-        <v>118940.18778825109</v>
+        <v>119031.88077750006</v>
       </c>
       <c r="Y36" s="11">
-        <v>135589.20638072069</v>
+        <v>135864.84221534937</v>
       </c>
       <c r="Z36" s="9"/>
       <c r="AA36" s="9"/>
@@ -4575,7 +4575,7 @@
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
     </row>
-    <row r="37" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4646,10 +4646,10 @@
         <v>77733.707004613927</v>
       </c>
       <c r="X37" s="11">
-        <v>75665.756726636784</v>
+        <v>75711.027852100538</v>
       </c>
       <c r="Y37" s="11">
-        <v>72103.19900812424</v>
+        <v>71833.694064163748</v>
       </c>
       <c r="Z37" s="9"/>
       <c r="AA37" s="9"/>
@@ -4723,7 +4723,7 @@
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>7</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>250.52604008944274</v>
       </c>
       <c r="X38" s="11">
-        <v>320.61084445103427</v>
+        <v>320.6122098518191</v>
       </c>
       <c r="Y38" s="11">
         <v>309.53287075451669</v>
@@ -4871,7 +4871,7 @@
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>6</v>
       </c>
@@ -4942,10 +4942,10 @@
         <v>107333.19485513651</v>
       </c>
       <c r="X39" s="11">
-        <v>111019.91540930416</v>
+        <v>110781.12828841159</v>
       </c>
       <c r="Y39" s="11">
-        <v>123807.85377034009</v>
+        <v>122764.24764492556</v>
       </c>
       <c r="Z39" s="9"/>
       <c r="AA39" s="9"/>
@@ -5019,7 +5019,7 @@
       <c r="CQ39" s="9"/>
       <c r="CR39" s="9"/>
     </row>
-    <row r="40" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5090,10 +5090,10 @@
         <v>76390.608479012619</v>
       </c>
       <c r="X40" s="11">
-        <v>80320.151600239216</v>
+        <v>79938.224061678193</v>
       </c>
       <c r="Y40" s="11">
-        <v>80443.282072856178</v>
+        <v>80620.530344301384</v>
       </c>
       <c r="Z40" s="9"/>
       <c r="AA40" s="9"/>
@@ -5167,7 +5167,7 @@
       <c r="CQ40" s="9"/>
       <c r="CR40" s="9"/>
     </row>
-    <row r="41" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -5238,10 +5238,10 @@
         <v>14871.86387452423</v>
       </c>
       <c r="X41" s="11">
-        <v>12630.296443092944</v>
+        <v>12616.763958869391</v>
       </c>
       <c r="Y41" s="11">
-        <v>8434.2782829998341</v>
+        <v>8419.3043583023664</v>
       </c>
       <c r="Z41" s="9"/>
       <c r="AA41" s="9"/>
@@ -5315,7 +5315,7 @@
       <c r="CQ41" s="9"/>
       <c r="CR41" s="9"/>
     </row>
-    <row r="42" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -5386,10 +5386,10 @@
         <v>40973.206406749108</v>
       </c>
       <c r="X42" s="11">
-        <v>43572.218256811015</v>
+        <v>43602.483168235391</v>
       </c>
       <c r="Y42" s="11">
-        <v>41888.257323791651</v>
+        <v>42250.673371536352</v>
       </c>
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
@@ -5463,7 +5463,7 @@
       <c r="CQ42" s="9"/>
       <c r="CR42" s="9"/>
     </row>
-    <row r="43" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
@@ -5534,10 +5534,10 @@
         <v>351785.71811764943</v>
       </c>
       <c r="X43" s="11">
-        <v>420645.29175931407</v>
+        <v>422103.80595731514</v>
       </c>
       <c r="Y43" s="11">
-        <v>403892.59279811103</v>
+        <v>407649.27586090553</v>
       </c>
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
@@ -5611,7 +5611,7 @@
       <c r="CQ43" s="9"/>
       <c r="CR43" s="9"/>
     </row>
-    <row r="44" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -5708,7 +5708,7 @@
       <c r="CQ44" s="9"/>
       <c r="CR44" s="9"/>
     </row>
-    <row r="45" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>1</v>
       </c>
@@ -5779,10 +5779,10 @@
         <v>2917951.4169858918</v>
       </c>
       <c r="X45" s="8">
-        <v>3569036.5845206971</v>
+        <v>3571498.5245334646</v>
       </c>
       <c r="Y45" s="8">
-        <v>3316807.5157731078</v>
+        <v>3318729.4860827387</v>
       </c>
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
@@ -5856,7 +5856,7 @@
       <c r="CQ45" s="9"/>
       <c r="CR45" s="9"/>
     </row>
-    <row r="46" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -5883,12 +5883,12 @@
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
     </row>
-    <row r="47" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -5985,7 +5985,7 @@
       <c r="CQ48" s="9"/>
       <c r="CR48" s="9"/>
     </row>
-    <row r="49" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -6082,37 +6082,37 @@
       <c r="CQ49" s="9"/>
       <c r="CR49" s="9"/>
     </row>
-    <row r="50" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="16" t="s">
         <v>33</v>
@@ -6141,7 +6141,7 @@
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
     </row>
-    <row r="59" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>32</v>
       </c>
@@ -6218,10 +6218,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="60" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -6292,10 +6292,10 @@
         <v>1987109.2084500298</v>
       </c>
       <c r="X61" s="8">
-        <v>2156677.5070377868</v>
+        <v>2157441.7897297707</v>
       </c>
       <c r="Y61" s="8">
-        <v>1947518.1871256137</v>
+        <v>1948771.4521090775</v>
       </c>
       <c r="Z61" s="9"/>
       <c r="AA61" s="9"/>
@@ -6369,7 +6369,7 @@
       <c r="CQ61" s="9"/>
       <c r="CR61" s="9"/>
     </row>
-    <row r="62" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>30</v>
       </c>
@@ -6440,10 +6440,10 @@
         <v>1386765.2199858637</v>
       </c>
       <c r="X62" s="11">
-        <v>1589685.0576975909</v>
+        <v>1591479.1842401577</v>
       </c>
       <c r="Y62" s="11">
-        <v>1478953.3909145764</v>
+        <v>1480398.1772792635</v>
       </c>
       <c r="Z62" s="9"/>
       <c r="AA62" s="9"/>
@@ -6517,7 +6517,7 @@
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
     </row>
-    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>29</v>
       </c>
@@ -6588,10 +6588,10 @@
         <v>251092.48033624783</v>
       </c>
       <c r="X63" s="11">
-        <v>201964.02900990527</v>
+        <v>201226.71644032243</v>
       </c>
       <c r="Y63" s="11">
-        <v>139135.55451709928</v>
+        <v>139163.5032120829</v>
       </c>
       <c r="Z63" s="9"/>
       <c r="AA63" s="9"/>
@@ -6665,7 +6665,7 @@
       <c r="CQ63" s="9"/>
       <c r="CR63" s="9"/>
     </row>
-    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>28</v>
       </c>
@@ -6736,10 +6736,10 @@
         <v>82696.853612820429</v>
       </c>
       <c r="X64" s="11">
-        <v>70093.923899324276</v>
+        <v>69554.67116454737</v>
       </c>
       <c r="Y64" s="11">
-        <v>46948.817399309286</v>
+        <v>46707.562110260536</v>
       </c>
       <c r="Z64" s="9"/>
       <c r="AA64" s="9"/>
@@ -6813,7 +6813,7 @@
       <c r="CQ64" s="9"/>
       <c r="CR64" s="9"/>
     </row>
-    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>27</v>
       </c>
@@ -6884,10 +6884,10 @@
         <v>60827.858719892502</v>
       </c>
       <c r="X65" s="11">
-        <v>53349.360290783232</v>
+        <v>53643.231080817161</v>
       </c>
       <c r="Y65" s="11">
-        <v>55306.145021754099</v>
+        <v>55401.84663627694</v>
       </c>
       <c r="Z65" s="9"/>
       <c r="AA65" s="9"/>
@@ -6961,7 +6961,7 @@
       <c r="CQ65" s="9"/>
       <c r="CR65" s="9"/>
     </row>
-    <row r="66" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>26</v>
       </c>
@@ -7032,10 +7032,10 @@
         <v>34006.873669914567</v>
       </c>
       <c r="X66" s="11">
-        <v>48704.116804010831</v>
+        <v>48672.84195530336</v>
       </c>
       <c r="Y66" s="11">
-        <v>42536.982852023481</v>
+        <v>40851.901412739455</v>
       </c>
       <c r="Z66" s="9"/>
       <c r="AA66" s="9"/>
@@ -7109,7 +7109,7 @@
       <c r="CQ66" s="9"/>
       <c r="CR66" s="9"/>
     </row>
-    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>25</v>
       </c>
@@ -7180,10 +7180,10 @@
         <v>25361.955773925351</v>
       </c>
       <c r="X67" s="11">
-        <v>25175.029868070105</v>
+        <v>25227.353891816536</v>
       </c>
       <c r="Y67" s="11">
-        <v>30708.822404939427</v>
+        <v>30922.952196088649</v>
       </c>
       <c r="Z67" s="9"/>
       <c r="AA67" s="9"/>
@@ -7257,7 +7257,7 @@
       <c r="CQ67" s="9"/>
       <c r="CR67" s="9"/>
     </row>
-    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>24</v>
       </c>
@@ -7328,10 +7328,10 @@
         <v>136711.51670216647</v>
       </c>
       <c r="X68" s="11">
-        <v>158513.31195205619</v>
+        <v>158451.34567840758</v>
       </c>
       <c r="Y68" s="11">
-        <v>144211.50026894885</v>
+        <v>145574.39433437781</v>
       </c>
       <c r="Z68" s="9"/>
       <c r="AA68" s="9"/>
@@ -7405,7 +7405,7 @@
       <c r="CQ68" s="9"/>
       <c r="CR68" s="9"/>
     </row>
-    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>23</v>
       </c>
@@ -7476,10 +7476,10 @@
         <v>5046.657083166413</v>
       </c>
       <c r="X69" s="11">
-        <v>5041.8081276560533</v>
+        <v>5035.5758900089531</v>
       </c>
       <c r="Y69" s="11">
-        <v>7829.1462750784021</v>
+        <v>7861.0649967040572</v>
       </c>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
@@ -7553,7 +7553,7 @@
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
     </row>
-    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>22</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>4150.8693883897358</v>
       </c>
       <c r="Y70" s="11">
-        <v>1887.8274718841294</v>
+        <v>1890.049931283733</v>
       </c>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
@@ -7701,7 +7701,7 @@
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
     </row>
-    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>21</v>
       </c>
@@ -7772,10 +7772,10 @@
         <v>202883.85037484372</v>
       </c>
       <c r="X71" s="8">
-        <v>213316.45949791043</v>
+        <v>213276.15386962536</v>
       </c>
       <c r="Y71" s="8">
-        <v>182446.52445787136</v>
+        <v>182865.39149853282</v>
       </c>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
@@ -7849,7 +7849,7 @@
       <c r="CQ71" s="9"/>
       <c r="CR71" s="9"/>
     </row>
-    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>20</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>40839.148263819341</v>
       </c>
       <c r="Y72" s="11">
-        <v>42753.546646195144</v>
+        <v>42754.634304551932</v>
       </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
@@ -7997,7 +7997,7 @@
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
     </row>
-    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>19</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>72224.769804156909</v>
       </c>
       <c r="Y73" s="11">
-        <v>53333.606406429208</v>
+        <v>53655.570970186411</v>
       </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
@@ -8145,7 +8145,7 @@
       <c r="CQ73" s="9"/>
       <c r="CR73" s="9"/>
     </row>
-    <row r="74" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>18</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>2098.6875139377175</v>
       </c>
       <c r="Y74" s="11">
-        <v>2988.7319739644722</v>
+        <v>3171.3421047910588</v>
       </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
@@ -8293,7 +8293,7 @@
       <c r="CQ74" s="9"/>
       <c r="CR74" s="9"/>
     </row>
-    <row r="75" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>63</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>15834.78258033459</v>
       </c>
       <c r="Y75" s="11">
-        <v>13020.742533490025</v>
+        <v>13025.784360251646</v>
       </c>
       <c r="Z75" s="9"/>
       <c r="AA75" s="9"/>
@@ -8441,7 +8441,7 @@
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
     </row>
-    <row r="76" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>17</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>4975.0418017922793</v>
       </c>
       <c r="Y76" s="11">
-        <v>4091.5039268822366</v>
+        <v>4078.2168226175045</v>
       </c>
       <c r="Z76" s="9"/>
       <c r="AA76" s="9"/>
@@ -8589,7 +8589,7 @@
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
     </row>
-    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>16</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>29796.427215636784</v>
       </c>
       <c r="Y77" s="11">
-        <v>26178.51360808151</v>
+        <v>26337.727113641125</v>
       </c>
       <c r="Z77" s="9"/>
       <c r="AA77" s="9"/>
@@ -8737,7 +8737,7 @@
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
     </row>
-    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>15</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
     </row>
-    <row r="79" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>14</v>
       </c>
@@ -8956,10 +8956,10 @@
         <v>48705.715633531625</v>
       </c>
       <c r="X79" s="11">
-        <v>47547.44640928477</v>
+        <v>47507.140780999689</v>
       </c>
       <c r="Y79" s="11">
-        <v>40079.823714299506</v>
+        <v>39842.060173963866</v>
       </c>
       <c r="Z79" s="9"/>
       <c r="AA79" s="9"/>
@@ -9033,7 +9033,7 @@
       <c r="CQ79" s="9"/>
       <c r="CR79" s="9"/>
     </row>
-    <row r="80" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>13</v>
       </c>
@@ -9104,10 +9104,10 @@
         <v>26255.339015642268</v>
       </c>
       <c r="X80" s="8">
-        <v>24437.927619014052</v>
+        <v>24437.178295418787</v>
       </c>
       <c r="Y80" s="8">
-        <v>22872.21417937598</v>
+        <v>22801.514944732415</v>
       </c>
       <c r="Z80" s="9"/>
       <c r="AA80" s="9"/>
@@ -9181,7 +9181,7 @@
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
     </row>
-    <row r="81" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>77</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>11455.323154303444</v>
       </c>
       <c r="Y81" s="11">
-        <v>10020.161665192136</v>
+        <v>9947.4801600731662</v>
       </c>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
@@ -9329,7 +9329,7 @@
       <c r="CQ81" s="9"/>
       <c r="CR81" s="9"/>
     </row>
-    <row r="82" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>12</v>
       </c>
@@ -9400,10 +9400,10 @@
         <v>15078.354822004212</v>
       </c>
       <c r="X82" s="11">
-        <v>12982.60446471061</v>
+        <v>12981.855141115346</v>
       </c>
       <c r="Y82" s="11">
-        <v>12852.052514183844</v>
+        <v>12854.034784659249</v>
       </c>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
@@ -9477,7 +9477,7 @@
       <c r="CQ82" s="9"/>
       <c r="CR82" s="9"/>
     </row>
-    <row r="83" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>11</v>
       </c>
@@ -9548,10 +9548,10 @@
         <v>39929.027431033006</v>
       </c>
       <c r="X83" s="11">
-        <v>43843.066673798421</v>
+        <v>44963.167223379591</v>
       </c>
       <c r="Y83" s="11">
-        <v>36307.230687053947</v>
+        <v>37209.232708686162</v>
       </c>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
@@ -9625,7 +9625,7 @@
       <c r="CQ83" s="9"/>
       <c r="CR83" s="9"/>
     </row>
-    <row r="84" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -9773,7 +9773,7 @@
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
     </row>
-    <row r="85" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -9844,10 +9844,10 @@
         <v>99529.617485516821</v>
       </c>
       <c r="X85" s="11">
-        <v>114548.45516329921</v>
+        <v>114625.43837159695</v>
       </c>
       <c r="Y85" s="11">
-        <v>128325.22359036586</v>
+        <v>128791.85537932404</v>
       </c>
       <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
@@ -9921,7 +9921,7 @@
       <c r="CQ85" s="9"/>
       <c r="CR85" s="9"/>
     </row>
-    <row r="86" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>8</v>
       </c>
@@ -9992,10 +9992,10 @@
         <v>69105.115474338061</v>
       </c>
       <c r="X86" s="11">
-        <v>66016.674733453459</v>
+        <v>66070.472125829081</v>
       </c>
       <c r="Y86" s="11">
-        <v>66487.613712255261</v>
+        <v>66174.334408616996</v>
       </c>
       <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
@@ -10069,7 +10069,7 @@
       <c r="CQ86" s="9"/>
       <c r="CR86" s="9"/>
     </row>
-    <row r="87" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>7</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>348.8230888561813</v>
       </c>
       <c r="X87" s="11">
-        <v>257.81058438325869</v>
+        <v>257.81193077945375</v>
       </c>
       <c r="Y87" s="11">
         <v>285.57177181990301</v>
@@ -10217,7 +10217,7 @@
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
     </row>
-    <row r="88" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -10288,10 +10288,10 @@
         <v>130861.53791578765</v>
       </c>
       <c r="X88" s="11">
-        <v>115329.07062754343</v>
+        <v>115079.70629133159</v>
       </c>
       <c r="Y88" s="11">
-        <v>115129.80097854613</v>
+        <v>114143.75193533023</v>
       </c>
       <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
@@ -10365,7 +10365,7 @@
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
     </row>
-    <row r="89" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -10436,10 +10436,10 @@
         <v>84233.012818934774</v>
       </c>
       <c r="X89" s="11">
-        <v>65142.270019184085</v>
+        <v>64878.497907371559</v>
       </c>
       <c r="Y89" s="11">
-        <v>75172.500378068362</v>
+        <v>75348.676569238829</v>
       </c>
       <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
@@ -10513,7 +10513,7 @@
       <c r="CQ89" s="9"/>
       <c r="CR89" s="9"/>
     </row>
-    <row r="90" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
@@ -10584,10 +10584,10 @@
         <v>18193.839352989089</v>
       </c>
       <c r="X90" s="11">
-        <v>13134.443996994196</v>
+        <v>13121.118233323865</v>
       </c>
       <c r="Y90" s="11">
-        <v>8484.3765645867425</v>
+        <v>8471.8934967273508</v>
       </c>
       <c r="Z90" s="9"/>
       <c r="AA90" s="9"/>
@@ -10661,7 +10661,7 @@
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
     </row>
-    <row r="91" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -10732,10 +10732,10 @@
         <v>45202.362696340766</v>
       </c>
       <c r="X91" s="11">
-        <v>40068.361849668378</v>
+        <v>40106.36018513317</v>
       </c>
       <c r="Y91" s="11">
-        <v>36730.001483046697</v>
+        <v>37060.316989501516</v>
       </c>
       <c r="Z91" s="9"/>
       <c r="AA91" s="9"/>
@@ -10809,7 +10809,7 @@
       <c r="CQ91" s="9"/>
       <c r="CR91" s="9"/>
     </row>
-    <row r="92" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>2</v>
       </c>
@@ -10880,10 +10880,10 @@
         <v>410398.12362601596</v>
       </c>
       <c r="X92" s="11">
-        <v>420743.19333622995</v>
+        <v>422831.51435890567</v>
       </c>
       <c r="Y92" s="11">
-        <v>409573.07814266533</v>
+        <v>412259.84504408063</v>
       </c>
       <c r="Z92" s="9"/>
       <c r="AA92" s="9"/>
@@ -10957,7 +10957,7 @@
       <c r="CQ92" s="9"/>
       <c r="CR92" s="9"/>
     </row>
-    <row r="93" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -11054,7 +11054,7 @@
       <c r="CQ93" s="9"/>
       <c r="CR93" s="9"/>
     </row>
-    <row r="94" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>1</v>
       </c>
@@ -11125,10 +11125,10 @@
         <v>3182306.3531660102</v>
       </c>
       <c r="X94" s="8">
-        <v>3340191.1535128965</v>
+        <v>3343765.1208960968</v>
       </c>
       <c r="Y94" s="8">
-        <v>3096401.1597588724</v>
+        <v>3101252.6735432707</v>
       </c>
       <c r="Z94" s="9"/>
       <c r="AA94" s="9"/>
@@ -11202,7 +11202,7 @@
       <c r="CQ94" s="9"/>
       <c r="CR94" s="9"/>
     </row>
-    <row r="95" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -11229,12 +11229,12 @@
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -11331,7 +11331,7 @@
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
     </row>
-    <row r="98" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
@@ -11428,37 +11428,37 @@
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
     </row>
-    <row r="99" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="103" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="16" t="s">
         <v>33</v>
@@ -11487,7 +11487,7 @@
       <c r="X107" s="16"/>
       <c r="Y107" s="16"/>
     </row>
-    <row r="108" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>32</v>
       </c>
@@ -11562,10 +11562,10 @@
       </c>
       <c r="Y108" s="17"/>
     </row>
-    <row r="109" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7"/>
     </row>
-    <row r="110" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>31</v>
       </c>
@@ -11633,10 +11633,10 @@
         <v>14.214064991417374</v>
       </c>
       <c r="W110" s="18">
-        <v>28.531625982979506</v>
+        <v>28.554670473894078</v>
       </c>
       <c r="X110" s="18">
-        <v>-9.1207747079493799</v>
+        <v>-9.2516763457003464</v>
       </c>
       <c r="Y110" s="18"/>
       <c r="Z110" s="9"/>
@@ -11706,7 +11706,7 @@
       <c r="CL110" s="9"/>
       <c r="CM110" s="9"/>
     </row>
-    <row r="111" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>30</v>
       </c>
@@ -11774,10 +11774,10 @@
         <v>13.178463201537809</v>
       </c>
       <c r="W111" s="18">
-        <v>37.545568523597126</v>
+        <v>37.68471331844529</v>
       </c>
       <c r="X111" s="18">
-        <v>-6.9092687969099842</v>
+        <v>-6.9514796053766048</v>
       </c>
       <c r="Y111" s="18"/>
       <c r="Z111" s="9"/>
@@ -11847,7 +11847,7 @@
       <c r="CL111" s="9"/>
       <c r="CM111" s="9"/>
     </row>
-    <row r="112" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>29</v>
       </c>
@@ -11915,10 +11915,10 @@
         <v>28.987495863813564</v>
       </c>
       <c r="W112" s="18">
-        <v>-6.9604615958168665</v>
+        <v>-7.4029539600864069</v>
       </c>
       <c r="X112" s="18">
-        <v>-29.124247441072242</v>
+        <v>-29.103836418173174</v>
       </c>
       <c r="Y112" s="18"/>
       <c r="Z112" s="9"/>
@@ -11988,7 +11988,7 @@
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
     </row>
-    <row r="113" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>28</v>
       </c>
@@ -12056,10 +12056,10 @@
         <v>18.636261500602401</v>
       </c>
       <c r="W113" s="18">
-        <v>-3.0847202609819533</v>
+        <v>-3.8311032500678976</v>
       </c>
       <c r="X113" s="18">
-        <v>-37.757149963404771</v>
+        <v>-37.724317662087302</v>
       </c>
       <c r="Y113" s="18"/>
       <c r="Z113" s="9"/>
@@ -12129,7 +12129,7 @@
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
     </row>
-    <row r="114" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>27</v>
       </c>
@@ -12197,10 +12197,10 @@
         <v>8.5124791258101027</v>
       </c>
       <c r="W114" s="18">
-        <v>-2.304304971234032</v>
+        <v>-1.8256509735316939</v>
       </c>
       <c r="X114" s="18">
-        <v>4.8646448276884229</v>
+        <v>3.7980426100805715</v>
       </c>
       <c r="Y114" s="18"/>
       <c r="Z114" s="9"/>
@@ -12270,7 +12270,7 @@
       <c r="CL114" s="9"/>
       <c r="CM114" s="9"/>
     </row>
-    <row r="115" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>26</v>
       </c>
@@ -12338,10 +12338,10 @@
         <v>101.55772817023171</v>
       </c>
       <c r="W115" s="18">
-        <v>65.776561216925131</v>
+        <v>65.637815359003071</v>
       </c>
       <c r="X115" s="18">
-        <v>-11.308938168032086</v>
+        <v>-15.076478900390867</v>
       </c>
       <c r="Y115" s="18"/>
       <c r="Z115" s="9"/>
@@ -12411,7 +12411,7 @@
       <c r="CL115" s="9"/>
       <c r="CM115" s="9"/>
     </row>
-    <row r="116" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>25</v>
       </c>
@@ -12479,10 +12479,10 @@
         <v>-14.11952022531284</v>
       </c>
       <c r="W116" s="18">
-        <v>9.2202719709397485</v>
+        <v>9.4615351048487355</v>
       </c>
       <c r="X116" s="18">
-        <v>21.737453549172784</v>
+        <v>21.460986059486459</v>
       </c>
       <c r="Y116" s="18"/>
       <c r="Z116" s="9"/>
@@ -12552,7 +12552,7 @@
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
     </row>
-    <row r="117" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>24</v>
       </c>
@@ -12620,10 +12620,10 @@
         <v>2.7232852658469824</v>
       </c>
       <c r="W117" s="18">
-        <v>34.852454178465621</v>
+        <v>34.826877170592894</v>
       </c>
       <c r="X117" s="18">
-        <v>-4.5132620028511354</v>
+        <v>-4.5836129557120842</v>
       </c>
       <c r="Y117" s="18"/>
       <c r="Z117" s="9"/>
@@ -12693,7 +12693,7 @@
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
     </row>
-    <row r="118" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>23</v>
       </c>
@@ -12761,10 +12761,10 @@
         <v>24.969305690279114</v>
       </c>
       <c r="W118" s="18">
-        <v>6.9195287937402981</v>
+        <v>6.7607146281714989</v>
       </c>
       <c r="X118" s="18">
-        <v>55.094439106060236</v>
+        <v>55.668781728159161</v>
       </c>
       <c r="Y118" s="18"/>
       <c r="Z118" s="9"/>
@@ -12834,7 +12834,7 @@
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
     </row>
-    <row r="119" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>22</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>7.1588147476236941</v>
       </c>
       <c r="X119" s="18">
-        <v>-54.874917353445717</v>
+        <v>-54.962131209538114</v>
       </c>
       <c r="Y119" s="18"/>
       <c r="Z119" s="9"/>
@@ -12975,7 +12975,7 @@
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
     </row>
-    <row r="120" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>21</v>
       </c>
@@ -13043,10 +13043,10 @@
         <v>9.0450541635983512</v>
       </c>
       <c r="W120" s="18">
-        <v>21.641012328740942</v>
+        <v>21.618240378512027</v>
       </c>
       <c r="X120" s="18">
-        <v>-17.488404536835873</v>
+        <v>-17.312537329396775</v>
       </c>
       <c r="Y120" s="18"/>
       <c r="Z120" s="9"/>
@@ -13116,7 +13116,7 @@
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
     </row>
-    <row r="121" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>20</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>5.2457471401419582</v>
       </c>
       <c r="X121" s="18">
-        <v>12.519748637426005</v>
+        <v>12.524286686733262</v>
       </c>
       <c r="Y121" s="18"/>
       <c r="Z121" s="9"/>
@@ -13257,7 +13257,7 @@
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
     </row>
-    <row r="122" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>19</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>57.768023147684488</v>
       </c>
       <c r="X122" s="18">
-        <v>-42.180110296570938</v>
+        <v>-41.827756239750023</v>
       </c>
       <c r="Y122" s="18"/>
       <c r="Z122" s="9"/>
@@ -13398,7 +13398,7 @@
       <c r="CL122" s="9"/>
       <c r="CM122" s="9"/>
     </row>
-    <row r="123" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>18</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>7.6838501458844206</v>
       </c>
       <c r="X123" s="18">
-        <v>1.0676073230214627</v>
+        <v>7.0880977793387387</v>
       </c>
       <c r="Y123" s="18"/>
       <c r="Z123" s="9"/>
@@ -13539,7 +13539,7 @@
       <c r="CL123" s="9"/>
       <c r="CM123" s="9"/>
     </row>
-    <row r="124" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>63</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>-4.0897160171450082</v>
       </c>
       <c r="X124" s="18">
-        <v>-29.547211616796304</v>
+        <v>-29.532952776680943</v>
       </c>
       <c r="Y124" s="18"/>
       <c r="Z124" s="9"/>
@@ -13680,7 +13680,7 @@
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
     </row>
-    <row r="125" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>17</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>43.762635302816193</v>
       </c>
       <c r="X125" s="18">
-        <v>-11.601708481477374</v>
+        <v>-11.885897214349811</v>
       </c>
       <c r="Y125" s="18"/>
       <c r="Z125" s="9"/>
@@ -13821,7 +13821,7 @@
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
     </row>
-    <row r="126" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>16</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>7.0227829314768826</v>
       </c>
       <c r="X126" s="18">
-        <v>-1.6564701870390479</v>
+        <v>-1.0826954929252537</v>
       </c>
       <c r="Y126" s="18"/>
       <c r="Z126" s="9"/>
@@ -13962,7 +13962,7 @@
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
     </row>
-    <row r="127" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>15</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
     </row>
-    <row r="128" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>14</v>
       </c>
@@ -14171,10 +14171,10 @@
         <v>18.191847241778021</v>
       </c>
       <c r="W128" s="18">
-        <v>17.711208095932449</v>
+        <v>17.609169443226563</v>
       </c>
       <c r="X128" s="18">
-        <v>-11.541994705335171</v>
+        <v>-11.974101154014079</v>
       </c>
       <c r="Y128" s="18"/>
       <c r="Z128" s="9"/>
@@ -14244,7 +14244,7 @@
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
     </row>
-    <row r="129" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>13</v>
       </c>
@@ -14312,10 +14312,10 @@
         <v>-1.2973795722642194</v>
       </c>
       <c r="W129" s="18">
-        <v>8.9589582587141621</v>
+        <v>8.9557117710226066</v>
       </c>
       <c r="X129" s="18">
-        <v>0.33164175636129301</v>
+        <v>1.3392769008106598E-2</v>
       </c>
       <c r="Y129" s="18"/>
       <c r="Z129" s="9"/>
@@ -14385,7 +14385,7 @@
       <c r="CL129" s="9"/>
       <c r="CM129" s="9"/>
     </row>
-    <row r="130" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>77</v>
       </c>
@@ -14456,7 +14456,7 @@
         <v>12.266889482357698</v>
       </c>
       <c r="X130" s="18">
-        <v>-2.4695237387191042</v>
+        <v>-3.1874211772841505</v>
       </c>
       <c r="Y130" s="18"/>
       <c r="Z130" s="9"/>
@@ -14526,7 +14526,7 @@
       <c r="CL130" s="9"/>
       <c r="CM130" s="9"/>
     </row>
-    <row r="131" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>12</v>
       </c>
@@ -14594,10 +14594,10 @@
         <v>-19.267873202997876</v>
       </c>
       <c r="W131" s="18">
-        <v>6.2838967989523411</v>
+        <v>6.2780249380241457</v>
       </c>
       <c r="X131" s="18">
-        <v>2.7244080490540767</v>
+        <v>2.7476913607939082</v>
       </c>
       <c r="Y131" s="18"/>
       <c r="Z131" s="9"/>
@@ -14667,7 +14667,7 @@
       <c r="CL131" s="9"/>
       <c r="CM131" s="9"/>
     </row>
-    <row r="132" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>11</v>
       </c>
@@ -14735,10 +14735,10 @@
         <v>15.772617811074241</v>
       </c>
       <c r="W132" s="18">
-        <v>23.971445333634506</v>
+        <v>27.17428801534237</v>
       </c>
       <c r="X132" s="18">
-        <v>-15.374372749265902</v>
+        <v>-15.471714652517647</v>
       </c>
       <c r="Y132" s="18"/>
       <c r="Z132" s="9"/>
@@ -14808,7 +14808,7 @@
       <c r="CL132" s="9"/>
       <c r="CM132" s="9"/>
     </row>
-    <row r="133" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -14949,7 +14949,7 @@
       <c r="CL133" s="9"/>
       <c r="CM133" s="9"/>
     </row>
-    <row r="134" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>9</v>
       </c>
@@ -15017,10 +15017,10 @@
         <v>21.596368713553588</v>
       </c>
       <c r="W134" s="18">
-        <v>12.762494350399379</v>
+        <v>12.849424851976906</v>
       </c>
       <c r="X134" s="18">
-        <v>13.997807555264501</v>
+        <v>14.141557142421604</v>
       </c>
       <c r="Y134" s="18"/>
       <c r="Z134" s="9"/>
@@ -15090,7 +15090,7 @@
       <c r="CL134" s="9"/>
       <c r="CM134" s="9"/>
     </row>
-    <row r="135" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -15158,10 +15158,10 @@
         <v>8.221702954599607</v>
       </c>
       <c r="W135" s="18">
-        <v>-2.6603006053145037</v>
+        <v>-2.6020618730987906</v>
       </c>
       <c r="X135" s="18">
-        <v>-4.7082826798167901</v>
+        <v>-5.1212272477809506</v>
       </c>
       <c r="Y135" s="18"/>
       <c r="Z135" s="9"/>
@@ -15231,7 +15231,7 @@
       <c r="CL135" s="9"/>
       <c r="CM135" s="9"/>
     </row>
-    <row r="136" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>7</v>
       </c>
@@ -15299,10 +15299,10 @@
         <v>-96.964974802231978</v>
       </c>
       <c r="W136" s="18">
-        <v>27.975057737139778</v>
+        <v>27.97560275065787</v>
       </c>
       <c r="X136" s="18">
-        <v>-3.4552710515721401</v>
+        <v>-3.4556822094901065</v>
       </c>
       <c r="Y136" s="18"/>
       <c r="Z136" s="9"/>
@@ -15372,7 +15372,7 @@
       <c r="CL136" s="9"/>
       <c r="CM136" s="9"/>
     </row>
-    <row r="137" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
@@ -15440,10 +15440,10 @@
         <v>3.3866204590174362</v>
       </c>
       <c r="W137" s="18">
-        <v>3.4348372459642889</v>
+        <v>3.212364486055435</v>
       </c>
       <c r="X137" s="18">
-        <v>11.518598545035672</v>
+        <v>10.816932036760534</v>
       </c>
       <c r="Y137" s="18"/>
       <c r="Z137" s="9"/>
@@ -15513,7 +15513,7 @@
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
     </row>
-    <row r="138" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -15581,10 +15581,10 @@
         <v>39.031788413602783</v>
       </c>
       <c r="W138" s="18">
-        <v>5.1440133800036278</v>
+        <v>4.6440467660893603</v>
       </c>
       <c r="X138" s="18">
-        <v>0.15329960186053881</v>
+        <v>0.85354195772066532</v>
       </c>
       <c r="Y138" s="18"/>
       <c r="Z138" s="9"/>
@@ -15654,7 +15654,7 @@
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
     </row>
-    <row r="139" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>4</v>
       </c>
@@ -15722,10 +15722,10 @@
         <v>-0.80618128551387258</v>
       </c>
       <c r="W139" s="18">
-        <v>-15.072538656510503</v>
+        <v>-15.163532524782354</v>
       </c>
       <c r="X139" s="18">
-        <v>-33.221850167956759</v>
+        <v>-33.268908051626624</v>
       </c>
       <c r="Y139" s="18"/>
       <c r="Z139" s="9"/>
@@ -15795,7 +15795,7 @@
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
     </row>
-    <row r="140" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -15863,10 +15863,10 @@
         <v>26.621040206644935</v>
       </c>
       <c r="W140" s="18">
-        <v>6.3431985875379127</v>
+        <v>6.4170637156997827</v>
       </c>
       <c r="X140" s="18">
-        <v>-3.8647583262670651</v>
+        <v>-3.100304612201171</v>
       </c>
       <c r="Y140" s="18"/>
       <c r="Z140" s="9"/>
@@ -15936,7 +15936,7 @@
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
     </row>
-    <row r="141" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>2</v>
       </c>
@@ -16004,10 +16004,10 @@
         <v>15.815892493902211</v>
       </c>
       <c r="W141" s="18">
-        <v>19.574294832127208</v>
+        <v>19.988897848362598</v>
       </c>
       <c r="X141" s="18">
-        <v>-3.9826189165546708</v>
+        <v>-3.4244017448805835</v>
       </c>
       <c r="Y141" s="18"/>
       <c r="Z141" s="9"/>
@@ -16077,7 +16077,7 @@
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
     </row>
-    <row r="142" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
@@ -16169,7 +16169,7 @@
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
     </row>
-    <row r="143" spans="1:91" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:91" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>1</v>
       </c>
@@ -16237,10 +16237,10 @@
         <v>14.344789032165338</v>
       </c>
       <c r="W143" s="18">
-        <v>22.313091429306468</v>
+        <v>22.397463636411615</v>
       </c>
       <c r="X143" s="18">
-        <v>-7.0671471915287896</v>
+        <v>-7.0773944526196999</v>
       </c>
       <c r="Y143" s="18"/>
       <c r="Z143" s="9"/>
@@ -16310,7 +16310,7 @@
       <c r="CL143" s="9"/>
       <c r="CM143" s="9"/>
     </row>
-    <row r="144" spans="1:91" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:91" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -16337,12 +16337,12 @@
       <c r="X144" s="13"/>
       <c r="Y144" s="13"/>
     </row>
-    <row r="145" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>0</v>
       </c>
@@ -16437,7 +16437,7 @@
       <c r="CL146" s="9"/>
       <c r="CM146" s="9"/>
     </row>
-    <row r="147" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -16530,37 +16530,37 @@
       <c r="CM147" s="9"/>
       <c r="CN147" s="9"/>
     </row>
-    <row r="148" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="150" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="152" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="153" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="16" t="s">
         <v>33</v>
@@ -16589,7 +16589,7 @@
       <c r="X156" s="16"/>
       <c r="Y156" s="16"/>
     </row>
-    <row r="157" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>32</v>
       </c>
@@ -16664,10 +16664,10 @@
       </c>
       <c r="Y157" s="17"/>
     </row>
-    <row r="158" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7"/>
     </row>
-    <row r="159" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>31</v>
       </c>
@@ -16735,10 +16735,10 @@
         <v>16.117678529023976</v>
       </c>
       <c r="W159" s="18">
-        <v>8.5334161739415606</v>
+        <v>8.5718782115957453</v>
       </c>
       <c r="X159" s="18">
-        <v>-9.6982195636405066</v>
+        <v>-9.6721190167930331</v>
       </c>
       <c r="Y159" s="18"/>
       <c r="Z159" s="9"/>
@@ -16808,7 +16808,7 @@
       <c r="CL159" s="9"/>
       <c r="CM159" s="9"/>
     </row>
-    <row r="160" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>30</v>
       </c>
@@ -16876,10 +16876,10 @@
         <v>15.286918657888918</v>
       </c>
       <c r="W160" s="18">
-        <v>14.632602172831795</v>
+        <v>14.761977103549</v>
       </c>
       <c r="X160" s="18">
-        <v>-6.9656355041414315</v>
+        <v>-6.9797335749590275</v>
       </c>
       <c r="Y160" s="18"/>
       <c r="Z160" s="9"/>
@@ -16949,7 +16949,7 @@
       <c r="CL160" s="9"/>
       <c r="CM160" s="9"/>
     </row>
-    <row r="161" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>29</v>
       </c>
@@ -17017,10 +17017,10 @@
         <v>31.476083126367513</v>
       </c>
       <c r="W161" s="18">
-        <v>-19.565879177485812</v>
+        <v>-19.859521013591561</v>
       </c>
       <c r="X161" s="18">
-        <v>-31.108744859573278</v>
+        <v>-30.842432022015103</v>
       </c>
       <c r="Y161" s="18"/>
       <c r="Z161" s="9"/>
@@ -17090,7 +17090,7 @@
       <c r="CL161" s="9"/>
       <c r="CM161" s="9"/>
     </row>
-    <row r="162" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>28</v>
       </c>
@@ -17158,10 +17158,10 @@
         <v>15.85277242942847</v>
       </c>
       <c r="W162" s="18">
-        <v>-15.239914413796185</v>
+        <v>-15.891998152437125</v>
       </c>
       <c r="X162" s="18">
-        <v>-33.020132434386539</v>
+        <v>-32.847699042723974</v>
       </c>
       <c r="Y162" s="18"/>
       <c r="Z162" s="9"/>
@@ -17231,7 +17231,7 @@
       <c r="CL162" s="9"/>
       <c r="CM162" s="9"/>
     </row>
-    <row r="163" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>27</v>
       </c>
@@ -17299,10 +17299,10 @@
         <v>9.3391218947805896</v>
       </c>
       <c r="W163" s="18">
-        <v>-12.294528504689211</v>
+        <v>-11.811409755783103</v>
       </c>
       <c r="X163" s="18">
-        <v>3.6678691558911254</v>
+        <v>3.2783550133479196</v>
       </c>
       <c r="Y163" s="18"/>
       <c r="Z163" s="9"/>
@@ -17372,7 +17372,7 @@
       <c r="CL163" s="9"/>
       <c r="CM163" s="9"/>
     </row>
-    <row r="164" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>26</v>
       </c>
@@ -17440,10 +17440,10 @@
         <v>113.27986192119087</v>
       </c>
       <c r="W164" s="18">
-        <v>43.218448354747522</v>
+        <v>43.126482098128236</v>
       </c>
       <c r="X164" s="18">
-        <v>-12.662449001599555</v>
+        <v>-16.068386862936691</v>
       </c>
       <c r="Y164" s="18"/>
       <c r="Z164" s="9"/>
@@ -17513,7 +17513,7 @@
       <c r="CL164" s="9"/>
       <c r="CM164" s="9"/>
     </row>
-    <row r="165" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>25</v>
       </c>
@@ -17581,10 +17581,10 @@
         <v>-17.817847755704307</v>
       </c>
       <c r="W165" s="18">
-        <v>-0.73703269385644887</v>
+        <v>-0.53072358972883649</v>
       </c>
       <c r="X165" s="18">
-        <v>21.98127496121829</v>
+        <v>22.577073793378304</v>
       </c>
       <c r="Y165" s="18"/>
       <c r="Z165" s="9"/>
@@ -17654,7 +17654,7 @@
       <c r="CL165" s="9"/>
       <c r="CM165" s="9"/>
     </row>
-    <row r="166" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>24</v>
       </c>
@@ -17722,10 +17722,10 @@
         <v>4.6540842014531023</v>
       </c>
       <c r="W166" s="18">
-        <v>15.94729966853204</v>
+        <v>15.90197336746877</v>
       </c>
       <c r="X166" s="18">
-        <v>-9.0224672659877712</v>
+        <v>-8.126754171065727</v>
       </c>
       <c r="Y166" s="18"/>
       <c r="Z166" s="9"/>
@@ -17795,7 +17795,7 @@
       <c r="CL166" s="9"/>
       <c r="CM166" s="9"/>
     </row>
-    <row r="167" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>23</v>
       </c>
@@ -17863,10 +17863,10 @@
         <v>22.736053057717555</v>
       </c>
       <c r="W167" s="18">
-        <v>-9.6082524143241699E-2</v>
+        <v>-0.21957491810613305</v>
       </c>
       <c r="X167" s="18">
-        <v>55.284494706032945</v>
+        <v>56.110545614080308</v>
       </c>
       <c r="Y167" s="18"/>
       <c r="Z167" s="9"/>
@@ -17936,7 +17936,7 @@
       <c r="CL167" s="9"/>
       <c r="CM167" s="9"/>
     </row>
-    <row r="168" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>22</v>
       </c>
@@ -18007,7 +18007,7 @@
         <v>-9.7596396184846697</v>
       </c>
       <c r="X168" s="18">
-        <v>-54.519709120105986</v>
+        <v>-54.466167098142584</v>
       </c>
       <c r="Y168" s="18"/>
       <c r="Z168" s="9"/>
@@ -18077,7 +18077,7 @@
       <c r="CL168" s="9"/>
       <c r="CM168" s="9"/>
     </row>
-    <row r="169" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -18145,10 +18145,10 @@
         <v>1.0781206295222603</v>
       </c>
       <c r="W169" s="18">
-        <v>5.1421584831871314</v>
+        <v>5.1222921270377384</v>
       </c>
       <c r="X169" s="18">
-        <v>-14.47142668348171</v>
+        <v>-14.258866647455804</v>
       </c>
       <c r="Y169" s="18"/>
       <c r="Z169" s="9"/>
@@ -18218,7 +18218,7 @@
       <c r="CL169" s="9"/>
       <c r="CM169" s="9"/>
     </row>
-    <row r="170" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>20</v>
       </c>
@@ -18289,7 +18289,7 @@
         <v>-3.6874332084159533</v>
       </c>
       <c r="X170" s="18">
-        <v>4.6876550167228288</v>
+        <v>4.6903182905740977</v>
       </c>
       <c r="Y170" s="18"/>
       <c r="Z170" s="9"/>
@@ -18359,7 +18359,7 @@
       <c r="CL170" s="9"/>
       <c r="CM170" s="9"/>
     </row>
-    <row r="171" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>19</v>
       </c>
@@ -18430,7 +18430,7 @@
         <v>35.760886302431345</v>
       </c>
       <c r="X171" s="18">
-        <v>-26.156072838934023</v>
+        <v>-25.710291475240879</v>
       </c>
       <c r="Y171" s="18"/>
       <c r="Z171" s="9"/>
@@ -18500,7 +18500,7 @@
       <c r="CL171" s="9"/>
       <c r="CM171" s="9"/>
     </row>
-    <row r="172" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>18</v>
       </c>
@@ -18571,7 +18571,7 @@
         <v>-10.573784665968574</v>
       </c>
       <c r="X172" s="18">
-        <v>42.409575228128432</v>
+        <v>51.110733910106745</v>
       </c>
       <c r="Y172" s="18"/>
       <c r="Z172" s="9"/>
@@ -18641,7 +18641,7 @@
       <c r="CL172" s="9"/>
       <c r="CM172" s="9"/>
     </row>
-    <row r="173" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>63</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>-18.621991826209211</v>
       </c>
       <c r="X173" s="18">
-        <v>-17.771257878458997</v>
+        <v>-17.739417676447758</v>
       </c>
       <c r="Y173" s="18"/>
       <c r="Z173" s="9"/>
@@ -18782,7 +18782,7 @@
       <c r="CL173" s="9"/>
       <c r="CM173" s="9"/>
     </row>
-    <row r="174" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>17</v>
       </c>
@@ -18853,7 +18853,7 @@
         <v>23.55452329752093</v>
       </c>
       <c r="X174" s="18">
-        <v>-17.759406053467615</v>
+        <v>-18.026481282060587</v>
       </c>
       <c r="Y174" s="18"/>
       <c r="Z174" s="9"/>
@@ -18923,7 +18923,7 @@
       <c r="CL174" s="9"/>
       <c r="CM174" s="9"/>
     </row>
-    <row r="175" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>16</v>
       </c>
@@ -18994,7 +18994,7 @@
         <v>-1.9230740472202257</v>
       </c>
       <c r="X175" s="18">
-        <v>-12.142105432213157</v>
+        <v>-11.607767860774189</v>
       </c>
       <c r="Y175" s="18"/>
       <c r="Z175" s="9"/>
@@ -19064,7 +19064,7 @@
       <c r="CL175" s="9"/>
       <c r="CM175" s="9"/>
     </row>
-    <row r="176" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>15</v>
       </c>
@@ -19205,7 +19205,7 @@
       <c r="CL176" s="9"/>
       <c r="CM176" s="9"/>
     </row>
-    <row r="177" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>14</v>
       </c>
@@ -19273,10 +19273,10 @@
         <v>0.20049159160873842</v>
       </c>
       <c r="W177" s="18">
-        <v>-2.3780971271663986</v>
+        <v>-2.4608505119813344</v>
       </c>
       <c r="X177" s="18">
-        <v>-15.705623033263535</v>
+        <v>-16.134586255928596</v>
       </c>
       <c r="Y177" s="18"/>
       <c r="Z177" s="9"/>
@@ -19346,7 +19346,7 @@
       <c r="CL177" s="9"/>
       <c r="CM177" s="9"/>
     </row>
-    <row r="178" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>13</v>
       </c>
@@ -19414,10 +19414,10 @@
         <v>-13.323678971885897</v>
       </c>
       <c r="W178" s="18">
-        <v>-6.9220641011165327</v>
+        <v>-6.9249180867185345</v>
       </c>
       <c r="X178" s="18">
-        <v>-6.4068994067232694</v>
+        <v>-6.69333967659027</v>
       </c>
       <c r="Y178" s="18"/>
       <c r="Z178" s="9"/>
@@ -19487,7 +19487,7 @@
       <c r="CL178" s="9"/>
       <c r="CM178" s="9"/>
     </row>
-    <row r="179" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>77</v>
       </c>
@@ -19558,7 +19558,7 @@
         <v>2.4902867879496426</v>
       </c>
       <c r="X179" s="18">
-        <v>-12.528336999137011</v>
+        <v>-13.162814998054614</v>
       </c>
       <c r="Y179" s="18"/>
       <c r="Z179" s="9"/>
@@ -19628,7 +19628,7 @@
       <c r="CL179" s="9"/>
       <c r="CM179" s="9"/>
     </row>
-    <row r="180" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>12</v>
       </c>
@@ -19696,10 +19696,10 @@
         <v>-27.631719233844635</v>
       </c>
       <c r="W180" s="18">
-        <v>-13.899065130336524</v>
+        <v>-13.904034661854453</v>
       </c>
       <c r="X180" s="18">
-        <v>-1.0055913732998079</v>
+        <v>-0.98460778576455255</v>
       </c>
       <c r="Y180" s="18"/>
       <c r="Z180" s="9"/>
@@ -19769,7 +19769,7 @@
       <c r="CL180" s="9"/>
       <c r="CM180" s="9"/>
     </row>
-    <row r="181" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>11</v>
       </c>
@@ -19837,10 +19837,10 @@
         <v>16.156999301844934</v>
       </c>
       <c r="W181" s="18">
-        <v>9.8024908057825684</v>
+        <v>12.607719536975324</v>
       </c>
       <c r="X181" s="18">
-        <v>-17.188204563363854</v>
+        <v>-17.245080792844149</v>
       </c>
       <c r="Y181" s="18"/>
       <c r="Z181" s="9"/>
@@ -19910,7 +19910,7 @@
       <c r="CL181" s="9"/>
       <c r="CM181" s="9"/>
     </row>
-    <row r="182" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -20051,7 +20051,7 @@
       <c r="CL182" s="9"/>
       <c r="CM182" s="9"/>
     </row>
-    <row r="183" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>9</v>
       </c>
@@ -20119,10 +20119,10 @@
         <v>9.117522149127339</v>
       </c>
       <c r="W183" s="18">
-        <v>15.089817540962486</v>
+        <v>15.167164576189407</v>
       </c>
       <c r="X183" s="18">
-        <v>12.027022457375452</v>
+        <v>12.358877059908721</v>
       </c>
       <c r="Y183" s="18"/>
       <c r="Z183" s="9"/>
@@ -20192,7 +20192,7 @@
       <c r="CL183" s="9"/>
       <c r="CM183" s="9"/>
     </row>
-    <row r="184" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -20260,10 +20260,10 @@
         <v>-18.186055685106822</v>
       </c>
       <c r="W184" s="18">
-        <v>-4.4691926490325926</v>
+        <v>-4.391344009309833</v>
       </c>
       <c r="X184" s="18">
-        <v>0.71336367774239307</v>
+        <v>0.15719924414965192</v>
       </c>
       <c r="Y184" s="18"/>
       <c r="Z184" s="9"/>
@@ -20333,7 +20333,7 @@
       <c r="CL184" s="9"/>
       <c r="CM184" s="9"/>
     </row>
-    <row r="185" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>7</v>
       </c>
@@ -20401,10 +20401,10 @@
         <v>-97.929772914967273</v>
       </c>
       <c r="W185" s="18">
-        <v>-26.091307422154841</v>
+        <v>-26.090921439621553</v>
       </c>
       <c r="X185" s="18">
-        <v>10.768055742573708</v>
+        <v>10.767477267836981</v>
       </c>
       <c r="Y185" s="18"/>
       <c r="Z185" s="9"/>
@@ -20474,7 +20474,7 @@
       <c r="CL185" s="9"/>
       <c r="CM185" s="9"/>
     </row>
-    <row r="186" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>6</v>
       </c>
@@ -20542,10 +20542,10 @@
         <v>5.0756781764527119</v>
       </c>
       <c r="W186" s="18">
-        <v>-11.869390758833745</v>
+        <v>-12.059946624356527</v>
       </c>
       <c r="X186" s="18">
-        <v>-0.17278353836809401</v>
+        <v>-0.81330964960227448</v>
       </c>
       <c r="Y186" s="18"/>
       <c r="Z186" s="9"/>
@@ -20615,7 +20615,7 @@
       <c r="CL186" s="9"/>
       <c r="CM186" s="9"/>
     </row>
-    <row r="187" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -20683,10 +20683,10 @@
         <v>18.897383641201444</v>
       </c>
       <c r="W187" s="18">
-        <v>-22.664205114908668</v>
+        <v>-22.977350879241627</v>
       </c>
       <c r="X187" s="18">
-        <v>15.397422220518891</v>
+        <v>16.138133587518894</v>
       </c>
       <c r="Y187" s="18"/>
       <c r="Z187" s="9"/>
@@ -20756,7 +20756,7 @@
       <c r="CL187" s="9"/>
       <c r="CM187" s="9"/>
     </row>
-    <row r="188" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>4</v>
       </c>
@@ -20824,10 +20824,10 @@
         <v>1.9912194543302491</v>
       </c>
       <c r="W188" s="18">
-        <v>-27.808288607119522</v>
+        <v>-27.88153188145975</v>
       </c>
       <c r="X188" s="18">
-        <v>-35.403610792140242</v>
+        <v>-35.433144141547487</v>
       </c>
       <c r="Y188" s="18"/>
       <c r="Z188" s="9"/>
@@ -20897,7 +20897,7 @@
       <c r="CL188" s="9"/>
       <c r="CM188" s="9"/>
     </row>
-    <row r="189" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
@@ -20965,10 +20965,10 @@
         <v>18.338922630376047</v>
       </c>
       <c r="W189" s="18">
-        <v>-11.357815256608248</v>
+        <v>-11.273752536878192</v>
       </c>
       <c r="X189" s="18">
-        <v>-8.3316617214020425</v>
+        <v>-7.5949130800475331</v>
       </c>
       <c r="Y189" s="18"/>
       <c r="Z189" s="9"/>
@@ -21038,7 +21038,7 @@
       <c r="CL189" s="9"/>
       <c r="CM189" s="9"/>
     </row>
-    <row r="190" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>2</v>
       </c>
@@ -21106,10 +21106,10 @@
         <v>15.682284549379673</v>
       </c>
       <c r="W190" s="18">
-        <v>2.5207400118722632</v>
+        <v>3.0295924901011233</v>
       </c>
       <c r="X190" s="18">
-        <v>-2.6548534522906095</v>
+        <v>-2.5002084650321592</v>
       </c>
       <c r="Y190" s="18"/>
       <c r="Z190" s="9"/>
@@ -21179,7 +21179,7 @@
       <c r="CL190" s="9"/>
       <c r="CM190" s="9"/>
     </row>
-    <row r="191" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
@@ -21271,7 +21271,7 @@
       <c r="CL191" s="9"/>
       <c r="CM191" s="9"/>
     </row>
-    <row r="192" spans="1:91" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:91" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
         <v>1</v>
       </c>
@@ -21339,10 +21339,10 @@
         <v>11.688194086895876</v>
       </c>
       <c r="W192" s="18">
-        <v>4.9613325313513599</v>
+        <v>5.0736399897343176</v>
       </c>
       <c r="X192" s="18">
-        <v>-7.2986838941127274</v>
+        <v>-7.2526759082837486</v>
       </c>
       <c r="Y192" s="18"/>
       <c r="Z192" s="9"/>
@@ -21412,7 +21412,7 @@
       <c r="CL192" s="9"/>
       <c r="CM192" s="9"/>
     </row>
-    <row r="193" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -21439,12 +21439,12 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
     </row>
-    <row r="194" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="14" t="s">
         <v>0</v>
       </c>
@@ -21540,7 +21540,7 @@
       <c r="CM195" s="9"/>
       <c r="CN195" s="9"/>
     </row>
-    <row r="196" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -21633,32 +21633,32 @@
       <c r="CM196" s="9"/>
       <c r="CN196" s="9"/>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="202" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A204" s="3"/>
       <c r="B204" s="16" t="s">
         <v>33</v>
@@ -21687,7 +21687,7 @@
       <c r="X204" s="16"/>
       <c r="Y204" s="16"/>
     </row>
-    <row r="205" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>32</v>
       </c>
@@ -21764,10 +21764,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="206" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7"/>
     </row>
-    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>31</v>
       </c>
@@ -21838,10 +21838,10 @@
         <v>88.068906007815656</v>
       </c>
       <c r="X207" s="18">
-        <v>104.29635486259153</v>
+        <v>104.2781001611328</v>
       </c>
       <c r="Y207" s="18">
-        <v>104.96328959291155</v>
+        <v>104.76347591102302</v>
       </c>
       <c r="Z207" s="9"/>
       <c r="AA207" s="9"/>
@@ -21915,7 +21915,7 @@
       <c r="CQ207" s="9"/>
       <c r="CR207" s="9"/>
     </row>
-    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
         <v>30</v>
       </c>
@@ -21986,10 +21986,10 @@
         <v>86.735491998289106</v>
       </c>
       <c r="X208" s="18">
-        <v>104.07233485018142</v>
+        <v>104.06017438635982</v>
       </c>
       <c r="Y208" s="18">
-        <v>104.1353891297606</v>
+        <v>104.0917816168575</v>
       </c>
       <c r="Z208" s="9"/>
       <c r="AA208" s="9"/>
@@ -22063,7 +22063,7 @@
       <c r="CQ208" s="9"/>
       <c r="CR208" s="9"/>
     </row>
-    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>29</v>
       </c>
@@ -22134,10 +22134,10 @@
         <v>86.264749141593072</v>
       </c>
       <c r="X209" s="18">
-        <v>99.783927002779123</v>
+        <v>99.673236907411123</v>
       </c>
       <c r="Y209" s="18">
-        <v>102.65832586721073</v>
+        <v>102.17898510785513</v>
       </c>
       <c r="Z209" s="9"/>
       <c r="AA209" s="9"/>
@@ -22211,7 +22211,7 @@
       <c r="CQ209" s="9"/>
       <c r="CR209" s="9"/>
     </row>
-    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>28</v>
       </c>
@@ -22282,10 +22282,10 @@
         <v>94.774744069966005</v>
       </c>
       <c r="X210" s="18">
-        <v>108.36611089063879</v>
+        <v>108.36522538586382</v>
       </c>
       <c r="Y210" s="18">
-        <v>100.70213385548523</v>
+        <v>100.49571282598262</v>
       </c>
       <c r="Z210" s="9"/>
       <c r="AA210" s="9"/>
@@ -22359,7 +22359,7 @@
       <c r="CQ210" s="9"/>
       <c r="CR210" s="9"/>
     </row>
-    <row r="211" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>27</v>
       </c>
@@ -22430,10 +22430,10 @@
         <v>101.13416743344175</v>
       </c>
       <c r="X211" s="18">
-        <v>112.65400675822077</v>
+        <v>112.58577809914686</v>
       </c>
       <c r="Y211" s="18">
-        <v>113.95452133150663</v>
+        <v>113.15229983004645</v>
       </c>
       <c r="Z211" s="9"/>
       <c r="AA211" s="9"/>
@@ -22507,7 +22507,7 @@
       <c r="CQ211" s="9"/>
       <c r="CR211" s="9"/>
     </row>
-    <row r="212" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>26</v>
       </c>
@@ -22578,10 +22578,10 @@
         <v>92.062098822165879</v>
       </c>
       <c r="X212" s="18">
-        <v>106.56265541537326</v>
+        <v>106.54188311435921</v>
       </c>
       <c r="Y212" s="18">
-        <v>108.21410667442069</v>
+        <v>107.80100036774955</v>
       </c>
       <c r="Z212" s="9"/>
       <c r="AA212" s="9"/>
@@ -22655,7 +22655,7 @@
       <c r="CQ212" s="9"/>
       <c r="CR212" s="9"/>
     </row>
-    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>25</v>
       </c>
@@ -22726,10 +22726,10 @@
         <v>102.56376738915462</v>
       </c>
       <c r="X213" s="18">
-        <v>112.85218317178351</v>
+        <v>112.86688543151212</v>
       </c>
       <c r="Y213" s="18">
-        <v>112.6266093805429</v>
+        <v>111.83921082243289</v>
       </c>
       <c r="Z213" s="9"/>
       <c r="AA213" s="9"/>
@@ -22803,7 +22803,7 @@
       <c r="CQ213" s="9"/>
       <c r="CR213" s="9"/>
     </row>
-    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>24</v>
       </c>
@@ -22874,10 +22874,10 @@
         <v>90.044583150432899</v>
       </c>
       <c r="X214" s="18">
-        <v>104.7263115055392</v>
+        <v>104.74739643827513</v>
       </c>
       <c r="Y214" s="18">
-        <v>109.91696045850996</v>
+        <v>108.7870362068807</v>
       </c>
       <c r="Z214" s="9"/>
       <c r="AA214" s="9"/>
@@ -22951,7 +22951,7 @@
       <c r="CQ214" s="9"/>
       <c r="CR214" s="9"/>
     </row>
-    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>23</v>
       </c>
@@ -23022,10 +23022,10 @@
         <v>115.09498118296958</v>
       </c>
       <c r="X215" s="18">
-        <v>123.17736346606642</v>
+        <v>123.14662350981997</v>
       </c>
       <c r="Y215" s="18">
-        <v>123.0266043850589</v>
+        <v>122.79814140871804</v>
       </c>
       <c r="Z215" s="9"/>
       <c r="AA215" s="9"/>
@@ -23099,7 +23099,7 @@
       <c r="CQ215" s="9"/>
       <c r="CR215" s="9"/>
     </row>
-    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
         <v>22</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>115.66967150220229</v>
       </c>
       <c r="Y216" s="18">
-        <v>114.76627315381029</v>
+        <v>114.40977304459491</v>
       </c>
       <c r="Z216" s="9"/>
       <c r="AA216" s="9"/>
@@ -23247,7 +23247,7 @@
       <c r="CQ216" s="9"/>
       <c r="CR216" s="9"/>
     </row>
-    <row r="217" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>21</v>
       </c>
@@ -23318,10 +23318,10 @@
         <v>115.60952278915644</v>
       </c>
       <c r="X217" s="18">
-        <v>133.75091009915278</v>
+        <v>133.7511430556066</v>
       </c>
       <c r="Y217" s="18">
-        <v>129.0329133176354</v>
+        <v>128.98759575625337</v>
       </c>
       <c r="Z217" s="9"/>
       <c r="AA217" s="9"/>
@@ -23395,7 +23395,7 @@
       <c r="CQ217" s="9"/>
       <c r="CR217" s="9"/>
     </row>
-    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
         <v>20</v>
       </c>
@@ -23469,7 +23469,7 @@
         <v>136.97547235088982</v>
       </c>
       <c r="Y218" s="18">
-        <v>147.22314408468532</v>
+        <v>147.2253363208082</v>
       </c>
       <c r="Z218" s="9"/>
       <c r="AA218" s="9"/>
@@ -23543,7 +23543,7 @@
       <c r="CQ218" s="9"/>
       <c r="CR218" s="9"/>
     </row>
-    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>19</v>
       </c>
@@ -23617,7 +23617,7 @@
         <v>142.3612854295088</v>
       </c>
       <c r="Y219" s="18">
-        <v>111.46906913033901</v>
+        <v>111.475405712056</v>
       </c>
       <c r="Z219" s="9"/>
       <c r="AA219" s="9"/>
@@ -23691,7 +23691,7 @@
       <c r="CQ219" s="9"/>
       <c r="CR219" s="9"/>
     </row>
-    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
         <v>18</v>
       </c>
@@ -23765,7 +23765,7 @@
         <v>158.37203518264258</v>
       </c>
       <c r="Y220" s="18">
-        <v>112.39611267111999</v>
+        <v>112.2339859671437</v>
       </c>
       <c r="Z220" s="9"/>
       <c r="AA220" s="9"/>
@@ -23839,7 +23839,7 @@
       <c r="CQ220" s="9"/>
       <c r="CR220" s="9"/>
     </row>
-    <row r="221" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
         <v>63</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>109.8348926416308</v>
       </c>
       <c r="Y221" s="18">
-        <v>94.105470285986371</v>
+        <v>94.08808384194954</v>
       </c>
       <c r="Z221" s="9"/>
       <c r="AA221" s="9"/>
@@ -23987,7 +23987,7 @@
       <c r="CQ221" s="9"/>
       <c r="CR221" s="9"/>
     </row>
-    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
         <v>17</v>
       </c>
@@ -24061,7 +24061,7 @@
         <v>117.77666749785567</v>
       </c>
       <c r="Y222" s="18">
-        <v>126.59509966968739</v>
+        <v>126.59924263305152</v>
       </c>
       <c r="Z222" s="9"/>
       <c r="AA222" s="9"/>
@@ -24135,7 +24135,7 @@
       <c r="CQ222" s="9"/>
       <c r="CR222" s="9"/>
     </row>
-    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
         <v>16</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>128.74472530395704</v>
       </c>
       <c r="Y223" s="18">
-        <v>144.1101086416588</v>
+        <v>144.0746645758679</v>
       </c>
       <c r="Z223" s="9"/>
       <c r="AA223" s="9"/>
@@ -24283,7 +24283,7 @@
       <c r="CQ223" s="9"/>
       <c r="CR223" s="9"/>
     </row>
-    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
         <v>15</v>
       </c>
@@ -24431,7 +24431,7 @@
       <c r="CQ224" s="9"/>
       <c r="CR224" s="9"/>
     </row>
-    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>14</v>
       </c>
@@ -24502,10 +24502,10 @@
         <v>107.47233096720439</v>
       </c>
       <c r="X225" s="18">
-        <v>129.58872489419565</v>
+        <v>129.58623946924084</v>
       </c>
       <c r="Y225" s="18">
-        <v>135.98961787620922</v>
+        <v>136.01489217189345</v>
       </c>
       <c r="Z225" s="9"/>
       <c r="AA225" s="9"/>
@@ -24579,7 +24579,7 @@
       <c r="CQ225" s="9"/>
       <c r="CR225" s="9"/>
     </row>
-    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>13</v>
       </c>
@@ -24650,10 +24650,10 @@
         <v>116.29395037229526</v>
       </c>
       <c r="X226" s="18">
-        <v>136.13610531846672</v>
+        <v>136.13622332648544</v>
       </c>
       <c r="Y226" s="18">
-        <v>145.93766914801677</v>
+        <v>145.92147577084816</v>
       </c>
       <c r="Z226" s="9"/>
       <c r="AA226" s="9"/>
@@ -24727,7 +24727,7 @@
       <c r="CQ226" s="9"/>
       <c r="CR226" s="9"/>
     </row>
-    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>77</v>
       </c>
@@ -24801,7 +24801,7 @@
         <v>133.79330786542786</v>
       </c>
       <c r="Y227" s="18">
-        <v>149.17888364096405</v>
+        <v>149.16277126421642</v>
       </c>
       <c r="Z227" s="9"/>
       <c r="AA227" s="9"/>
@@ -24875,7 +24875,7 @@
       <c r="CQ227" s="9"/>
       <c r="CR227" s="9"/>
     </row>
-    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>12</v>
       </c>
@@ -24946,10 +24946,10 @@
         <v>111.95894423238326</v>
       </c>
       <c r="X228" s="18">
-        <v>138.20329468579195</v>
+        <v>138.20363614521466</v>
       </c>
       <c r="Y228" s="18">
-        <v>143.41064140866911</v>
+        <v>143.41310208481332</v>
       </c>
       <c r="Z228" s="9"/>
       <c r="AA228" s="9"/>
@@ -25023,7 +25023,7 @@
       <c r="CQ228" s="9"/>
       <c r="CR228" s="9"/>
     </row>
-    <row r="229" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -25094,10 +25094,10 @@
         <v>87.699846207204416</v>
       </c>
       <c r="X229" s="18">
-        <v>99.01666719997597</v>
+        <v>99.044413174480866</v>
       </c>
       <c r="Y229" s="18">
-        <v>101.1854353101987</v>
+        <v>101.16684904167637</v>
       </c>
       <c r="Z229" s="9"/>
       <c r="AA229" s="9"/>
@@ -25171,7 +25171,7 @@
       <c r="CQ229" s="9"/>
       <c r="CR229" s="9"/>
     </row>
-    <row r="230" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -25319,7 +25319,7 @@
       <c r="CQ230" s="9"/>
       <c r="CR230" s="9"/>
     </row>
-    <row r="231" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>9</v>
       </c>
@@ -25390,10 +25390,10 @@
         <v>105.97699742922335</v>
       </c>
       <c r="X231" s="18">
-        <v>103.83395185791993</v>
+        <v>103.84420986170464</v>
       </c>
       <c r="Y231" s="18">
-        <v>105.66060403957884</v>
+        <v>105.49179667859711</v>
       </c>
       <c r="Z231" s="9"/>
       <c r="AA231" s="9"/>
@@ -25467,7 +25467,7 @@
       <c r="CQ231" s="9"/>
       <c r="CR231" s="9"/>
     </row>
-    <row r="232" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>8</v>
       </c>
@@ -25538,10 +25538,10 @@
         <v>112.48618350616904</v>
       </c>
       <c r="X232" s="18">
-        <v>114.61612847381681</v>
+        <v>114.59132259250597</v>
       </c>
       <c r="Y232" s="18">
-        <v>108.44606233000343</v>
+        <v>108.55219732260701</v>
       </c>
       <c r="Z232" s="9"/>
       <c r="AA232" s="9"/>
@@ -25615,7 +25615,7 @@
       <c r="CQ232" s="9"/>
       <c r="CR232" s="9"/>
     </row>
-    <row r="233" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>7</v>
       </c>
@@ -25686,7 +25686,7 @@
         <v>71.820372014632866</v>
       </c>
       <c r="X233" s="18">
-        <v>124.35906974805089</v>
+        <v>124.3589499068172</v>
       </c>
       <c r="Y233" s="18">
         <v>108.39056983185469</v>
@@ -25763,7 +25763,7 @@
       <c r="CQ233" s="9"/>
       <c r="CR233" s="9"/>
     </row>
-    <row r="234" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>6</v>
       </c>
@@ -25834,10 +25834,10 @@
         <v>82.020429046315996</v>
       </c>
       <c r="X234" s="18">
-        <v>96.263600153203583</v>
+        <v>96.26469501752301</v>
       </c>
       <c r="Y234" s="18">
-        <v>107.53762511359773</v>
+        <v>107.55231500930458</v>
       </c>
       <c r="Z234" s="9"/>
       <c r="AA234" s="9"/>
@@ -25911,7 +25911,7 @@
       <c r="CQ234" s="9"/>
       <c r="CR234" s="9"/>
     </row>
-    <row r="235" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -25982,10 +25982,10 @@
         <v>90.689630968347302</v>
       </c>
       <c r="X235" s="18">
-        <v>123.29958961605931</v>
+        <v>123.21219917237872</v>
       </c>
       <c r="Y235" s="18">
-        <v>107.01158225185972</v>
+        <v>106.99661097593159</v>
       </c>
       <c r="Z235" s="9"/>
       <c r="AA235" s="9"/>
@@ -26059,7 +26059,7 @@
       <c r="CQ235" s="9"/>
       <c r="CR235" s="9"/>
     </row>
-    <row r="236" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>4</v>
       </c>
@@ -26130,10 +26130,10 @@
         <v>81.741206932669286</v>
       </c>
       <c r="X236" s="18">
-        <v>96.161637645136523</v>
+        <v>96.156163937509845</v>
       </c>
       <c r="Y236" s="18">
-        <v>99.409523125175568</v>
+        <v>99.379251657905058</v>
       </c>
       <c r="Z236" s="9"/>
       <c r="AA236" s="9"/>
@@ -26207,7 +26207,7 @@
       <c r="CQ236" s="9"/>
       <c r="CR236" s="9"/>
     </row>
-    <row r="237" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>3</v>
       </c>
@@ -26278,10 +26278,10 @@
         <v>90.643948596222344</v>
       </c>
       <c r="X237" s="18">
-        <v>108.7446959281457</v>
+        <v>108.71712857253544</v>
       </c>
       <c r="Y237" s="18">
-        <v>114.04371258499901</v>
+        <v>114.00515916662333</v>
       </c>
       <c r="Z237" s="9"/>
       <c r="AA237" s="9"/>
@@ -26355,7 +26355,7 @@
       <c r="CQ237" s="9"/>
       <c r="CR237" s="9"/>
     </row>
-    <row r="238" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
@@ -26426,10 +26426,10 @@
         <v>85.71815948121187</v>
       </c>
       <c r="X238" s="18">
-        <v>99.97673127492817</v>
+        <v>99.827896366075294</v>
       </c>
       <c r="Y238" s="18">
-        <v>98.613071598769579</v>
+        <v>98.881635153508071</v>
       </c>
       <c r="Z238" s="9"/>
       <c r="AA238" s="9"/>
@@ -26503,7 +26503,7 @@
       <c r="CQ238" s="9"/>
       <c r="CR238" s="9"/>
     </row>
-    <row r="239" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
@@ -26600,7 +26600,7 @@
       <c r="CQ239" s="9"/>
       <c r="CR239" s="9"/>
     </row>
-    <row r="240" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
         <v>1</v>
       </c>
@@ -26671,10 +26671,10 @@
         <v>91.692976513178337</v>
       </c>
       <c r="X240" s="18">
-        <v>106.85126750207463</v>
+        <v>106.8106878145896</v>
       </c>
       <c r="Y240" s="18">
-        <v>107.11814602315286</v>
+        <v>107.0125473617406</v>
       </c>
       <c r="Z240" s="9"/>
       <c r="AA240" s="9"/>
@@ -26748,7 +26748,7 @@
       <c r="CQ240" s="9"/>
       <c r="CR240" s="9"/>
     </row>
-    <row r="241" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="C241" s="13"/>
@@ -26775,42 +26775,42 @@
       <c r="X241" s="13"/>
       <c r="Y241" s="13"/>
     </row>
-    <row r="242" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="249" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="251" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="253" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="16" t="s">
         <v>33</v>
@@ -26839,7 +26839,7 @@
       <c r="X253" s="16"/>
       <c r="Y253" s="16"/>
     </row>
-    <row r="254" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>32</v>
       </c>
@@ -26916,10 +26916,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="255" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7"/>
     </row>
-    <row r="256" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>31</v>
       </c>
@@ -26990,10 +26990,10 @@
         <v>59.974450941003035</v>
       </c>
       <c r="X256" s="18">
-        <v>63.023619195651825</v>
+        <v>62.991466885917966</v>
       </c>
       <c r="Y256" s="18">
-        <v>61.630925065930612</v>
+        <v>61.517539147217128</v>
       </c>
       <c r="Z256" s="9"/>
       <c r="AA256" s="9"/>
@@ -27067,7 +27067,7 @@
       <c r="CQ256" s="9"/>
       <c r="CR256" s="9"/>
     </row>
-    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
         <v>30</v>
       </c>
@@ -27138,10 +27138,10 @@
         <v>41.221304419740811</v>
       </c>
       <c r="X257" s="18">
-        <v>46.354872446131473</v>
+        <v>46.369780165575072</v>
       </c>
       <c r="Y257" s="18">
-        <v>46.433622130698218</v>
+        <v>46.432613571416958</v>
       </c>
       <c r="Z257" s="9"/>
       <c r="AA257" s="9"/>
@@ -27215,7 +27215,7 @@
       <c r="CQ257" s="9"/>
       <c r="CR257" s="9"/>
     </row>
-    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
         <v>29</v>
       </c>
@@ -27286,10 +27286,10 @@
         <v>7.4231632855357912</v>
       </c>
       <c r="X258" s="18">
-        <v>5.6465557162726494</v>
+        <v>5.615827093888182</v>
       </c>
       <c r="Y258" s="18">
-        <v>4.3063768480403208</v>
+        <v>4.2846473573380788</v>
       </c>
       <c r="Z258" s="9"/>
       <c r="AA258" s="9"/>
@@ -27363,7 +27363,7 @@
       <c r="CQ258" s="9"/>
       <c r="CR258" s="9"/>
     </row>
-    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
         <v>28</v>
       </c>
@@ -27434,10 +27434,10 @@
         <v>2.6859847943055715</v>
       </c>
       <c r="X259" s="18">
-        <v>2.1282510700445085</v>
+        <v>2.1104047966449593</v>
       </c>
       <c r="Y259" s="18">
-        <v>1.4254207009658122</v>
+        <v>1.4143694954104091</v>
       </c>
       <c r="Z259" s="9"/>
       <c r="AA259" s="9"/>
@@ -27511,7 +27511,7 @@
       <c r="CQ259" s="9"/>
       <c r="CR259" s="9"/>
     </row>
-    <row r="260" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
         <v>27</v>
       </c>
@@ -27582,10 +27582,10 @@
         <v>2.1082512932137321</v>
       </c>
       <c r="X260" s="18">
-        <v>1.6839331994552147</v>
+        <v>1.6910170533459927</v>
       </c>
       <c r="Y260" s="18">
-        <v>1.9001359749318665</v>
+        <v>1.8889296003229503</v>
       </c>
       <c r="Z260" s="9"/>
       <c r="AA260" s="9"/>
@@ -27659,7 +27659,7 @@
       <c r="CQ260" s="9"/>
       <c r="CR260" s="9"/>
     </row>
-    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
         <v>26</v>
       </c>
@@ -27730,10 +27730,10 @@
         <v>1.0729253908094534</v>
       </c>
       <c r="X261" s="18">
-        <v>1.4541851542810376</v>
+        <v>1.4519665072864629</v>
       </c>
       <c r="Y261" s="18">
-        <v>1.3878108928741815</v>
+        <v>1.3269764401364654</v>
       </c>
       <c r="Z261" s="9"/>
       <c r="AA261" s="9"/>
@@ -27807,7 +27807,7 @@
       <c r="CQ261" s="9"/>
       <c r="CR261" s="9"/>
     </row>
-    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
         <v>25</v>
       </c>
@@ -27878,10 +27878,10 @@
         <v>0.89145340713651899</v>
       </c>
       <c r="X262" s="18">
-        <v>0.79602912851847596</v>
+        <v>0.79723758581695292</v>
       </c>
       <c r="Y262" s="18">
-        <v>1.0427588966468595</v>
+        <v>1.0420851064882941</v>
       </c>
       <c r="Z262" s="9"/>
       <c r="AA262" s="9"/>
@@ -27955,7 +27955,7 @@
       <c r="CQ262" s="9"/>
       <c r="CR262" s="9"/>
     </row>
-    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
         <v>24</v>
       </c>
@@ -28026,10 +28026,10 @@
         <v>4.2187582225155129</v>
       </c>
       <c r="X263" s="18">
-        <v>4.651259266229995</v>
+        <v>4.6471714346073822</v>
       </c>
       <c r="Y263" s="18">
-        <v>4.7790803950315164</v>
+        <v>4.7718884511860056</v>
       </c>
       <c r="Z263" s="9"/>
       <c r="AA263" s="9"/>
@@ -28103,7 +28103,7 @@
       <c r="CQ263" s="9"/>
       <c r="CR263" s="9"/>
     </row>
-    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
         <v>23</v>
       </c>
@@ -28174,10 +28174,10 @@
         <v>0.19905914082144804</v>
       </c>
       <c r="X264" s="18">
-        <v>0.17400679919056067</v>
+        <v>0.17362856627892995</v>
       </c>
       <c r="Y264" s="18">
-        <v>0.29039770227134193</v>
+        <v>0.29087160467176504</v>
       </c>
       <c r="Z264" s="9"/>
       <c r="AA264" s="9"/>
@@ -28251,7 +28251,7 @@
       <c r="CQ264" s="9"/>
       <c r="CR264" s="9"/>
     </row>
-    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
         <v>22</v>
       </c>
@@ -28322,10 +28322,10 @@
         <v>0.15355098692418603</v>
       </c>
       <c r="X265" s="18">
-        <v>0.13452641552792236</v>
+        <v>0.13443368247402712</v>
       </c>
       <c r="Y265" s="18">
-        <v>6.5321524470502934E-2</v>
+        <v>6.5157520246208175E-2</v>
       </c>
       <c r="Z265" s="9"/>
       <c r="AA265" s="9"/>
@@ -28399,7 +28399,7 @@
       <c r="CQ265" s="9"/>
       <c r="CR265" s="9"/>
     </row>
-    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>21</v>
       </c>
@@ -28470,10 +28470,10 @@
         <v>8.0382781518996449</v>
       </c>
       <c r="X266" s="18">
-        <v>7.9941098728765718</v>
+        <v>7.9871037802800418</v>
       </c>
       <c r="Y266" s="18">
-        <v>7.0976704145549725</v>
+        <v>7.1073485486950911</v>
       </c>
       <c r="Z266" s="9"/>
       <c r="AA266" s="9"/>
@@ -28547,7 +28547,7 @@
       <c r="CQ266" s="9"/>
       <c r="CR266" s="9"/>
     </row>
-    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
         <v>20</v>
       </c>
@@ -28618,10 +28618,10 @@
         <v>1.8215322735799688</v>
       </c>
       <c r="X267" s="18">
-        <v>1.5673590032969402</v>
+        <v>1.5662785761826403</v>
       </c>
       <c r="Y267" s="18">
-        <v>1.8977017894741999</v>
+        <v>1.8966792687253973</v>
       </c>
       <c r="Z267" s="9"/>
       <c r="AA267" s="9"/>
@@ -28695,7 +28695,7 @@
       <c r="CQ267" s="9"/>
       <c r="CR267" s="9"/>
     </row>
-    <row r="268" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
         <v>19</v>
       </c>
@@ -28766,10 +28766,10 @@
         <v>2.2334746445620812</v>
       </c>
       <c r="X268" s="18">
-        <v>2.8808925954315958</v>
+        <v>2.8789067105979731</v>
       </c>
       <c r="Y268" s="18">
-        <v>1.7924005029585897</v>
+        <v>1.8022790250595395</v>
       </c>
       <c r="Z268" s="9"/>
       <c r="AA268" s="9"/>
@@ -28843,7 +28843,7 @@
       <c r="CQ268" s="9"/>
       <c r="CR268" s="9"/>
     </row>
-    <row r="269" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
         <v>18</v>
       </c>
@@ -28914,10 +28914,10 @@
         <v>0.10577855857951979</v>
       </c>
       <c r="X269" s="18">
-        <v>9.312692793238847E-2</v>
+        <v>9.3062732774930643E-2</v>
       </c>
       <c r="Y269" s="18">
-        <v>0.10127867055655483</v>
+        <v>0.10724958655978203</v>
       </c>
       <c r="Z269" s="9"/>
       <c r="AA269" s="9"/>
@@ -28991,7 +28991,7 @@
       <c r="CQ269" s="9"/>
       <c r="CR269" s="9"/>
     </row>
-    <row r="270" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
         <v>63</v>
       </c>
@@ -29062,10 +29062,10 @@
         <v>0.62145430503418864</v>
       </c>
       <c r="X270" s="18">
-        <v>0.48730563655686993</v>
+        <v>0.48696972230775426</v>
       </c>
       <c r="Y270" s="18">
-        <v>0.36942846208584296</v>
+        <v>0.36928924039576194</v>
       </c>
       <c r="Z270" s="9"/>
       <c r="AA270" s="9"/>
@@ -29139,7 +29139,7 @@
       <c r="CQ270" s="9"/>
       <c r="CR270" s="9"/>
     </row>
-    <row r="271" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
         <v>17</v>
       </c>
@@ -29210,10 +29210,10 @@
         <v>0.13967925628275896</v>
       </c>
       <c r="X271" s="18">
-        <v>0.16417423307424889</v>
+        <v>0.16406106289912648</v>
       </c>
       <c r="Y271" s="18">
-        <v>0.15616352319493668</v>
+        <v>0.15557133029428061</v>
       </c>
       <c r="Z271" s="9"/>
       <c r="AA271" s="9"/>
@@ -29287,7 +29287,7 @@
       <c r="CQ271" s="9"/>
       <c r="CR271" s="9"/>
     </row>
-    <row r="272" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
         <v>16</v>
       </c>
@@ -29358,10 +29358,10 @@
         <v>1.2283986793655748</v>
       </c>
       <c r="X272" s="18">
-        <v>1.0748370732746859</v>
+        <v>1.0740961561555205</v>
       </c>
       <c r="Y272" s="18">
-        <v>1.1374155485952053</v>
+        <v>1.1433891239106506</v>
       </c>
       <c r="Z272" s="9"/>
       <c r="AA272" s="9"/>
@@ -29435,7 +29435,7 @@
       <c r="CQ272" s="9"/>
       <c r="CR272" s="9"/>
     </row>
-    <row r="273" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
         <v>15</v>
       </c>
@@ -29506,10 +29506,10 @@
         <v>9.4059151530236709E-2</v>
       </c>
       <c r="X273" s="18">
-        <v>6.5040807037614082E-6</v>
+        <v>6.4995972477496346E-6</v>
       </c>
       <c r="Y273" s="18">
-        <v>2.9859054496376009E-6</v>
+        <v>2.9841762271608566E-6</v>
       </c>
       <c r="Z273" s="9"/>
       <c r="AA273" s="9"/>
@@ -29583,7 +29583,7 @@
       <c r="CQ273" s="9"/>
       <c r="CR273" s="9"/>
     </row>
-    <row r="274" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
         <v>14</v>
       </c>
@@ -29654,10 +29654,10 @@
         <v>1.7939012829653156</v>
       </c>
       <c r="X274" s="18">
-        <v>1.7264078992291383</v>
+        <v>1.7237223197648501</v>
       </c>
       <c r="Y274" s="18">
-        <v>1.643278931784194</v>
+        <v>1.632887989573454</v>
       </c>
       <c r="Z274" s="9"/>
       <c r="AA274" s="9"/>
@@ -29731,7 +29731,7 @@
       <c r="CQ274" s="9"/>
       <c r="CR274" s="9"/>
     </row>
-    <row r="275" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>13</v>
       </c>
@@ -29802,10 +29802,10 @@
         <v>1.0463975084433874</v>
       </c>
       <c r="X275" s="18">
-        <v>0.93215191531973229</v>
+        <v>0.93148160052196682</v>
       </c>
       <c r="Y275" s="18">
-        <v>1.0063645869465903</v>
+        <v>1.0025615900600862</v>
       </c>
       <c r="Z275" s="9"/>
       <c r="AA275" s="9"/>
@@ -29879,7 +29879,7 @@
       <c r="CQ275" s="9"/>
       <c r="CR275" s="9"/>
     </row>
-    <row r="276" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
         <v>77</v>
       </c>
@@ -29950,10 +29950,10 @@
         <v>0.46785576960366276</v>
       </c>
       <c r="X276" s="18">
-        <v>0.42942837406849149</v>
+        <v>0.42913235633546576</v>
       </c>
       <c r="Y276" s="18">
-        <v>0.45067328266920165</v>
+        <v>0.44709691283808739</v>
       </c>
       <c r="Z276" s="9"/>
       <c r="AA276" s="9"/>
@@ -30027,7 +30027,7 @@
       <c r="CQ276" s="9"/>
       <c r="CR276" s="9"/>
     </row>
-    <row r="277" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
         <v>12</v>
       </c>
@@ -30098,10 +30098,10 @@
         <v>0.57854173883972482</v>
       </c>
       <c r="X277" s="18">
-        <v>0.50272354125124097</v>
+        <v>0.50234924418650106</v>
       </c>
       <c r="Y277" s="18">
-        <v>0.55569130427738866</v>
+        <v>0.55546467722199888</v>
       </c>
       <c r="Z277" s="9"/>
       <c r="AA277" s="9"/>
@@ -30175,7 +30175,7 @@
       <c r="CQ277" s="9"/>
       <c r="CR277" s="9"/>
     </row>
-    <row r="278" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>11</v>
       </c>
@@ -30246,10 +30246,10 @@
         <v>1.200078090581099</v>
       </c>
       <c r="X278" s="18">
-        <v>1.216349073218832</v>
+        <v>1.2469137202534371</v>
       </c>
       <c r="Y278" s="18">
-        <v>1.107620181305893</v>
+        <v>1.1342716675710431</v>
       </c>
       <c r="Z278" s="9"/>
       <c r="AA278" s="9"/>
@@ -30323,7 +30323,7 @@
       <c r="CQ278" s="9"/>
       <c r="CR278" s="9"/>
     </row>
-    <row r="279" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>10</v>
       </c>
@@ -30394,10 +30394,10 @@
         <v>3.1873263081651011</v>
       </c>
       <c r="X279" s="18">
-        <v>2.6503689497484344</v>
+        <v>2.6485419717107397</v>
       </c>
       <c r="Y279" s="18">
-        <v>3.0338597199004096</v>
+        <v>3.0321027257465665</v>
       </c>
       <c r="Z279" s="9"/>
       <c r="AA279" s="9"/>
@@ -30471,7 +30471,7 @@
       <c r="CQ279" s="9"/>
       <c r="CR279" s="9"/>
     </row>
-    <row r="280" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>9</v>
       </c>
@@ -30542,10 +30542,10 @@
         <v>3.6148134458282506</v>
       </c>
       <c r="X280" s="18">
-        <v>3.3325572594046173</v>
+        <v>3.3328273821154353</v>
       </c>
       <c r="Y280" s="18">
-        <v>4.0879431723404203</v>
+        <v>4.0938811911337014</v>
       </c>
       <c r="Z280" s="9"/>
       <c r="AA280" s="9"/>
@@ -30619,7 +30619,7 @@
       <c r="CQ280" s="9"/>
       <c r="CR280" s="9"/>
     </row>
-    <row r="281" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>8</v>
       </c>
@@ -30690,10 +30690,10 @@
         <v>2.6639822223260055</v>
       </c>
       <c r="X281" s="18">
-        <v>2.1200611127049651</v>
+        <v>2.119867258295745</v>
       </c>
       <c r="Y281" s="18">
-        <v>2.1738734812085667</v>
+        <v>2.1644938029870167</v>
       </c>
       <c r="Z281" s="9"/>
       <c r="AA281" s="9"/>
@@ -30767,7 +30767,7 @@
       <c r="CQ281" s="9"/>
       <c r="CR281" s="9"/>
     </row>
-    <row r="282" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>7</v>
       </c>
@@ -30838,10 +30838,10 @@
         <v>8.5856823602712511E-3</v>
       </c>
       <c r="X282" s="18">
-        <v>8.9831201462478322E-3</v>
+        <v>8.9769660451896674E-3</v>
       </c>
       <c r="Y282" s="18">
-        <v>9.3322530560646152E-3</v>
+        <v>9.3268484838116075E-3</v>
       </c>
       <c r="Z282" s="9"/>
       <c r="AA282" s="9"/>
@@ -30915,7 +30915,7 @@
       <c r="CQ282" s="9"/>
       <c r="CR282" s="9"/>
     </row>
-    <row r="283" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>6</v>
       </c>
@@ -30986,10 +30986,10 @@
         <v>3.6783749801429768</v>
       </c>
       <c r="X283" s="18">
-        <v>3.1106410029756963</v>
+        <v>3.1018108373118434</v>
       </c>
       <c r="Y283" s="18">
-        <v>3.7327415950901806</v>
+        <v>3.6991339053015224</v>
       </c>
       <c r="Z283" s="9"/>
       <c r="AA283" s="9"/>
@@ -31063,7 +31063,7 @@
       <c r="CQ283" s="9"/>
       <c r="CR283" s="9"/>
     </row>
-    <row r="284" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -31134,10 +31134,10 @@
         <v>2.6179534050611633</v>
       </c>
       <c r="X284" s="18">
-        <v>2.2504715123570467</v>
+        <v>2.2382264338782085</v>
       </c>
       <c r="Y284" s="18">
-        <v>2.425322593798628</v>
+        <v>2.4292588679609981</v>
       </c>
       <c r="Z284" s="9"/>
       <c r="AA284" s="9"/>
@@ -31211,7 +31211,7 @@
       <c r="CQ284" s="9"/>
       <c r="CR284" s="9"/>
     </row>
-    <row r="285" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>4</v>
       </c>
@@ -31282,10 +31282,10 @@
         <v>0.50966797418053567</v>
       </c>
       <c r="X285" s="18">
-        <v>0.35388531733947265</v>
+        <v>0.35326247154245949</v>
       </c>
       <c r="Y285" s="18">
-        <v>0.25428904881849634</v>
+        <v>0.2536905883293335</v>
       </c>
       <c r="Z285" s="9"/>
       <c r="AA285" s="9"/>
@@ -31359,7 +31359,7 @@
       <c r="CQ285" s="9"/>
       <c r="CR285" s="9"/>
     </row>
-    <row r="286" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>3</v>
       </c>
@@ -31430,10 +31430,10 @@
         <v>1.4041771281124524</v>
       </c>
       <c r="X286" s="18">
-        <v>1.2208397763639773</v>
+        <v>1.2208456161669861</v>
       </c>
       <c r="Y286" s="18">
-        <v>1.2629089003384029</v>
+        <v>1.2730978390590948</v>
       </c>
       <c r="Z286" s="9"/>
       <c r="AA286" s="9"/>
@@ -31507,7 +31507,7 @@
       <c r="CQ286" s="9"/>
       <c r="CR286" s="9"/>
     </row>
-    <row r="287" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>2</v>
       </c>
@@ -31578,10 +31578,10 @@
         <v>12.05591416189608</v>
       </c>
       <c r="X287" s="18">
-        <v>11.785961891892585</v>
+        <v>11.818675075959984</v>
       </c>
       <c r="Y287" s="18">
-        <v>12.177148986710751</v>
+        <v>12.283293277454627</v>
       </c>
       <c r="Z287" s="9"/>
       <c r="AA287" s="9"/>
@@ -31655,7 +31655,7 @@
       <c r="CQ287" s="9"/>
       <c r="CR287" s="9"/>
     </row>
-    <row r="288" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
@@ -31752,7 +31752,7 @@
       <c r="CQ288" s="9"/>
       <c r="CR288" s="9"/>
     </row>
-    <row r="289" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
         <v>1</v>
       </c>
@@ -31900,7 +31900,7 @@
       <c r="CQ289" s="9"/>
       <c r="CR289" s="9"/>
     </row>
-    <row r="290" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="C290" s="13"/>
@@ -31927,12 +31927,12 @@
       <c r="X290" s="13"/>
       <c r="Y290" s="13"/>
     </row>
-    <row r="291" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A291" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
@@ -32029,7 +32029,7 @@
       <c r="CQ292" s="9"/>
       <c r="CR292" s="9"/>
     </row>
-    <row r="293" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
@@ -32126,37 +32126,37 @@
       <c r="CQ293" s="9"/>
       <c r="CR293" s="9"/>
     </row>
-    <row r="294" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="298" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="299" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="300" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="16" t="s">
         <v>33</v>
@@ -32185,7 +32185,7 @@
       <c r="X302" s="16"/>
       <c r="Y302" s="16"/>
     </row>
-    <row r="303" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>32</v>
       </c>
@@ -32262,10 +32262,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="304" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7"/>
     </row>
-    <row r="305" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>31</v>
       </c>
@@ -32336,10 +32336,10 @@
         <v>62.442423447795846</v>
       </c>
       <c r="X305" s="18">
-        <v>64.567487545423802</v>
+        <v>64.521331843774874</v>
       </c>
       <c r="Y305" s="18">
-        <v>62.896184526596478</v>
+        <v>62.838203050464436</v>
       </c>
       <c r="Z305" s="9"/>
       <c r="AA305" s="9"/>
@@ -32413,7 +32413,7 @@
       <c r="CQ305" s="9"/>
       <c r="CR305" s="9"/>
     </row>
-    <row r="306" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>30</v>
       </c>
@@ -32484,10 +32484,10 @@
         <v>43.577363901693495</v>
       </c>
       <c r="X306" s="18">
-        <v>47.592637206577557</v>
+        <v>47.595423921811133</v>
       </c>
       <c r="Y306" s="18">
-        <v>47.763623465047004</v>
+        <v>47.735490561878855</v>
       </c>
       <c r="Z306" s="9"/>
       <c r="AA306" s="9"/>
@@ -32561,7 +32561,7 @@
       <c r="CQ306" s="9"/>
       <c r="CR306" s="9"/>
     </row>
-    <row r="307" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>29</v>
       </c>
@@ -32632,10 +32632,10 @@
         <v>7.8902673869359301</v>
       </c>
       <c r="X307" s="18">
-        <v>6.0464811661302269</v>
+        <v>6.0179680439514733</v>
       </c>
       <c r="Y307" s="18">
-        <v>4.4934602248997431</v>
+        <v>4.4873319868221051</v>
       </c>
       <c r="Z307" s="9"/>
       <c r="AA307" s="9"/>
@@ -32709,7 +32709,7 @@
       <c r="CQ307" s="9"/>
       <c r="CR307" s="9"/>
     </row>
-    <row r="308" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>28</v>
       </c>
@@ -32780,10 +32780,10 @@
         <v>2.5986452728081018</v>
       </c>
       <c r="X308" s="18">
-        <v>2.0985003755131237</v>
+        <v>2.0801302917445166</v>
       </c>
       <c r="Y308" s="18">
-        <v>1.516238206129769</v>
+        <v>1.5060869599153235</v>
       </c>
       <c r="Z308" s="9"/>
       <c r="AA308" s="9"/>
@@ -32857,7 +32857,7 @@
       <c r="CQ308" s="9"/>
       <c r="CR308" s="9"/>
     </row>
-    <row r="309" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>27</v>
       </c>
@@ -32928,10 +32928,10 @@
         <v>1.9114394394925596</v>
       </c>
       <c r="X309" s="18">
-        <v>1.5971948262504507</v>
+        <v>1.6042762915847779</v>
       </c>
       <c r="Y309" s="18">
-        <v>1.7861427563236343</v>
+        <v>1.786434465946908</v>
       </c>
       <c r="Z309" s="9"/>
       <c r="AA309" s="9"/>
@@ -33005,7 +33005,7 @@
       <c r="CQ309" s="9"/>
       <c r="CR309" s="9"/>
     </row>
-    <row r="310" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>26</v>
       </c>
@@ -33076,10 +33076,10 @@
         <v>1.0686235043361503</v>
       </c>
       <c r="X310" s="18">
-        <v>1.4581236392051531</v>
+        <v>1.4556298123673084</v>
       </c>
       <c r="Y310" s="18">
-        <v>1.3737555522468536</v>
+        <v>1.3172709776680331</v>
       </c>
       <c r="Z310" s="9"/>
       <c r="AA310" s="9"/>
@@ -33153,7 +33153,7 @@
       <c r="CQ310" s="9"/>
       <c r="CR310" s="9"/>
     </row>
-    <row r="311" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>25</v>
       </c>
@@ -33224,10 +33224,10 @@
         <v>0.79696776360620547</v>
       </c>
       <c r="X311" s="18">
-        <v>0.75370027375808701</v>
+        <v>0.75445950835972142</v>
       </c>
       <c r="Y311" s="18">
-        <v>0.99175852289536126</v>
+        <v>0.99711166587269018</v>
       </c>
       <c r="Z311" s="9"/>
       <c r="AA311" s="9"/>
@@ -33301,7 +33301,7 @@
       <c r="CQ311" s="9"/>
       <c r="CR311" s="9"/>
     </row>
-    <row r="312" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
         <v>24</v>
       </c>
@@ -33372,10 +33372,10 @@
         <v>4.2959885545323138</v>
       </c>
       <c r="X312" s="18">
-        <v>4.7456359431808837</v>
+        <v>4.7387104042745731</v>
       </c>
       <c r="Y312" s="18">
-        <v>4.6573907200118452</v>
+        <v>4.6940513933698558</v>
       </c>
       <c r="Z312" s="9"/>
       <c r="AA312" s="9"/>
@@ -33449,7 +33449,7 @@
       <c r="CQ312" s="9"/>
       <c r="CR312" s="9"/>
     </row>
-    <row r="313" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>23</v>
       </c>
@@ -33520,10 +33520,10 @@
         <v>0.1585848916822731</v>
       </c>
       <c r="X313" s="18">
-        <v>0.15094370040330049</v>
+        <v>0.15059598111542796</v>
       </c>
       <c r="Y313" s="18">
-        <v>0.25284663940921936</v>
+        <v>0.25348031341550004</v>
       </c>
       <c r="Z313" s="9"/>
       <c r="AA313" s="9"/>
@@ -33597,7 +33597,7 @@
       <c r="CQ313" s="9"/>
       <c r="CR313" s="9"/>
     </row>
-    <row r="314" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>22</v>
       </c>
@@ -33668,10 +33668,10 @@
         <v>0.14454273270881363</v>
       </c>
       <c r="X314" s="18">
-        <v>0.12427041440500328</v>
+        <v>0.12413758856594996</v>
       </c>
       <c r="Y314" s="18">
-        <v>6.096843963303325E-2</v>
+        <v>6.0944725575175281E-2</v>
       </c>
       <c r="Z314" s="9"/>
       <c r="AA314" s="9"/>
@@ -33745,7 +33745,7 @@
       <c r="CQ314" s="9"/>
       <c r="CR314" s="9"/>
     </row>
-    <row r="315" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>21</v>
       </c>
@@ -33816,10 +33816,10 @@
         <v>6.3753714400563224</v>
       </c>
       <c r="X315" s="18">
-        <v>6.3863548430024553</v>
+        <v>6.3783234216065212</v>
       </c>
       <c r="Y315" s="18">
-        <v>5.8922121212510818</v>
+        <v>5.8965008900614286</v>
       </c>
       <c r="Z315" s="9"/>
       <c r="AA315" s="9"/>
@@ -33893,7 +33893,7 @@
       <c r="CQ315" s="9"/>
       <c r="CR315" s="9"/>
     </row>
-    <row r="316" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
         <v>20</v>
       </c>
@@ -33964,10 +33964,10 @@
         <v>1.3324524902973227</v>
       </c>
       <c r="X316" s="18">
-        <v>1.2226590152144015</v>
+        <v>1.2213521819641102</v>
       </c>
       <c r="Y316" s="18">
-        <v>1.3807496005951796</v>
+        <v>1.3786246657452625</v>
       </c>
       <c r="Z316" s="9"/>
       <c r="AA316" s="9"/>
@@ -34041,7 +34041,7 @@
       <c r="CQ316" s="9"/>
       <c r="CR316" s="9"/>
     </row>
-    <row r="317" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
         <v>19</v>
       </c>
@@ -34112,10 +34112,10 @@
         <v>1.6717430098033135</v>
       </c>
       <c r="X317" s="18">
-        <v>2.1622945060553715</v>
+        <v>2.1599833478973958</v>
       </c>
       <c r="Y317" s="18">
-        <v>1.7224385231331745</v>
+        <v>1.7301257465385227</v>
       </c>
       <c r="Z317" s="9"/>
       <c r="AA317" s="9"/>
@@ -34189,7 +34189,7 @@
       <c r="CQ317" s="9"/>
       <c r="CR317" s="9"/>
     </row>
-    <row r="318" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
         <v>18</v>
       </c>
@@ -34260,10 +34260,10 @@
         <v>7.3746419888495188E-2</v>
       </c>
       <c r="X318" s="18">
-        <v>6.2831359568464126E-2</v>
+        <v>6.276420256980518E-2</v>
       </c>
       <c r="Y318" s="18">
-        <v>9.6522763678244305E-2</v>
+        <v>0.10226003614106388</v>
       </c>
       <c r="Z318" s="9"/>
       <c r="AA318" s="9"/>
@@ -34337,7 +34337,7 @@
       <c r="CQ318" s="9"/>
       <c r="CR318" s="9"/>
     </row>
-    <row r="319" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
         <v>63</v>
       </c>
@@ -34408,10 +34408,10 @@
         <v>0.61145297597100068</v>
       </c>
       <c r="X319" s="18">
-        <v>0.47406815516175072</v>
+        <v>0.47356144967775193</v>
       </c>
       <c r="Y319" s="18">
-        <v>0.42051213204247717</v>
+        <v>0.42001686838916324</v>
       </c>
       <c r="Z319" s="9"/>
       <c r="AA319" s="9"/>
@@ -34485,7 +34485,7 @@
       <c r="CQ319" s="9"/>
       <c r="CR319" s="9"/>
     </row>
-    <row r="320" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
         <v>17</v>
       </c>
@@ -34556,10 +34556,10 @@
         <v>0.12653075484027676</v>
       </c>
       <c r="X320" s="18">
-        <v>0.14894482300990475</v>
+        <v>0.14878562404703283</v>
       </c>
       <c r="Y320" s="18">
-        <v>0.13213739808832964</v>
+        <v>0.13150224286491383</v>
       </c>
       <c r="Z320" s="9"/>
       <c r="AA320" s="9"/>
@@ -34633,7 +34633,7 @@
       <c r="CQ320" s="9"/>
       <c r="CR320" s="9"/>
     </row>
-    <row r="321" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>16</v>
       </c>
@@ -34704,10 +34704,10 @@
         <v>0.95467458579123066</v>
       </c>
       <c r="X321" s="18">
-        <v>0.89205754539825444</v>
+        <v>0.8911040739503745</v>
       </c>
       <c r="Y321" s="18">
-        <v>0.8454496771380916</v>
+        <v>0.84926092408812059</v>
       </c>
       <c r="Z321" s="9"/>
       <c r="AA321" s="9"/>
@@ -34781,7 +34781,7 @@
       <c r="CQ321" s="9"/>
       <c r="CR321" s="9"/>
     </row>
-    <row r="322" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
         <v>15</v>
       </c>
@@ -34852,10 +34852,10 @@
         <v>7.4254960580797627E-2</v>
       </c>
       <c r="X322" s="18">
-        <v>4.6676654369622055E-6</v>
+        <v>4.6626764250477191E-6</v>
       </c>
       <c r="Y322" s="18">
-        <v>1.7972002466978838E-6</v>
+        <v>1.7943887564105681E-6</v>
       </c>
       <c r="Z322" s="9"/>
       <c r="AA322" s="9"/>
@@ -34929,7 +34929,7 @@
       <c r="CQ322" s="9"/>
       <c r="CR322" s="9"/>
     </row>
-    <row r="323" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
         <v>14</v>
       </c>
@@ -35000,10 +35000,10 @@
         <v>1.5305162428838859</v>
       </c>
       <c r="X323" s="18">
-        <v>1.4234947709288694</v>
+        <v>1.4207678788236249</v>
       </c>
       <c r="Y323" s="18">
-        <v>1.2944002293753392</v>
+        <v>1.2847086119056261</v>
       </c>
       <c r="Z323" s="9"/>
       <c r="AA323" s="9"/>
@@ -35077,7 +35077,7 @@
       <c r="CQ323" s="9"/>
       <c r="CR323" s="9"/>
     </row>
-    <row r="324" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>13</v>
       </c>
@@ -35148,10 +35148,10 @@
         <v>0.82504121545436315</v>
       </c>
       <c r="X324" s="18">
-        <v>0.73163260711329514</v>
+        <v>0.73082819551840594</v>
       </c>
       <c r="Y324" s="18">
-        <v>0.73867089563928201</v>
+        <v>0.73523564007704745</v>
       </c>
       <c r="Z324" s="9"/>
       <c r="AA324" s="9"/>
@@ -35225,7 +35225,7 @@
       <c r="CQ324" s="9"/>
       <c r="CR324" s="9"/>
     </row>
-    <row r="325" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>77</v>
       </c>
@@ -35296,10 +35296,10 @@
         <v>0.35122275963526595</v>
       </c>
       <c r="X325" s="18">
-        <v>0.34295411932505182</v>
+        <v>0.34258755445219569</v>
       </c>
       <c r="Y325" s="18">
-        <v>0.32360670172247452</v>
+        <v>0.32075684270859112</v>
       </c>
       <c r="Z325" s="9"/>
       <c r="AA325" s="9"/>
@@ -35373,7 +35373,7 @@
       <c r="CQ325" s="9"/>
       <c r="CR325" s="9"/>
     </row>
-    <row r="326" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>12</v>
       </c>
@@ -35444,10 +35444,10 @@
         <v>0.4738184558190971</v>
       </c>
       <c r="X326" s="18">
-        <v>0.38867848778824343</v>
+        <v>0.3882406410662102</v>
       </c>
       <c r="Y326" s="18">
-        <v>0.4150641939168076</v>
+        <v>0.41447879736845639</v>
       </c>
       <c r="Z326" s="9"/>
       <c r="AA326" s="9"/>
@@ -35521,7 +35521,7 @@
       <c r="CQ326" s="9"/>
       <c r="CR326" s="9"/>
     </row>
-    <row r="327" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>11</v>
       </c>
@@ -35592,10 +35592,10 @@
         <v>1.2547197849543446</v>
       </c>
       <c r="X327" s="18">
-        <v>1.3125915451781387</v>
+        <v>1.3446867706823229</v>
       </c>
       <c r="Y327" s="18">
-        <v>1.1725622364087127</v>
+        <v>1.1998129989896482</v>
       </c>
       <c r="Z327" s="9"/>
       <c r="AA327" s="9"/>
@@ -35669,7 +35669,7 @@
       <c r="CQ327" s="9"/>
       <c r="CR327" s="9"/>
     </row>
-    <row r="328" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -35740,10 +35740,10 @@
         <v>2.1448750642053871</v>
       </c>
       <c r="X328" s="18">
-        <v>1.9961705575894346</v>
+        <v>1.9940369602205448</v>
       </c>
       <c r="Y328" s="18">
-        <v>2.166025434922183</v>
+        <v>2.1626369647260812</v>
       </c>
       <c r="Z328" s="9"/>
       <c r="AA328" s="9"/>
@@ -35817,7 +35817,7 @@
       <c r="CQ328" s="9"/>
       <c r="CR328" s="9"/>
     </row>
-    <row r="329" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>9</v>
       </c>
@@ -35888,10 +35888,10 @@
         <v>3.1275938404389283</v>
       </c>
       <c r="X329" s="18">
-        <v>3.4293981960531807</v>
+        <v>3.4280349913117831</v>
       </c>
       <c r="Y329" s="18">
-        <v>4.1443345667897562</v>
+        <v>4.1528978427989758</v>
       </c>
       <c r="Z329" s="9"/>
       <c r="AA329" s="9"/>
@@ -35965,7 +35965,7 @@
       <c r="CQ329" s="9"/>
       <c r="CR329" s="9"/>
     </row>
-    <row r="330" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>8</v>
       </c>
@@ -36036,10 +36036,10 @@
         <v>2.1715418883410402</v>
       </c>
       <c r="X330" s="18">
-        <v>1.9764340332445758</v>
+        <v>1.9759304178674737</v>
       </c>
       <c r="Y330" s="18">
-        <v>2.147254515220272</v>
+        <v>2.13379370772169</v>
       </c>
       <c r="Z330" s="9"/>
       <c r="AA330" s="9"/>
@@ -36113,7 +36113,7 @@
       <c r="CQ330" s="9"/>
       <c r="CR330" s="9"/>
     </row>
-    <row r="331" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>7</v>
       </c>
@@ -36184,10 +36184,10 @@
         <v>1.0961329618977271E-2</v>
       </c>
       <c r="X331" s="18">
-        <v>7.7184380334675735E-3</v>
+        <v>7.7102284837029054E-3</v>
       </c>
       <c r="Y331" s="18">
-        <v>9.2226994205796466E-3</v>
+        <v>9.2082716850552197E-3</v>
       </c>
       <c r="Z331" s="9"/>
       <c r="AA331" s="9"/>
@@ -36261,7 +36261,7 @@
       <c r="CQ331" s="9"/>
       <c r="CR331" s="9"/>
     </row>
-    <row r="332" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>6</v>
       </c>
@@ -36332,10 +36332,10 @@
         <v>4.1121602822932566</v>
       </c>
       <c r="X332" s="18">
-        <v>3.4527685790153431</v>
+        <v>3.4416205125224626</v>
       </c>
       <c r="Y332" s="18">
-        <v>3.7181810443292718</v>
+        <v>3.6805692392976708</v>
       </c>
       <c r="Z332" s="9"/>
       <c r="AA332" s="9"/>
@@ -36409,7 +36409,7 @@
       <c r="CQ332" s="9"/>
       <c r="CR332" s="9"/>
     </row>
-    <row r="333" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>5</v>
       </c>
@@ -36480,10 +36480,10 @@
         <v>2.6469171560158911</v>
       </c>
       <c r="X333" s="18">
-        <v>1.9502557496050374</v>
+        <v>1.9402827519770511</v>
       </c>
       <c r="Y333" s="18">
-        <v>2.4277377671542504</v>
+        <v>2.4296206888280016</v>
       </c>
       <c r="Z333" s="9"/>
       <c r="AA333" s="9"/>
@@ -36557,7 +36557,7 @@
       <c r="CQ333" s="9"/>
       <c r="CR333" s="9"/>
     </row>
-    <row r="334" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>4</v>
       </c>
@@ -36628,10 +36628,10 @@
         <v>0.57171866356890555</v>
       </c>
       <c r="X334" s="18">
-        <v>0.39322432140390029</v>
+        <v>0.39240549975614109</v>
       </c>
       <c r="Y334" s="18">
-        <v>0.27400766654045083</v>
+        <v>0.27317649958034435</v>
       </c>
       <c r="Z334" s="9"/>
       <c r="AA334" s="9"/>
@@ -36705,7 +36705,7 @@
       <c r="CQ334" s="9"/>
       <c r="CR334" s="9"/>
     </row>
-    <row r="335" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>3</v>
       </c>
@@ -36776,10 +36776,10 @@
         <v>1.4204277552150151</v>
       </c>
       <c r="X335" s="18">
-        <v>1.1995828983478467</v>
+        <v>1.1994371235735914</v>
       </c>
       <c r="Y335" s="18">
-        <v>1.1862158547281707</v>
+        <v>1.1950112064606149</v>
       </c>
       <c r="Z335" s="9"/>
       <c r="AA335" s="9"/>
@@ -36853,7 +36853,7 @@
       <c r="CQ335" s="9"/>
       <c r="CR335" s="9"/>
     </row>
-    <row r="336" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>2</v>
       </c>
@@ -36924,10 +36924,10 @@
         <v>12.896248132041702</v>
       </c>
       <c r="X336" s="18">
-        <v>12.596380685989548</v>
+        <v>12.645371282705135</v>
       </c>
       <c r="Y336" s="18">
-        <v>13.227390670999498</v>
+        <v>13.293332999309012</v>
       </c>
       <c r="Z336" s="9"/>
       <c r="AA336" s="9"/>
@@ -37001,7 +37001,7 @@
       <c r="CQ336" s="9"/>
       <c r="CR336" s="9"/>
     </row>
-    <row r="337" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
@@ -37098,7 +37098,7 @@
       <c r="CQ337" s="9"/>
       <c r="CR337" s="9"/>
     </row>
-    <row r="338" spans="1:96" ht="30.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:96" ht="30.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="12" t="s">
         <v>1</v>
       </c>
@@ -37246,7 +37246,7 @@
       <c r="CQ338" s="9"/>
       <c r="CR338" s="9"/>
     </row>
-    <row r="339" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -37273,12 +37273,12 @@
       <c r="X339" s="13"/>
       <c r="Y339" s="13"/>
     </row>
-    <row r="340" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A340" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
@@ -37370,7 +37370,7 @@
       <c r="CL341" s="9"/>
       <c r="CM341" s="9"/>
     </row>
-    <row r="342" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>

--- a/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-04EOG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0DBD02-EB30-4D43-A8B8-C48B43343028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D144C65E-6B26-4C04-815D-1985D078FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EOG" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <definedName name="PCE_Per_Con_Qrt">[1]HFCE!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt" localSheetId="0">EOG!#REF!</definedName>
     <definedName name="PCE_Per_Cur_Qrt">[1]HFCE!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$Z$342</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">EOG!$A$1:$AA$342</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="84">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -294,13 +294,19 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -435,7 +441,15 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal 2 2" xfId="5" xr:uid="{DF2F7743-8CF8-4A35-94B9-0A3611B1D0EA}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -729,18 +743,18 @@
   </sheetPr>
   <dimension ref="A1:CR342"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="96" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="96" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" style="1" customWidth="1"/>
-    <col min="2" max="26" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="27" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -755,7 +769,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -765,7 +779,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -802,6 +816,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -881,6 +896,9 @@
       </c>
       <c r="Z10" s="6">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -965,7 +983,9 @@
       <c r="Z12" s="8">
         <v>1944552.8767487591</v>
       </c>
-      <c r="AA12" s="9"/>
+      <c r="AA12" s="8">
+        <v>2382368.2282448704</v>
+      </c>
       <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9"/>
@@ -1115,7 +1135,9 @@
       <c r="Z13" s="11">
         <v>1318849.0595251855</v>
       </c>
-      <c r="AA13" s="9"/>
+      <c r="AA13" s="11">
+        <v>1681118.0784127093</v>
+      </c>
       <c r="AB13" s="9"/>
       <c r="AC13" s="9"/>
       <c r="AD13" s="9"/>
@@ -1265,7 +1287,9 @@
       <c r="Z14" s="11">
         <v>182803.32567623712</v>
       </c>
-      <c r="AA14" s="9"/>
+      <c r="AA14" s="11">
+        <v>212790.05967496487</v>
+      </c>
       <c r="AB14" s="9"/>
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
@@ -1415,7 +1439,9 @@
       <c r="Z15" s="11">
         <v>47020.191825708127</v>
       </c>
-      <c r="AA15" s="9"/>
+      <c r="AA15" s="11">
+        <v>56662.54271138912</v>
+      </c>
       <c r="AB15" s="9"/>
       <c r="AC15" s="9"/>
       <c r="AD15" s="9"/>
@@ -1565,7 +1591,9 @@
       <c r="Z16" s="11">
         <v>114724.86629014532</v>
       </c>
-      <c r="AA16" s="9"/>
+      <c r="AA16" s="11">
+        <v>122654.24044773469</v>
+      </c>
       <c r="AB16" s="9"/>
       <c r="AC16" s="9"/>
       <c r="AD16" s="9"/>
@@ -1715,7 +1743,9 @@
       <c r="Z17" s="11">
         <v>49952.389183510037</v>
       </c>
-      <c r="AA17" s="9"/>
+      <c r="AA17" s="11">
+        <v>58432.964088283159</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
       <c r="AD17" s="9"/>
@@ -1865,7 +1895,9 @@
       <c r="Z18" s="11">
         <v>32971.351696649392</v>
       </c>
-      <c r="AA18" s="9"/>
+      <c r="AA18" s="11">
+        <v>16936.391659712004</v>
+      </c>
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
       <c r="AD18" s="9"/>
@@ -2015,7 +2047,9 @@
       <c r="Z19" s="11">
         <v>181250.73830291582</v>
       </c>
-      <c r="AA19" s="9"/>
+      <c r="AA19" s="11">
+        <v>210065.19889387742</v>
+      </c>
       <c r="AB19" s="9"/>
       <c r="AC19" s="9"/>
       <c r="AD19" s="9"/>
@@ -2165,7 +2199,9 @@
       <c r="Z20" s="11">
         <v>12862.573249469449</v>
       </c>
-      <c r="AA20" s="9"/>
+      <c r="AA20" s="11">
+        <v>18607.066106185732</v>
+      </c>
       <c r="AB20" s="9"/>
       <c r="AC20" s="9"/>
       <c r="AD20" s="9"/>
@@ -2315,7 +2351,9 @@
       <c r="Z21" s="11">
         <v>4118.3809989382589</v>
       </c>
-      <c r="AA21" s="9"/>
+      <c r="AA21" s="11">
+        <v>5101.6862500144807</v>
+      </c>
       <c r="AB21" s="9"/>
       <c r="AC21" s="9"/>
       <c r="AD21" s="9"/>
@@ -2465,7 +2503,9 @@
       <c r="Z22" s="8">
         <v>305778.72826115985</v>
       </c>
-      <c r="AA22" s="9"/>
+      <c r="AA22" s="8">
+        <v>379351.72309194587</v>
+      </c>
       <c r="AB22" s="9"/>
       <c r="AC22" s="9"/>
       <c r="AD22" s="9"/>
@@ -2615,7 +2655,9 @@
       <c r="Z23" s="11">
         <v>65025.851095708022</v>
       </c>
-      <c r="AA23" s="9"/>
+      <c r="AA23" s="11">
+        <v>89222.846194087659</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2765,7 +2807,9 @@
       <c r="Z24" s="11">
         <v>115209.08760863032</v>
       </c>
-      <c r="AA24" s="9"/>
+      <c r="AA24" s="11">
+        <v>145374.26221524464</v>
+      </c>
       <c r="AB24" s="9"/>
       <c r="AC24" s="9"/>
       <c r="AD24" s="9"/>
@@ -2915,7 +2959,9 @@
       <c r="Z25" s="11">
         <v>2959.4268198494228</v>
       </c>
-      <c r="AA25" s="9"/>
+      <c r="AA25" s="11">
+        <v>2526.8076835149714</v>
+      </c>
       <c r="AB25" s="9"/>
       <c r="AC25" s="9"/>
       <c r="AD25" s="9"/>
@@ -3065,7 +3111,9 @@
       <c r="Z26" s="11">
         <v>15445.148944568187</v>
       </c>
-      <c r="AA26" s="9"/>
+      <c r="AA26" s="11">
+        <v>27443.325947342353</v>
+      </c>
       <c r="AB26" s="9"/>
       <c r="AC26" s="9"/>
       <c r="AD26" s="9"/>
@@ -3215,7 +3263,9 @@
       <c r="Z27" s="11">
         <v>3673.6631274079264</v>
       </c>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="11">
+        <v>3067.0093293516848</v>
+      </c>
       <c r="AB27" s="9"/>
       <c r="AC27" s="9"/>
       <c r="AD27" s="9"/>
@@ -3365,7 +3415,9 @@
       <c r="Z28" s="11">
         <v>42111.870222360943</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="11">
+        <v>48574.134652536035</v>
+      </c>
       <c r="AB28" s="9"/>
       <c r="AC28" s="9"/>
       <c r="AD28" s="9"/>
@@ -3515,7 +3567,9 @@
       <c r="Z29" s="11">
         <v>0.61445097242740632</v>
       </c>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="11">
+        <v>0</v>
+      </c>
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9"/>
@@ -3665,7 +3719,9 @@
       <c r="Z30" s="11">
         <v>61353.065991662639</v>
       </c>
-      <c r="AA30" s="9"/>
+      <c r="AA30" s="11">
+        <v>63143.337069868488</v>
+      </c>
       <c r="AB30" s="9"/>
       <c r="AC30" s="9"/>
       <c r="AD30" s="9"/>
@@ -3815,7 +3871,9 @@
       <c r="Z31" s="8">
         <v>38825.456081327298</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="8">
+        <v>35768.530057399956</v>
+      </c>
       <c r="AB31" s="9"/>
       <c r="AC31" s="9"/>
       <c r="AD31" s="9"/>
@@ -3965,7 +4023,9 @@
       <c r="Z32" s="11">
         <v>15190.686833784688</v>
       </c>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="11">
+        <v>15017.767842552486</v>
+      </c>
       <c r="AB32" s="9"/>
       <c r="AC32" s="9"/>
       <c r="AD32" s="9"/>
@@ -4115,7 +4175,9 @@
       <c r="Z33" s="11">
         <v>23634.769247542608</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="11">
+        <v>20750.762214847469</v>
+      </c>
       <c r="AB33" s="9"/>
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
@@ -4265,7 +4327,9 @@
       <c r="Z34" s="11">
         <v>35958.198180127278</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="11">
+        <v>38067.370044583149</v>
+      </c>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
@@ -4415,7 +4479,9 @@
       <c r="Z35" s="11">
         <v>70324.793659523886</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="11">
+        <v>4000.149444433534</v>
+      </c>
       <c r="AB35" s="9"/>
       <c r="AC35" s="9"/>
       <c r="AD35" s="9"/>
@@ -4565,7 +4631,9 @@
       <c r="Z36" s="11">
         <v>128978.5452912488</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="11">
+        <v>134801.66178611427</v>
+      </c>
       <c r="AB36" s="9"/>
       <c r="AC36" s="9"/>
       <c r="AD36" s="9"/>
@@ -4715,7 +4783,9 @@
       <c r="Z37" s="11">
         <v>64199.777812919478</v>
       </c>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="11">
+        <v>61897.559821004987</v>
+      </c>
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
       <c r="AD37" s="9"/>
@@ -4865,7 +4935,9 @@
       <c r="Z38" s="11">
         <v>8054.7954618703516</v>
       </c>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="11">
+        <v>15678.764717622113</v>
+      </c>
       <c r="AB38" s="9"/>
       <c r="AC38" s="9"/>
       <c r="AD38" s="9"/>
@@ -5015,7 +5087,9 @@
       <c r="Z39" s="11">
         <v>139518.6736019192</v>
       </c>
-      <c r="AA39" s="9"/>
+      <c r="AA39" s="11">
+        <v>176888.47606541717</v>
+      </c>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="9"/>
@@ -5165,7 +5239,9 @@
       <c r="Z40" s="11">
         <v>93637.33213949982</v>
       </c>
-      <c r="AA40" s="9"/>
+      <c r="AA40" s="11">
+        <v>85299.312527043716</v>
+      </c>
       <c r="AB40" s="9"/>
       <c r="AC40" s="9"/>
       <c r="AD40" s="9"/>
@@ -5315,7 +5391,9 @@
       <c r="Z41" s="11">
         <v>5911.5959733079471</v>
       </c>
-      <c r="AA41" s="9"/>
+      <c r="AA41" s="11">
+        <v>5732.0672547734075</v>
+      </c>
       <c r="AB41" s="9"/>
       <c r="AC41" s="9"/>
       <c r="AD41" s="9"/>
@@ -5465,7 +5543,9 @@
       <c r="Z42" s="11">
         <v>47073.824185868027</v>
       </c>
-      <c r="AA42" s="9"/>
+      <c r="AA42" s="11">
+        <v>48689.822448389219</v>
+      </c>
       <c r="AB42" s="9"/>
       <c r="AC42" s="9"/>
       <c r="AD42" s="9"/>
@@ -5615,7 +5695,9 @@
       <c r="Z43" s="11">
         <v>457730.71181424888</v>
       </c>
-      <c r="AA43" s="9"/>
+      <c r="AA43" s="11">
+        <v>507979.62194146274</v>
+      </c>
       <c r="AB43" s="9"/>
       <c r="AC43" s="9"/>
       <c r="AD43" s="9"/>
@@ -5712,7 +5794,7 @@
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
-      <c r="AA44" s="9"/>
+      <c r="AA44" s="8"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
       <c r="AD44" s="9"/>
@@ -5862,7 +5944,9 @@
       <c r="Z45" s="8">
         <v>3340545.3092117803</v>
       </c>
-      <c r="AA45" s="9"/>
+      <c r="AA45" s="8">
+        <v>3876523.2874450604</v>
+      </c>
       <c r="AB45" s="9"/>
       <c r="AC45" s="9"/>
       <c r="AD45" s="9"/>
@@ -5960,6 +6044,7 @@
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
+      <c r="AA46" s="13"/>
     </row>
     <row r="47" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
@@ -5992,7 +6077,7 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
-      <c r="AA48" s="9"/>
+      <c r="AA48" s="15"/>
       <c r="AB48" s="9"/>
       <c r="AC48" s="9"/>
       <c r="AD48" s="9"/>
@@ -6172,7 +6257,7 @@
     </row>
     <row r="52" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:96" x14ac:dyDescent="0.2">
@@ -6182,7 +6267,7 @@
     </row>
     <row r="55" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:96" x14ac:dyDescent="0.2">
@@ -6219,6 +6304,7 @@
       <c r="X58" s="16"/>
       <c r="Y58" s="16"/>
       <c r="Z58" s="16"/>
+      <c r="AA58" s="16"/>
     </row>
     <row r="59" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
@@ -6298,6 +6384,9 @@
       </c>
       <c r="Z59" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA59" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="60" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -6382,7 +6471,9 @@
       <c r="Z61" s="8">
         <v>1862281.1161314137</v>
       </c>
-      <c r="AA61" s="9"/>
+      <c r="AA61" s="8">
+        <v>2221590.5680856272</v>
+      </c>
       <c r="AB61" s="9"/>
       <c r="AC61" s="9"/>
       <c r="AD61" s="9"/>
@@ -6532,7 +6623,9 @@
       <c r="Z62" s="11">
         <v>1288737.0795779584</v>
       </c>
-      <c r="AA62" s="9"/>
+      <c r="AA62" s="11">
+        <v>1590761.6006561832</v>
+      </c>
       <c r="AB62" s="9"/>
       <c r="AC62" s="9"/>
       <c r="AD62" s="9"/>
@@ -6682,7 +6775,9 @@
       <c r="Z63" s="11">
         <v>177347.68955712512</v>
       </c>
-      <c r="AA63" s="9"/>
+      <c r="AA63" s="11">
+        <v>199544.57921212009</v>
+      </c>
       <c r="AB63" s="9"/>
       <c r="AC63" s="9"/>
       <c r="AD63" s="9"/>
@@ -6832,7 +6927,9 @@
       <c r="Z64" s="11">
         <v>46398.055407923304</v>
       </c>
-      <c r="AA64" s="9"/>
+      <c r="AA64" s="11">
+        <v>54458.201633477431</v>
+      </c>
       <c r="AB64" s="9"/>
       <c r="AC64" s="9"/>
       <c r="AD64" s="9"/>
@@ -6982,7 +7079,9 @@
       <c r="Z65" s="11">
         <v>99347.587919818383</v>
       </c>
-      <c r="AA65" s="9"/>
+      <c r="AA65" s="11">
+        <v>105352.45694726531</v>
+      </c>
       <c r="AB65" s="9"/>
       <c r="AC65" s="9"/>
       <c r="AD65" s="9"/>
@@ -7132,7 +7231,9 @@
       <c r="Z66" s="11">
         <v>47006.352723598495</v>
       </c>
-      <c r="AA66" s="9"/>
+      <c r="AA66" s="11">
+        <v>54274.061623703259</v>
+      </c>
       <c r="AB66" s="9"/>
       <c r="AC66" s="9"/>
       <c r="AD66" s="9"/>
@@ -7282,7 +7383,9 @@
       <c r="Z67" s="11">
         <v>28777.12743662229</v>
       </c>
-      <c r="AA67" s="9"/>
+      <c r="AA67" s="11">
+        <v>14465.647666423276</v>
+      </c>
       <c r="AB67" s="9"/>
       <c r="AC67" s="9"/>
       <c r="AD67" s="9"/>
@@ -7432,7 +7535,9 @@
       <c r="Z68" s="11">
         <v>161685.45411814674</v>
       </c>
-      <c r="AA68" s="9"/>
+      <c r="AA68" s="11">
+        <v>185017.35825530009</v>
+      </c>
       <c r="AB68" s="9"/>
       <c r="AC68" s="9"/>
       <c r="AD68" s="9"/>
@@ -7582,7 +7687,9 @@
       <c r="Z69" s="11">
         <v>9540.3030889059628</v>
       </c>
-      <c r="AA69" s="9"/>
+      <c r="AA69" s="11">
+        <v>13547.942277613569</v>
+      </c>
       <c r="AB69" s="9"/>
       <c r="AC69" s="9"/>
       <c r="AD69" s="9"/>
@@ -7732,7 +7839,9 @@
       <c r="Z70" s="11">
         <v>3441.466301314812</v>
       </c>
-      <c r="AA70" s="9"/>
+      <c r="AA70" s="11">
+        <v>4168.7198135411318</v>
+      </c>
       <c r="AB70" s="9"/>
       <c r="AC70" s="9"/>
       <c r="AD70" s="9"/>
@@ -7882,7 +7991,9 @@
       <c r="Z71" s="8">
         <v>194822.89938174962</v>
       </c>
-      <c r="AA71" s="9"/>
+      <c r="AA71" s="8">
+        <v>209764.05039854132</v>
+      </c>
       <c r="AB71" s="9"/>
       <c r="AC71" s="9"/>
       <c r="AD71" s="9"/>
@@ -8032,7 +8143,9 @@
       <c r="Z72" s="11">
         <v>47316.457601565358</v>
       </c>
-      <c r="AA72" s="9"/>
+      <c r="AA72" s="11">
+        <v>66546.761659581709</v>
+      </c>
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
       <c r="AD72" s="9"/>
@@ -8182,7 +8295,9 @@
       <c r="Z73" s="11">
         <v>74946.469904900703</v>
       </c>
-      <c r="AA73" s="9"/>
+      <c r="AA73" s="11">
+        <v>66724.051793880091</v>
+      </c>
       <c r="AB73" s="9"/>
       <c r="AC73" s="9"/>
       <c r="AD73" s="9"/>
@@ -8332,7 +8447,9 @@
       <c r="Z74" s="11">
         <v>1905.5273571369044</v>
       </c>
-      <c r="AA74" s="9"/>
+      <c r="AA74" s="11">
+        <v>1112.2852657017052</v>
+      </c>
       <c r="AB74" s="9"/>
       <c r="AC74" s="9"/>
       <c r="AD74" s="9"/>
@@ -8482,7 +8599,9 @@
       <c r="Z75" s="11">
         <v>11817.949326277958</v>
       </c>
-      <c r="AA75" s="9"/>
+      <c r="AA75" s="11">
+        <v>17122.620734880893</v>
+      </c>
       <c r="AB75" s="9"/>
       <c r="AC75" s="9"/>
       <c r="AD75" s="9"/>
@@ -8632,7 +8751,9 @@
       <c r="Z76" s="11">
         <v>3696.7153388926031</v>
       </c>
-      <c r="AA76" s="9"/>
+      <c r="AA76" s="11">
+        <v>2841.4761356442946</v>
+      </c>
       <c r="AB76" s="9"/>
       <c r="AC76" s="9"/>
       <c r="AD76" s="9"/>
@@ -8782,7 +8903,9 @@
       <c r="Z77" s="11">
         <v>18845.996352419214</v>
       </c>
-      <c r="AA77" s="9"/>
+      <c r="AA77" s="11">
+        <v>20771.965202935819</v>
+      </c>
       <c r="AB77" s="9"/>
       <c r="AC77" s="9"/>
       <c r="AD77" s="9"/>
@@ -8932,7 +9055,9 @@
       <c r="Z78" s="11">
         <v>0.45194088671231664</v>
       </c>
-      <c r="AA78" s="9"/>
+      <c r="AA78" s="11">
+        <v>0</v>
+      </c>
       <c r="AB78" s="9"/>
       <c r="AC78" s="9"/>
       <c r="AD78" s="9"/>
@@ -9082,7 +9207,9 @@
       <c r="Z79" s="11">
         <v>36293.331559670201</v>
       </c>
-      <c r="AA79" s="9"/>
+      <c r="AA79" s="11">
+        <v>34644.889605916818</v>
+      </c>
       <c r="AB79" s="9"/>
       <c r="AC79" s="9"/>
       <c r="AD79" s="9"/>
@@ -9232,7 +9359,9 @@
       <c r="Z80" s="8">
         <v>26952.400050802284</v>
       </c>
-      <c r="AA80" s="9"/>
+      <c r="AA80" s="8">
+        <v>24067.340714193233</v>
+      </c>
       <c r="AB80" s="9"/>
       <c r="AC80" s="9"/>
       <c r="AD80" s="9"/>
@@ -9382,7 +9511,9 @@
       <c r="Z81" s="11">
         <v>10845.845541125755</v>
       </c>
-      <c r="AA81" s="9"/>
+      <c r="AA81" s="11">
+        <v>10330.078870694662</v>
+      </c>
       <c r="AB81" s="9"/>
       <c r="AC81" s="9"/>
       <c r="AD81" s="9"/>
@@ -9532,7 +9663,9 @@
       <c r="Z82" s="11">
         <v>16106.554509676529</v>
       </c>
-      <c r="AA82" s="9"/>
+      <c r="AA82" s="11">
+        <v>13737.261843498572</v>
+      </c>
       <c r="AB82" s="9"/>
       <c r="AC82" s="9"/>
       <c r="AD82" s="9"/>
@@ -9682,7 +9815,9 @@
       <c r="Z83" s="11">
         <v>34932.677959477958</v>
       </c>
-      <c r="AA83" s="9"/>
+      <c r="AA83" s="11">
+        <v>37121.227678142808</v>
+      </c>
       <c r="AB83" s="9"/>
       <c r="AC83" s="9"/>
       <c r="AD83" s="9"/>
@@ -9832,7 +9967,9 @@
       <c r="Z84" s="11">
         <v>46985.769574294965</v>
       </c>
-      <c r="AA84" s="9"/>
+      <c r="AA84" s="11">
+        <v>3668.0872878460991</v>
+      </c>
       <c r="AB84" s="9"/>
       <c r="AC84" s="9"/>
       <c r="AD84" s="9"/>
@@ -9982,7 +10119,9 @@
       <c r="Z85" s="11">
         <v>124867.22053043259</v>
       </c>
-      <c r="AA85" s="9"/>
+      <c r="AA85" s="11">
+        <v>129156.56475490249</v>
+      </c>
       <c r="AB85" s="9"/>
       <c r="AC85" s="9"/>
       <c r="AD85" s="9"/>
@@ -10132,7 +10271,9 @@
       <c r="Z86" s="11">
         <v>58273.70621859227</v>
       </c>
-      <c r="AA86" s="9"/>
+      <c r="AA86" s="11">
+        <v>53706.943171578678</v>
+      </c>
       <c r="AB86" s="9"/>
       <c r="AC86" s="9"/>
       <c r="AD86" s="9"/>
@@ -10282,7 +10423,9 @@
       <c r="Z87" s="11">
         <v>6153.853535497281</v>
       </c>
-      <c r="AA87" s="9"/>
+      <c r="AA87" s="11">
+        <v>14967.885953209419</v>
+      </c>
       <c r="AB87" s="9"/>
       <c r="AC87" s="9"/>
       <c r="AD87" s="9"/>
@@ -10432,7 +10575,9 @@
       <c r="Z88" s="11">
         <v>127802.6701260751</v>
       </c>
-      <c r="AA88" s="9"/>
+      <c r="AA88" s="11">
+        <v>163542.18003766847</v>
+      </c>
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
       <c r="AD88" s="9"/>
@@ -10582,7 +10727,9 @@
       <c r="Z89" s="11">
         <v>88355.374707452473</v>
       </c>
-      <c r="AA89" s="9"/>
+      <c r="AA89" s="11">
+        <v>79862.068963864687</v>
+      </c>
       <c r="AB89" s="9"/>
       <c r="AC89" s="9"/>
       <c r="AD89" s="9"/>
@@ -10732,7 +10879,9 @@
       <c r="Z90" s="11">
         <v>5909.4900662630444</v>
       </c>
-      <c r="AA90" s="9"/>
+      <c r="AA90" s="11">
+        <v>5650.1698074464357</v>
+      </c>
       <c r="AB90" s="9"/>
       <c r="AC90" s="9"/>
       <c r="AD90" s="9"/>
@@ -10882,7 +11031,9 @@
       <c r="Z91" s="11">
         <v>38170.836507855798</v>
       </c>
-      <c r="AA91" s="9"/>
+      <c r="AA91" s="11">
+        <v>38237.167602540037</v>
+      </c>
       <c r="AB91" s="9"/>
       <c r="AC91" s="9"/>
       <c r="AD91" s="9"/>
@@ -11032,7 +11183,9 @@
       <c r="Z92" s="11">
         <v>456865.49673516653</v>
       </c>
-      <c r="AA92" s="9"/>
+      <c r="AA92" s="11">
+        <v>525556.88994866714</v>
+      </c>
       <c r="AB92" s="9"/>
       <c r="AC92" s="9"/>
       <c r="AD92" s="9"/>
@@ -11129,7 +11282,7 @@
       <c r="X93" s="8"/>
       <c r="Y93" s="8"/>
       <c r="Z93" s="8"/>
-      <c r="AA93" s="9"/>
+      <c r="AA93" s="8"/>
       <c r="AB93" s="9"/>
       <c r="AC93" s="9"/>
       <c r="AD93" s="9"/>
@@ -11279,7 +11432,9 @@
       <c r="Z94" s="8">
         <v>3072373.5115250731</v>
       </c>
-      <c r="AA94" s="9"/>
+      <c r="AA94" s="8">
+        <v>3506891.1444042278</v>
+      </c>
       <c r="AB94" s="9"/>
       <c r="AC94" s="9"/>
       <c r="AD94" s="9"/>
@@ -11377,6 +11532,7 @@
       <c r="X95" s="13"/>
       <c r="Y95" s="13"/>
       <c r="Z95" s="13"/>
+      <c r="AA95" s="13"/>
     </row>
     <row r="96" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
@@ -11589,7 +11745,7 @@
     </row>
     <row r="101" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:96" x14ac:dyDescent="0.2">
@@ -11599,7 +11755,7 @@
     </row>
     <row r="104" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="105" spans="1:96" x14ac:dyDescent="0.2">
@@ -11636,6 +11792,7 @@
       <c r="X107" s="16"/>
       <c r="Y107" s="16"/>
       <c r="Z107" s="16"/>
+      <c r="AA107" s="16"/>
     </row>
     <row r="108" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
@@ -11713,7 +11870,10 @@
       <c r="Y108" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="Z108" s="17"/>
+      <c r="Z108" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA108" s="17"/>
     </row>
     <row r="109" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
@@ -11794,8 +11954,10 @@
       <c r="Y110" s="18">
         <v>-4.7535168620125745</v>
       </c>
-      <c r="Z110" s="18"/>
-      <c r="AA110" s="9"/>
+      <c r="Z110" s="18">
+        <v>22.514962525890624</v>
+      </c>
+      <c r="AA110" s="18"/>
       <c r="AB110" s="9"/>
       <c r="AC110" s="9"/>
       <c r="AD110" s="9"/>
@@ -11937,8 +12099,10 @@
       <c r="Y111" s="18">
         <v>-14.414516128143504</v>
       </c>
-      <c r="Z111" s="18"/>
-      <c r="AA111" s="9"/>
+      <c r="Z111" s="18">
+        <v>27.468573167724642</v>
+      </c>
+      <c r="AA111" s="18"/>
       <c r="AB111" s="9"/>
       <c r="AC111" s="9"/>
       <c r="AD111" s="9"/>
@@ -12080,8 +12244,10 @@
       <c r="Y112" s="18">
         <v>28.557422007844139</v>
       </c>
-      <c r="Z112" s="18"/>
-      <c r="AA112" s="9"/>
+      <c r="Z112" s="18">
+        <v>16.403823009126882</v>
+      </c>
+      <c r="AA112" s="18"/>
       <c r="AB112" s="9"/>
       <c r="AC112" s="9"/>
       <c r="AD112" s="9"/>
@@ -12223,8 +12389,10 @@
       <c r="Y113" s="18">
         <v>0.17276501617192253</v>
       </c>
-      <c r="Z113" s="18"/>
-      <c r="AA113" s="9"/>
+      <c r="Z113" s="18">
+        <v>20.506830175050624</v>
+      </c>
+      <c r="AA113" s="18"/>
       <c r="AB113" s="9"/>
       <c r="AC113" s="9"/>
       <c r="AD113" s="9"/>
@@ -12366,8 +12534,10 @@
       <c r="Y114" s="18">
         <v>83.007940648514193</v>
       </c>
-      <c r="Z114" s="18"/>
-      <c r="AA114" s="9"/>
+      <c r="Z114" s="18">
+        <v>6.9116438432236293</v>
+      </c>
+      <c r="AA114" s="18"/>
       <c r="AB114" s="9"/>
       <c r="AC114" s="9"/>
       <c r="AD114" s="9"/>
@@ -12509,8 +12679,10 @@
       <c r="Y115" s="18">
         <v>13.42824141104802</v>
       </c>
-      <c r="Z115" s="18"/>
-      <c r="AA115" s="9"/>
+      <c r="Z115" s="18">
+        <v>16.977315886969976</v>
+      </c>
+      <c r="AA115" s="18"/>
       <c r="AB115" s="9"/>
       <c r="AC115" s="9"/>
       <c r="AD115" s="9"/>
@@ -12652,8 +12824,10 @@
       <c r="Y116" s="18">
         <v>-4.6629501194135798</v>
       </c>
-      <c r="Z116" s="18"/>
-      <c r="AA116" s="9"/>
+      <c r="Z116" s="18">
+        <v>-48.633007783441549</v>
+      </c>
+      <c r="AA116" s="18"/>
       <c r="AB116" s="9"/>
       <c r="AC116" s="9"/>
       <c r="AD116" s="9"/>
@@ -12795,8 +12969,10 @@
       <c r="Y117" s="18">
         <v>14.450487635677959</v>
       </c>
-      <c r="Z117" s="18"/>
-      <c r="AA117" s="9"/>
+      <c r="Z117" s="18">
+        <v>15.897568672412987</v>
+      </c>
+      <c r="AA117" s="18"/>
       <c r="AB117" s="9"/>
       <c r="AC117" s="9"/>
       <c r="AD117" s="9"/>
@@ -12938,8 +13114,10 @@
       <c r="Y118" s="18">
         <v>33.246153310002512</v>
       </c>
-      <c r="Z118" s="18"/>
-      <c r="AA118" s="9"/>
+      <c r="Z118" s="18">
+        <v>44.660525894017582</v>
+      </c>
+      <c r="AA118" s="18"/>
       <c r="AB118" s="9"/>
       <c r="AC118" s="9"/>
       <c r="AD118" s="9"/>
@@ -13081,8 +13259,10 @@
       <c r="Y119" s="18">
         <v>90.454009464373087</v>
       </c>
-      <c r="Z119" s="18"/>
-      <c r="AA119" s="9"/>
+      <c r="Z119" s="18">
+        <v>23.876014660365882</v>
+      </c>
+      <c r="AA119" s="18"/>
       <c r="AB119" s="9"/>
       <c r="AC119" s="9"/>
       <c r="AD119" s="9"/>
@@ -13224,8 +13404,10 @@
       <c r="Y120" s="18">
         <v>29.636650718502779</v>
       </c>
-      <c r="Z120" s="18"/>
-      <c r="AA120" s="9"/>
+      <c r="Z120" s="18">
+        <v>24.060861018412211</v>
+      </c>
+      <c r="AA120" s="18"/>
       <c r="AB120" s="9"/>
       <c r="AC120" s="9"/>
       <c r="AD120" s="9"/>
@@ -13367,8 +13549,10 @@
       <c r="Y121" s="18">
         <v>3.3047507032363512</v>
       </c>
-      <c r="Z121" s="18"/>
-      <c r="AA121" s="9"/>
+      <c r="Z121" s="18">
+        <v>37.211347011460703</v>
+      </c>
+      <c r="AA121" s="18"/>
       <c r="AB121" s="9"/>
       <c r="AC121" s="9"/>
       <c r="AD121" s="9"/>
@@ -13510,8 +13694,10 @@
       <c r="Y122" s="18">
         <v>92.616219611021705</v>
       </c>
-      <c r="Z122" s="18"/>
-      <c r="AA122" s="9"/>
+      <c r="Z122" s="18">
+        <v>26.182981944173164</v>
+      </c>
+      <c r="AA122" s="18"/>
       <c r="AB122" s="9"/>
       <c r="AC122" s="9"/>
       <c r="AD122" s="9"/>
@@ -13653,8 +13839,10 @@
       <c r="Y123" s="18">
         <v>-16.854236689873375</v>
       </c>
-      <c r="Z123" s="18"/>
-      <c r="AA123" s="9"/>
+      <c r="Z123" s="18">
+        <v>-14.618342086812035</v>
+      </c>
+      <c r="AA123" s="18"/>
       <c r="AB123" s="9"/>
       <c r="AC123" s="9"/>
       <c r="AD123" s="9"/>
@@ -13796,8 +13984,10 @@
       <c r="Y124" s="18">
         <v>26.024096505368306</v>
       </c>
-      <c r="Z124" s="18"/>
-      <c r="AA124" s="9"/>
+      <c r="Z124" s="18">
+        <v>77.682494651459677</v>
+      </c>
+      <c r="AA124" s="18"/>
       <c r="AB124" s="9"/>
       <c r="AC124" s="9"/>
       <c r="AD124" s="9"/>
@@ -13939,8 +14129,10 @@
       <c r="Y125" s="18">
         <v>-28.846230932642058</v>
       </c>
-      <c r="Z125" s="18"/>
-      <c r="AA125" s="9"/>
+      <c r="Z125" s="18">
+        <v>-16.513593571773313</v>
+      </c>
+      <c r="AA125" s="18"/>
       <c r="AB125" s="9"/>
       <c r="AC125" s="9"/>
       <c r="AD125" s="9"/>
@@ -14082,8 +14274,10 @@
       <c r="Y126" s="18">
         <v>10.978440692568398</v>
       </c>
-      <c r="Z126" s="18"/>
-      <c r="AA126" s="9"/>
+      <c r="Z126" s="18">
+        <v>15.345470044556933</v>
+      </c>
+      <c r="AA126" s="18"/>
       <c r="AB126" s="9"/>
       <c r="AC126" s="9"/>
       <c r="AD126" s="9"/>
@@ -14225,8 +14419,10 @@
       <c r="Y127" s="18">
         <v>520.42732319812296</v>
       </c>
-      <c r="Z127" s="18"/>
-      <c r="AA127" s="9"/>
+      <c r="Z127" s="18">
+        <v>-100</v>
+      </c>
+      <c r="AA127" s="18"/>
       <c r="AB127" s="9"/>
       <c r="AC127" s="9"/>
       <c r="AD127" s="9"/>
@@ -14368,8 +14564,10 @@
       <c r="Y128" s="18">
         <v>13.216056062633967</v>
       </c>
-      <c r="Z128" s="18"/>
-      <c r="AA128" s="9"/>
+      <c r="Z128" s="18">
+        <v>2.9179814395080541</v>
+      </c>
+      <c r="AA128" s="18"/>
       <c r="AB128" s="9"/>
       <c r="AC128" s="9"/>
       <c r="AD128" s="9"/>
@@ -14511,8 +14709,10 @@
       <c r="Y129" s="18">
         <v>16.690002764945987</v>
       </c>
-      <c r="Z129" s="18"/>
-      <c r="AA129" s="9"/>
+      <c r="Z129" s="18">
+        <v>-7.8735096312172885</v>
+      </c>
+      <c r="AA129" s="18"/>
       <c r="AB129" s="9"/>
       <c r="AC129" s="9"/>
       <c r="AD129" s="9"/>
@@ -14654,8 +14854,10 @@
       <c r="Y130" s="18">
         <v>2.3773503972532382</v>
       </c>
-      <c r="Z130" s="18"/>
-      <c r="AA130" s="9"/>
+      <c r="Z130" s="18">
+        <v>-1.138322401904972</v>
+      </c>
+      <c r="AA130" s="18"/>
       <c r="AB130" s="9"/>
       <c r="AC130" s="9"/>
       <c r="AD130" s="9"/>
@@ -14797,8 +14999,10 @@
       <c r="Y131" s="18">
         <v>28.210344112524865</v>
       </c>
-      <c r="Z131" s="18"/>
-      <c r="AA131" s="9"/>
+      <c r="Z131" s="18">
+        <v>-12.202391326477624</v>
+      </c>
+      <c r="AA131" s="18"/>
       <c r="AB131" s="9"/>
       <c r="AC131" s="9"/>
       <c r="AD131" s="9"/>
@@ -14940,8 +15144,10 @@
       <c r="Y132" s="18">
         <v>-4.4767734396496479</v>
       </c>
-      <c r="Z132" s="18"/>
-      <c r="AA132" s="9"/>
+      <c r="Z132" s="18">
+        <v>5.8656216696128212</v>
+      </c>
+      <c r="AA132" s="18"/>
       <c r="AB132" s="9"/>
       <c r="AC132" s="9"/>
       <c r="AD132" s="9"/>
@@ -15083,8 +15289,10 @@
       <c r="Y133" s="18">
         <v>-30.113594820070062</v>
       </c>
-      <c r="Z133" s="18"/>
-      <c r="AA133" s="9"/>
+      <c r="Z133" s="18">
+        <v>-94.311893094489292</v>
+      </c>
+      <c r="AA133" s="18"/>
       <c r="AB133" s="9"/>
       <c r="AC133" s="9"/>
       <c r="AD133" s="9"/>
@@ -15226,8 +15434,10 @@
       <c r="Y134" s="18">
         <v>-5.0684907234394103</v>
       </c>
-      <c r="Z134" s="18"/>
-      <c r="AA134" s="9"/>
+      <c r="Z134" s="18">
+        <v>4.5147946751269217</v>
+      </c>
+      <c r="AA134" s="18"/>
       <c r="AB134" s="9"/>
       <c r="AC134" s="9"/>
       <c r="AD134" s="9"/>
@@ -15369,8 +15579,10 @@
       <c r="Y135" s="18">
         <v>-10.627208235212649</v>
       </c>
-      <c r="Z135" s="18"/>
-      <c r="AA135" s="9"/>
+      <c r="Z135" s="18">
+        <v>-3.5860217439120134</v>
+      </c>
+      <c r="AA135" s="18"/>
       <c r="AB135" s="9"/>
       <c r="AC135" s="9"/>
       <c r="AD135" s="9"/>
@@ -15512,8 +15724,10 @@
       <c r="Y136" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Z136" s="18"/>
-      <c r="AA136" s="9"/>
+      <c r="Z136" s="18">
+        <v>94.651307930064434</v>
+      </c>
+      <c r="AA136" s="18"/>
       <c r="AB136" s="9"/>
       <c r="AC136" s="9"/>
       <c r="AD136" s="9"/>
@@ -15655,8 +15869,10 @@
       <c r="Y137" s="18">
         <v>13.647642761150564</v>
       </c>
-      <c r="Z137" s="18"/>
-      <c r="AA137" s="9"/>
+      <c r="Z137" s="18">
+        <v>26.78480342360703</v>
+      </c>
+      <c r="AA137" s="18"/>
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
       <c r="AD137" s="9"/>
@@ -15798,8 +16014,10 @@
       <c r="Y138" s="18">
         <v>16.145765525987414</v>
       </c>
-      <c r="Z138" s="18"/>
-      <c r="AA138" s="9"/>
+      <c r="Z138" s="18">
+        <v>-8.9045890372380825</v>
+      </c>
+      <c r="AA138" s="18"/>
       <c r="AB138" s="9"/>
       <c r="AC138" s="9"/>
       <c r="AD138" s="9"/>
@@ -15941,8 +16159,10 @@
       <c r="Y139" s="18">
         <v>-29.785220705574574</v>
       </c>
-      <c r="Z139" s="18"/>
-      <c r="AA139" s="9"/>
+      <c r="Z139" s="18">
+        <v>-3.0368908725350678</v>
+      </c>
+      <c r="AA139" s="18"/>
       <c r="AB139" s="9"/>
       <c r="AC139" s="9"/>
       <c r="AD139" s="9"/>
@@ -16084,8 +16304,10 @@
       <c r="Y140" s="18">
         <v>11.415559633615118</v>
       </c>
-      <c r="Z140" s="18"/>
-      <c r="AA140" s="9"/>
+      <c r="Z140" s="18">
+        <v>3.4329020224499516</v>
+      </c>
+      <c r="AA140" s="18"/>
       <c r="AB140" s="9"/>
       <c r="AC140" s="9"/>
       <c r="AD140" s="9"/>
@@ -16227,8 +16449,10 @@
       <c r="Y141" s="18">
         <v>14.409870161290158</v>
       </c>
-      <c r="Z141" s="18"/>
-      <c r="AA141" s="9"/>
+      <c r="Z141" s="18">
+        <v>10.977832343398731</v>
+      </c>
+      <c r="AA141" s="18"/>
       <c r="AB141" s="9"/>
       <c r="AC141" s="9"/>
       <c r="AD141" s="9"/>
@@ -16462,8 +16686,10 @@
       <c r="Y143" s="18">
         <v>0.88746417510445497</v>
       </c>
-      <c r="Z143" s="18"/>
-      <c r="AA143" s="9"/>
+      <c r="Z143" s="18">
+        <v>16.044625311780209</v>
+      </c>
+      <c r="AA143" s="18"/>
       <c r="AB143" s="9"/>
       <c r="AC143" s="9"/>
       <c r="AD143" s="9"/>
@@ -16556,6 +16782,7 @@
       <c r="X144" s="13"/>
       <c r="Y144" s="13"/>
       <c r="Z144" s="13"/>
+      <c r="AA144" s="13"/>
     </row>
     <row r="145" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A145" s="19" t="s">
@@ -16762,7 +16989,7 @@
     </row>
     <row r="150" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:92" x14ac:dyDescent="0.2">
@@ -16772,7 +16999,7 @@
     </row>
     <row r="153" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.2">
@@ -16809,6 +17036,7 @@
       <c r="X156" s="16"/>
       <c r="Y156" s="16"/>
       <c r="Z156" s="16"/>
+      <c r="AA156" s="16"/>
     </row>
     <row r="157" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
@@ -16886,7 +17114,10 @@
       <c r="Y157" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="Z157" s="17"/>
+      <c r="Z157" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA157" s="17"/>
     </row>
     <row r="158" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
@@ -16967,8 +17198,10 @@
       <c r="Y159" s="18">
         <v>-4.4381980187599055</v>
       </c>
-      <c r="Z159" s="18"/>
-      <c r="AA159" s="9"/>
+      <c r="Z159" s="18">
+        <v>19.294050121746409</v>
+      </c>
+      <c r="AA159" s="18"/>
       <c r="AB159" s="9"/>
       <c r="AC159" s="9"/>
       <c r="AD159" s="9"/>
@@ -17110,8 +17343,10 @@
       <c r="Y160" s="18">
         <v>-12.946591034957081</v>
       </c>
-      <c r="Z160" s="18"/>
-      <c r="AA160" s="9"/>
+      <c r="Z160" s="18">
+        <v>23.435697308960272</v>
+      </c>
+      <c r="AA160" s="18"/>
       <c r="AB160" s="9"/>
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
@@ -17253,8 +17488,10 @@
       <c r="Y161" s="18">
         <v>27.438362403718841</v>
       </c>
-      <c r="Z161" s="18"/>
-      <c r="AA161" s="9"/>
+      <c r="Z161" s="18">
+        <v>12.51602978895599</v>
+      </c>
+      <c r="AA161" s="18"/>
       <c r="AB161" s="9"/>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
@@ -17396,8 +17633,10 @@
       <c r="Y162" s="18">
         <v>-0.66264794896936507</v>
       </c>
-      <c r="Z162" s="18"/>
-      <c r="AA162" s="9"/>
+      <c r="Z162" s="18">
+        <v>17.37173283382414</v>
+      </c>
+      <c r="AA162" s="18"/>
       <c r="AB162" s="9"/>
       <c r="AC162" s="9"/>
       <c r="AD162" s="9"/>
@@ -17539,8 +17778,10 @@
       <c r="Y163" s="18">
         <v>79.321798733629066</v>
       </c>
-      <c r="Z163" s="18"/>
-      <c r="AA163" s="9"/>
+      <c r="Z163" s="18">
+        <v>6.0443027890051439</v>
+      </c>
+      <c r="AA163" s="18"/>
       <c r="AB163" s="9"/>
       <c r="AC163" s="9"/>
       <c r="AD163" s="9"/>
@@ -17682,8 +17923,10 @@
       <c r="Y164" s="18">
         <v>15.065275049694037</v>
       </c>
-      <c r="Z164" s="18"/>
-      <c r="AA164" s="9"/>
+      <c r="Z164" s="18">
+        <v>15.461120633714216</v>
+      </c>
+      <c r="AA164" s="18"/>
       <c r="AB164" s="9"/>
       <c r="AC164" s="9"/>
       <c r="AD164" s="9"/>
@@ -17825,8 +18068,10 @@
       <c r="Y165" s="18">
         <v>-6.9392622860173674</v>
       </c>
-      <c r="Z165" s="18"/>
-      <c r="AA165" s="9"/>
+      <c r="Z165" s="18">
+        <v>-49.732134667430238</v>
+      </c>
+      <c r="AA165" s="18"/>
       <c r="AB165" s="9"/>
       <c r="AC165" s="9"/>
       <c r="AD165" s="9"/>
@@ -17968,8 +18213,10 @@
       <c r="Y166" s="18">
         <v>11.067234631086677</v>
       </c>
-      <c r="Z166" s="18"/>
-      <c r="AA166" s="9"/>
+      <c r="Z166" s="18">
+        <v>14.430428676722059</v>
+      </c>
+      <c r="AA166" s="18"/>
       <c r="AB166" s="9"/>
       <c r="AC166" s="9"/>
       <c r="AD166" s="9"/>
@@ -18111,8 +18358,10 @@
       <c r="Y167" s="18">
         <v>21.361457931030543</v>
       </c>
-      <c r="Z167" s="18"/>
-      <c r="AA167" s="9"/>
+      <c r="Z167" s="18">
+        <v>42.007461936591199</v>
+      </c>
+      <c r="AA167" s="18"/>
       <c r="AB167" s="9"/>
       <c r="AC167" s="9"/>
       <c r="AD167" s="9"/>
@@ -18254,8 +18503,10 @@
       <c r="Y168" s="18">
         <v>82.083353690944449</v>
       </c>
-      <c r="Z168" s="18"/>
-      <c r="AA168" s="9"/>
+      <c r="Z168" s="18">
+        <v>21.132082913276619</v>
+      </c>
+      <c r="AA168" s="18"/>
       <c r="AB168" s="9"/>
       <c r="AC168" s="9"/>
       <c r="AD168" s="9"/>
@@ -18397,8 +18648,10 @@
       <c r="Y169" s="18">
         <v>6.5389671524109758</v>
       </c>
-      <c r="Z169" s="18"/>
-      <c r="AA169" s="9"/>
+      <c r="Z169" s="18">
+        <v>7.6690938612482995</v>
+      </c>
+      <c r="AA169" s="18"/>
       <c r="AB169" s="9"/>
       <c r="AC169" s="9"/>
       <c r="AD169" s="9"/>
@@ -18540,8 +18793,10 @@
       <c r="Y170" s="18">
         <v>10.669775034253419</v>
       </c>
-      <c r="Z170" s="18"/>
-      <c r="AA170" s="9"/>
+      <c r="Z170" s="18">
+        <v>40.641892975056862</v>
+      </c>
+      <c r="AA170" s="18"/>
       <c r="AB170" s="9"/>
       <c r="AC170" s="9"/>
       <c r="AD170" s="9"/>
@@ -18683,8 +18938,10 @@
       <c r="Y171" s="18">
         <v>39.680686552649917</v>
       </c>
-      <c r="Z171" s="18"/>
-      <c r="AA171" s="9"/>
+      <c r="Z171" s="18">
+        <v>-10.971054569286594</v>
+      </c>
+      <c r="AA171" s="18"/>
       <c r="AB171" s="9"/>
       <c r="AC171" s="9"/>
       <c r="AD171" s="9"/>
@@ -18826,8 +19083,10 @@
       <c r="Y172" s="18">
         <v>-39.91416585873354</v>
       </c>
-      <c r="Z172" s="18"/>
-      <c r="AA172" s="9"/>
+      <c r="Z172" s="18">
+        <v>-41.628480875082396</v>
+      </c>
+      <c r="AA172" s="18"/>
       <c r="AB172" s="9"/>
       <c r="AC172" s="9"/>
       <c r="AD172" s="9"/>
@@ -18969,8 +19228,10 @@
       <c r="Y173" s="18">
         <v>-9.2726472400342601</v>
       </c>
-      <c r="Z173" s="18"/>
-      <c r="AA173" s="9"/>
+      <c r="Z173" s="18">
+        <v>44.886564175797076</v>
+      </c>
+      <c r="AA173" s="18"/>
       <c r="AB173" s="9"/>
       <c r="AC173" s="9"/>
       <c r="AD173" s="9"/>
@@ -19112,8 +19373,10 @@
       <c r="Y174" s="18">
         <v>-9.3546150270657762</v>
       </c>
-      <c r="Z174" s="18"/>
-      <c r="AA174" s="9"/>
+      <c r="Z174" s="18">
+        <v>-23.135111168838492</v>
+      </c>
+      <c r="AA174" s="18"/>
       <c r="AB174" s="9"/>
       <c r="AC174" s="9"/>
       <c r="AD174" s="9"/>
@@ -19255,8 +19518,10 @@
       <c r="Y175" s="18">
         <v>-28.44486439128498</v>
       </c>
-      <c r="Z175" s="18"/>
-      <c r="AA175" s="9"/>
+      <c r="Z175" s="18">
+        <v>10.219511956285473</v>
+      </c>
+      <c r="AA175" s="18"/>
       <c r="AB175" s="9"/>
       <c r="AC175" s="9"/>
       <c r="AD175" s="9"/>
@@ -19398,8 +19663,10 @@
       <c r="Y176" s="18">
         <v>712.13446706302648</v>
       </c>
-      <c r="Z176" s="18"/>
-      <c r="AA176" s="9"/>
+      <c r="Z176" s="18">
+        <v>-100</v>
+      </c>
+      <c r="AA176" s="18"/>
       <c r="AB176" s="9"/>
       <c r="AC176" s="9"/>
       <c r="AD176" s="9"/>
@@ -19541,8 +19808,10 @@
       <c r="Y177" s="18">
         <v>-8.9069907499730618</v>
       </c>
-      <c r="Z177" s="18"/>
-      <c r="AA177" s="9"/>
+      <c r="Z177" s="18">
+        <v>-4.5419967881514651</v>
+      </c>
+      <c r="AA177" s="18"/>
       <c r="AB177" s="9"/>
       <c r="AC177" s="9"/>
       <c r="AD177" s="9"/>
@@ -19684,8 +19953,10 @@
       <c r="Y178" s="18">
         <v>18.204426838001851</v>
       </c>
-      <c r="Z178" s="18"/>
-      <c r="AA178" s="9"/>
+      <c r="Z178" s="18">
+        <v>-10.704276172700887</v>
+      </c>
+      <c r="AA178" s="18"/>
       <c r="AB178" s="9"/>
       <c r="AC178" s="9"/>
       <c r="AD178" s="9"/>
@@ -19827,8 +20098,10 @@
       <c r="Y179" s="18">
         <v>9.0310849239832152</v>
       </c>
-      <c r="Z179" s="18"/>
-      <c r="AA179" s="9"/>
+      <c r="Z179" s="18">
+        <v>-4.7554307174612234</v>
+      </c>
+      <c r="AA179" s="18"/>
       <c r="AB179" s="9"/>
       <c r="AC179" s="9"/>
       <c r="AD179" s="9"/>
@@ -19970,8 +20243,10 @@
       <c r="Y180" s="18">
         <v>25.303492479256604</v>
       </c>
-      <c r="Z180" s="18"/>
-      <c r="AA180" s="9"/>
+      <c r="Z180" s="18">
+        <v>-14.710114846440476</v>
+      </c>
+      <c r="AA180" s="18"/>
       <c r="AB180" s="9"/>
       <c r="AC180" s="9"/>
       <c r="AD180" s="9"/>
@@ -20113,8 +20388,10 @@
       <c r="Y181" s="18">
         <v>-6.1182523354660958</v>
       </c>
-      <c r="Z181" s="18"/>
-      <c r="AA181" s="9"/>
+      <c r="Z181" s="18">
+        <v>6.265049937492833</v>
+      </c>
+      <c r="AA181" s="18"/>
       <c r="AB181" s="9"/>
       <c r="AC181" s="9"/>
       <c r="AD181" s="9"/>
@@ -20256,8 +20533,10 @@
       <c r="Y182" s="18">
         <v>-29.943962211320013</v>
       </c>
-      <c r="Z182" s="18"/>
-      <c r="AA182" s="9"/>
+      <c r="Z182" s="18">
+        <v>-92.193195256606288</v>
+      </c>
+      <c r="AA182" s="18"/>
       <c r="AB182" s="9"/>
       <c r="AC182" s="9"/>
       <c r="AD182" s="9"/>
@@ -20399,8 +20678,10 @@
       <c r="Y183" s="18">
         <v>-3.0472694389970769</v>
       </c>
-      <c r="Z183" s="18"/>
-      <c r="AA183" s="9"/>
+      <c r="Z183" s="18">
+        <v>3.4351242914264333</v>
+      </c>
+      <c r="AA183" s="18"/>
       <c r="AB183" s="9"/>
       <c r="AC183" s="9"/>
       <c r="AD183" s="9"/>
@@ -20542,8 +20823,10 @@
       <c r="Y184" s="18">
         <v>-11.939112437821407</v>
       </c>
-      <c r="Z184" s="18"/>
-      <c r="AA184" s="9"/>
+      <c r="Z184" s="18">
+        <v>-7.8367472113118595</v>
+      </c>
+      <c r="AA184" s="18"/>
       <c r="AB184" s="9"/>
       <c r="AC184" s="9"/>
       <c r="AD184" s="9"/>
@@ -20685,8 +20968,10 @@
       <c r="Y185" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="Z185" s="18"/>
-      <c r="AA185" s="9"/>
+      <c r="Z185" s="18">
+        <v>143.22785498338794</v>
+      </c>
+      <c r="AA185" s="18"/>
       <c r="AB185" s="9"/>
       <c r="AC185" s="9"/>
       <c r="AD185" s="9"/>
@@ -20828,8 +21113,10 @@
       <c r="Y186" s="18">
         <v>11.966417748808112</v>
       </c>
-      <c r="Z186" s="18"/>
-      <c r="AA186" s="9"/>
+      <c r="Z186" s="18">
+        <v>27.964603459643669</v>
+      </c>
+      <c r="AA186" s="18"/>
       <c r="AB186" s="9"/>
       <c r="AC186" s="9"/>
       <c r="AD186" s="9"/>
@@ -20971,8 +21258,10 @@
       <c r="Y187" s="18">
         <v>17.262012725945652</v>
       </c>
-      <c r="Z187" s="18"/>
-      <c r="AA187" s="9"/>
+      <c r="Z187" s="18">
+        <v>-9.6126645059334521</v>
+      </c>
+      <c r="AA187" s="18"/>
       <c r="AB187" s="9"/>
       <c r="AC187" s="9"/>
       <c r="AD187" s="9"/>
@@ -21114,8 +21403,10 @@
       <c r="Y188" s="18">
         <v>-30.245935356176872</v>
       </c>
-      <c r="Z188" s="18"/>
-      <c r="AA188" s="9"/>
+      <c r="Z188" s="18">
+        <v>-4.3882002661626274</v>
+      </c>
+      <c r="AA188" s="18"/>
       <c r="AB188" s="9"/>
       <c r="AC188" s="9"/>
       <c r="AD188" s="9"/>
@@ -21257,8 +21548,10 @@
       <c r="Y189" s="18">
         <v>2.9965192112870227</v>
       </c>
-      <c r="Z189" s="18"/>
-      <c r="AA189" s="9"/>
+      <c r="Z189" s="18">
+        <v>0.17377427573688919</v>
+      </c>
+      <c r="AA189" s="18"/>
       <c r="AB189" s="9"/>
       <c r="AC189" s="9"/>
       <c r="AD189" s="9"/>
@@ -21400,8 +21693,10 @@
       <c r="Y190" s="18">
         <v>12.85174455074231</v>
       </c>
-      <c r="Z190" s="18"/>
-      <c r="AA190" s="9"/>
+      <c r="Z190" s="18">
+        <v>15.035364610455431</v>
+      </c>
+      <c r="AA190" s="18"/>
       <c r="AB190" s="9"/>
       <c r="AC190" s="9"/>
       <c r="AD190" s="9"/>
@@ -21635,8 +21930,10 @@
       <c r="Y192" s="18">
         <v>-0.69351620021919302</v>
       </c>
-      <c r="Z192" s="18"/>
-      <c r="AA192" s="9"/>
+      <c r="Z192" s="18">
+        <v>14.142734639821427</v>
+      </c>
+      <c r="AA192" s="18"/>
       <c r="AB192" s="9"/>
       <c r="AC192" s="9"/>
       <c r="AD192" s="9"/>
@@ -21729,6 +22026,7 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="13"/>
       <c r="Z193" s="13"/>
+      <c r="AA193" s="13"/>
     </row>
     <row r="194" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A194" s="19" t="s">
@@ -21931,7 +22229,7 @@
     </row>
     <row r="198" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.2">
@@ -21941,7 +22239,7 @@
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="202" spans="1:96" x14ac:dyDescent="0.2">
@@ -21978,6 +22276,7 @@
       <c r="X204" s="16"/>
       <c r="Y204" s="16"/>
       <c r="Z204" s="16"/>
+      <c r="AA204" s="16"/>
     </row>
     <row r="205" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
@@ -22057,6 +22356,9 @@
       </c>
       <c r="Z205" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA205" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="206" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22141,7 +22443,9 @@
       <c r="Z207" s="18">
         <v>104.41779492390771</v>
       </c>
-      <c r="AA207" s="9"/>
+      <c r="AA207" s="18">
+        <v>107.23705179833327</v>
+      </c>
       <c r="AB207" s="9"/>
       <c r="AC207" s="9"/>
       <c r="AD207" s="9"/>
@@ -22291,7 +22595,9 @@
       <c r="Z208" s="18">
         <v>102.33654951226268</v>
       </c>
-      <c r="AA208" s="9"/>
+      <c r="AA208" s="18">
+        <v>105.68007661985645</v>
+      </c>
       <c r="AB208" s="9"/>
       <c r="AC208" s="9"/>
       <c r="AD208" s="9"/>
@@ -22441,7 +22747,9 @@
       <c r="Z209" s="18">
         <v>103.07623749299238</v>
       </c>
-      <c r="AA209" s="9"/>
+      <c r="AA209" s="18">
+        <v>106.63785531791599</v>
+      </c>
       <c r="AB209" s="9"/>
       <c r="AC209" s="9"/>
       <c r="AD209" s="9"/>
@@ -22591,7 +22899,9 @@
       <c r="Z210" s="18">
         <v>101.34086744005782</v>
       </c>
-      <c r="AA210" s="9"/>
+      <c r="AA210" s="18">
+        <v>104.04776693278943</v>
+      </c>
       <c r="AB210" s="9"/>
       <c r="AC210" s="9"/>
       <c r="AD210" s="9"/>
@@ -22741,7 +23051,9 @@
       <c r="Z211" s="18">
         <v>115.4782604110506</v>
       </c>
-      <c r="AA211" s="9"/>
+      <c r="AA211" s="18">
+        <v>116.42276222293503</v>
+      </c>
       <c r="AB211" s="9"/>
       <c r="AC211" s="9"/>
       <c r="AD211" s="9"/>
@@ -22891,7 +23203,9 @@
       <c r="Z212" s="18">
         <v>106.26731556314206</v>
       </c>
-      <c r="AA212" s="9"/>
+      <c r="AA212" s="18">
+        <v>107.66278096784924</v>
+      </c>
       <c r="AB212" s="9"/>
       <c r="AC212" s="9"/>
       <c r="AD212" s="9"/>
@@ -23041,7 +23355,9 @@
       <c r="Z213" s="18">
         <v>114.57485382884136</v>
       </c>
-      <c r="AA213" s="9"/>
+      <c r="AA213" s="18">
+        <v>117.08007861288962</v>
+      </c>
       <c r="AB213" s="9"/>
       <c r="AC213" s="9"/>
       <c r="AD213" s="9"/>
@@ -23191,7 +23507,9 @@
       <c r="Z214" s="18">
         <v>112.10083138986167</v>
       </c>
-      <c r="AA214" s="9"/>
+      <c r="AA214" s="18">
+        <v>113.53810305950567</v>
+      </c>
       <c r="AB214" s="9"/>
       <c r="AC214" s="9"/>
       <c r="AD214" s="9"/>
@@ -23341,7 +23659,9 @@
       <c r="Z215" s="18">
         <v>134.82352845190863</v>
       </c>
-      <c r="AA215" s="9"/>
+      <c r="AA215" s="18">
+        <v>137.34237808889833</v>
+      </c>
       <c r="AB215" s="9"/>
       <c r="AC215" s="9"/>
       <c r="AD215" s="9"/>
@@ -23491,7 +23811,9 @@
       <c r="Z216" s="18">
         <v>119.66936876193823</v>
       </c>
-      <c r="AA216" s="9"/>
+      <c r="AA216" s="18">
+        <v>122.38016653080932</v>
+      </c>
       <c r="AB216" s="9"/>
       <c r="AC216" s="9"/>
       <c r="AD216" s="9"/>
@@ -23641,7 +23963,9 @@
       <c r="Z217" s="18">
         <v>156.95214948115296</v>
       </c>
-      <c r="AA217" s="9"/>
+      <c r="AA217" s="18">
+        <v>180.84687169760326</v>
+      </c>
       <c r="AB217" s="9"/>
       <c r="AC217" s="9"/>
       <c r="AD217" s="9"/>
@@ -23791,7 +24115,9 @@
       <c r="Z218" s="18">
         <v>137.42755563670258</v>
       </c>
-      <c r="AA218" s="9"/>
+      <c r="AA218" s="18">
+        <v>134.07541399310293</v>
+      </c>
       <c r="AB218" s="9"/>
       <c r="AC218" s="9"/>
       <c r="AD218" s="9"/>
@@ -23941,7 +24267,9 @@
       <c r="Z219" s="18">
         <v>153.72183340298577</v>
       </c>
-      <c r="AA219" s="9"/>
+      <c r="AA219" s="18">
+        <v>217.8738525416982</v>
+      </c>
       <c r="AB219" s="9"/>
       <c r="AC219" s="9"/>
       <c r="AD219" s="9"/>
@@ -24091,7 +24419,9 @@
       <c r="Z220" s="18">
         <v>155.30749578405553</v>
       </c>
-      <c r="AA220" s="9"/>
+      <c r="AA220" s="18">
+        <v>227.1726293093426</v>
+      </c>
       <c r="AB220" s="9"/>
       <c r="AC220" s="9"/>
       <c r="AD220" s="9"/>
@@ -24241,7 +24571,9 @@
       <c r="Z221" s="18">
         <v>130.69229286865297</v>
       </c>
-      <c r="AA221" s="9"/>
+      <c r="AA221" s="18">
+        <v>160.2752661071147</v>
+      </c>
       <c r="AB221" s="9"/>
       <c r="AC221" s="9"/>
       <c r="AD221" s="9"/>
@@ -24391,7 +24723,9 @@
       <c r="Z222" s="18">
         <v>99.376413670748519</v>
       </c>
-      <c r="AA222" s="9"/>
+      <c r="AA222" s="18">
+        <v>107.93718415855184</v>
+      </c>
       <c r="AB222" s="9"/>
       <c r="AC222" s="9"/>
       <c r="AD222" s="9"/>
@@ -24541,7 +24875,9 @@
       <c r="Z223" s="18">
         <v>223.45260730645927</v>
       </c>
-      <c r="AA223" s="9"/>
+      <c r="AA223" s="18">
+        <v>233.84467563844552</v>
+      </c>
       <c r="AB223" s="9"/>
       <c r="AC223" s="9"/>
       <c r="AD223" s="9"/>
@@ -24691,7 +25027,9 @@
       <c r="Z224" s="18">
         <v>135.95826146584866</v>
       </c>
-      <c r="AA224" s="9"/>
+      <c r="AA224" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="AB224" s="9"/>
       <c r="AC224" s="9"/>
       <c r="AD224" s="9"/>
@@ -24841,7 +25179,9 @@
       <c r="Z225" s="18">
         <v>169.0477654022792</v>
       </c>
-      <c r="AA225" s="9"/>
+      <c r="AA225" s="18">
+        <v>182.25873364908796</v>
+      </c>
       <c r="AB225" s="9"/>
       <c r="AC225" s="9"/>
       <c r="AD225" s="9"/>
@@ -24991,7 +25331,9 @@
       <c r="Z226" s="18">
         <v>144.05194345641064</v>
       </c>
-      <c r="AA226" s="9"/>
+      <c r="AA226" s="18">
+        <v>148.61853863358562</v>
+      </c>
       <c r="AB226" s="9"/>
       <c r="AC226" s="9"/>
       <c r="AD226" s="9"/>
@@ -25141,7 +25483,9 @@
       <c r="Z227" s="18">
         <v>140.05995914457728</v>
       </c>
-      <c r="AA227" s="9"/>
+      <c r="AA227" s="18">
+        <v>145.37902401845452</v>
+      </c>
       <c r="AB227" s="9"/>
       <c r="AC227" s="9"/>
       <c r="AD227" s="9"/>
@@ -25291,7 +25635,9 @@
       <c r="Z228" s="18">
         <v>146.7400692888306</v>
       </c>
-      <c r="AA228" s="9"/>
+      <c r="AA228" s="18">
+        <v>151.05457296548636</v>
+      </c>
       <c r="AB228" s="9"/>
       <c r="AC228" s="9"/>
       <c r="AD228" s="9"/>
@@ -25441,7 +25787,9 @@
       <c r="Z229" s="18">
         <v>102.93570456246992</v>
       </c>
-      <c r="AA229" s="9"/>
+      <c r="AA229" s="18">
+        <v>102.54879061286391</v>
+      </c>
       <c r="AB229" s="9"/>
       <c r="AC229" s="9"/>
       <c r="AD229" s="9"/>
@@ -25591,7 +25939,9 @@
       <c r="Z230" s="18">
         <v>149.67253765701278</v>
       </c>
-      <c r="AA230" s="9"/>
+      <c r="AA230" s="18">
+        <v>109.05273322387106</v>
+      </c>
       <c r="AB230" s="9"/>
       <c r="AC230" s="9"/>
       <c r="AD230" s="9"/>
@@ -25741,7 +26091,9 @@
       <c r="Z231" s="18">
         <v>103.29255728072701</v>
       </c>
-      <c r="AA231" s="9"/>
+      <c r="AA231" s="18">
+        <v>104.37073952990647</v>
+      </c>
       <c r="AB231" s="9"/>
       <c r="AC231" s="9"/>
       <c r="AD231" s="9"/>
@@ -25891,7 +26243,9 @@
       <c r="Z232" s="18">
         <v>110.1693747984687</v>
       </c>
-      <c r="AA232" s="9"/>
+      <c r="AA232" s="18">
+        <v>115.25057313960241</v>
+      </c>
       <c r="AB232" s="9"/>
       <c r="AC232" s="9"/>
       <c r="AD232" s="9"/>
@@ -26041,7 +26395,9 @@
       <c r="Z233" s="18">
         <v>130.89026925011888</v>
       </c>
-      <c r="AA233" s="9"/>
+      <c r="AA233" s="18">
+        <v>104.74935984036054</v>
+      </c>
       <c r="AB233" s="9"/>
       <c r="AC233" s="9"/>
       <c r="AD233" s="9"/>
@@ -26191,7 +26547,9 @@
       <c r="Z234" s="18">
         <v>109.16726032741451</v>
       </c>
-      <c r="AA234" s="9"/>
+      <c r="AA234" s="18">
+        <v>108.16076685823477</v>
+      </c>
       <c r="AB234" s="9"/>
       <c r="AC234" s="9"/>
       <c r="AD234" s="9"/>
@@ -26341,7 +26699,9 @@
       <c r="Z235" s="18">
         <v>105.9780827703307</v>
       </c>
-      <c r="AA235" s="9"/>
+      <c r="AA235" s="18">
+        <v>106.8082928901319</v>
+      </c>
       <c r="AB235" s="9"/>
       <c r="AC235" s="9"/>
       <c r="AD235" s="9"/>
@@ -26491,7 +26851,9 @@
       <c r="Z236" s="18">
         <v>100.03563601971217</v>
       </c>
-      <c r="AA236" s="9"/>
+      <c r="AA236" s="18">
+        <v>101.44946877913365</v>
+      </c>
       <c r="AB236" s="9"/>
       <c r="AC236" s="9"/>
       <c r="AD236" s="9"/>
@@ -26641,7 +27003,9 @@
       <c r="Z237" s="18">
         <v>123.32405703548031</v>
       </c>
-      <c r="AA237" s="9"/>
+      <c r="AA237" s="18">
+        <v>127.33637322330023</v>
+      </c>
       <c r="AB237" s="9"/>
       <c r="AC237" s="9"/>
       <c r="AD237" s="9"/>
@@ -26791,7 +27155,9 @@
       <c r="Z238" s="18">
         <v>100.1893807007238</v>
       </c>
-      <c r="AA238" s="9"/>
+      <c r="AA238" s="18">
+        <v>96.655496608764608</v>
+      </c>
       <c r="AB238" s="9"/>
       <c r="AC238" s="9"/>
       <c r="AD238" s="9"/>
@@ -27038,7 +27404,9 @@
       <c r="Z240" s="18">
         <v>108.72848944572469</v>
       </c>
-      <c r="AA240" s="9"/>
+      <c r="AA240" s="18">
+        <v>110.54016585689112</v>
+      </c>
       <c r="AB240" s="9"/>
       <c r="AC240" s="9"/>
       <c r="AD240" s="9"/>
@@ -27136,6 +27504,7 @@
       <c r="X241" s="13"/>
       <c r="Y241" s="13"/>
       <c r="Z241" s="13"/>
+      <c r="AA241" s="13"/>
     </row>
     <row r="242" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A242" s="14" t="s">
@@ -27154,7 +27523,7 @@
     </row>
     <row r="247" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249" spans="1:96" x14ac:dyDescent="0.2">
@@ -27164,7 +27533,7 @@
     </row>
     <row r="250" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="251" spans="1:96" x14ac:dyDescent="0.2">
@@ -27201,6 +27570,7 @@
       <c r="X253" s="16"/>
       <c r="Y253" s="16"/>
       <c r="Z253" s="16"/>
+      <c r="AA253" s="16"/>
     </row>
     <row r="254" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
@@ -27280,6 +27650,9 @@
       </c>
       <c r="Z254" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA254" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="255" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27364,7 +27737,9 @@
       <c r="Z256" s="18">
         <v>58.210642178285163</v>
       </c>
-      <c r="AA256" s="9"/>
+      <c r="AA256" s="18">
+        <v>61.456311534633969</v>
+      </c>
       <c r="AB256" s="9"/>
       <c r="AC256" s="9"/>
       <c r="AD256" s="9"/>
@@ -27514,7 +27889,9 @@
       <c r="Z257" s="18">
         <v>39.480053028718686</v>
       </c>
-      <c r="AA257" s="9"/>
+      <c r="AA257" s="18">
+        <v>43.366644638956906</v>
+      </c>
       <c r="AB257" s="9"/>
       <c r="AC257" s="9"/>
       <c r="AD257" s="9"/>
@@ -27664,7 +28041,9 @@
       <c r="Z258" s="18">
         <v>5.4722600280901608</v>
       </c>
-      <c r="AA258" s="9"/>
+      <c r="AA258" s="18">
+        <v>5.4891985394265639</v>
+      </c>
       <c r="AB258" s="9"/>
       <c r="AC258" s="9"/>
       <c r="AD258" s="9"/>
@@ -27814,7 +28193,9 @@
       <c r="Z259" s="18">
         <v>1.4075603673462163</v>
       </c>
-      <c r="AA259" s="9"/>
+      <c r="AA259" s="18">
+        <v>1.4616845691319005</v>
+      </c>
       <c r="AB259" s="9"/>
       <c r="AC259" s="9"/>
       <c r="AD259" s="9"/>
@@ -27964,7 +28345,9 @@
       <c r="Z260" s="18">
         <v>3.434315528479249</v>
       </c>
-      <c r="AA260" s="9"/>
+      <c r="AA260" s="18">
+        <v>3.1640269218806543</v>
+      </c>
       <c r="AB260" s="9"/>
       <c r="AC260" s="9"/>
       <c r="AD260" s="9"/>
@@ -28114,7 +28497,9 @@
       <c r="Z261" s="18">
         <v>1.4953363765419656</v>
       </c>
-      <c r="AA261" s="9"/>
+      <c r="AA261" s="18">
+        <v>1.5073549094243972</v>
+      </c>
       <c r="AB261" s="9"/>
       <c r="AC261" s="9"/>
       <c r="AD261" s="9"/>
@@ -28264,7 +28649,9 @@
       <c r="Z262" s="18">
         <v>0.98700507386409797</v>
       </c>
-      <c r="AA262" s="9"/>
+      <c r="AA262" s="18">
+        <v>0.43689642506634974</v>
+      </c>
       <c r="AB262" s="9"/>
       <c r="AC262" s="9"/>
       <c r="AD262" s="9"/>
@@ -28414,7 +28801,9 @@
       <c r="Z263" s="18">
         <v>5.4257829643293451</v>
       </c>
-      <c r="AA263" s="9"/>
+      <c r="AA263" s="18">
+        <v>5.4189071835120384</v>
+      </c>
       <c r="AB263" s="9"/>
       <c r="AC263" s="9"/>
       <c r="AD263" s="9"/>
@@ -28564,7 +28953,9 @@
       <c r="Z264" s="18">
         <v>0.38504411881497408</v>
       </c>
-      <c r="AA264" s="9"/>
+      <c r="AA264" s="18">
+        <v>0.47999366252870568</v>
+      </c>
       <c r="AB264" s="9"/>
       <c r="AC264" s="9"/>
       <c r="AD264" s="9"/>
@@ -28714,7 +29105,9 @@
       <c r="Z265" s="18">
         <v>0.12328469210046468</v>
       </c>
-      <c r="AA265" s="9"/>
+      <c r="AA265" s="18">
+        <v>0.1316046847064577</v>
+      </c>
       <c r="AB265" s="9"/>
       <c r="AC265" s="9"/>
       <c r="AD265" s="9"/>
@@ -28864,7 +29257,9 @@
       <c r="Z266" s="18">
         <v>9.1535572775484972</v>
       </c>
-      <c r="AA266" s="9"/>
+      <c r="AA266" s="18">
+        <v>9.7858749957869868</v>
+      </c>
       <c r="AB266" s="9"/>
       <c r="AC266" s="9"/>
       <c r="AD266" s="9"/>
@@ -29014,7 +29409,9 @@
       <c r="Z267" s="18">
         <v>1.9465639611710945</v>
       </c>
-      <c r="AA267" s="9"/>
+      <c r="AA267" s="18">
+        <v>2.3016202813241105</v>
+      </c>
       <c r="AB267" s="9"/>
       <c r="AC267" s="9"/>
       <c r="AD267" s="9"/>
@@ -29164,7 +29561,9 @@
       <c r="Z268" s="18">
         <v>3.4488108061559122</v>
       </c>
-      <c r="AA268" s="9"/>
+      <c r="AA268" s="18">
+        <v>3.7501196674367958</v>
+      </c>
       <c r="AB268" s="9"/>
       <c r="AC268" s="9"/>
       <c r="AD268" s="9"/>
@@ -29314,7 +29713,9 @@
       <c r="Z269" s="18">
         <v>8.859112946885056E-2</v>
       </c>
-      <c r="AA269" s="9"/>
+      <c r="AA269" s="18">
+        <v>6.5182316631466453E-2</v>
+      </c>
       <c r="AB269" s="9"/>
       <c r="AC269" s="9"/>
       <c r="AD269" s="9"/>
@@ -29464,7 +29865,9 @@
       <c r="Z270" s="18">
         <v>0.46235412230383893</v>
       </c>
-      <c r="AA270" s="9"/>
+      <c r="AA270" s="18">
+        <v>0.70793656873475674</v>
+      </c>
       <c r="AB270" s="9"/>
       <c r="AC270" s="9"/>
       <c r="AD270" s="9"/>
@@ -29614,7 +30017,9 @@
       <c r="Z271" s="18">
         <v>0.10997195928693293</v>
       </c>
-      <c r="AA271" s="9"/>
+      <c r="AA271" s="18">
+        <v>7.9117526245356048E-2</v>
+      </c>
       <c r="AB271" s="9"/>
       <c r="AC271" s="9"/>
       <c r="AD271" s="9"/>
@@ -29764,7 +30169,9 @@
       <c r="Z272" s="18">
         <v>1.260628619711716</v>
       </c>
-      <c r="AA272" s="9"/>
+      <c r="AA272" s="18">
+        <v>1.2530334800219989</v>
+      </c>
       <c r="AB272" s="9"/>
       <c r="AC272" s="9"/>
       <c r="AD272" s="9"/>
@@ -29914,7 +30321,9 @@
       <c r="Z273" s="18">
         <v>1.8393732626018155E-5</v>
       </c>
-      <c r="AA273" s="9"/>
+      <c r="AA273" s="18">
+        <v>0</v>
+      </c>
       <c r="AB273" s="9"/>
       <c r="AC273" s="9"/>
       <c r="AD273" s="9"/>
@@ -30064,7 +30473,9 @@
       <c r="Z274" s="18">
         <v>1.8366182857175264</v>
       </c>
-      <c r="AA274" s="9"/>
+      <c r="AA274" s="18">
+        <v>1.6288651553925015</v>
+      </c>
       <c r="AB274" s="9"/>
       <c r="AC274" s="9"/>
       <c r="AD274" s="9"/>
@@ -30214,7 +30625,9 @@
       <c r="Z275" s="18">
         <v>1.1622490488083927</v>
       </c>
-      <c r="AA275" s="9"/>
+      <c r="AA275" s="18">
+        <v>0.92269612240545273</v>
+      </c>
       <c r="AB275" s="9"/>
       <c r="AC275" s="9"/>
       <c r="AD275" s="9"/>
@@ -30364,7 +30777,9 @@
       <c r="Z276" s="18">
         <v>0.45473673989379332</v>
       </c>
-      <c r="AA276" s="9"/>
+      <c r="AA276" s="18">
+        <v>0.38740300854610366</v>
+      </c>
       <c r="AB276" s="9"/>
       <c r="AC276" s="9"/>
       <c r="AD276" s="9"/>
@@ -30514,7 +30929,9 @@
       <c r="Z277" s="18">
         <v>0.70751230891459937</v>
       </c>
-      <c r="AA277" s="9"/>
+      <c r="AA277" s="18">
+        <v>0.53529311385934908</v>
+      </c>
       <c r="AB277" s="9"/>
       <c r="AC277" s="9"/>
       <c r="AD277" s="9"/>
@@ -30664,7 +31081,9 @@
       <c r="Z278" s="18">
         <v>1.0764170173345684</v>
       </c>
-      <c r="AA278" s="9"/>
+      <c r="AA278" s="18">
+        <v>0.981997713463308</v>
+      </c>
       <c r="AB278" s="9"/>
       <c r="AC278" s="9"/>
       <c r="AD278" s="9"/>
@@ -30814,7 +31233,9 @@
       <c r="Z279" s="18">
         <v>2.1051890380171914</v>
       </c>
-      <c r="AA279" s="9"/>
+      <c r="AA279" s="18">
+        <v>0.10318909878315094</v>
+      </c>
       <c r="AB279" s="9"/>
       <c r="AC279" s="9"/>
       <c r="AD279" s="9"/>
@@ -30964,7 +31385,9 @@
       <c r="Z280" s="18">
         <v>3.8610027211899123</v>
       </c>
-      <c r="AA280" s="9"/>
+      <c r="AA280" s="18">
+        <v>3.4773855795655333</v>
+      </c>
       <c r="AB280" s="9"/>
       <c r="AC280" s="9"/>
       <c r="AD280" s="9"/>
@@ -31114,7 +31537,9 @@
       <c r="Z281" s="18">
         <v>1.9218352655144129</v>
       </c>
-      <c r="AA281" s="9"/>
+      <c r="AA281" s="18">
+        <v>1.5967286981474691</v>
+      </c>
       <c r="AB281" s="9"/>
       <c r="AC281" s="9"/>
       <c r="AD281" s="9"/>
@@ -31264,7 +31689,9 @@
       <c r="Z282" s="18">
         <v>0.24112217366603911</v>
       </c>
-      <c r="AA282" s="9"/>
+      <c r="AA282" s="18">
+        <v>0.40445428945057821</v>
+      </c>
       <c r="AB282" s="9"/>
       <c r="AC282" s="9"/>
       <c r="AD282" s="9"/>
@@ -31414,7 +31841,9 @@
       <c r="Z283" s="18">
         <v>4.1765239111466919</v>
       </c>
-      <c r="AA283" s="9"/>
+      <c r="AA283" s="18">
+        <v>4.5630701262212945</v>
+      </c>
       <c r="AB283" s="9"/>
       <c r="AC283" s="9"/>
       <c r="AD283" s="9"/>
@@ -31564,7 +31993,9 @@
       <c r="Z284" s="18">
         <v>2.8030552940350342</v>
       </c>
-      <c r="AA284" s="9"/>
+      <c r="AA284" s="18">
+        <v>2.200407586955651</v>
+      </c>
       <c r="AB284" s="9"/>
       <c r="AC284" s="9"/>
       <c r="AD284" s="9"/>
@@ -31714,7 +32145,9 @@
       <c r="Z285" s="18">
         <v>0.1769649990079859</v>
       </c>
-      <c r="AA285" s="9"/>
+      <c r="AA285" s="18">
+        <v>0.14786618910140223</v>
+      </c>
       <c r="AB285" s="9"/>
       <c r="AC285" s="9"/>
       <c r="AD285" s="9"/>
@@ -31864,7 +32297,9 @@
       <c r="Z286" s="18">
         <v>1.40916586450897</v>
       </c>
-      <c r="AA286" s="9"/>
+      <c r="AA286" s="18">
+        <v>1.2560177983731322</v>
+      </c>
       <c r="AB286" s="9"/>
       <c r="AC286" s="9"/>
       <c r="AD286" s="9"/>
@@ -32014,7 +32449,9 @@
       <c r="Z287" s="18">
         <v>13.702275210937129</v>
       </c>
-      <c r="AA287" s="9"/>
+      <c r="AA287" s="18">
+        <v>13.104000267112081</v>
+      </c>
       <c r="AB287" s="9"/>
       <c r="AC287" s="9"/>
       <c r="AD287" s="9"/>
@@ -32261,7 +32698,9 @@
       <c r="Z289" s="18">
         <v>100</v>
       </c>
-      <c r="AA289" s="9"/>
+      <c r="AA289" s="18">
+        <v>100</v>
+      </c>
       <c r="AB289" s="9"/>
       <c r="AC289" s="9"/>
       <c r="AD289" s="9"/>
@@ -32359,6 +32798,7 @@
       <c r="X290" s="13"/>
       <c r="Y290" s="13"/>
       <c r="Z290" s="13"/>
+      <c r="AA290" s="13"/>
     </row>
     <row r="291" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A291" s="14" t="s">
@@ -32571,7 +33011,7 @@
     </row>
     <row r="296" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="298" spans="1:96" x14ac:dyDescent="0.2">
@@ -32581,7 +33021,7 @@
     </row>
     <row r="299" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="300" spans="1:96" x14ac:dyDescent="0.2">
@@ -32618,6 +33058,7 @@
       <c r="X302" s="16"/>
       <c r="Y302" s="16"/>
       <c r="Z302" s="16"/>
+      <c r="AA302" s="16"/>
     </row>
     <row r="303" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
@@ -32697,6 +33138,9 @@
       </c>
       <c r="Z303" s="17">
         <v>2024</v>
+      </c>
+      <c r="AA303" s="17">
+        <v>2025</v>
       </c>
     </row>
     <row r="304" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -32781,7 +33225,9 @@
       <c r="Z305" s="18">
         <v>60.613760310900787</v>
       </c>
-      <c r="AA305" s="9"/>
+      <c r="AA305" s="18">
+        <v>63.349287919315913</v>
+      </c>
       <c r="AB305" s="9"/>
       <c r="AC305" s="9"/>
       <c r="AD305" s="9"/>
@@ -32931,7 +33377,9 @@
       <c r="Z306" s="18">
         <v>41.945976774752616</v>
       </c>
-      <c r="AA306" s="9"/>
+      <c r="AA306" s="18">
+        <v>45.361020207156486</v>
+      </c>
       <c r="AB306" s="9"/>
       <c r="AC306" s="9"/>
       <c r="AD306" s="9"/>
@@ -33081,7 +33529,9 @@
       <c r="Z307" s="18">
         <v>5.7723349355753557</v>
       </c>
-      <c r="AA307" s="9"/>
+      <c r="AA307" s="18">
+        <v>5.6900705210232561</v>
+      </c>
       <c r="AB307" s="9"/>
       <c r="AC307" s="9"/>
       <c r="AD307" s="9"/>
@@ -33231,7 +33681,9 @@
       <c r="Z308" s="18">
         <v>1.5101697509718508</v>
       </c>
-      <c r="AA308" s="9"/>
+      <c r="AA308" s="18">
+        <v>1.5528911332298887</v>
+      </c>
       <c r="AB308" s="9"/>
       <c r="AC308" s="9"/>
       <c r="AD308" s="9"/>
@@ -33381,7 +33833,9 @@
       <c r="Z309" s="18">
         <v>3.2335778038427354</v>
       </c>
-      <c r="AA309" s="9"/>
+      <c r="AA309" s="18">
+        <v>3.0041553218830588</v>
+      </c>
       <c r="AB309" s="9"/>
       <c r="AC309" s="9"/>
       <c r="AD309" s="9"/>
@@ -33531,7 +33985,9 @@
       <c r="Z310" s="18">
         <v>1.5299686886138186</v>
       </c>
-      <c r="AA310" s="9"/>
+      <c r="AA310" s="18">
+        <v>1.5476403283947289</v>
+      </c>
       <c r="AB310" s="9"/>
       <c r="AC310" s="9"/>
       <c r="AD310" s="9"/>
@@ -33681,7 +34137,9 @@
       <c r="Z311" s="18">
         <v>0.93664156811252497</v>
       </c>
-      <c r="AA311" s="9"/>
+      <c r="AA311" s="18">
+        <v>0.41249206407519645</v>
+      </c>
       <c r="AB311" s="9"/>
       <c r="AC311" s="9"/>
       <c r="AD311" s="9"/>
@@ -33831,7 +34289,9 @@
       <c r="Z312" s="18">
         <v>5.2625585239435582</v>
       </c>
-      <c r="AA312" s="9"/>
+      <c r="AA312" s="18">
+        <v>5.2758226770318526</v>
+      </c>
       <c r="AB312" s="9"/>
       <c r="AC312" s="9"/>
       <c r="AD312" s="9"/>
@@ -33981,7 +34441,9 @@
       <c r="Z313" s="18">
         <v>0.31051898648124726</v>
       </c>
-      <c r="AA313" s="9"/>
+      <c r="AA313" s="18">
+        <v>0.38632343348413728</v>
+      </c>
       <c r="AB313" s="9"/>
       <c r="AC313" s="9"/>
       <c r="AD313" s="9"/>
@@ -34131,7 +34593,9 @@
       <c r="Z314" s="18">
         <v>0.11201327860708341</v>
       </c>
-      <c r="AA314" s="9"/>
+      <c r="AA314" s="18">
+        <v>0.11887223303731428</v>
+      </c>
       <c r="AB314" s="9"/>
       <c r="AC314" s="9"/>
       <c r="AD314" s="9"/>
@@ -34281,7 +34745,9 @@
       <c r="Z315" s="18">
         <v>6.3411202658443342</v>
       </c>
-      <c r="AA315" s="9"/>
+      <c r="AA315" s="18">
+        <v>5.9814816531517216</v>
+      </c>
       <c r="AB315" s="9"/>
       <c r="AC315" s="9"/>
       <c r="AD315" s="9"/>
@@ -34431,7 +34897,9 @@
       <c r="Z316" s="18">
         <v>1.5400620212377201</v>
       </c>
-      <c r="AA316" s="9"/>
+      <c r="AA316" s="18">
+        <v>1.8975998660741744</v>
+      </c>
       <c r="AB316" s="9"/>
       <c r="AC316" s="9"/>
       <c r="AD316" s="9"/>
@@ -34581,7 +35049,9 @@
       <c r="Z317" s="18">
         <v>2.4393671415198006</v>
       </c>
-      <c r="AA317" s="9"/>
+      <c r="AA317" s="18">
+        <v>1.9026553447587999</v>
+      </c>
       <c r="AB317" s="9"/>
       <c r="AC317" s="9"/>
       <c r="AD317" s="9"/>
@@ -34731,7 +35201,9 @@
       <c r="Z318" s="18">
         <v>6.2021344409750281E-2</v>
       </c>
-      <c r="AA318" s="9"/>
+      <c r="AA318" s="18">
+        <v>3.1717131211116245E-2</v>
+      </c>
       <c r="AB318" s="9"/>
       <c r="AC318" s="9"/>
       <c r="AD318" s="9"/>
@@ -34881,7 +35353,9 @@
       <c r="Z319" s="18">
         <v>0.38465210307101405</v>
       </c>
-      <c r="AA319" s="9"/>
+      <c r="AA319" s="18">
+        <v>0.48825640802117876</v>
+      </c>
       <c r="AB319" s="9"/>
       <c r="AC319" s="9"/>
       <c r="AD319" s="9"/>
@@ -35031,7 +35505,9 @@
       <c r="Z320" s="18">
         <v>0.12032115642923955</v>
       </c>
-      <c r="AA320" s="9"/>
+      <c r="AA320" s="18">
+        <v>8.102550146668501E-2</v>
+      </c>
       <c r="AB320" s="9"/>
       <c r="AC320" s="9"/>
       <c r="AD320" s="9"/>
@@ -35181,7 +35657,9 @@
       <c r="Z321" s="18">
         <v>0.61340186281792242</v>
       </c>
-      <c r="AA321" s="9"/>
+      <c r="AA321" s="18">
+        <v>0.59231850512613182</v>
+      </c>
       <c r="AB321" s="9"/>
       <c r="AC321" s="9"/>
       <c r="AD321" s="9"/>
@@ -35331,7 +35809,9 @@
       <c r="Z322" s="18">
         <v>1.4709828899936746E-5</v>
       </c>
-      <c r="AA322" s="9"/>
+      <c r="AA322" s="18">
+        <v>0</v>
+      </c>
       <c r="AB322" s="9"/>
       <c r="AC322" s="9"/>
       <c r="AD322" s="9"/>
@@ -35481,7 +35961,9 @@
       <c r="Z323" s="18">
         <v>1.1812799265299883</v>
       </c>
-      <c r="AA323" s="9"/>
+      <c r="AA323" s="18">
+        <v>0.98790889649363511</v>
+      </c>
       <c r="AB323" s="9"/>
       <c r="AC323" s="9"/>
       <c r="AD323" s="9"/>
@@ -35631,7 +36113,9 @@
       <c r="Z324" s="18">
         <v>0.87725011134546527</v>
       </c>
-      <c r="AA324" s="9"/>
+      <c r="AA324" s="18">
+        <v>0.68628707659193511</v>
+      </c>
       <c r="AB324" s="9"/>
       <c r="AC324" s="9"/>
       <c r="AD324" s="9"/>
@@ -35781,7 +36265,9 @@
       <c r="Z325" s="18">
         <v>0.35301194664128144</v>
       </c>
-      <c r="AA325" s="9"/>
+      <c r="AA325" s="18">
+        <v>0.29456514175462384</v>
+      </c>
       <c r="AB325" s="9"/>
       <c r="AC325" s="9"/>
       <c r="AD325" s="9"/>
@@ -35931,7 +36417,9 @@
       <c r="Z326" s="18">
         <v>0.52423816470418383</v>
       </c>
-      <c r="AA326" s="9"/>
+      <c r="AA326" s="18">
+        <v>0.39172193483731138</v>
+      </c>
       <c r="AB326" s="9"/>
       <c r="AC326" s="9"/>
       <c r="AD326" s="9"/>
@@ -36081,7 +36569,9 @@
       <c r="Z327" s="18">
         <v>1.1369932017848305</v>
       </c>
-      <c r="AA327" s="9"/>
+      <c r="AA327" s="18">
+        <v>1.0585223820641056</v>
+      </c>
       <c r="AB327" s="9"/>
       <c r="AC327" s="9"/>
       <c r="AD327" s="9"/>
@@ -36231,7 +36721,9 @@
       <c r="Z328" s="18">
         <v>1.5292987456779641</v>
       </c>
-      <c r="AA328" s="9"/>
+      <c r="AA328" s="18">
+        <v>0.10459655395061475</v>
+      </c>
       <c r="AB328" s="9"/>
       <c r="AC328" s="9"/>
       <c r="AD328" s="9"/>
@@ -36381,7 +36873,9 @@
       <c r="Z329" s="18">
         <v>4.0641940200965561</v>
       </c>
-      <c r="AA329" s="9"/>
+      <c r="AA329" s="18">
+        <v>3.6829362371566967</v>
+      </c>
       <c r="AB329" s="9"/>
       <c r="AC329" s="9"/>
       <c r="AD329" s="9"/>
@@ -36531,7 +37025,9 @@
       <c r="Z330" s="18">
         <v>1.8966999292239768</v>
       </c>
-      <c r="AA330" s="9"/>
+      <c r="AA330" s="18">
+        <v>1.5314687841758701</v>
+      </c>
       <c r="AB330" s="9"/>
       <c r="AC330" s="9"/>
       <c r="AD330" s="9"/>
@@ -36681,7 +37177,9 @@
       <c r="Z331" s="18">
         <v>0.20029639991403958</v>
       </c>
-      <c r="AA331" s="9"/>
+      <c r="AA331" s="18">
+        <v>0.4268135318968464</v>
+      </c>
       <c r="AB331" s="9"/>
       <c r="AC331" s="9"/>
       <c r="AD331" s="9"/>
@@ -36831,7 +37329,9 @@
       <c r="Z332" s="18">
         <v>4.1597374032376706</v>
       </c>
-      <c r="AA332" s="9"/>
+      <c r="AA332" s="18">
+        <v>4.663451852465526</v>
+      </c>
       <c r="AB332" s="9"/>
       <c r="AC332" s="9"/>
       <c r="AD332" s="9"/>
@@ -36981,7 +37481,9 @@
       <c r="Z333" s="18">
         <v>2.8758018638038054</v>
       </c>
-      <c r="AA333" s="9"/>
+      <c r="AA333" s="18">
+        <v>2.2772896470224526</v>
+      </c>
       <c r="AB333" s="9"/>
       <c r="AC333" s="9"/>
       <c r="AD333" s="9"/>
@@ -37131,7 +37633,9 @@
       <c r="Z334" s="18">
         <v>0.192342826941301</v>
       </c>
-      <c r="AA334" s="9"/>
+      <c r="AA334" s="18">
+        <v>0.16111620163808424</v>
+      </c>
       <c r="AB334" s="9"/>
       <c r="AC334" s="9"/>
       <c r="AD334" s="9"/>
@@ -37281,7 +37785,9 @@
       <c r="Z335" s="18">
         <v>1.2423891940439382</v>
       </c>
-      <c r="AA335" s="9"/>
+      <c r="AA335" s="18">
+        <v>1.090343726909037</v>
+      </c>
       <c r="AB335" s="9"/>
       <c r="AC335" s="9"/>
       <c r="AD335" s="9"/>
@@ -37431,7 +37937,9 @@
       <c r="Z336" s="18">
         <v>14.870115727185345</v>
       </c>
-      <c r="AA336" s="9"/>
+      <c r="AA336" s="18">
+        <v>14.9864044336612</v>
+      </c>
       <c r="AB336" s="9"/>
       <c r="AC336" s="9"/>
       <c r="AD336" s="9"/>
@@ -37678,7 +38186,9 @@
       <c r="Z338" s="18">
         <v>100</v>
       </c>
-      <c r="AA338" s="9"/>
+      <c r="AA338" s="18">
+        <v>100</v>
+      </c>
       <c r="AB338" s="9"/>
       <c r="AC338" s="9"/>
       <c r="AD338" s="9"/>
@@ -37776,6 +38286,7 @@
       <c r="X339" s="13"/>
       <c r="Y339" s="13"/>
       <c r="Z339" s="13"/>
+      <c r="AA339" s="13"/>
     </row>
     <row r="340" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A340" s="14" t="s">
@@ -37972,12 +38483,12 @@
   <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="49" max="25" man="1"/>
-    <brk id="98" max="25" man="1"/>
-    <brk id="147" max="25" man="1"/>
-    <brk id="196" max="25" man="1"/>
-    <brk id="244" max="25" man="1"/>
-    <brk id="293" max="25" man="1"/>
+    <brk id="49" max="26" man="1"/>
+    <brk id="98" max="26" man="1"/>
+    <brk id="147" max="26" man="1"/>
+    <brk id="196" max="26" man="1"/>
+    <brk id="244" max="26" man="1"/>
+    <brk id="293" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>